--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D915FA5E-F985-47D5-ADA3-C927FA0C268F}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36F78BC-FFEB-4D7A-95E4-9DB34762A0A5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="704">
   <si>
     <t>Category</t>
   </si>
@@ -1104,9 +1104,6 @@
     <t>Laboratory Biosafety</t>
   </si>
   <si>
-    <t>NAA</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -1326,9 +1323,6 @@
     <t xml:space="preserve">Conglomerated nearly 20 years of reports across over 10,000 hectares of NCC property into a living excel database. Adapted range health polygons into analyzable format. Created automated analysis and reporting templates with table and figure outputs through R Statistical Programming. </t>
   </si>
   <si>
-    <t>Range and Riparian Health Database</t>
-  </si>
-  <si>
     <t>RRHA</t>
   </si>
   <si>
@@ -1410,9 +1404,6 @@
     <t>Webinar</t>
   </si>
   <si>
-    <t>Conservation Researcher</t>
-  </si>
-  <si>
     <t>30,000/Year</t>
   </si>
   <si>
@@ -1566,9 +1557,6 @@
     <t>Awarded Weston Family Conservation Science Fellowship in conjunction with the Nature Conservancy of Canada.</t>
   </si>
   <si>
-    <t xml:space="preserve">Thesis will focus on the impact of conservation and management practises on grassland songbird communities in the Waterton Park Front of Southern Alberta. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Staff in a retail operation servicing universities and hospitals with laboratory and medical supplies. </t>
   </si>
   <si>
@@ -1606,12 +1594,6 @@
   </si>
   <si>
     <t>$30,000 annual stipend during Master's of Natural Resource Management at the University of Manitoba</t>
-  </si>
-  <si>
-    <t>Includes Conservation Intern Period from May to August 2019</t>
-  </si>
-  <si>
-    <t>Conducted vegetation and bird surveys on NCC properties in preparation for master's thesis.</t>
   </si>
   <si>
     <r>
@@ -2182,6 +2164,18 @@
   </si>
   <si>
     <t>http://www.wwfc.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two-year masters program involving a thesis and multiple courses relating to sociology, economics, ecology, restoration, and more. </t>
+  </si>
+  <si>
+    <t>Rangeland and Riparian Health Database</t>
+  </si>
+  <si>
+    <t>Includes Conservation Intern Period from May to August 2019, Natural Area Assistant Position from October 2019 to July 2020, and Conservation Researcher Position from July to August 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned to liase with land managers. Excelled in communicating complex issues to varied audiences. </t>
   </si>
 </sst>
 </file>
@@ -2499,6 +2493,116 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="87">
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3230,74 +3334,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3960,48 +3996,6 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4016,115 +4010,119 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AK70" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
-  <autoFilter ref="A1:AK70" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AK69" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+  <autoFilter ref="A1:AK69" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Education"/>
+        <filter val="Employment"/>
+        <filter val="Projects"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Alberta Society for Professional Biologists"/>
-        <filter val="Crownest Conservation Society"/>
-        <filter val="Mountain Bluebird Trail Conservation Society"/>
-        <filter val="Society for Ecological Restoration"/>
+        <filter val="Nature Conservancy Canada"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK70">
-    <sortCondition descending="1" ref="A2:A70"/>
-    <sortCondition ref="C2:C70" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
-    <sortCondition descending="1" ref="B2:B70"/>
-    <sortCondition descending="1" ref="J2:J70"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK69">
+    <sortCondition descending="1" ref="A2:A69"/>
+    <sortCondition ref="C2:C69" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
+    <sortCondition descending="1" ref="B2:B69"/>
+    <sortCondition descending="1" ref="J2:J69"/>
   </sortState>
   <tableColumns count="37">
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="77"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="74"/>
-    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Org_Link" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="67">
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="83"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="82"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="80"/>
+    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Org_Link" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="77"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="73">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="66">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="72">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="65">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="71">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="64">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="70">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="63">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="69">
       <calculatedColumnFormula>IF((Q2="Days"),((K2-J2+1)),IF(Q2="Months",((K2-J2)/30),((K2-J2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="62"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="61"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="60"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="59"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="58"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="57"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="55"/>
-    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="54"/>
-    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="53"/>
-    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="52"/>
-    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="51"/>
-    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="50"/>
-    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="49"/>
-    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="48"/>
-    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="47"/>
-    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="46"/>
-    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="45"/>
-    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="44"/>
-    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="43"/>
-    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="68"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="67"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="66"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="65"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="64"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="63"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="61"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="60"/>
+    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="59"/>
+    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="58"/>
+    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="57"/>
+    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="56"/>
+    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="55"/>
+    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="54"/>
+    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="53"/>
+    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="52"/>
+    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="51"/>
+    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="50"/>
+    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="49"/>
+    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:N49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4444,13 +4442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
-  <dimension ref="A1:AK70"/>
+  <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I16" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4483,7 +4478,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>156</v>
@@ -4498,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>24</v>
@@ -4516,16 +4511,16 @@
         <v>2</v>
       </c>
       <c r="L1" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>472</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>164</v>
@@ -4555,48 +4550,48 @@
         <v>10</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="AA1" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="AB1" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>655</v>
-      </c>
       <c r="AJ1" s="8" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B2" s="39" t="s">
         <v>155</v>
@@ -4605,22 +4600,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G2" s="41" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>445</v>
-      </c>
       <c r="I2" s="41" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J2" s="48">
         <v>44075</v>
@@ -4645,25 +4640,25 @@
         <v>2022</v>
       </c>
       <c r="P2" s="42">
-        <f t="shared" ref="P2:P33" si="0">IF((Q2="Days"),((K2-J2+1)),IF(Q2="Months",((K2-J2)/30),((K2-J2)/365)))</f>
+        <f t="shared" ref="P2:P32" si="0">IF((Q2="Days"),((K2-J2+1)),IF(Q2="Months",((K2-J2)/30),((K2-J2)/365)))</f>
         <v>1.6602739726027398</v>
       </c>
       <c r="Q2" s="39" t="s">
         <v>31</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>504</v>
+        <v>700</v>
       </c>
       <c r="U2" s="39"/>
       <c r="V2" s="39"/>
       <c r="W2" s="39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
@@ -4682,7 +4677,7 @@
     </row>
     <row r="3" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>155</v>
@@ -4691,13 +4686,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G3" s="41" t="s">
         <v>20</v>
@@ -4744,16 +4739,16 @@
         <v>56</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="U3" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="V3" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="V3" s="39" t="s">
-        <v>502</v>
-      </c>
       <c r="W3" s="39" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="X3" s="39"/>
       <c r="Y3" s="39"/>
@@ -4772,7 +4767,7 @@
     </row>
     <row r="4" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>46</v>
@@ -4781,19 +4776,19 @@
         <v>5</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I4" s="41" t="s">
         <v>19</v>
@@ -4834,10 +4829,10 @@
         <v>56</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="V4" s="39"/>
       <c r="W4" s="39"/>
@@ -4858,7 +4853,7 @@
     </row>
     <row r="5" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>71</v>
@@ -4873,7 +4868,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>16</v>
@@ -4918,10 +4913,10 @@
         <v>56</v>
       </c>
       <c r="T5" s="39" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="U5" s="39" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="39"/>
@@ -4942,7 +4937,7 @@
     </row>
     <row r="6" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>71</v>
@@ -4957,7 +4952,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>20</v>
@@ -5002,13 +4997,13 @@
         <v>56</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="U6" s="39" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="V6" s="39" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="7" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>71</v>
@@ -5084,13 +5079,13 @@
         <v>56</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U7" s="39" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="V7" s="39" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
@@ -5110,7 +5105,7 @@
     </row>
     <row r="8" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>155</v>
@@ -5122,19 +5117,19 @@
         <v>100</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>151</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="J8" s="48">
         <v>44207</v>
@@ -5166,7 +5161,7 @@
         <v>30</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="S8" s="39" t="s">
         <v>88</v>
@@ -5190,9 +5185,9 @@
       <c r="AJ8" s="39"/>
       <c r="AK8" s="39"/>
     </row>
-    <row r="9" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="132" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>155</v>
@@ -5207,28 +5202,28 @@
         <v>47</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="I9" s="41"/>
-      <c r="J9" s="47">
-        <v>44014</v>
+      <c r="J9" s="48">
+        <v>43586</v>
       </c>
       <c r="K9" s="47">
-        <v>44074</v>
+        <v>44044</v>
       </c>
       <c r="L9" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M9" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N9" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -5239,8 +5234,8 @@
         <v>2020</v>
       </c>
       <c r="P9" s="42">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF((Q9="Days"),((K9-J9+1)),IF(Q9="Months",((K9-J9)/30),((K9-J9)/365)))</f>
+        <v>15.266666666666667</v>
       </c>
       <c r="Q9" s="39" t="s">
         <v>30</v>
@@ -5252,12 +5247,20 @@
         <v>52</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
+        <v>342</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>703</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>702</v>
+      </c>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
       <c r="AA9" s="39"/>
@@ -5274,7 +5277,7 @@
     </row>
     <row r="10" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>155</v>
@@ -5289,13 +5292,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I10" s="41"/>
       <c r="J10" s="47">
@@ -5334,16 +5337,16 @@
         <v>56</v>
       </c>
       <c r="T10" s="39" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="U10" s="39" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="V10" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="W10" s="39" t="s">
         <v>490</v>
-      </c>
-      <c r="W10" s="39" t="s">
-        <v>493</v>
       </c>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
@@ -5362,10 +5365,10 @@
     </row>
     <row r="11" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>33</v>
@@ -5420,14 +5423,14 @@
         <v>56</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="U11" s="39" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="V11" s="39"/>
       <c r="W11" s="39" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="X11" s="39" t="s">
         <v>114</v>
@@ -5448,7 +5451,7 @@
     </row>
     <row r="12" spans="1:37" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>46</v>
@@ -5460,25 +5463,21 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>667</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>48</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="G12" s="41"/>
       <c r="H12" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>350</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I12" s="41"/>
       <c r="J12" s="47">
-        <v>43586</v>
+        <v>43221</v>
       </c>
       <c r="K12" s="47">
-        <v>44012</v>
+        <v>43282</v>
       </c>
       <c r="L12" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5486,42 +5485,40 @@
       </c>
       <c r="M12" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N12" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O12" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="P12" s="42">
         <f t="shared" si="0"/>
-        <v>14.2</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="Q12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T12" s="39" t="s">
-        <v>342</v>
+        <v>512</v>
       </c>
       <c r="U12" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>518</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
       <c r="Z12" s="39"/>
       <c r="AA12" s="39"/>
@@ -5536,12 +5533,12 @@
       <c r="AJ12" s="39"/>
       <c r="AK12" s="39"/>
     </row>
-    <row r="13" spans="1:37" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>33</v>
@@ -5550,25 +5547,25 @@
         <v>101</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I13" s="41"/>
       <c r="J13" s="47">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="K13" s="47">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="L13" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M13" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -5576,7 +5573,7 @@
       </c>
       <c r="N13" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O13" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -5584,7 +5581,7 @@
       </c>
       <c r="P13" s="42">
         <f t="shared" si="0"/>
-        <v>2.0333333333333332</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="Q13" s="39" t="s">
         <v>30</v>
@@ -5596,15 +5593,15 @@
         <v>56</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>516</v>
+        <v>383</v>
       </c>
       <c r="U13" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="V13" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="W13" s="39"/>
+        <v>382</v>
+      </c>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39" t="s">
+        <v>569</v>
+      </c>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
       <c r="Z13" s="39"/>
@@ -5620,9 +5617,9 @@
       <c r="AJ13" s="39"/>
       <c r="AK13" s="39"/>
     </row>
-    <row r="14" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>102</v>
@@ -5631,36 +5628,34 @@
         <v>33</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>671</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F14" s="40"/>
       <c r="G14" s="41"/>
       <c r="H14" s="40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I14" s="41"/>
       <c r="J14" s="47">
-        <v>43282</v>
+        <v>42979</v>
       </c>
       <c r="K14" s="47">
-        <v>43344</v>
+        <v>43221</v>
       </c>
       <c r="L14" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M14" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N14" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O14" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -5668,27 +5663,27 @@
       </c>
       <c r="P14" s="42">
         <f t="shared" si="0"/>
-        <v>2.0666666666666669</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q14" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="S14" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="U14" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39" t="s">
-        <v>575</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
@@ -5704,72 +5699,75 @@
       <c r="AJ14" s="39"/>
       <c r="AK14" s="39"/>
     </row>
-    <row r="15" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+        <v>365</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>698</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>366</v>
+      </c>
       <c r="H15" s="40" t="s">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="47">
-        <v>42979</v>
+        <v>43862</v>
       </c>
       <c r="K15" s="47">
-        <v>43221</v>
+        <f ca="1">NOW()</f>
+        <v>44452.720205092592</v>
       </c>
       <c r="L15" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M15" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="N15" s="49">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O15" s="49">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P15" s="42">
-        <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19.690673503086387</v>
       </c>
       <c r="Q15" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="U15" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>457</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="V15" s="39"/>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5786,9 +5784,9 @@
       <c r="AJ15" s="39"/>
       <c r="AK15" s="39"/>
     </row>
-    <row r="16" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>155</v>
@@ -5800,60 +5798,57 @@
         <v>177</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>704</v>
+        <v>658</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>370</v>
+        <v>662</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="47">
-        <v>43862</v>
+        <v>41883</v>
       </c>
       <c r="K16" s="47">
-        <f ca="1">NOW()</f>
-        <v>44452.702856944445</v>
+        <v>42125</v>
       </c>
       <c r="L16" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M16" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="N16" s="49">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>5</v>
       </c>
       <c r="O16" s="49">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2015</v>
       </c>
       <c r="P16" s="42">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.690095231481489</v>
+        <f t="shared" si="0"/>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q16" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S16" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T16" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>435</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="U16" s="39"/>
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
@@ -5873,67 +5868,67 @@
     </row>
     <row r="17" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>177</v>
+        <v>393</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>7</v>
+        <v>367</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>668</v>
+        <v>370</v>
       </c>
       <c r="I17" s="41"/>
       <c r="J17" s="47">
-        <v>41883</v>
+        <v>43862</v>
       </c>
       <c r="K17" s="47">
-        <v>42125</v>
+        <v>43922</v>
       </c>
       <c r="L17" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M17" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="N17" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="P17" s="42">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T17" s="39" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
@@ -5955,39 +5950,39 @@
     </row>
     <row r="18" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>391</v>
+        <v>633</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="I18" s="41"/>
       <c r="J18" s="47">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="K18" s="47">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="L18" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M18" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -5995,7 +5990,7 @@
       </c>
       <c r="N18" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O18" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -6003,7 +5998,7 @@
       </c>
       <c r="P18" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.0333333333333334</v>
       </c>
       <c r="Q18" s="39" t="s">
         <v>30</v>
@@ -6015,11 +6010,15 @@
         <v>52</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>540</v>
-      </c>
-      <c r="U18" s="39"/>
+        <v>438</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>439</v>
+      </c>
       <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
+      <c r="W18" s="39" t="s">
+        <v>379</v>
+      </c>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
       <c r="Z18" s="39"/>
@@ -6035,12 +6034,12 @@
       <c r="AJ18" s="39"/>
       <c r="AK18" s="39"/>
     </row>
-    <row r="19" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>15</v>
@@ -6049,31 +6048,29 @@
         <v>44</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>374</v>
+        <v>34</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>682</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>375</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="G19" s="41"/>
       <c r="H19" s="40" t="s">
-        <v>376</v>
+        <v>35</v>
       </c>
       <c r="I19" s="41"/>
       <c r="J19" s="47">
-        <v>43952</v>
+        <v>43617</v>
       </c>
       <c r="K19" s="47">
-        <v>43983</v>
+        <v>43623</v>
       </c>
       <c r="L19" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N19" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -6081,30 +6078,30 @@
       </c>
       <c r="O19" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="P19" s="42">
         <f t="shared" si="0"/>
-        <v>1.0333333333333334</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S19" s="39" t="s">
         <v>52</v>
       </c>
       <c r="T19" s="39" t="s">
-        <v>440</v>
+        <v>508</v>
       </c>
       <c r="U19" s="39" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="V19" s="39"/>
       <c r="W19" s="39" t="s">
-        <v>380</v>
+        <v>507</v>
       </c>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -6121,12 +6118,12 @@
       <c r="AJ19" s="39"/>
       <c r="AK19" s="39"/>
     </row>
-    <row r="20" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>639</v>
+        <v>46</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>15</v>
@@ -6135,25 +6132,29 @@
         <v>44</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>683</v>
-      </c>
-      <c r="G20" s="41"/>
+        <v>678</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>91</v>
+      </c>
       <c r="H20" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="41"/>
+        <v>92</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="J20" s="47">
-        <v>43617</v>
+        <v>43730</v>
       </c>
       <c r="K20" s="47">
-        <v>43623</v>
+        <v>43734</v>
       </c>
       <c r="L20" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M20" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -6161,7 +6162,7 @@
       </c>
       <c r="N20" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O20" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -6169,27 +6170,25 @@
       </c>
       <c r="P20" s="42">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="S20" s="39" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>512</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>513</v>
-      </c>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39" t="s">
-        <v>511</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
       <c r="Z20" s="39"/>
@@ -6205,9 +6204,9 @@
       <c r="AJ20" s="39"/>
       <c r="AK20" s="39"/>
     </row>
-    <row r="21" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>46</v>
@@ -6216,28 +6215,29 @@
         <v>15</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>44</v>
+        <v>394</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="I21" s="41" t="s">
-        <v>93</v>
+        <v>627</v>
       </c>
       <c r="J21" s="47">
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="K21" s="47">
-        <v>43734</v>
+        <f ca="1">NOW()</f>
+        <v>44452.720205092592</v>
       </c>
       <c r="L21" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6248,33 +6248,33 @@
         <v>2019</v>
       </c>
       <c r="N21" s="49">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="O21" s="49">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P21" s="42">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.124006836419721</v>
       </c>
       <c r="Q21" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R21" s="39" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="S21" s="39" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39" t="s">
-        <v>373</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="V21" s="39"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -6291,9 +6291,9 @@
       <c r="AJ21" s="39"/>
       <c r="AK21" s="39"/>
     </row>
-    <row r="22" spans="1:37" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>46</v>
@@ -6302,64 +6302,63 @@
         <v>15</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I22" s="41" t="s">
-        <v>633</v>
+        <v>29</v>
       </c>
       <c r="J22" s="47">
-        <v>43729</v>
+        <v>43647</v>
       </c>
       <c r="K22" s="47">
-        <f ca="1">NOW()</f>
-        <v>44452.702856944445</v>
+        <v>43983</v>
       </c>
       <c r="L22" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M22" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
         <v>2019</v>
       </c>
       <c r="N22" s="49">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>6</v>
       </c>
       <c r="O22" s="49">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2020</v>
       </c>
       <c r="P22" s="42">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.123428564814823</v>
+        <f t="shared" si="0"/>
+        <v>11.2</v>
       </c>
       <c r="Q22" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="S22" s="39" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>529</v>
+        <v>437</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>530</v>
+        <v>436</v>
       </c>
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
@@ -6378,9 +6377,9 @@
       <c r="AJ22" s="39"/>
       <c r="AK22" s="39"/>
     </row>
-    <row r="23" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B23" s="39" t="s">
         <v>46</v>
@@ -6389,32 +6388,30 @@
         <v>15</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="41" t="s">
-        <v>29</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I23" s="41"/>
       <c r="J23" s="47">
-        <v>43647</v>
+        <v>43586</v>
       </c>
       <c r="K23" s="47">
-        <v>43983</v>
+        <v>43709</v>
       </c>
       <c r="L23" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M23" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -6422,30 +6419,30 @@
       </c>
       <c r="N23" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O23" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="P23" s="42">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q23" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R23" s="39" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="S23" s="39" t="s">
         <v>52</v>
       </c>
       <c r="T23" s="39" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
@@ -6464,9 +6461,9 @@
       <c r="AJ23" s="39"/>
       <c r="AK23" s="39"/>
     </row>
-    <row r="24" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>46</v>
@@ -6475,38 +6472,40 @@
         <v>15</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="I24" s="41"/>
+        <v>42</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>43</v>
+      </c>
       <c r="J24" s="47">
+        <v>43344</v>
+      </c>
+      <c r="K24" s="47">
         <v>43586</v>
-      </c>
-      <c r="K24" s="47">
-        <v>43709</v>
       </c>
       <c r="L24" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M24" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N24" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -6514,26 +6513,30 @@
       </c>
       <c r="P24" s="42">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q24" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="S24" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T24" s="39" t="s">
-        <v>514</v>
+        <v>170</v>
       </c>
       <c r="U24" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="V24" s="39"/>
+        <v>434</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>435</v>
+      </c>
       <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
+      <c r="X24" s="39" t="s">
+        <v>475</v>
+      </c>
       <c r="Y24" s="39"/>
       <c r="Z24" s="39"/>
       <c r="AA24" s="39"/>
@@ -6548,9 +6551,9 @@
       <c r="AJ24" s="39"/>
       <c r="AK24" s="39"/>
     </row>
-    <row r="25" spans="1:37" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B25" s="39" t="s">
         <v>46</v>
@@ -6559,28 +6562,26 @@
         <v>15</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>11</v>
+        <v>684</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>17</v>
+        <v>426</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="41" t="s">
-        <v>43</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="I25" s="41"/>
       <c r="J25" s="47">
         <v>43344</v>
       </c>
       <c r="K25" s="47">
-        <v>43586</v>
+        <v>43569</v>
       </c>
       <c r="L25" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6592,7 +6593,7 @@
       </c>
       <c r="N25" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -6600,30 +6601,28 @@
       </c>
       <c r="P25" s="42">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="Q25" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R25" s="39" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="S25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="39" t="s">
-        <v>170</v>
+      <c r="T25" s="44" t="s">
+        <v>429</v>
       </c>
       <c r="U25" s="39" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="V25" s="39" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="W25" s="39"/>
-      <c r="X25" s="39" t="s">
-        <v>478</v>
-      </c>
+      <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="39"/>
       <c r="AA25" s="39"/>
@@ -6640,10 +6639,10 @@
     </row>
     <row r="26" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>15</v>
@@ -6652,31 +6651,29 @@
         <v>45</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>690</v>
+        <v>104</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>689</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>428</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="G26" s="41"/>
       <c r="H26" s="40" t="s">
-        <v>429</v>
+        <v>103</v>
       </c>
       <c r="I26" s="41"/>
       <c r="J26" s="47">
-        <v>43344</v>
+        <v>42401</v>
       </c>
       <c r="K26" s="47">
-        <v>43569</v>
+        <v>42826</v>
       </c>
       <c r="L26" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M26" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="N26" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -6684,30 +6681,28 @@
       </c>
       <c r="O26" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="P26" s="42">
         <f t="shared" si="0"/>
-        <v>0.61643835616438358</v>
+        <v>1.1643835616438356</v>
       </c>
       <c r="Q26" s="39" t="s">
         <v>31</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>430</v>
+        <v>57</v>
       </c>
       <c r="S26" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="44" t="s">
-        <v>431</v>
+      <c r="T26" s="39" t="s">
+        <v>473</v>
       </c>
       <c r="U26" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="V26" s="39" t="s">
-        <v>432</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="V26" s="39"/>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -6724,58 +6719,60 @@
       <c r="AJ26" s="39"/>
       <c r="AK26" s="39"/>
     </row>
-    <row r="27" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>15</v>
+        <v>389</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>691</v>
-      </c>
-      <c r="G27" s="41"/>
+        <v>686</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>106</v>
+      </c>
       <c r="H27" s="40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I27" s="41"/>
       <c r="J27" s="47">
-        <v>42401</v>
+        <v>43548</v>
       </c>
       <c r="K27" s="47">
-        <v>42826</v>
+        <v>43548</v>
       </c>
       <c r="L27" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="N27" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P27" s="42">
         <f t="shared" si="0"/>
-        <v>1.1643835616438356</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R27" s="39" t="s">
         <v>57</v>
@@ -6784,13 +6781,13 @@
         <v>56</v>
       </c>
       <c r="T27" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>477</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="U27" s="39"/>
       <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
+      <c r="W27" s="39" t="s">
+        <v>505</v>
+      </c>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
       <c r="Z27" s="39"/>
@@ -6806,37 +6803,37 @@
       <c r="AJ27" s="39"/>
       <c r="AK27" s="39"/>
     </row>
-    <row r="28" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B28" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>692</v>
+        <v>658</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="47">
-        <v>43548</v>
+        <v>42795</v>
       </c>
       <c r="K28" s="47">
-        <v>43548</v>
+        <v>42795</v>
       </c>
       <c r="L28" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6844,7 +6841,7 @@
       </c>
       <c r="M28" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="N28" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -6852,7 +6849,7 @@
       </c>
       <c r="O28" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="P28" s="42">
         <f t="shared" si="0"/>
@@ -6868,13 +6865,11 @@
         <v>56</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>510</v>
+        <v>113</v>
       </c>
       <c r="U28" s="39"/>
       <c r="V28" s="39"/>
-      <c r="W28" s="39" t="s">
-        <v>509</v>
-      </c>
+      <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
@@ -6892,13 +6887,13 @@
     </row>
     <row r="29" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>108</v>
@@ -6907,7 +6902,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>20</v>
@@ -6917,26 +6912,26 @@
       </c>
       <c r="I29" s="41"/>
       <c r="J29" s="47">
-        <v>42795</v>
+        <v>42513</v>
       </c>
       <c r="K29" s="47">
-        <v>42795</v>
+        <v>42513</v>
       </c>
       <c r="L29" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="N29" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O29" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P29" s="42">
         <f t="shared" si="0"/>
@@ -6952,7 +6947,7 @@
         <v>56</v>
       </c>
       <c r="T29" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U29" s="39"/>
       <c r="V29" s="39"/>
@@ -6972,37 +6967,37 @@
       <c r="AJ29" s="39"/>
       <c r="AK29" s="39"/>
     </row>
-    <row r="30" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="H30" s="40" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="I30" s="41"/>
       <c r="J30" s="47">
-        <v>42513</v>
+        <v>42491</v>
       </c>
       <c r="K30" s="47">
-        <v>42513</v>
+        <v>42493</v>
       </c>
       <c r="L30" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7022,7 +7017,7 @@
       </c>
       <c r="P30" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" s="39" t="s">
         <v>32</v>
@@ -7054,37 +7049,40 @@
       <c r="AJ30" s="39"/>
       <c r="AK30" s="39"/>
     </row>
-    <row r="31" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>390</v>
+        <v>9</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>676</v>
+        <v>654</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="I31" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="J31" s="47">
-        <v>42491</v>
+        <v>43952</v>
       </c>
       <c r="K31" s="47">
-        <v>42493</v>
+        <f t="shared" ref="K31:K37" ca="1" si="1">NOW()</f>
+        <v>44452.720205092592</v>
       </c>
       <c r="L31" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7092,36 +7090,36 @@
       </c>
       <c r="M31" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="N31" s="49">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O31" s="49">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P31" s="42">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.690673503086387</v>
       </c>
       <c r="Q31" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R31" s="39" t="s">
-        <v>57</v>
+        <v>522</v>
       </c>
       <c r="S31" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T31" s="39" t="s">
-        <v>112</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="T31" s="39"/>
       <c r="U31" s="39"/>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
+      <c r="X31" s="39" t="s">
+        <v>376</v>
+      </c>
       <c r="Y31" s="39"/>
       <c r="Z31" s="39"/>
       <c r="AA31" s="39"/>
@@ -7136,9 +7134,9 @@
       <c r="AJ31" s="39"/>
       <c r="AK31" s="39"/>
     </row>
-    <row r="32" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>39</v>
@@ -7150,34 +7148,34 @@
         <v>51</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>14</v>
+        <v>343</v>
       </c>
       <c r="I32" s="41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J32" s="47">
-        <v>43952</v>
+        <v>43556</v>
       </c>
       <c r="K32" s="47">
-        <f t="shared" ref="K32:K38" ca="1" si="1">NOW()</f>
-        <v>44452.702856944445</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44452.720205092592</v>
       </c>
       <c r="L32" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M32" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N32" s="49">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -7189,23 +7187,23 @@
       </c>
       <c r="P32" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>16.690095231481489</v>
+        <v>2.4567676851851825</v>
       </c>
       <c r="Q32" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R32" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S32" s="39" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="T32" s="39"/>
       <c r="U32" s="39"/>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="Y32" s="39"/>
       <c r="Z32" s="39"/>
@@ -7221,44 +7219,42 @@
       <c r="AJ32" s="39"/>
       <c r="AK32" s="39"/>
     </row>
-    <row r="33" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>9</v>
+        <v>388</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>677</v>
-      </c>
-      <c r="G33" s="41" t="s">
-        <v>17</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="G33" s="41"/>
       <c r="H33" s="40" t="s">
-        <v>343</v>
+        <v>484</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="J33" s="47">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="K33" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L33" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M33" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -7273,25 +7269,25 @@
         <v>2021</v>
       </c>
       <c r="P33" s="42">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4567201560121772</v>
+        <f t="shared" ref="P33:P64" ca="1" si="2">IF((Q33="Days"),((K33-J33+1)),IF(Q33="Months",((K33-J33)/30),((K33-J33)/365)))</f>
+        <v>32.89067350308639</v>
       </c>
       <c r="Q33" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R33" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S33" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="T33" s="39"/>
+      <c r="T33" s="39" t="s">
+        <v>532</v>
+      </c>
       <c r="U33" s="39"/>
       <c r="V33" s="39"/>
       <c r="W33" s="39"/>
-      <c r="X33" s="39" t="s">
-        <v>12</v>
-      </c>
+      <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
       <c r="Z33" s="39"/>
       <c r="AA33" s="39"/>
@@ -7308,44 +7304,44 @@
     </row>
     <row r="34" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="40" t="s">
-        <v>487</v>
+        <v>132</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J34" s="47">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="K34" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L34" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M34" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N34" s="49">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -7356,20 +7352,20 @@
         <v>2021</v>
       </c>
       <c r="P34" s="42">
-        <f t="shared" ref="P34:P65" ca="1" si="2">IF((Q34="Days"),((K34-J34+1)),IF(Q34="Months",((K34-J34)/30),((K34-J34)/365)))</f>
-        <v>32.890095231481489</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>35.957340169753053</v>
       </c>
       <c r="Q34" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R34" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S34" s="39" t="s">
         <v>141</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="U34" s="39"/>
       <c r="V34" s="39"/>
@@ -7389,46 +7385,46 @@
       <c r="AJ34" s="39"/>
       <c r="AK34" s="39"/>
     </row>
-    <row r="35" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>131</v>
+        <v>656</v>
       </c>
       <c r="F35" s="51" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="40" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="J35" s="47">
-        <v>43374</v>
+        <v>43734</v>
       </c>
       <c r="K35" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L35" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M35" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N35" s="49">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -7440,19 +7436,19 @@
       </c>
       <c r="P35" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>35.956761898148152</v>
+        <v>23.957340169753056</v>
       </c>
       <c r="Q35" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R35" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S35" s="39" t="s">
         <v>141</v>
       </c>
       <c r="T35" s="39" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="U35" s="39"/>
       <c r="V35" s="39"/>
@@ -7472,46 +7468,48 @@
       <c r="AJ35" s="39"/>
       <c r="AK35" s="39"/>
     </row>
-    <row r="36" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>115</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>662</v>
+        <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>663</v>
-      </c>
-      <c r="G36" s="41"/>
+        <v>669</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>122</v>
+      </c>
       <c r="H36" s="40" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J36" s="47">
-        <v>43734</v>
+        <v>43435</v>
       </c>
       <c r="K36" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L36" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M36" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N36" s="49">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -7523,19 +7521,19 @@
       </c>
       <c r="P36" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>23.956761898148155</v>
+        <v>33.924006836419721</v>
       </c>
       <c r="Q36" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S36" s="39" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="T36" s="39" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="U36" s="39"/>
       <c r="V36" s="39"/>
@@ -7557,42 +7555,40 @@
     </row>
     <row r="37" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B37" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>115</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>124</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I37" s="41"/>
       <c r="J37" s="47">
-        <v>43435</v>
+        <v>43374</v>
       </c>
       <c r="K37" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L37" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M37" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -7608,19 +7604,19 @@
       </c>
       <c r="P37" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>33.92342856481482</v>
+        <v>35.957340169753053</v>
       </c>
       <c r="Q37" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R37" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S37" s="39" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="T37" s="39" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="U37" s="39"/>
       <c r="V37" s="39"/>
@@ -7640,70 +7636,71 @@
       <c r="AJ37" s="39"/>
       <c r="AK37" s="39"/>
     </row>
-    <row r="38" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>115</v>
+        <v>395</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>661</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>382</v>
+        <v>48</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="41"/>
+        <v>447</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>448</v>
+      </c>
       <c r="J38" s="47">
-        <v>43374</v>
+        <v>44075</v>
       </c>
       <c r="K38" s="47">
-        <f t="shared" ca="1" si="1"/>
-        <v>44452.702856944445</v>
+        <v>44681</v>
       </c>
       <c r="L38" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M38" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="N38" s="49">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>4</v>
       </c>
       <c r="O38" s="49">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2022</v>
       </c>
       <c r="P38" s="42">
-        <f t="shared" ca="1" si="2"/>
-        <v>35.956761898148152</v>
+        <f t="shared" si="2"/>
+        <v>1.6602739726027398</v>
       </c>
       <c r="Q38" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R38" s="39" t="s">
-        <v>528</v>
+        <v>445</v>
       </c>
       <c r="S38" s="39" t="s">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="T38" s="39" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="U38" s="39"/>
       <c r="V38" s="39"/>
@@ -7723,71 +7720,71 @@
       <c r="AJ38" s="39"/>
       <c r="AK38" s="39"/>
     </row>
-    <row r="39" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>47</v>
+        <v>618</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>48</v>
+        <v>619</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>449</v>
+        <v>617</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>450</v>
+        <v>616</v>
       </c>
       <c r="J39" s="47">
-        <v>44075</v>
+        <v>42856</v>
       </c>
       <c r="K39" s="47">
-        <v>44681</v>
+        <v>42979</v>
       </c>
       <c r="L39" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M39" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="N39" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O39" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="P39" s="42">
         <f t="shared" si="2"/>
-        <v>1.6602739726027398</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q39" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>447</v>
+        <v>162</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>448</v>
+        <v>56</v>
       </c>
       <c r="T39" s="39" t="s">
-        <v>517</v>
+        <v>621</v>
       </c>
       <c r="U39" s="39"/>
       <c r="V39" s="39"/>
@@ -7807,43 +7804,41 @@
       <c r="AJ39" s="39"/>
       <c r="AK39" s="39"/>
     </row>
-    <row r="40" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>624</v>
+        <v>7</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>625</v>
+        <v>20</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>623</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>622</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="I40" s="41"/>
       <c r="J40" s="47">
-        <v>42856</v>
+        <v>42795</v>
       </c>
       <c r="K40" s="47">
-        <v>42979</v>
+        <v>42795</v>
       </c>
       <c r="L40" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M40" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -7851,7 +7846,7 @@
       </c>
       <c r="N40" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O40" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -7859,19 +7854,19 @@
       </c>
       <c r="P40" s="42">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="S40" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T40" s="39" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="U40" s="39"/>
       <c r="V40" s="39"/>
@@ -7891,60 +7886,62 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="39"/>
     </row>
-    <row r="41" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B41" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>7</v>
+        <v>620</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>20</v>
+        <v>615</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="I41" s="41"/>
+        <v>617</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>616</v>
+      </c>
       <c r="J41" s="47">
-        <v>42795</v>
+        <v>42491</v>
       </c>
       <c r="K41" s="47">
-        <v>42795</v>
+        <v>42614</v>
       </c>
       <c r="L41" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M41" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="N41" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O41" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P41" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q41" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R41" s="39" t="s">
         <v>57</v>
@@ -7953,7 +7950,7 @@
         <v>56</v>
       </c>
       <c r="T41" s="39" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="U41" s="39"/>
       <c r="V41" s="39"/>
@@ -7973,39 +7970,35 @@
       <c r="AJ41" s="39"/>
       <c r="AK41" s="39"/>
     </row>
-    <row r="42" spans="1:37" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>396</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>626</v>
+        <v>67</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="G42" s="41" t="s">
-        <v>621</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="G42" s="41"/>
       <c r="H42" s="40" t="s">
         <v>623</v>
       </c>
-      <c r="I42" s="41" t="s">
-        <v>622</v>
-      </c>
-      <c r="J42" s="47">
-        <v>42491</v>
+      <c r="I42" s="41"/>
+      <c r="J42" s="48">
+        <v>43221</v>
       </c>
       <c r="K42" s="47">
-        <v>42614</v>
+        <v>43343</v>
       </c>
       <c r="L42" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8013,31 +8006,31 @@
       </c>
       <c r="M42" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N42" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O42" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P42" s="42">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="Q42" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R42" s="39" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="S42" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T42" s="39" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="U42" s="39"/>
       <c r="V42" s="39"/>
@@ -8059,37 +8052,39 @@
     </row>
     <row r="43" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>388</v>
+        <v>632</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>671</v>
-      </c>
-      <c r="G43" s="41"/>
+        <v>659</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" s="40" t="s">
-        <v>629</v>
+        <v>163</v>
       </c>
       <c r="I43" s="41"/>
-      <c r="J43" s="48">
-        <v>43221</v>
+      <c r="J43" s="47">
+        <v>43344</v>
       </c>
       <c r="K43" s="47">
-        <v>43343</v>
+        <v>43586</v>
       </c>
       <c r="L43" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M43" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -8097,27 +8092,27 @@
       </c>
       <c r="N43" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O43" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="P43" s="42">
         <f t="shared" si="2"/>
-        <v>4.0666666666666664</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q43" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R43" s="39" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="S43" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T43" s="39" t="s">
-        <v>630</v>
+        <v>517</v>
       </c>
       <c r="U43" s="39"/>
       <c r="V43" s="39"/>
@@ -8139,28 +8134,28 @@
     </row>
     <row r="44" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B44" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>163</v>
+        <v>518</v>
       </c>
       <c r="I44" s="41"/>
       <c r="J44" s="47">
@@ -8199,7 +8194,7 @@
         <v>56</v>
       </c>
       <c r="T44" s="39" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="U44" s="39"/>
       <c r="V44" s="39"/>
@@ -8221,68 +8216,66 @@
     </row>
     <row r="45" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B45" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>6</v>
+        <v>536</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>665</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>16</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="G45" s="41"/>
       <c r="H45" s="40" t="s">
-        <v>524</v>
-      </c>
-      <c r="I45" s="41"/>
+        <v>157</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>142</v>
+      </c>
       <c r="J45" s="47">
-        <v>43344</v>
+        <v>42592</v>
       </c>
       <c r="K45" s="47">
-        <v>43586</v>
+        <v>42605</v>
       </c>
       <c r="L45" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M45" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="N45" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O45" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="P45" s="42">
         <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <v>14</v>
       </c>
       <c r="Q45" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R45" s="39" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="S45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T45" s="39" t="s">
-        <v>525</v>
-      </c>
+      <c r="T45" s="39"/>
       <c r="U45" s="39"/>
       <c r="V45" s="39"/>
       <c r="W45" s="39"/>
@@ -8301,75 +8294,69 @@
       <c r="AJ45" s="39"/>
       <c r="AK45" s="39"/>
     </row>
-    <row r="46" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B46" s="39" t="s">
         <v>155</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>542</v>
+        <v>7</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="47">
-        <v>42592</v>
-      </c>
-      <c r="K46" s="47">
-        <v>42605</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="I46" s="41"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="47"/>
       <c r="L46" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M46" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>1900</v>
       </c>
       <c r="N46" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O46" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>1900</v>
       </c>
       <c r="P46" s="42">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="Q46" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R46" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="S46" s="39" t="s">
-        <v>56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
       <c r="T46" s="39"/>
       <c r="U46" s="39"/>
       <c r="V46" s="39"/>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
-      <c r="Y46" s="39"/>
-      <c r="Z46" s="39"/>
-      <c r="AA46" s="39"/>
+      <c r="Y46" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z46" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA46" s="39" t="s">
+        <v>644</v>
+      </c>
       <c r="AB46" s="39"/>
       <c r="AC46" s="39"/>
       <c r="AD46" s="39"/>
@@ -8381,69 +8368,85 @@
       <c r="AJ46" s="39"/>
       <c r="AK46" s="39"/>
     </row>
-    <row r="47" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>402</v>
+        <v>33</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="G47" s="41"/>
+        <v>661</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>48</v>
+      </c>
       <c r="H47" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="47"/>
+        <v>701</v>
+      </c>
+      <c r="I47" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="J47" s="47">
+        <v>43831</v>
+      </c>
+      <c r="K47" s="47">
+        <v>44012</v>
+      </c>
       <c r="L47" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
         <v>1</v>
       </c>
       <c r="M47" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="N47" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O47" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="P47" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
-      <c r="U47" s="39"/>
-      <c r="V47" s="39"/>
-      <c r="W47" s="39"/>
+        <v>6.0333333333333332</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="U47" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="V47" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="W47" s="39" t="s">
+        <v>535</v>
+      </c>
       <c r="X47" s="39"/>
-      <c r="Y47" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="Z47" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="AA47" s="39" t="s">
-        <v>650</v>
-      </c>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
       <c r="AB47" s="39"/>
       <c r="AC47" s="39"/>
       <c r="AD47" s="39"/>
@@ -8455,47 +8458,41 @@
       <c r="AJ47" s="39"/>
       <c r="AK47" s="39"/>
     </row>
-    <row r="48" spans="1:37" ht="92.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="51" t="s">
         <v>667</v>
       </c>
-      <c r="G48" s="41" t="s">
-        <v>48</v>
-      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="40" t="s">
-        <v>424</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>425</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="I48" s="41"/>
       <c r="J48" s="47">
-        <v>43831</v>
+        <v>43709</v>
       </c>
       <c r="K48" s="47">
-        <v>44012</v>
+        <v>43983</v>
       </c>
       <c r="L48" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M48" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N48" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -8507,33 +8504,33 @@
       </c>
       <c r="P48" s="42">
         <f t="shared" si="2"/>
-        <v>6.0333333333333332</v>
+        <v>9.1333333333333329</v>
       </c>
       <c r="Q48" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R48" s="39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="S48" s="39" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="T48" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="U48" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="V48" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="W48" s="39" t="s">
-        <v>541</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
       <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="39"/>
-      <c r="AA48" s="39"/>
+      <c r="Y48" s="39" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z48" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA48" s="39" t="s">
+        <v>645</v>
+      </c>
       <c r="AB48" s="39"/>
       <c r="AC48" s="39"/>
       <c r="AD48" s="39"/>
@@ -8545,33 +8542,37 @@
       <c r="AJ48" s="39"/>
       <c r="AK48" s="39"/>
     </row>
-    <row r="49" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>638</v>
+        <v>5</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="41"/>
+        <v>7</v>
+      </c>
+      <c r="F49" s="51" t="s">
+        <v>658</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="H49" s="40" t="s">
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="I49" s="41"/>
       <c r="J49" s="47">
-        <v>43709</v>
+        <v>42614</v>
       </c>
       <c r="K49" s="47">
-        <v>43983</v>
+        <v>42856</v>
       </c>
       <c r="L49" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8579,45 +8580,39 @@
       </c>
       <c r="M49" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="N49" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O49" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="P49" s="42">
         <f t="shared" si="2"/>
-        <v>9.1333333333333329</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q49" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R49" s="39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="S49" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="T49" s="39" t="s">
-        <v>522</v>
+        <v>56</v>
+      </c>
+      <c r="T49" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="U49" s="39"/>
       <c r="V49" s="39"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
-      <c r="Y49" s="39" t="s">
-        <v>672</v>
-      </c>
-      <c r="Z49" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA49" s="39" t="s">
-        <v>651</v>
-      </c>
+      <c r="Y49" s="39"/>
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
       <c r="AB49" s="39"/>
       <c r="AC49" s="39"/>
       <c r="AD49" s="39"/>
@@ -8629,9 +8624,9 @@
       <c r="AJ49" s="39"/>
       <c r="AK49" s="39"/>
     </row>
-    <row r="50" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B50" s="39" t="s">
         <v>155</v>
@@ -8643,27 +8638,27 @@
         <v>134</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>7</v>
+        <v>536</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="G50" s="41" t="s">
-        <v>20</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="G50" s="41"/>
       <c r="H50" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="I50" s="41"/>
+        <v>157</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>142</v>
+      </c>
       <c r="J50" s="47">
-        <v>42614</v>
+        <v>42592</v>
       </c>
       <c r="K50" s="47">
-        <v>42856</v>
+        <v>42605</v>
       </c>
       <c r="L50" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M50" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -8671,28 +8666,26 @@
       </c>
       <c r="N50" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O50" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P50" s="42">
         <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R50" s="39" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="S50" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T50" s="40" t="s">
-        <v>113</v>
-      </c>
+      <c r="T50" s="39"/>
       <c r="U50" s="39"/>
       <c r="V50" s="39"/>
       <c r="W50" s="39"/>
@@ -8713,66 +8706,66 @@
     </row>
     <row r="51" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>134</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>542</v>
+        <v>371</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>142</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="I51" s="41"/>
       <c r="J51" s="47">
-        <v>42592</v>
+        <v>43764</v>
       </c>
       <c r="K51" s="47">
-        <v>42605</v>
+        <v>43764</v>
       </c>
       <c r="L51" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M51" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="N51" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O51" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="P51" s="42">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R51" s="39" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="S51" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T51" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="T51" s="39" t="s">
+        <v>528</v>
+      </c>
       <c r="U51" s="39"/>
       <c r="V51" s="39"/>
       <c r="W51" s="39"/>
@@ -8793,33 +8786,37 @@
     </row>
     <row r="52" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B52" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>134</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>659</v>
-      </c>
-      <c r="G52" s="41"/>
+        <v>699</v>
+      </c>
+      <c r="G52" s="41" t="s">
+        <v>136</v>
+      </c>
       <c r="H52" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="I52" s="41"/>
+        <v>137</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>138</v>
+      </c>
       <c r="J52" s="47">
-        <v>43764</v>
+        <v>43374</v>
       </c>
       <c r="K52" s="47">
-        <v>43764</v>
+        <v>43377</v>
       </c>
       <c r="L52" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8827,7 +8824,7 @@
       </c>
       <c r="M52" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N52" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -8835,23 +8832,23 @@
       </c>
       <c r="O52" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="P52" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q52" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R52" s="39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S52" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T52" s="39" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="U52" s="39"/>
       <c r="V52" s="39"/>
@@ -8871,9 +8868,9 @@
       <c r="AJ52" s="39"/>
       <c r="AK52" s="39"/>
     </row>
-    <row r="53" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B53" s="39" t="s">
         <v>83</v>
@@ -8885,57 +8882,53 @@
         <v>134</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>705</v>
-      </c>
-      <c r="G53" s="41" t="s">
-        <v>136</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="G53" s="41"/>
       <c r="H53" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>138</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="I53" s="41"/>
       <c r="J53" s="47">
-        <v>43374</v>
+        <v>40603</v>
       </c>
       <c r="K53" s="47">
-        <v>43377</v>
+        <v>40616</v>
       </c>
       <c r="L53" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M53" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="N53" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O53" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="P53" s="42">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R53" s="39" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="S53" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T53" s="39" t="s">
-        <v>533</v>
+        <v>385</v>
       </c>
       <c r="U53" s="39"/>
       <c r="V53" s="39"/>
@@ -8955,67 +8948,61 @@
       <c r="AJ53" s="39"/>
       <c r="AK53" s="39"/>
     </row>
-    <row r="54" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>134</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>694</v>
-      </c>
-      <c r="G54" s="41"/>
+        <v>689</v>
+      </c>
+      <c r="G54" s="41" t="s">
+        <v>347</v>
+      </c>
       <c r="H54" s="40" t="s">
-        <v>145</v>
+        <v>346</v>
       </c>
       <c r="I54" s="41"/>
-      <c r="J54" s="47">
-        <v>40603</v>
-      </c>
-      <c r="K54" s="47">
-        <v>40616</v>
-      </c>
+      <c r="J54" s="48"/>
+      <c r="K54" s="47"/>
       <c r="L54" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M54" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>1900</v>
       </c>
       <c r="N54" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O54" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>1900</v>
       </c>
       <c r="P54" s="42">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="Q54" s="39" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="39"/>
       <c r="R54" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="S54" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T54" s="39" t="s">
-        <v>386</v>
+        <v>282</v>
+      </c>
+      <c r="S54" s="39"/>
+      <c r="T54" s="40" t="s">
+        <v>348</v>
       </c>
       <c r="U54" s="39"/>
       <c r="V54" s="39"/>
@@ -9035,62 +9022,64 @@
       <c r="AJ54" s="39"/>
       <c r="AK54" s="39"/>
     </row>
-    <row r="55" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>134</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>345</v>
+        <v>537</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>695</v>
-      </c>
-      <c r="G55" s="41" t="s">
-        <v>347</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="G55" s="41"/>
       <c r="H55" s="40" t="s">
-        <v>346</v>
+        <v>538</v>
       </c>
       <c r="I55" s="41"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="47"/>
+      <c r="J55" s="47">
+        <v>44094</v>
+      </c>
+      <c r="K55" s="47">
+        <v>44094</v>
+      </c>
       <c r="L55" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M55" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="N55" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O55" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="P55" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="R55" s="39" t="s">
         <v>282</v>
       </c>
       <c r="S55" s="39"/>
-      <c r="T55" s="40" t="s">
-        <v>348</v>
-      </c>
+      <c r="T55" s="39"/>
       <c r="U55" s="39"/>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -9109,35 +9098,37 @@
       <c r="AJ55" s="39"/>
       <c r="AK55" s="39"/>
     </row>
-    <row r="56" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>543</v>
+        <v>7</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>696</v>
-      </c>
-      <c r="G56" s="41"/>
+        <v>658</v>
+      </c>
+      <c r="G56" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="H56" s="40" t="s">
-        <v>544</v>
+        <v>160</v>
       </c>
       <c r="I56" s="41"/>
       <c r="J56" s="47">
-        <v>44094</v>
+        <v>42979</v>
       </c>
       <c r="K56" s="47">
-        <v>44094</v>
+        <v>43221</v>
       </c>
       <c r="L56" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9145,28 +9136,32 @@
       </c>
       <c r="M56" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="N56" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O56" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="P56" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q56" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="S56" s="39"/>
-      <c r="T56" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" s="40" t="s">
+        <v>161</v>
+      </c>
       <c r="U56" s="39"/>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -9185,9 +9180,9 @@
       <c r="AJ56" s="39"/>
       <c r="AK56" s="39"/>
     </row>
-    <row r="57" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B57" s="39" t="s">
         <v>155</v>
@@ -9202,24 +9197,26 @@
         <v>7</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G57" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H57" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I57" s="41"/>
+        <v>158</v>
+      </c>
+      <c r="I57" s="41" t="s">
+        <v>159</v>
+      </c>
       <c r="J57" s="47">
+        <v>42856</v>
+      </c>
+      <c r="K57" s="47">
         <v>42979</v>
-      </c>
-      <c r="K57" s="47">
-        <v>43221</v>
       </c>
       <c r="L57" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M57" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -9227,27 +9224,27 @@
       </c>
       <c r="N57" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O57" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="P57" s="42">
         <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q57" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R57" s="39" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="S57" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T57" s="40" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="U57" s="39"/>
       <c r="V57" s="39"/>
@@ -9267,9 +9264,9 @@
       <c r="AJ57" s="39"/>
       <c r="AK57" s="39"/>
     </row>
-    <row r="58" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B58" s="39" t="s">
         <v>155</v>
@@ -9284,22 +9281,22 @@
         <v>7</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G58" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I58" s="41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J58" s="47">
-        <v>42856</v>
+        <v>42491</v>
       </c>
       <c r="K58" s="47">
-        <v>42979</v>
+        <v>42614</v>
       </c>
       <c r="L58" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9307,7 +9304,7 @@
       </c>
       <c r="M58" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="N58" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -9315,7 +9312,7 @@
       </c>
       <c r="O58" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P58" s="42">
         <f t="shared" si="2"/>
@@ -9325,13 +9322,13 @@
         <v>30</v>
       </c>
       <c r="R58" s="39" t="s">
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="S58" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T58" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U58" s="39"/>
       <c r="V58" s="39"/>
@@ -9351,72 +9348,66 @@
       <c r="AJ58" s="39"/>
       <c r="AK58" s="39"/>
     </row>
-    <row r="59" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>155</v>
+        <v>633</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>664</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F59" s="40"/>
       <c r="G59" s="41" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>154</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="I59" s="41"/>
       <c r="J59" s="47">
-        <v>42491</v>
+        <v>40544</v>
       </c>
       <c r="K59" s="47">
-        <v>42614</v>
+        <v>41275</v>
       </c>
       <c r="L59" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M59" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="N59" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O59" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="P59" s="42">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>2.0027397260273974</v>
       </c>
       <c r="Q59" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R59" s="39" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="S59" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T59" s="40" t="s">
-        <v>112</v>
-      </c>
+      <c r="T59" s="39"/>
       <c r="U59" s="39"/>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -9435,66 +9426,70 @@
       <c r="AJ59" s="39"/>
       <c r="AK59" s="39"/>
     </row>
-    <row r="60" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>639</v>
+        <v>155</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>658</v>
+      </c>
       <c r="G60" s="41" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>75</v>
+        <v>663</v>
       </c>
       <c r="I60" s="41"/>
       <c r="J60" s="47">
-        <v>40544</v>
+        <v>42125</v>
       </c>
       <c r="K60" s="47">
-        <v>41275</v>
+        <v>42248</v>
       </c>
       <c r="L60" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M60" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="N60" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O60" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="P60" s="42">
         <f t="shared" si="2"/>
-        <v>2.0027397260273974</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q60" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R60" s="39" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="S60" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T60" s="39"/>
+      <c r="T60" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="U60" s="39"/>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -9513,37 +9508,37 @@
       <c r="AJ60" s="39"/>
       <c r="AK60" s="39"/>
     </row>
-    <row r="61" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>669</v>
+        <v>38</v>
       </c>
       <c r="I61" s="41"/>
       <c r="J61" s="47">
-        <v>42125</v>
+        <v>43586</v>
       </c>
       <c r="K61" s="47">
-        <v>42248</v>
+        <v>43586</v>
       </c>
       <c r="L61" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9551,32 +9546,30 @@
       </c>
       <c r="M61" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="N61" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O61" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="P61" s="42">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R61" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S61" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T61" s="40" t="s">
-        <v>112</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="T61" s="39"/>
       <c r="U61" s="39"/>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -9595,41 +9588,41 @@
       <c r="AJ61" s="39"/>
       <c r="AK61" s="39"/>
     </row>
-    <row r="62" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>15</v>
+        <v>389</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I62" s="41"/>
       <c r="J62" s="47">
-        <v>43586</v>
+        <v>43729</v>
       </c>
       <c r="K62" s="47">
-        <v>43586</v>
+        <v>43730</v>
       </c>
       <c r="L62" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M62" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -9637,7 +9630,7 @@
       </c>
       <c r="N62" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O62" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -9645,16 +9638,16 @@
       </c>
       <c r="P62" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q62" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R62" s="39" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="S62" s="39" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="T62" s="39"/>
       <c r="U62" s="39"/>
@@ -9675,41 +9668,41 @@
       <c r="AJ62" s="39"/>
       <c r="AK62" s="39"/>
     </row>
-    <row r="63" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B63" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>80</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="G63" s="41" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>79</v>
+        <v>504</v>
       </c>
       <c r="I63" s="41"/>
       <c r="J63" s="47">
-        <v>43729</v>
+        <v>43657</v>
       </c>
       <c r="K63" s="47">
-        <v>43730</v>
+        <v>43657</v>
       </c>
       <c r="L63" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M63" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -9717,7 +9710,7 @@
       </c>
       <c r="N63" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O63" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -9725,18 +9718,20 @@
       </c>
       <c r="P63" s="42">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R63" s="39" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="S63" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="T63" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="T63" s="39" t="s">
+        <v>515</v>
+      </c>
       <c r="U63" s="39"/>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -9755,49 +9750,49 @@
       <c r="AJ63" s="39"/>
       <c r="AK63" s="39"/>
     </row>
-    <row r="64" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>508</v>
+        <v>349</v>
       </c>
       <c r="I64" s="41"/>
       <c r="J64" s="47">
-        <v>43657</v>
+        <v>42248</v>
       </c>
       <c r="K64" s="47">
-        <v>43657</v>
+        <v>43709</v>
       </c>
       <c r="L64" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M64" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="N64" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O64" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -9805,19 +9800,19 @@
       </c>
       <c r="P64" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.0027397260273974</v>
       </c>
       <c r="Q64" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R64" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S64" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T64" s="39" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="U64" s="39"/>
       <c r="V64" s="39"/>
@@ -9837,69 +9832,67 @@
       <c r="AJ64" s="39"/>
       <c r="AK64" s="39"/>
     </row>
-    <row r="65" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>155</v>
+        <v>633</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>115</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>664</v>
-      </c>
-      <c r="G65" s="41" t="s">
-        <v>20</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="G65" s="41"/>
       <c r="H65" s="40" t="s">
-        <v>349</v>
+        <v>140</v>
       </c>
       <c r="I65" s="41"/>
       <c r="J65" s="47">
-        <v>42248</v>
+        <v>42491</v>
       </c>
       <c r="K65" s="47">
-        <v>43709</v>
+        <v>43952</v>
       </c>
       <c r="L65" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M65" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="N65" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O65" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="P65" s="42">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P65:P69" si="3">IF((Q65="Days"),((K65-J65+1)),IF(Q65="Months",((K65-J65)/30),((K65-J65)/365)))</f>
         <v>4.0027397260273974</v>
       </c>
       <c r="Q65" s="39" t="s">
         <v>31</v>
       </c>
       <c r="R65" s="39" t="s">
-        <v>57</v>
+        <v>522</v>
       </c>
       <c r="S65" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T65" s="39" t="s">
-        <v>378</v>
+        <v>526</v>
       </c>
       <c r="U65" s="39"/>
       <c r="V65" s="39"/>
@@ -9919,72 +9912,74 @@
       <c r="AJ65" s="39"/>
       <c r="AK65" s="39"/>
     </row>
-    <row r="66" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>639</v>
+        <v>83</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D66" s="39" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E66" s="40" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="G66" s="41"/>
       <c r="H66" s="40" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I66" s="41"/>
       <c r="J66" s="47">
-        <v>42491</v>
+        <v>43709</v>
       </c>
       <c r="K66" s="47">
-        <v>43952</v>
+        <v>44136</v>
       </c>
       <c r="L66" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M66" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="N66" s="49">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O66" s="49">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2020</v>
       </c>
       <c r="P66" s="42">
-        <f t="shared" ref="P66:P70" si="3">IF((Q66="Days"),((K66-J66+1)),IF(Q66="Months",((K66-J66)/30),((K66-J66)/365)))</f>
-        <v>4.0027397260273974</v>
+        <f t="shared" si="3"/>
+        <v>1.1698630136986301</v>
       </c>
       <c r="Q66" s="39" t="s">
         <v>31</v>
       </c>
       <c r="R66" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S66" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T66" s="39" t="s">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="U66" s="39"/>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
-      <c r="X66" s="39"/>
+      <c r="X66" s="39" t="s">
+        <v>479</v>
+      </c>
       <c r="Y66" s="39"/>
       <c r="Z66" s="39"/>
       <c r="AA66" s="39"/>
@@ -9999,73 +9994,74 @@
       <c r="AJ66" s="39"/>
       <c r="AK66" s="39"/>
     </row>
-    <row r="67" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B67" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="I67" s="41"/>
+        <v>118</v>
+      </c>
+      <c r="I67" s="41" t="s">
+        <v>119</v>
+      </c>
       <c r="J67" s="47">
-        <v>43709</v>
+        <v>43586</v>
       </c>
       <c r="K67" s="47">
-        <v>44136</v>
+        <f ca="1">NOW()</f>
+        <v>44452.720205092592</v>
       </c>
       <c r="L67" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M67" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
         <v>2019</v>
       </c>
       <c r="N67" s="49">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>11</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O67" s="49">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P67" s="42">
-        <f t="shared" si="3"/>
-        <v>1.1698630136986301</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.890673503086386</v>
       </c>
       <c r="Q67" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S67" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T67" s="39" t="s">
-        <v>488</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="T67" s="39"/>
       <c r="U67" s="39"/>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
       <c r="X67" s="39" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="Y67" s="39"/>
       <c r="Z67" s="39"/>
@@ -10081,46 +10077,44 @@
       <c r="AJ67" s="39"/>
       <c r="AK67" s="39"/>
     </row>
-    <row r="68" spans="1:37" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B68" s="39" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E68" s="40" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G68" s="41"/>
       <c r="H68" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>119</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I68" s="41"/>
       <c r="J68" s="47">
-        <v>43586</v>
+        <v>41091</v>
       </c>
       <c r="K68" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L68" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M68" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="N68" s="49">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -10132,24 +10126,24 @@
       </c>
       <c r="P68" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>28.890095231481489</v>
+        <v>9.210192342719429</v>
       </c>
       <c r="Q68" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R68" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S68" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="T68" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="T68" s="39" t="s">
+        <v>486</v>
+      </c>
       <c r="U68" s="39"/>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
-      <c r="X68" s="39" t="s">
-        <v>379</v>
-      </c>
+      <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
       <c r="Z68" s="39"/>
       <c r="AA68" s="39"/>
@@ -10164,44 +10158,46 @@
       <c r="AJ68" s="39"/>
       <c r="AK68" s="39"/>
     </row>
-    <row r="69" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E69" s="40" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="F69" s="51" t="s">
-        <v>700</v>
-      </c>
-      <c r="G69" s="41"/>
+        <v>695</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>126</v>
+      </c>
       <c r="H69" s="40" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I69" s="41"/>
       <c r="J69" s="47">
-        <v>41091</v>
+        <v>43374</v>
       </c>
       <c r="K69" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.702856944445</v>
+        <v>44452.720205092592</v>
       </c>
       <c r="L69" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M69" s="49">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="N69" s="49">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -10213,19 +10209,19 @@
       </c>
       <c r="P69" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2101448135464246</v>
+        <v>35.957340169753053</v>
       </c>
       <c r="Q69" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R69" s="39" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S69" s="39" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="T69" s="39" t="s">
-        <v>489</v>
+        <v>525</v>
       </c>
       <c r="U69" s="39"/>
       <c r="V69" s="39"/>
@@ -10245,200 +10241,116 @@
       <c r="AJ69" s="39"/>
       <c r="AK69" s="39"/>
     </row>
-    <row r="70" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
-        <v>481</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>389</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>701</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H70" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="I70" s="41"/>
-      <c r="J70" s="47">
-        <v>43374</v>
-      </c>
-      <c r="K70" s="47">
-        <f ca="1">NOW()</f>
-        <v>44452.702856944445</v>
-      </c>
-      <c r="L70" s="49">
-        <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
-      </c>
-      <c r="M70" s="49">
-        <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
-      </c>
-      <c r="N70" s="49">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
-      </c>
-      <c r="O70" s="49">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
-      </c>
-      <c r="P70" s="42">
-        <f t="shared" ca="1" si="3"/>
-        <v>35.956761898148152</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R70" s="39" t="s">
-        <v>528</v>
-      </c>
-      <c r="S70" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="T70" s="39" t="s">
-        <v>531</v>
-      </c>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="39"/>
-      <c r="AB70" s="39"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
-      <c r="AH70" s="39"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="39"/>
-      <c r="AK70" s="39"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="K1:O62 L63:O63 K64:O65 K68:O68 K70:O1048576">
-    <cfRule type="timePeriod" dxfId="86" priority="9" timePeriod="today">
+  <conditionalFormatting sqref="L62:O62 K63:O64 K67:O67 K69:O1048576 K1:O61">
+    <cfRule type="timePeriod" dxfId="14" priority="9" timePeriod="today">
       <formula>FLOOR(K1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63">
-    <cfRule type="timePeriod" dxfId="85" priority="5" timePeriod="today">
-      <formula>FLOOR(K63,1)=TODAY()</formula>
+  <conditionalFormatting sqref="K62">
+    <cfRule type="timePeriod" dxfId="13" priority="5" timePeriod="today">
+      <formula>FLOOR(K62,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K66:O67">
-    <cfRule type="timePeriod" dxfId="84" priority="4" timePeriod="today">
-      <formula>FLOOR(K66,1)=TODAY()</formula>
+  <conditionalFormatting sqref="K65:O66">
+    <cfRule type="timePeriod" dxfId="12" priority="4" timePeriod="today">
+      <formula>FLOOR(K65,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K69:O69">
-    <cfRule type="timePeriod" dxfId="83" priority="3" timePeriod="today">
-      <formula>FLOOR(K69,1)=TODAY()</formula>
+  <conditionalFormatting sqref="K68:O68">
+    <cfRule type="timePeriod" dxfId="11" priority="3" timePeriod="today">
+      <formula>FLOOR(K68,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AK70">
-    <cfRule type="expression" dxfId="82" priority="2">
+  <conditionalFormatting sqref="A2:AK69">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$A2="Disclude"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$A2="Include"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1">
-      <formula>$A2="Disclude"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="T2:T59" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="U2:U70" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="V2:V70" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="W2:W70" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C70" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="T2:T58" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="U2:U69" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="V2:V69" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="W2:W69" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C69" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B70" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
       <formula1>Branch</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D70" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D69" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{919D3B29-36CF-49BF-9220-21A510F942D2}"/>
-    <hyperlink ref="F18" r:id="rId2" xr:uid="{C2C8210C-B8EF-4BF8-95E0-F0182288D3A9}"/>
-    <hyperlink ref="F52" r:id="rId3" xr:uid="{580BA1F1-4FA3-4293-97A0-74F2722CA1E2}"/>
-    <hyperlink ref="F32" r:id="rId4" xr:uid="{458462F6-BDCC-442A-B79B-8180325D0EDE}"/>
-    <hyperlink ref="F38" r:id="rId5" xr:uid="{A3CE4E04-84D3-4F89-8E39-F9792AB3D7CE}"/>
-    <hyperlink ref="F36" r:id="rId6" xr:uid="{8E17BF95-1963-4F4F-8BDD-DB13F45D3018}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{C2C8210C-B8EF-4BF8-95E0-F0182288D3A9}"/>
+    <hyperlink ref="F51" r:id="rId3" xr:uid="{580BA1F1-4FA3-4293-97A0-74F2722CA1E2}"/>
+    <hyperlink ref="F31" r:id="rId4" xr:uid="{458462F6-BDCC-442A-B79B-8180325D0EDE}"/>
+    <hyperlink ref="F37" r:id="rId5" xr:uid="{A3CE4E04-84D3-4F89-8E39-F9792AB3D7CE}"/>
+    <hyperlink ref="F35" r:id="rId6" xr:uid="{8E17BF95-1963-4F4F-8BDD-DB13F45D3018}"/>
     <hyperlink ref="F3" r:id="rId7" xr:uid="{E699E20B-96F8-425C-AB43-B38AE75C8A91}"/>
     <hyperlink ref="F4" r:id="rId8" xr:uid="{AAC50046-88B1-4140-8443-3AE8D348E0E8}"/>
     <hyperlink ref="F5" r:id="rId9" xr:uid="{065C111C-02C5-4562-A97B-BE18A1880D70}"/>
     <hyperlink ref="F6" r:id="rId10" xr:uid="{551A6066-4F5D-4C2C-8B6D-B9A321B523A7}"/>
     <hyperlink ref="F8" r:id="rId11" xr:uid="{C0E6B579-8C66-4012-A35B-3346B6611D2B}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{23A2C67C-26E7-45F1-B7E4-5E3C0A3C954C}"/>
-    <hyperlink ref="F10" r:id="rId13" xr:uid="{A3F3621D-EED2-4306-B30C-AE2ECF932FCE}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{3F711DB0-8C66-4086-8F03-4C21781234AE}"/>
-    <hyperlink ref="F29:F30" r:id="rId15" display="https://www.utoronto.ca/" xr:uid="{FDFD5F84-DF93-4F55-9024-48EAA6BAF22F}"/>
-    <hyperlink ref="F41" r:id="rId16" xr:uid="{9371AD21-C37F-4DD9-A45F-25A3CDF496B0}"/>
-    <hyperlink ref="F47" r:id="rId17" xr:uid="{AC5464D3-76B9-4F3D-A334-51E981928AEF}"/>
-    <hyperlink ref="F50" r:id="rId18" xr:uid="{2959344C-A67B-4F45-B08B-DC4E5793642B}"/>
-    <hyperlink ref="F57:F59" r:id="rId19" display="https://www.utoronto.ca/" xr:uid="{BD30E50E-A560-42D3-B0EB-10880BE65B6C}"/>
-    <hyperlink ref="F61" r:id="rId20" xr:uid="{86FCFE01-A51E-4A03-8369-DFB8B6E20B5D}"/>
-    <hyperlink ref="F65" r:id="rId21" xr:uid="{8B90A5D7-06AC-44CD-855F-7141B82BED0E}"/>
-    <hyperlink ref="F12" r:id="rId22" xr:uid="{945D4549-926F-47AD-B30D-B5C95D942281}"/>
-    <hyperlink ref="F39" r:id="rId23" xr:uid="{8778B03D-181E-4E1A-A055-07DE08747699}"/>
-    <hyperlink ref="F48" r:id="rId24" xr:uid="{A41DEFF3-7586-4706-8791-C68F4D02113D}"/>
-    <hyperlink ref="F13" r:id="rId25" xr:uid="{C56F1C0A-9027-42A0-BC2B-C78EC6149A6A}"/>
-    <hyperlink ref="F14" r:id="rId26" xr:uid="{059F6052-5098-4CF8-A42D-30DE206B9DFE}"/>
-    <hyperlink ref="F37" r:id="rId27" location="!%2F" xr:uid="{54A19E43-F332-452D-9492-8A24FDFBA568}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{46086F6A-43A9-4875-B462-DDD46F24E101}"/>
-    <hyperlink ref="F33" r:id="rId29" xr:uid="{E470485F-A51B-4143-97D9-04056931A7F5}"/>
-    <hyperlink ref="F34" r:id="rId30" xr:uid="{B69F34B0-A37E-40AA-84E7-D8C6B4350C32}"/>
-    <hyperlink ref="F35" r:id="rId31" xr:uid="{DF8C1A0A-78D9-4925-B7A7-F43D4F152E3C}"/>
-    <hyperlink ref="F40" r:id="rId32" xr:uid="{F6E02A0C-1522-4D32-8484-89AB75971704}"/>
-    <hyperlink ref="F42" r:id="rId33" xr:uid="{75D9BF2A-8D56-4A3C-A353-6A23B8D25F23}"/>
-    <hyperlink ref="F43" r:id="rId34" xr:uid="{0E69E8A6-83DD-4BD3-A3C0-DBCB3A6AAE2E}"/>
-    <hyperlink ref="F44:F45" r:id="rId35" display="https://www.niagaracollege.ca/" xr:uid="{EA3C7C6F-9A21-4427-8FA1-8E88E39C65B7}"/>
-    <hyperlink ref="F19" r:id="rId36" xr:uid="{77E6F105-7C9C-4BBE-BC32-9865E61D64A1}"/>
-    <hyperlink ref="F20" r:id="rId37" xr:uid="{C4701D21-0498-4442-B643-2E25CB50990A}"/>
-    <hyperlink ref="F21" r:id="rId38" xr:uid="{0BCC611A-9979-40E3-8E3F-DA2BC0CB01D6}"/>
-    <hyperlink ref="F22" r:id="rId39" xr:uid="{EACE5C41-0C0D-4BDF-82AC-AC120C9EA483}"/>
-    <hyperlink ref="F23" r:id="rId40" xr:uid="{2BBD3D59-6BB1-4910-BA14-1A0C4E203DD5}"/>
-    <hyperlink ref="F25" r:id="rId41" xr:uid="{46E8F86E-DD41-4025-AA93-AE0DC1B932D7}"/>
-    <hyperlink ref="F24" r:id="rId42" xr:uid="{72BD915B-8739-409E-B076-D4B6223E1F85}"/>
-    <hyperlink ref="F26" r:id="rId43" xr:uid="{B6D97D99-3727-4A14-BA96-62CA9B1D126E}"/>
-    <hyperlink ref="F27" r:id="rId44" xr:uid="{E6BFB3FC-E0C2-4AB9-8B7D-37864B5B2639}"/>
-    <hyperlink ref="F28" r:id="rId45" xr:uid="{A144A583-07F6-4E74-B83D-DB080FC95063}"/>
-    <hyperlink ref="F46" r:id="rId46" xr:uid="{B8E5E098-DAFC-4F59-915D-67654854C08C}"/>
-    <hyperlink ref="F51" r:id="rId47" xr:uid="{E8E15524-3C23-4542-A5A0-C94E775057D6}"/>
-    <hyperlink ref="F54" r:id="rId48" xr:uid="{6A483FD9-A730-470D-8BB4-7563B73C5F22}"/>
-    <hyperlink ref="F55" r:id="rId49" xr:uid="{0852BD17-FEBC-4C90-BC41-51EF18921968}"/>
-    <hyperlink ref="F56" r:id="rId50" xr:uid="{2CD092AE-CCA9-49BF-B636-86CCF5CBA600}"/>
-    <hyperlink ref="F62" r:id="rId51" xr:uid="{EAFCC6B0-8F42-4FC5-AE81-08EFC1ACBCCB}"/>
-    <hyperlink ref="F64" r:id="rId52" xr:uid="{E2B11D66-C39C-43ED-AEC9-ED9018895277}"/>
-    <hyperlink ref="F66" r:id="rId53" xr:uid="{F495FAFE-1D64-49A8-9344-0C958BF6D6EF}"/>
-    <hyperlink ref="F69" r:id="rId54" xr:uid="{83006F78-63E9-428D-AA89-120CED24B77F}"/>
-    <hyperlink ref="F70" r:id="rId55" xr:uid="{65BA677C-692A-4DCF-ABF8-D6F6B4515994}"/>
-    <hyperlink ref="F68" r:id="rId56" location=":~:text=%20The%20Workplace%20Hazardous%20Materials%20Information%20System%20%28,2%20reduce%20workplace%20injuries%20and%20illnesses%20More%20" xr:uid="{CBBC4667-ECFC-4594-AF5E-4E1F721F06D0}"/>
-    <hyperlink ref="F67" r:id="rId57" xr:uid="{EFC22D1A-6836-4A2C-8CB5-551BB51C94CD}"/>
-    <hyperlink ref="F16" r:id="rId58" xr:uid="{FF99D603-EE9D-4433-9FD7-FF61BC2B5AE7}"/>
-    <hyperlink ref="F53" r:id="rId59" xr:uid="{07EADCBE-9A9D-4EED-BAFB-6D78BC1839E9}"/>
-    <hyperlink ref="F63" r:id="rId60" xr:uid="{C8678248-A902-4CA2-B0B9-CED7B16369D3}"/>
+    <hyperlink ref="F10" r:id="rId12" xr:uid="{A3F3621D-EED2-4306-B30C-AE2ECF932FCE}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{3F711DB0-8C66-4086-8F03-4C21781234AE}"/>
+    <hyperlink ref="F28:F29" r:id="rId14" display="https://www.utoronto.ca/" xr:uid="{FDFD5F84-DF93-4F55-9024-48EAA6BAF22F}"/>
+    <hyperlink ref="F40" r:id="rId15" xr:uid="{9371AD21-C37F-4DD9-A45F-25A3CDF496B0}"/>
+    <hyperlink ref="F46" r:id="rId16" xr:uid="{AC5464D3-76B9-4F3D-A334-51E981928AEF}"/>
+    <hyperlink ref="F49" r:id="rId17" xr:uid="{2959344C-A67B-4F45-B08B-DC4E5793642B}"/>
+    <hyperlink ref="F56:F58" r:id="rId18" display="https://www.utoronto.ca/" xr:uid="{BD30E50E-A560-42D3-B0EB-10880BE65B6C}"/>
+    <hyperlink ref="F60" r:id="rId19" xr:uid="{86FCFE01-A51E-4A03-8369-DFB8B6E20B5D}"/>
+    <hyperlink ref="F64" r:id="rId20" xr:uid="{8B90A5D7-06AC-44CD-855F-7141B82BED0E}"/>
+    <hyperlink ref="F38" r:id="rId21" xr:uid="{8778B03D-181E-4E1A-A055-07DE08747699}"/>
+    <hyperlink ref="F47" r:id="rId22" xr:uid="{A41DEFF3-7586-4706-8791-C68F4D02113D}"/>
+    <hyperlink ref="F12" r:id="rId23" xr:uid="{C56F1C0A-9027-42A0-BC2B-C78EC6149A6A}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{059F6052-5098-4CF8-A42D-30DE206B9DFE}"/>
+    <hyperlink ref="F36" r:id="rId25" location="!%2F" xr:uid="{54A19E43-F332-452D-9492-8A24FDFBA568}"/>
+    <hyperlink ref="F30" r:id="rId26" xr:uid="{46086F6A-43A9-4875-B462-DDD46F24E101}"/>
+    <hyperlink ref="F32" r:id="rId27" xr:uid="{E470485F-A51B-4143-97D9-04056931A7F5}"/>
+    <hyperlink ref="F33" r:id="rId28" xr:uid="{B69F34B0-A37E-40AA-84E7-D8C6B4350C32}"/>
+    <hyperlink ref="F34" r:id="rId29" xr:uid="{DF8C1A0A-78D9-4925-B7A7-F43D4F152E3C}"/>
+    <hyperlink ref="F39" r:id="rId30" xr:uid="{F6E02A0C-1522-4D32-8484-89AB75971704}"/>
+    <hyperlink ref="F41" r:id="rId31" xr:uid="{75D9BF2A-8D56-4A3C-A353-6A23B8D25F23}"/>
+    <hyperlink ref="F42" r:id="rId32" xr:uid="{0E69E8A6-83DD-4BD3-A3C0-DBCB3A6AAE2E}"/>
+    <hyperlink ref="F43:F44" r:id="rId33" display="https://www.niagaracollege.ca/" xr:uid="{EA3C7C6F-9A21-4427-8FA1-8E88E39C65B7}"/>
+    <hyperlink ref="F18" r:id="rId34" xr:uid="{77E6F105-7C9C-4BBE-BC32-9865E61D64A1}"/>
+    <hyperlink ref="F19" r:id="rId35" xr:uid="{C4701D21-0498-4442-B643-2E25CB50990A}"/>
+    <hyperlink ref="F20" r:id="rId36" xr:uid="{0BCC611A-9979-40E3-8E3F-DA2BC0CB01D6}"/>
+    <hyperlink ref="F21" r:id="rId37" xr:uid="{EACE5C41-0C0D-4BDF-82AC-AC120C9EA483}"/>
+    <hyperlink ref="F22" r:id="rId38" xr:uid="{2BBD3D59-6BB1-4910-BA14-1A0C4E203DD5}"/>
+    <hyperlink ref="F24" r:id="rId39" xr:uid="{46E8F86E-DD41-4025-AA93-AE0DC1B932D7}"/>
+    <hyperlink ref="F23" r:id="rId40" xr:uid="{72BD915B-8739-409E-B076-D4B6223E1F85}"/>
+    <hyperlink ref="F25" r:id="rId41" xr:uid="{B6D97D99-3727-4A14-BA96-62CA9B1D126E}"/>
+    <hyperlink ref="F26" r:id="rId42" xr:uid="{E6BFB3FC-E0C2-4AB9-8B7D-37864B5B2639}"/>
+    <hyperlink ref="F27" r:id="rId43" xr:uid="{A144A583-07F6-4E74-B83D-DB080FC95063}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{B8E5E098-DAFC-4F59-915D-67654854C08C}"/>
+    <hyperlink ref="F50" r:id="rId45" xr:uid="{E8E15524-3C23-4542-A5A0-C94E775057D6}"/>
+    <hyperlink ref="F53" r:id="rId46" xr:uid="{6A483FD9-A730-470D-8BB4-7563B73C5F22}"/>
+    <hyperlink ref="F54" r:id="rId47" xr:uid="{0852BD17-FEBC-4C90-BC41-51EF18921968}"/>
+    <hyperlink ref="F55" r:id="rId48" xr:uid="{2CD092AE-CCA9-49BF-B636-86CCF5CBA600}"/>
+    <hyperlink ref="F61" r:id="rId49" xr:uid="{EAFCC6B0-8F42-4FC5-AE81-08EFC1ACBCCB}"/>
+    <hyperlink ref="F63" r:id="rId50" xr:uid="{E2B11D66-C39C-43ED-AEC9-ED9018895277}"/>
+    <hyperlink ref="F65" r:id="rId51" xr:uid="{F495FAFE-1D64-49A8-9344-0C958BF6D6EF}"/>
+    <hyperlink ref="F68" r:id="rId52" xr:uid="{83006F78-63E9-428D-AA89-120CED24B77F}"/>
+    <hyperlink ref="F69" r:id="rId53" xr:uid="{65BA677C-692A-4DCF-ABF8-D6F6B4515994}"/>
+    <hyperlink ref="F67" r:id="rId54" location=":~:text=%20The%20Workplace%20Hazardous%20Materials%20Information%20System%20%28,2%20reduce%20workplace%20injuries%20and%20illnesses%20More%20" xr:uid="{CBBC4667-ECFC-4594-AF5E-4E1F721F06D0}"/>
+    <hyperlink ref="F66" r:id="rId55" xr:uid="{EFC22D1A-6836-4A2C-8CB5-551BB51C94CD}"/>
+    <hyperlink ref="F15" r:id="rId56" xr:uid="{FF99D603-EE9D-4433-9FD7-FF61BC2B5AE7}"/>
+    <hyperlink ref="F52" r:id="rId57" xr:uid="{07EADCBE-9A9D-4EED-BAFB-6D78BC1839E9}"/>
+    <hyperlink ref="F62" r:id="rId58" xr:uid="{C8678248-A902-4CA2-B0B9-CED7B16369D3}"/>
+    <hyperlink ref="F9" r:id="rId59" xr:uid="{69726CB3-4CE8-4F84-87EE-906350B664EE}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId61"/>
+  <pageSetup orientation="landscape" r:id="rId60"/>
   <tableParts count="1">
-    <tablePart r:id="rId62"/>
+    <tablePart r:id="rId61"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10479,22 +10391,22 @@
         <v>338</v>
       </c>
       <c r="C1" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>408</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>409</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>178</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>337</v>
@@ -10506,7 +10418,7 @@
         <v>84</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M1" s="28" t="s">
         <v>335</v>
@@ -10517,10 +10429,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C2" s="21">
         <v>43461</v>
@@ -10550,10 +10462,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C3" s="21">
         <v>43462</v>
@@ -10583,10 +10495,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="21">
         <v>43462</v>
@@ -10614,10 +10526,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C5" s="21">
         <v>43462</v>
@@ -10645,10 +10557,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C6" s="21">
         <v>43462</v>
@@ -10678,10 +10590,10 @@
     </row>
     <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" s="21">
         <v>43462</v>
@@ -10715,10 +10627,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C8" s="21">
         <v>43462</v>
@@ -10748,10 +10660,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C9" s="21">
         <v>43462</v>
@@ -10781,10 +10693,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C10" s="21">
         <v>43462</v>
@@ -10814,10 +10726,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C11" s="21">
         <v>43462</v>
@@ -10847,10 +10759,10 @@
     </row>
     <row r="12" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" s="21">
         <v>43464</v>
@@ -10878,10 +10790,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C13" s="21">
         <v>43467</v>
@@ -10913,10 +10825,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C14" s="21">
         <v>43467</v>
@@ -10946,10 +10858,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C15" s="21">
         <v>43472</v>
@@ -10979,10 +10891,10 @@
     </row>
     <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C16" s="21">
         <v>43473</v>
@@ -11012,10 +10924,10 @@
     </row>
     <row r="17" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C17" s="21">
         <v>43473</v>
@@ -11045,10 +10957,10 @@
     </row>
     <row r="18" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C18" s="21">
         <v>43473</v>
@@ -11084,10 +10996,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C19" s="21">
         <v>43474</v>
@@ -11117,10 +11029,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C20" s="21">
         <v>43474</v>
@@ -11150,10 +11062,10 @@
     </row>
     <row r="21" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C21" s="21">
         <v>43475</v>
@@ -11191,10 +11103,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C22" s="21">
         <v>43475</v>
@@ -11222,10 +11134,10 @@
     </row>
     <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C23" s="21">
         <v>43475</v>
@@ -11259,10 +11171,10 @@
     </row>
     <row r="24" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C24" s="21">
         <v>43485</v>
@@ -11300,10 +11212,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C25" s="21">
         <v>43490</v>
@@ -11337,10 +11249,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C26" s="21">
         <v>43490</v>
@@ -11374,10 +11286,10 @@
     </row>
     <row r="27" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C27" s="21">
         <v>43492</v>
@@ -11415,10 +11327,10 @@
     </row>
     <row r="28" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C28" s="21">
         <v>43492</v>
@@ -11456,10 +11368,10 @@
     </row>
     <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C29" s="21">
         <v>43492</v>
@@ -11499,10 +11411,10 @@
     </row>
     <row r="30" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C30" s="21">
         <v>43492</v>
@@ -11526,13 +11438,13 @@
         <v>229</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K30" s="27" t="s">
         <v>228</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M30" s="27" t="s">
         <v>220</v>
@@ -11544,10 +11456,10 @@
     </row>
     <row r="31" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C31" s="21">
         <v>43492</v>
@@ -11587,10 +11499,10 @@
     </row>
     <row r="32" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C32" s="21">
         <v>43497</v>
@@ -11626,10 +11538,10 @@
     </row>
     <row r="33" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C33" s="21">
         <v>43649</v>
@@ -11663,10 +11575,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C34" s="21">
         <v>43650</v>
@@ -11698,10 +11610,10 @@
     </row>
     <row r="35" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C35" s="21">
         <v>43650</v>
@@ -11731,10 +11643,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C36" s="21">
         <v>43654</v>
@@ -11768,10 +11680,10 @@
     </row>
     <row r="37" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C37" s="21">
         <v>43684</v>
@@ -11805,10 +11717,10 @@
     </row>
     <row r="38" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C38" s="21">
         <v>43836</v>
@@ -11832,7 +11744,7 @@
         <v>339</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K38" s="27" t="s">
         <v>207</v>
@@ -11846,10 +11758,10 @@
     </row>
     <row r="39" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C39" s="21">
         <v>43864</v>
@@ -11861,25 +11773,25 @@
         <v>47</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G39" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H39" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="J39" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="I39" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="J39" s="27" t="s">
+      <c r="K39" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="L39" s="30" t="s">
         <v>355</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>356</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="27"/>
@@ -11887,10 +11799,10 @@
     </row>
     <row r="40" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C40" s="21">
         <v>43870</v>
@@ -11899,28 +11811,28 @@
         <v>43890</v>
       </c>
       <c r="E40" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="G40" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="I40" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="J40" s="27" t="s">
+      <c r="K40" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="L40" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>364</v>
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="27"/>
@@ -11928,10 +11840,10 @@
     </row>
     <row r="41" spans="1:15" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C41" s="21">
         <v>44039</v>
@@ -11940,40 +11852,40 @@
         <v>179</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F41" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="J41" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="K41" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="L41" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="M41" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="L41" s="46" t="s">
-        <v>464</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C42" s="21">
         <v>44040</v>
@@ -11982,40 +11894,40 @@
         <v>179</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G42" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="J42" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="I42" s="27" t="s">
+      <c r="K42" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="L42" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="J42" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="L42" s="46" t="s">
-        <v>470</v>
-      </c>
       <c r="M42" s="27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="N42" s="27"/>
     </row>
     <row r="43" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C43" s="21">
         <v>44188</v>
@@ -12024,7 +11936,7 @@
         <v>44196</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>151</v>
@@ -12033,31 +11945,31 @@
         <v>202</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="L43" s="46" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="M43" s="27"/>
       <c r="N43" s="27" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C44" s="21">
         <v>44195</v>
@@ -12069,37 +11981,37 @@
         <v>345</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G44" s="27" t="s">
         <v>202</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L44" s="46" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M44" s="27"/>
       <c r="N44" s="27" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C45" s="21">
         <v>44195</v>
@@ -12108,42 +12020,42 @@
         <v>179</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="G45" s="27" t="s">
         <v>202</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C46" s="21">
         <v>44195</v>
@@ -12152,42 +12064,42 @@
         <v>179</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G46" s="27" t="s">
         <v>202</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="J46" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="L46" s="46" t="s">
+        <v>587</v>
+      </c>
+      <c r="M46" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="K46" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="L46" s="46" t="s">
-        <v>593</v>
-      </c>
-      <c r="M46" s="27" t="s">
-        <v>597</v>
-      </c>
       <c r="N46" s="27" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C47" s="21">
         <v>44195</v>
@@ -12196,40 +12108,40 @@
         <v>179</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>202</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L47" s="46" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="N47" s="27"/>
     </row>
     <row r="48" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C48" s="21">
         <v>44195</v>
@@ -12238,38 +12150,38 @@
         <v>44207</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="K48" s="27"/>
       <c r="L48" s="46" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="N48" s="27"/>
     </row>
     <row r="49" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C49" s="21">
         <v>44196</v>
@@ -12278,59 +12190,59 @@
         <v>179</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G49" s="27" t="s">
         <v>202</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
       <c r="M49" s="27" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Offered"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Interview"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Applied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Incomplete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Offered-Declined"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Offered-Accepted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Interview-Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"No response"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12389,13 +12301,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>5</v>
@@ -12407,18 +12319,18 @@
         <v>40</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>9</v>
@@ -12427,7 +12339,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>146</v>
@@ -12442,16 +12354,16 @@
         <v>101</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -12459,13 +12371,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>115</v>
@@ -12474,22 +12386,22 @@
         <v>80</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>100</v>
       </c>
       <c r="I3" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>401</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>402</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -12497,37 +12409,37 @@
         <v>46</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>400</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>401</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>89</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -12535,35 +12447,35 @@
         <v>83</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -12574,70 +12486,70 @@
         <v>5</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>177</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -12645,37 +12557,37 @@
         <v>155</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -12686,72 +12598,72 @@
         <v>40</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -12784,7 +12696,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
         <v>177</v>
@@ -12796,96 +12708,96 @@
         <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="F1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" t="s">
         <v>553</v>
       </c>
-      <c r="F2" t="s">
-        <v>559</v>
-      </c>
       <c r="G2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E4" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F4" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>256</v>
@@ -12894,43 +12806,43 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F5" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G5" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H5" s="50"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F6" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A36F78BC-FFEB-4D7A-95E4-9DB34762A0A5}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00D23A6C-C9BD-41AA-BF46-ACB5B0A9ECB9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
@@ -1956,9 +1956,6 @@
     <t xml:space="preserve">Awarded in competition of 10 undergraduate students for poster presentation on connecting life history traits and community dynamics. </t>
   </si>
   <si>
-    <t>www.umanitoba.ca</t>
-  </si>
-  <si>
     <t>Org_Link</t>
   </si>
   <si>
@@ -2176,6 +2173,9 @@
   </si>
   <si>
     <t xml:space="preserve">Learned to liase with land managers. Excelled in communicating complex issues to varied audiences. </t>
+  </si>
+  <si>
+    <t>https://www.umanitoba.ca/</t>
   </si>
 </sst>
 </file>
@@ -2493,116 +2493,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="87">
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3334,6 +3224,74 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3996,6 +3954,48 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4010,18 +4010,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AK69" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AK69" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:AK69" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}">
     <filterColumn colId="2">
       <filters>
         <filter val="Education"/>
         <filter val="Employment"/>
         <filter val="Projects"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Nature Conservancy Canada"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4032,97 +4027,97 @@
     <sortCondition descending="1" ref="J2:J69"/>
   </sortState>
   <tableColumns count="37">
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="83"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="82"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="81"/>
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="80"/>
-    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Org_Link" dataDxfId="79"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="78"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="77"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="73">
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="78"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="76"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="74"/>
+    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Org_Link" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="71"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="67">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="72">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="66">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="71">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="65">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="70">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="64">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="69">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="63">
       <calculatedColumnFormula>IF((Q2="Days"),((K2-J2+1)),IF(Q2="Months",((K2-J2)/30),((K2-J2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="68"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="67"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="65"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="63"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="62"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="61"/>
-    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="60"/>
-    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="59"/>
-    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="58"/>
-    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="57"/>
-    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="56"/>
-    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="55"/>
-    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="54"/>
-    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="53"/>
-    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="52"/>
-    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="51"/>
-    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="50"/>
-    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="49"/>
-    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="62"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="61"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="60"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="59"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="58"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="57"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="55"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="54"/>
+    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="53"/>
+    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="52"/>
+    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="51"/>
+    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="50"/>
+    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="49"/>
+    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="48"/>
+    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="47"/>
+    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="46"/>
+    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="45"/>
+    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="44"/>
+    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="43"/>
+    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:N49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="45"/>
-    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="44"/>
-    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4444,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
   <dimension ref="A1:AK69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4493,7 +4488,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>24</v>
@@ -4550,46 +4545,46 @@
         <v>10</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB1" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="AA1" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>639</v>
-      </c>
       <c r="AF1" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="AG1" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>477</v>
       </c>
@@ -4606,7 +4601,7 @@
         <v>440</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>441</v>
@@ -4653,7 +4648,7 @@
         <v>446</v>
       </c>
       <c r="T2" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U2" s="39"/>
       <c r="V2" s="39"/>
@@ -4675,7 +4670,7 @@
       <c r="AJ2" s="39"/>
       <c r="AK2" s="39"/>
     </row>
-    <row r="3" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>477</v>
       </c>
@@ -4692,7 +4687,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G3" s="41" t="s">
         <v>20</v>
@@ -4765,7 +4760,7 @@
       <c r="AJ3" s="39"/>
       <c r="AK3" s="39"/>
     </row>
-    <row r="4" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>477</v>
       </c>
@@ -4782,7 +4777,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>16</v>
@@ -4851,7 +4846,7 @@
       <c r="AJ4" s="39"/>
       <c r="AK4" s="39"/>
     </row>
-    <row r="5" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>478</v>
       </c>
@@ -4868,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>16</v>
@@ -4935,7 +4930,7 @@
       <c r="AJ5" s="39"/>
       <c r="AK5" s="39"/>
     </row>
-    <row r="6" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>477</v>
       </c>
@@ -4952,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>20</v>
@@ -5021,7 +5016,7 @@
       <c r="AJ6" s="39"/>
       <c r="AK6" s="39"/>
     </row>
-    <row r="7" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>477</v>
       </c>
@@ -5103,7 +5098,7 @@
       <c r="AJ7" s="39"/>
       <c r="AK7" s="39"/>
     </row>
-    <row r="8" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>477</v>
       </c>
@@ -5120,7 +5115,7 @@
         <v>570</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>612</v>
@@ -5202,7 +5197,7 @@
         <v>47</v>
       </c>
       <c r="F9" s="51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>48</v>
@@ -5253,13 +5248,13 @@
         <v>341</v>
       </c>
       <c r="V9" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="W9" s="39" t="s">
         <v>174</v>
       </c>
       <c r="X9" s="39" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Y9" s="39"/>
       <c r="Z9" s="39"/>
@@ -5275,7 +5270,7 @@
       <c r="AJ9" s="39"/>
       <c r="AK9" s="39"/>
     </row>
-    <row r="10" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>477</v>
       </c>
@@ -5292,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>20</v>
@@ -5363,12 +5358,12 @@
       <c r="AJ10" s="39"/>
       <c r="AK10" s="39"/>
     </row>
-    <row r="11" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>477</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>33</v>
@@ -5449,7 +5444,7 @@
       <c r="AJ11" s="39"/>
       <c r="AK11" s="39"/>
     </row>
-    <row r="12" spans="1:37" ht="132" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="132" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>477</v>
       </c>
@@ -5466,7 +5461,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="40" t="s">
@@ -5533,7 +5528,7 @@
       <c r="AJ12" s="39"/>
       <c r="AK12" s="39"/>
     </row>
-    <row r="13" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="66" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>477</v>
       </c>
@@ -5550,7 +5545,7 @@
         <v>67</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="40" t="s">
@@ -5617,7 +5612,7 @@
       <c r="AJ13" s="39"/>
       <c r="AK13" s="39"/>
     </row>
-    <row r="14" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>477</v>
       </c>
@@ -5716,7 +5711,7 @@
         <v>365</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G15" s="41" t="s">
         <v>366</v>
@@ -5730,7 +5725,7 @@
       </c>
       <c r="K15" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L15" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5750,7 +5745,7 @@
       </c>
       <c r="P15" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>19.690673503086387</v>
+        <v>19.690847071759343</v>
       </c>
       <c r="Q15" s="39" t="s">
         <v>30</v>
@@ -5801,13 +5796,13 @@
         <v>7</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G16" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="47">
@@ -5883,7 +5878,7 @@
         <v>367</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>368</v>
@@ -5953,7 +5948,7 @@
         <v>477</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>15</v>
@@ -5965,7 +5960,7 @@
         <v>373</v>
       </c>
       <c r="F18" s="51" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G18" s="41" t="s">
         <v>374</v>
@@ -6039,7 +6034,7 @@
         <v>477</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>15</v>
@@ -6051,7 +6046,7 @@
         <v>34</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="40" t="s">
@@ -6135,7 +6130,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G20" s="41" t="s">
         <v>91</v>
@@ -6221,7 +6216,7 @@
         <v>11</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G21" s="41" t="s">
         <v>17</v>
@@ -6237,7 +6232,7 @@
       </c>
       <c r="K21" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L21" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6257,7 +6252,7 @@
       </c>
       <c r="P21" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>24.124006836419721</v>
+        <v>24.124180405092677</v>
       </c>
       <c r="Q21" s="39" t="s">
         <v>30</v>
@@ -6308,7 +6303,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G22" s="41" t="s">
         <v>27</v>
@@ -6394,7 +6389,7 @@
         <v>95</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>96</v>
@@ -6478,7 +6473,7 @@
         <v>11</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G24" s="41" t="s">
         <v>17</v>
@@ -6565,10 +6560,10 @@
         <v>45</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>426</v>
@@ -6654,7 +6649,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="40" t="s">
@@ -6736,7 +6731,7 @@
         <v>105</v>
       </c>
       <c r="F27" s="51" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G27" s="41" t="s">
         <v>106</v>
@@ -6820,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G28" s="41" t="s">
         <v>20</v>
@@ -6902,7 +6897,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>20</v>
@@ -6984,7 +6979,7 @@
         <v>109</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>110</v>
@@ -7066,7 +7061,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="51" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>18</v>
@@ -7082,7 +7077,7 @@
       </c>
       <c r="K31" s="47">
         <f t="shared" ref="K31:K37" ca="1" si="1">NOW()</f>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L31" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7102,7 +7097,7 @@
       </c>
       <c r="P31" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>16.690673503086387</v>
+        <v>16.690847071759343</v>
       </c>
       <c r="Q31" s="39" t="s">
         <v>30</v>
@@ -7151,7 +7146,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G32" s="41" t="s">
         <v>17</v>
@@ -7167,7 +7162,7 @@
       </c>
       <c r="K32" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L32" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7187,7 +7182,7 @@
       </c>
       <c r="P32" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4567676851851825</v>
+        <v>2.4567819511035078</v>
       </c>
       <c r="Q32" s="39" t="s">
         <v>31</v>
@@ -7236,7 +7231,7 @@
         <v>120</v>
       </c>
       <c r="F33" s="51" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G33" s="41"/>
       <c r="H33" s="40" t="s">
@@ -7250,7 +7245,7 @@
       </c>
       <c r="K33" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L33" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7270,7 +7265,7 @@
       </c>
       <c r="P33" s="42">
         <f t="shared" ref="P33:P64" ca="1" si="2">IF((Q33="Days"),((K33-J33+1)),IF(Q33="Months",((K33-J33)/30),((K33-J33)/365)))</f>
-        <v>32.89067350308639</v>
+        <v>32.890847071759346</v>
       </c>
       <c r="Q33" s="39" t="s">
         <v>30</v>
@@ -7319,7 +7314,7 @@
         <v>131</v>
       </c>
       <c r="F34" s="51" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="40" t="s">
@@ -7333,7 +7328,7 @@
       </c>
       <c r="K34" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L34" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7353,7 +7348,7 @@
       </c>
       <c r="P34" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>35.957340169753053</v>
+        <v>35.957513738426009</v>
       </c>
       <c r="Q34" s="39" t="s">
         <v>30</v>
@@ -7399,10 +7394,10 @@
         <v>115</v>
       </c>
       <c r="E35" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="F35" s="51" t="s">
         <v>656</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>657</v>
       </c>
       <c r="G35" s="41"/>
       <c r="H35" s="40" t="s">
@@ -7416,7 +7411,7 @@
       </c>
       <c r="K35" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L35" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7436,7 +7431,7 @@
       </c>
       <c r="P35" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>23.957340169753056</v>
+        <v>23.957513738426012</v>
       </c>
       <c r="Q35" s="39" t="s">
         <v>30</v>
@@ -7485,7 +7480,7 @@
         <v>121</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G36" s="41" t="s">
         <v>122</v>
@@ -7501,7 +7496,7 @@
       </c>
       <c r="K36" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L36" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7521,7 +7516,7 @@
       </c>
       <c r="P36" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>33.924006836419721</v>
+        <v>33.924180405092677</v>
       </c>
       <c r="Q36" s="39" t="s">
         <v>30</v>
@@ -7570,7 +7565,7 @@
         <v>129</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G37" s="41" t="s">
         <v>381</v>
@@ -7584,7 +7579,7 @@
       </c>
       <c r="K37" s="47">
         <f t="shared" ca="1" si="1"/>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L37" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7604,7 +7599,7 @@
       </c>
       <c r="P37" s="42">
         <f t="shared" ca="1" si="2"/>
-        <v>35.957340169753053</v>
+        <v>35.957513738426009</v>
       </c>
       <c r="Q37" s="39" t="s">
         <v>30</v>
@@ -7653,7 +7648,7 @@
         <v>47</v>
       </c>
       <c r="F38" s="51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G38" s="41" t="s">
         <v>48</v>
@@ -7737,7 +7732,7 @@
         <v>618</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G39" s="41" t="s">
         <v>619</v>
@@ -7821,7 +7816,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G40" s="41" t="s">
         <v>20</v>
@@ -7903,7 +7898,7 @@
         <v>620</v>
       </c>
       <c r="F41" s="51" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G41" s="41" t="s">
         <v>615</v>
@@ -7987,7 +7982,7 @@
         <v>67</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="40" t="s">
@@ -8050,7 +8045,7 @@
       <c r="AJ42" s="39"/>
       <c r="AK42" s="39"/>
     </row>
-    <row r="43" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>477</v>
       </c>
@@ -8058,7 +8053,7 @@
         <v>155</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>401</v>
@@ -8067,7 +8062,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>16</v>
@@ -8132,7 +8127,7 @@
       <c r="AJ43" s="39"/>
       <c r="AK43" s="39"/>
     </row>
-    <row r="44" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>477</v>
       </c>
@@ -8140,7 +8135,7 @@
         <v>155</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>401</v>
@@ -8149,7 +8144,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="51" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>16</v>
@@ -8214,7 +8209,7 @@
       <c r="AJ44" s="39"/>
       <c r="AK44" s="39"/>
     </row>
-    <row r="45" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>477</v>
       </c>
@@ -8222,7 +8217,7 @@
         <v>155</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>401</v>
@@ -8231,7 +8226,7 @@
         <v>536</v>
       </c>
       <c r="F45" s="51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="40" t="s">
@@ -8294,7 +8289,7 @@
       <c r="AJ45" s="39"/>
       <c r="AK45" s="39"/>
     </row>
-    <row r="46" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>477</v>
       </c>
@@ -8302,7 +8297,7 @@
         <v>155</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>401</v>
@@ -8311,11 +8306,11 @@
         <v>7</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="40" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I46" s="41"/>
       <c r="J46" s="48"/>
@@ -8349,13 +8344,13 @@
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Z46" s="39" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AA46" s="39" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AB46" s="39"/>
       <c r="AC46" s="39"/>
@@ -8376,7 +8371,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>33</v>
@@ -8385,13 +8380,13 @@
         <v>47</v>
       </c>
       <c r="F47" s="51" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>48</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I47" s="41" t="s">
         <v>423</v>
@@ -8458,7 +8453,7 @@
       <c r="AJ47" s="39"/>
       <c r="AK47" s="39"/>
     </row>
-    <row r="48" spans="1:37" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>477</v>
       </c>
@@ -8466,13 +8461,13 @@
         <v>46</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>397</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F48" s="40"/>
       <c r="G48" s="41"/>
@@ -8523,13 +8518,13 @@
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="39" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z48" s="39" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AA48" s="39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB48" s="39"/>
       <c r="AC48" s="39"/>
@@ -8542,7 +8537,7 @@
       <c r="AJ48" s="39"/>
       <c r="AK48" s="39"/>
     </row>
-    <row r="49" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>478</v>
       </c>
@@ -8559,7 +8554,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G49" s="41" t="s">
         <v>20</v>
@@ -8624,7 +8619,7 @@
       <c r="AJ49" s="39"/>
       <c r="AK49" s="39"/>
     </row>
-    <row r="50" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>478</v>
       </c>
@@ -8641,7 +8636,7 @@
         <v>536</v>
       </c>
       <c r="F50" s="51" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="40" t="s">
@@ -8704,7 +8699,7 @@
       <c r="AJ50" s="39"/>
       <c r="AK50" s="39"/>
     </row>
-    <row r="51" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>478</v>
       </c>
@@ -8721,7 +8716,7 @@
         <v>371</v>
       </c>
       <c r="F51" s="51" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="40" t="s">
@@ -8784,7 +8779,7 @@
       <c r="AJ51" s="39"/>
       <c r="AK51" s="39"/>
     </row>
-    <row r="52" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>478</v>
       </c>
@@ -8801,7 +8796,7 @@
         <v>135</v>
       </c>
       <c r="F52" s="51" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G52" s="41" t="s">
         <v>136</v>
@@ -8868,7 +8863,7 @@
       <c r="AJ52" s="39"/>
       <c r="AK52" s="39"/>
     </row>
-    <row r="53" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>478</v>
       </c>
@@ -8885,7 +8880,7 @@
         <v>144</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G53" s="41"/>
       <c r="H53" s="40" t="s">
@@ -8948,7 +8943,7 @@
       <c r="AJ53" s="39"/>
       <c r="AK53" s="39"/>
     </row>
-    <row r="54" spans="1:37" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>478</v>
       </c>
@@ -8965,7 +8960,7 @@
         <v>345</v>
       </c>
       <c r="F54" s="51" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G54" s="41" t="s">
         <v>347</v>
@@ -9022,7 +9017,7 @@
       <c r="AJ54" s="39"/>
       <c r="AK54" s="39"/>
     </row>
-    <row r="55" spans="1:37" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>478</v>
       </c>
@@ -9039,7 +9034,7 @@
         <v>537</v>
       </c>
       <c r="F55" s="51" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="40" t="s">
@@ -9098,7 +9093,7 @@
       <c r="AJ55" s="39"/>
       <c r="AK55" s="39"/>
     </row>
-    <row r="56" spans="1:37" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>478</v>
       </c>
@@ -9115,7 +9110,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G56" s="41" t="s">
         <v>20</v>
@@ -9180,7 +9175,7 @@
       <c r="AJ56" s="39"/>
       <c r="AK56" s="39"/>
     </row>
-    <row r="57" spans="1:37" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>478</v>
       </c>
@@ -9197,7 +9192,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G57" s="41" t="s">
         <v>20</v>
@@ -9264,7 +9259,7 @@
       <c r="AJ57" s="39"/>
       <c r="AK57" s="39"/>
     </row>
-    <row r="58" spans="1:37" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="66" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>478</v>
       </c>
@@ -9281,7 +9276,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G58" s="41" t="s">
         <v>20</v>
@@ -9348,12 +9343,12 @@
       <c r="AJ58" s="39"/>
       <c r="AK58" s="39"/>
     </row>
-    <row r="59" spans="1:37" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>478</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>33</v>
@@ -9443,13 +9438,13 @@
         <v>7</v>
       </c>
       <c r="F60" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G60" s="41" t="s">
         <v>20</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I60" s="41"/>
       <c r="J60" s="47">
@@ -9525,7 +9520,7 @@
         <v>36</v>
       </c>
       <c r="F61" s="51" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G61" s="41" t="s">
         <v>37</v>
@@ -9605,7 +9600,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="51" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G62" s="41" t="s">
         <v>17</v>
@@ -9685,7 +9680,7 @@
         <v>85</v>
       </c>
       <c r="F63" s="51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G63" s="41" t="s">
         <v>86</v>
@@ -9767,7 +9762,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="51" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G64" s="41" t="s">
         <v>20</v>
@@ -9837,7 +9832,7 @@
         <v>478</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>388</v>
@@ -9849,7 +9844,7 @@
         <v>139</v>
       </c>
       <c r="F65" s="51" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G65" s="41"/>
       <c r="H65" s="40" t="s">
@@ -9929,7 +9924,7 @@
         <v>149</v>
       </c>
       <c r="F66" s="51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G66" s="41"/>
       <c r="H66" s="40" t="s">
@@ -10011,7 +10006,7 @@
         <v>139</v>
       </c>
       <c r="F67" s="51" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="40" t="s">
@@ -10025,7 +10020,7 @@
       </c>
       <c r="K67" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L67" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -10045,7 +10040,7 @@
       </c>
       <c r="P67" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>28.890673503086386</v>
+        <v>28.890847071759346</v>
       </c>
       <c r="Q67" s="39" t="s">
         <v>30</v>
@@ -10094,7 +10089,7 @@
         <v>147</v>
       </c>
       <c r="F68" s="51" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G68" s="41"/>
       <c r="H68" s="40" t="s">
@@ -10106,7 +10101,7 @@
       </c>
       <c r="K68" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L68" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -10126,7 +10121,7 @@
       </c>
       <c r="P68" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>9.210192342719429</v>
+        <v>9.2102066086377548</v>
       </c>
       <c r="Q68" s="39" t="s">
         <v>31</v>
@@ -10175,7 +10170,7 @@
         <v>127</v>
       </c>
       <c r="F69" s="51" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G69" s="41" t="s">
         <v>126</v>
@@ -10189,7 +10184,7 @@
       </c>
       <c r="K69" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.720205092592</v>
+        <v>44452.72541215278</v>
       </c>
       <c r="L69" s="49">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -10209,7 +10204,7 @@
       </c>
       <c r="P69" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>35.957340169753053</v>
+        <v>35.957513738426009</v>
       </c>
       <c r="Q69" s="39" t="s">
         <v>30</v>
@@ -10244,30 +10239,30 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="L62:O62 K63:O64 K67:O67 K69:O1048576 K1:O61">
-    <cfRule type="timePeriod" dxfId="14" priority="9" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="86" priority="9" timePeriod="today">
       <formula>FLOOR(K1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62">
-    <cfRule type="timePeriod" dxfId="13" priority="5" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="85" priority="5" timePeriod="today">
       <formula>FLOOR(K62,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:O66">
-    <cfRule type="timePeriod" dxfId="12" priority="4" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="84" priority="4" timePeriod="today">
       <formula>FLOOR(K65,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:O68">
-    <cfRule type="timePeriod" dxfId="11" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="83" priority="3" timePeriod="today">
       <formula>FLOOR(K68,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:AK69">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>$A2="Disclude"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>$A2="Include"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12218,31 +12213,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"Offered"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Interview"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Applied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Incomplete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"Offered-Declined"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Offered-Accepted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"Interview-Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"No response"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12330,7 +12325,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>9</v>
@@ -12557,7 +12552,7 @@
         <v>155</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>400</v>

--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{86557594-545C-4403-B14F-4ED17EB9CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E98596-DC5B-414D-8F15-AF26A9F1371B}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="13_ncr:1_{86557594-545C-4403-B14F-4ED17EB9CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2ABE07-1499-4401-AB72-7D0CFCB2FDB5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="760">
   <si>
     <t>Category</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>Achievements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organized and led public outreach, stewardship, and restoration projects. </t>
   </si>
   <si>
     <t xml:space="preserve">Planted, monitored, and maintained bare-root, container, and root-balled trees. Mechanically and chemically managed invasive plants. Inventoried &gt;1000 trees on property and performed tree health assessments. Loaded/unloaded flatbed crane trucks. Drove pick-up trucks off-road and with trailers. Performed landscape maintenance using small tractors. Set-up water pumps/ irrigation systems. Built cedar post fences. Created and maintained trails. </t>
@@ -1197,9 +1194,6 @@
     <t>Driver's education course with in class and in vehicle components.</t>
   </si>
   <si>
-    <t>Part-time staff in 4 restaurants during high school</t>
-  </si>
-  <si>
     <t>Award</t>
   </si>
   <si>
@@ -1305,9 +1299,6 @@
     <t xml:space="preserve">ontario@natureconservancy.ca </t>
   </si>
   <si>
-    <t xml:space="preserve">Conglomerated nearly 20 years of reports across over 10,000 hectares of NCC property into a living excel database. Adapted range health polygons into analyzable format. Created automated analysis and reporting templates with table and figure outputs through R Statistical Programming. </t>
-  </si>
-  <si>
     <t>RRHA</t>
   </si>
   <si>
@@ -1344,9 +1335,6 @@
     <t>Coordinated events for student stewardship engagement and a public BIOBLITZ. Organized volunteers and liaised with partners (General Motors, World Wildlife Fund). Led demonstrations in environmental monitoring.</t>
   </si>
   <si>
-    <t>Learned how to condense instructions for successive volunteer groups. Learned to coordinate groups of people from different cultural and academic backgrounds.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Participated in 5-day, overnight, remote-area trail building trips. Contributed to organizational structure development. Liaised with partners and organized projects specific to the Crowsnest Pass area. </t>
   </si>
   <si>
@@ -1483,9 +1471,6 @@
   </si>
   <si>
     <t xml:space="preserve">Serviced and inspected physical education equipment, operable walls, and telescopic seating. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked in general mechanics with power tools, saws, and aerial work platforms. Drove pick-up trucks and work vans with trailer attachments. Hired and managed employees. Completed inspections for industry health and safety standards. </t>
   </si>
   <si>
     <t xml:space="preserve">Communicated complex issues to clients with less familiarity. Coordinated inspections of over 200 sites over 4-month periods through scheduling with staff and clients. </t>
@@ -1599,18 +1584,9 @@
     <t>Annual visit to invasive species management site successes, failures, and works-in-progress.</t>
   </si>
   <si>
-    <t>Completed biophysical inventory of a 594 acre parcel of reforested land in the Central Kootenays of BC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compared terrestrial arthropod communities wetlands at different stages of ecological restoration. </t>
-  </si>
-  <si>
     <t>Niagara River Invasive Species Management</t>
   </si>
   <si>
-    <t>Mapped and prioritized invasive species occurrences on an 11 km stretch of the Niagara River for the Niagara Parks Commission.</t>
-  </si>
-  <si>
     <t>Fitness centre general worker.</t>
   </si>
   <si>
@@ -2308,6 +2284,66 @@
   </si>
   <si>
     <t xml:space="preserve">Learned to think on my feet by adjusting presentations to differing levels of subject interest. Developed exceptional benthic macroinvertebrate identification skills. Learned how to properly manage and handle farm animals. </t>
+  </si>
+  <si>
+    <t>Part-time staff in 4 restaurants before and during high school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned how to problem solve complex issues, manage staff, coordinate site visits, and meet deadlines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked in general mechanics with power tools, saws, ladders, scaffolding, and aerial work platforms. Drove pick-up trucks and work vans with trailer attachments. Hired and managed employees. Completed inspections for industry health and safety standards. </t>
+  </si>
+  <si>
+    <t>Learned how to condense instructions for successive volunteer groups. Learned to coordinate volunteer groups of people from different cultural and academic backgrounds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organized and led public outreach, stewardship, workshops, and restoration projects. </t>
+  </si>
+  <si>
+    <t>turf_wars_paper</t>
+  </si>
+  <si>
+    <t>Final paper submitted in completion of course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario University Programs in Field Biology (OUPFB) field course project examing the impacts of forest understory turf transplants in restoration efforts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compared vegetation communities, soil macroinvertebrate communities, and decompostion assays between reference and restored sites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found that understory turf transplants were successful at establishing vegetation, but less successful at increasing function (decomposition) or soil macroinvertebrate diversity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conglomerated nearly 20 years of rangeland and riparian health reports across over 10,000 hectares of NCC property into a living excel database. Adapted range health polygons into analyzable format. Created automated analysis and reporting templates with table and figure outputs through R Statistical Programming. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summative project in college program comparing terrestrial arthropod communities in wetlands at different stages of ecological restoration. </t>
+  </si>
+  <si>
+    <t>Summative project in college program mapping and prioritizing invasive species on an 11 km stretch of the Niagara River for the Niagara Parks Commission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used Malaise traps and pitfall traps to collect insect specimens at two wetlands: one restored in the 1970's and one restored one year prior to assessment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found that total insect abundance was higher at the older restoration project, but taxonomic diversity was not. Provided recommendations on inclusion into existing long term monitoring programs. </t>
+  </si>
+  <si>
+    <t>terrestrial_insects_paper</t>
+  </si>
+  <si>
+    <t>Collaborator: Michelle Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract with private landowner in British Columbia to complete biophysical inventory of a 594 acre parcel of reforested land. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conducted preliminary site assessments using publicly available spatial data to assess edaphic and hydrological conditions. Assessed changes in land use through time using aerial imagery. Determined success of reforestation efforts based on increases in forest cover. </t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2643,20 +2679,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="89">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4234,6 +4256,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -4275,7 +4311,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM74" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM74" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A1:AM74" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM74">
     <sortCondition descending="1" ref="E2:E74"/>
@@ -4283,99 +4319,99 @@
     <sortCondition descending="1" ref="I2:I74"/>
   </sortState>
   <tableColumns count="39">
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="79"/>
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="78"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="77"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="72">
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="78"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="77"/>
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="74"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="70">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="71">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="69">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="70">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="68">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="69">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="67">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="68">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="66">
       <calculatedColumnFormula>IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="65"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="64"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="63"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="62"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="61"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="60"/>
-    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="59"/>
-    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="58"/>
-    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="57"/>
-    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="56"/>
-    <tableColumn id="39" xr3:uid="{CDFAF1DD-71C7-4BE5-985F-753C0AC61716}" name="V2_Type" dataDxfId="55"/>
-    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="54"/>
-    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="53"/>
-    <tableColumn id="38" xr3:uid="{70C3692F-FB1A-483A-8240-B37C7497B7B9}" name="V3_Type" dataDxfId="52"/>
-    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="51"/>
-    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="50"/>
-    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="49"/>
-    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="48"/>
-    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="47"/>
-    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="46"/>
-    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="45"/>
-    <tableColumn id="40" xr3:uid="{253CE8A7-249E-41AF-AF8F-0BF5333B36DA}" name="Org_Link" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="65"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="64"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="63"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="62"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="61"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="60"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="59"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="58"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="57"/>
+    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="56"/>
+    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="55"/>
+    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="54"/>
+    <tableColumn id="39" xr3:uid="{CDFAF1DD-71C7-4BE5-985F-753C0AC61716}" name="V2_Type" dataDxfId="53"/>
+    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="52"/>
+    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="51"/>
+    <tableColumn id="38" xr3:uid="{70C3692F-FB1A-483A-8240-B37C7497B7B9}" name="V3_Type" dataDxfId="50"/>
+    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="49"/>
+    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="48"/>
+    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="47"/>
+    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="46"/>
+    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="45"/>
+    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="44"/>
+    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="43"/>
+    <tableColumn id="40" xr3:uid="{253CE8A7-249E-41AF-AF8F-0BF5333B36DA}" name="Org_Link" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:N49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4697,9 +4733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V7" sqref="V7"/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4761,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>155</v>
@@ -4779,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>161</v>
@@ -4806,7 +4842,7 @@
         <v>4</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>164</v>
@@ -4818,69 +4854,69 @@
         <v>10</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="AL1" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>642</v>
-      </c>
       <c r="AM1" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>439</v>
-      </c>
       <c r="E2" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F2" s="39" t="s">
         <v>154</v>
@@ -4889,7 +4925,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I2" s="47">
         <v>44075</v>
@@ -4914,25 +4950,25 @@
         <v>2022</v>
       </c>
       <c r="O2" s="42">
-        <f>IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
+        <f t="shared" ref="O2:O33" si="0">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
         <v>1.6602739726027398</v>
       </c>
       <c r="P2" s="39" t="s">
         <v>31</v>
       </c>
       <c r="Q2" s="39" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="S2" s="39" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="T2" s="39"/>
       <c r="U2" s="39"/>
       <c r="V2" s="50" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="W2" s="50"/>
       <c r="X2" s="39"/>
@@ -4951,7 +4987,7 @@
       <c r="AK2" s="39"/>
       <c r="AL2" s="50"/>
       <c r="AM2" s="52" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -4962,13 +4998,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>46</v>
@@ -4977,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="I3" s="47">
         <v>43344</v>
@@ -5002,7 +5038,7 @@
         <v>2019</v>
       </c>
       <c r="O3" s="42">
-        <f>IF((P3="Days"),((J3-I3+1)),IF(P3="Months",((J3-I3)/30),((J3-I3)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P3" s="39" t="s">
@@ -5015,10 +5051,10 @@
         <v>56</v>
       </c>
       <c r="S3" s="39" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="T3" s="39" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="U3" s="39"/>
       <c r="V3" s="50"/>
@@ -5039,7 +5075,7 @@
       <c r="AK3" s="39"/>
       <c r="AL3" s="50"/>
       <c r="AM3" s="52" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -5056,7 +5092,7 @@
         <v>23</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>154</v>
@@ -5065,7 +5101,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I4" s="47">
         <v>41518</v>
@@ -5090,7 +5126,7 @@
         <v>2017</v>
       </c>
       <c r="O4" s="42">
-        <f>IF((P4="Days"),((J4-I4+1)),IF(P4="Months",((J4-I4)/30),((J4-I4)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.5835616438356164</v>
       </c>
       <c r="P4" s="39" t="s">
@@ -5103,16 +5139,16 @@
         <v>56</v>
       </c>
       <c r="S4" s="39" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="T4" s="39" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="U4" s="39" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="V4" s="50" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="W4" s="50"/>
       <c r="X4" s="39"/>
@@ -5131,24 +5167,24 @@
       <c r="AK4" s="39"/>
       <c r="AL4" s="50"/>
       <c r="AM4" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A5" s="40" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>154</v>
@@ -5182,39 +5218,39 @@
         <v>2021</v>
       </c>
       <c r="O5" s="42">
-        <f>IF((P5="Days"),((J5-I5+1)),IF(P5="Months",((J5-I5)/30),((J5-I5)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.6333333333333333</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>30</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="R5" s="39" t="s">
         <v>87</v>
       </c>
       <c r="S5" s="39" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="T5" s="39" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="U5" s="39" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="V5" s="50" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="W5" s="50"/>
       <c r="X5" s="39" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="Y5" s="39" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Z5" s="50" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="AA5" s="39"/>
       <c r="AB5" s="39"/>
@@ -5223,17 +5259,17 @@
       <c r="AE5" s="39"/>
       <c r="AF5" s="50"/>
       <c r="AG5" s="39" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="AH5" s="50" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="AI5" s="39"/>
       <c r="AJ5" s="50"/>
       <c r="AK5" s="39"/>
       <c r="AL5" s="50"/>
       <c r="AM5" s="52" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="158.4" x14ac:dyDescent="0.3">
@@ -5244,11 +5280,11 @@
         <v>48</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D6" s="51"/>
       <c r="E6" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>154</v>
@@ -5282,7 +5318,7 @@
         <v>2020</v>
       </c>
       <c r="O6" s="42">
-        <f>IF((P6="Days"),((J6-I6+1)),IF(P6="Months",((J6-I6)/30),((J6-I6)/365)))</f>
+        <f t="shared" si="0"/>
         <v>15.266666666666667</v>
       </c>
       <c r="P6" s="39" t="s">
@@ -5295,19 +5331,19 @@
         <v>52</v>
       </c>
       <c r="S6" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U6" s="39" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="V6" s="50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="W6" s="50" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="X6" s="39"/>
       <c r="Y6" s="39"/>
@@ -5325,7 +5361,7 @@
       <c r="AK6" s="39"/>
       <c r="AL6" s="50"/>
       <c r="AM6" s="52" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="79.2" x14ac:dyDescent="0.3">
@@ -5338,7 +5374,7 @@
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>101</v>
@@ -5372,7 +5408,7 @@
         <v>2018</v>
       </c>
       <c r="O7" s="42">
-        <f>IF((P7="Days"),((J7-I7+1)),IF(P7="Months",((J7-I7)/30),((J7-I7)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
       <c r="P7" s="39" t="s">
@@ -5385,16 +5421,16 @@
         <v>56</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U7" s="39" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="V7" s="50" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="W7" s="50"/>
       <c r="X7" s="39"/>
@@ -5413,7 +5449,7 @@
       <c r="AK7" s="39"/>
       <c r="AL7" s="50"/>
       <c r="AM7" s="52" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="145.19999999999999" x14ac:dyDescent="0.3">
@@ -5426,7 +5462,7 @@
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>46</v>
@@ -5460,7 +5496,7 @@
         <v>2018</v>
       </c>
       <c r="O8" s="42">
-        <f>IF((P8="Days"),((J8-I8+1)),IF(P8="Months",((J8-I8)/30),((J8-I8)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="P8" s="39" t="s">
@@ -5473,13 +5509,13 @@
         <v>56</v>
       </c>
       <c r="S8" s="39" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="T8" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" s="39" t="s">
         <v>167</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>168</v>
       </c>
       <c r="V8" s="50"/>
       <c r="W8" s="50"/>
@@ -5499,7 +5535,7 @@
       <c r="AK8" s="39"/>
       <c r="AL8" s="50"/>
       <c r="AM8" s="52" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -5512,7 +5548,7 @@
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>101</v>
@@ -5546,7 +5582,7 @@
         <v>2018</v>
       </c>
       <c r="O9" s="42">
-        <f>IF((P9="Days"),((J9-I9+1)),IF(P9="Months",((J9-I9)/30),((J9-I9)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P9" s="39" t="s">
@@ -5559,13 +5595,13 @@
         <v>56</v>
       </c>
       <c r="S9" s="39" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="T9" s="39" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="U9" s="39" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="V9" s="50"/>
       <c r="W9" s="50"/>
@@ -5598,7 +5634,7 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>70</v>
@@ -5632,7 +5668,7 @@
         <v>2017</v>
       </c>
       <c r="O10" s="42">
-        <f>IF((P10="Days"),((J10-I10+1)),IF(P10="Months",((J10-I10)/30),((J10-I10)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
       <c r="P10" s="39" t="s">
@@ -5645,13 +5681,13 @@
         <v>56</v>
       </c>
       <c r="S10" s="39" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="T10" s="39" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="U10" s="39" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
@@ -5671,7 +5707,7 @@
       <c r="AK10" s="39"/>
       <c r="AL10" s="50"/>
       <c r="AM10" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -5682,11 +5718,11 @@
         <v>20</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>154</v>
@@ -5720,7 +5756,7 @@
         <v>2018</v>
       </c>
       <c r="O11" s="42">
-        <f>IF((P11="Days"),((J11-I11+1)),IF(P11="Months",((J11-I11)/30),((J11-I11)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.6739726027397261</v>
       </c>
       <c r="P11" s="39" t="s">
@@ -5733,16 +5769,16 @@
         <v>56</v>
       </c>
       <c r="S11" s="39" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="T11" s="39" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="U11" s="39" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="V11" s="50" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="W11" s="50"/>
       <c r="X11" s="39"/>
@@ -5761,7 +5797,7 @@
       <c r="AK11" s="39"/>
       <c r="AL11" s="50"/>
       <c r="AM11" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="79.2" x14ac:dyDescent="0.3">
@@ -5776,10 +5812,10 @@
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>33</v>
@@ -5810,7 +5846,7 @@
         <v>2016</v>
       </c>
       <c r="O12" s="42">
-        <f>IF((P12="Days"),((J12-I12+1)),IF(P12="Months",((J12-I12)/30),((J12-I12)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.6684931506849314</v>
       </c>
       <c r="P12" s="39" t="s">
@@ -5823,14 +5859,16 @@
         <v>56</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="T12" s="39" t="s">
-        <v>477</v>
-      </c>
-      <c r="U12" s="39"/>
+        <v>742</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>741</v>
+      </c>
       <c r="V12" s="50" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="W12" s="50" t="s">
         <v>113</v>
@@ -5862,7 +5900,7 @@
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>70</v>
@@ -5896,7 +5934,7 @@
         <v>2011</v>
       </c>
       <c r="O13" s="42">
-        <f>IF((P13="Days"),((J13-I13+1)),IF(P13="Months",((J13-I13)/30),((J13-I13)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P13" s="39" t="s">
@@ -5909,13 +5947,13 @@
         <v>56</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>381</v>
+        <v>740</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="U13" s="39" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="V13" s="50"/>
       <c r="W13" s="50"/>
@@ -5938,20 +5976,20 @@
     </row>
     <row r="14" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>370</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>371</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>15</v>
@@ -5982,7 +6020,7 @@
         <v>2020</v>
       </c>
       <c r="O14" s="42">
-        <f>IF((P14="Days"),((J14-I14+1)),IF(P14="Months",((J14-I14)/30),((J14-I14)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="P14" s="39" t="s">
@@ -5995,14 +6033,14 @@
         <v>52</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="U14" s="39"/>
       <c r="V14" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W14" s="50"/>
       <c r="X14" s="39"/>
@@ -6021,22 +6059,22 @@
       <c r="AK14" s="39"/>
       <c r="AL14" s="50"/>
       <c r="AM14" s="52" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>362</v>
-      </c>
       <c r="C15" s="40" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>154</v>
@@ -6045,14 +6083,14 @@
         <v>15</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" s="47">
         <v>43862</v>
       </c>
       <c r="J15" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K15" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6071,8 +6109,8 @@
         <v>2021</v>
       </c>
       <c r="O15" s="42">
-        <f ca="1">IF((P15="Days"),((J15-I15+1)),IF(P15="Months",((J15-I15)/30),((J15-I15)/365)))</f>
-        <v>19.719476500771513</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19.780314625771521</v>
       </c>
       <c r="P15" s="39" t="s">
         <v>30</v>
@@ -6084,10 +6122,10 @@
         <v>52</v>
       </c>
       <c r="S15" s="39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="U15" s="39"/>
       <c r="V15" s="50"/>
@@ -6108,31 +6146,31 @@
       <c r="AK15" s="39"/>
       <c r="AL15" s="50"/>
       <c r="AM15" s="52" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>364</v>
-      </c>
       <c r="C16" s="40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I16" s="47">
         <v>43862</v>
@@ -6157,7 +6195,7 @@
         <v>2020</v>
       </c>
       <c r="O16" s="42">
-        <f>IF((P16="Days"),((J16-I16+1)),IF(P16="Months",((J16-I16)/30),((J16-I16)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P16" s="39" t="s">
@@ -6170,7 +6208,7 @@
         <v>52</v>
       </c>
       <c r="S16" s="39" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="T16" s="39"/>
       <c r="U16" s="39"/>
@@ -6192,7 +6230,7 @@
       <c r="AK16" s="39"/>
       <c r="AL16" s="50"/>
       <c r="AM16" s="52" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -6209,7 +6247,7 @@
         <v>92</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F17" s="39" t="s">
         <v>46</v>
@@ -6243,7 +6281,7 @@
         <v>2019</v>
       </c>
       <c r="O17" s="42">
-        <f>IF((P17="Days"),((J17-I17+1)),IF(P17="Months",((J17-I17)/30),((J17-I17)/365)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P17" s="39" t="s">
@@ -6256,11 +6294,11 @@
         <v>61</v>
       </c>
       <c r="S17" s="39" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="T17" s="39"/>
       <c r="U17" s="39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V17" s="50"/>
       <c r="W17" s="50"/>
@@ -6280,7 +6318,7 @@
       <c r="AK17" s="39"/>
       <c r="AL17" s="50"/>
       <c r="AM17" s="52" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -6294,10 +6332,10 @@
         <v>41</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F18" s="39" t="s">
         <v>46</v>
@@ -6306,14 +6344,14 @@
         <v>15</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I18" s="47">
         <v>43729</v>
       </c>
       <c r="J18" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K18" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6332,21 +6370,21 @@
         <v>2021</v>
       </c>
       <c r="O18" s="42">
-        <f ca="1">IF((P18="Days"),((J18-I18+1)),IF(P18="Months",((J18-I18)/30),((J18-I18)/365)))</f>
-        <v>24.152809834104847</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.213647959104854</v>
       </c>
       <c r="P18" s="39" t="s">
         <v>30</v>
       </c>
       <c r="Q18" s="39"/>
       <c r="R18" s="39" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="S18" s="39" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="U18" s="39"/>
       <c r="V18" s="50"/>
@@ -6367,7 +6405,7 @@
       <c r="AK18" s="39"/>
       <c r="AL18" s="50"/>
       <c r="AM18" s="52" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="66" x14ac:dyDescent="0.3">
@@ -6384,7 +6422,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>46</v>
@@ -6393,7 +6431,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I19" s="47">
         <v>43647</v>
@@ -6418,7 +6456,7 @@
         <v>2020</v>
       </c>
       <c r="O19" s="42">
-        <f>IF((P19="Days"),((J19-I19+1)),IF(P19="Months",((J19-I19)/30),((J19-I19)/365)))</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="P19" s="39" t="s">
@@ -6431,10 +6469,10 @@
         <v>52</v>
       </c>
       <c r="S19" s="39" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="T19" s="39" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U19" s="39"/>
       <c r="V19" s="50"/>
@@ -6455,7 +6493,7 @@
       <c r="AK19" s="39"/>
       <c r="AL19" s="50"/>
       <c r="AM19" s="52" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -6468,10 +6506,10 @@
       </c>
       <c r="D20" s="51"/>
       <c r="E20" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G20" s="39" t="s">
         <v>15</v>
@@ -6502,7 +6540,7 @@
         <v>2019</v>
       </c>
       <c r="O20" s="42">
-        <f>IF((P20="Days"),((J20-I20+1)),IF(P20="Months",((J20-I20)/30),((J20-I20)/365)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P20" s="39" t="s">
@@ -6515,14 +6553,14 @@
         <v>52</v>
       </c>
       <c r="S20" s="39" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="U20" s="39"/>
       <c r="V20" s="50" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="W20" s="50"/>
       <c r="X20" s="39"/>
@@ -6541,7 +6579,7 @@
       <c r="AK20" s="39"/>
       <c r="AL20" s="50"/>
       <c r="AM20" s="52" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -6556,7 +6594,7 @@
       </c>
       <c r="D21" s="51"/>
       <c r="E21" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>46</v>
@@ -6590,7 +6628,7 @@
         <v>2019</v>
       </c>
       <c r="O21" s="42">
-        <f>IF((P21="Days"),((J21-I21+1)),IF(P21="Months",((J21-I21)/30),((J21-I21)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P21" s="39" t="s">
@@ -6603,10 +6641,10 @@
         <v>52</v>
       </c>
       <c r="S21" s="39" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="U21" s="39"/>
       <c r="V21" s="50"/>
@@ -6627,7 +6665,7 @@
       <c r="AK21" s="39"/>
       <c r="AL21" s="50"/>
       <c r="AM21" s="52" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="66" x14ac:dyDescent="0.3">
@@ -6644,7 +6682,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>46</v>
@@ -6653,7 +6691,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I22" s="47">
         <v>43344</v>
@@ -6678,7 +6716,7 @@
         <v>2019</v>
       </c>
       <c r="O22" s="42">
-        <f>IF((P22="Days"),((J22-I22+1)),IF(P22="Months",((J22-I22)/30),((J22-I22)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P22" s="39" t="s">
@@ -6691,17 +6729,17 @@
         <v>56</v>
       </c>
       <c r="S22" s="39" t="s">
-        <v>166</v>
+        <v>744</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>430</v>
+        <v>743</v>
       </c>
       <c r="V22" s="50"/>
       <c r="W22" s="50" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -6719,22 +6757,22 @@
       <c r="AK22" s="39"/>
       <c r="AL22" s="50"/>
       <c r="AM22" s="52" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D23" s="51"/>
       <c r="E23" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>46</v>
@@ -6768,26 +6806,26 @@
         <v>2019</v>
       </c>
       <c r="O23" s="42">
-        <f>IF((P23="Days"),((J23-I23+1)),IF(P23="Months",((J23-I23)/30),((J23-I23)/365)))</f>
+        <f t="shared" si="0"/>
         <v>0.61643835616438358</v>
       </c>
       <c r="P23" s="39" t="s">
         <v>31</v>
       </c>
       <c r="Q23" s="39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="R23" s="39" t="s">
         <v>56</v>
       </c>
       <c r="S23" s="44" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T23" s="39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="U23" s="39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="V23" s="50"/>
       <c r="W23" s="50"/>
@@ -6807,7 +6845,7 @@
       <c r="AK23" s="39"/>
       <c r="AL23" s="50"/>
       <c r="AM23" s="52" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -6820,7 +6858,7 @@
       </c>
       <c r="D24" s="51"/>
       <c r="E24" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F24" s="39" t="s">
         <v>101</v>
@@ -6854,7 +6892,7 @@
         <v>2017</v>
       </c>
       <c r="O24" s="42">
-        <f>IF((P24="Days"),((J24-I24+1)),IF(P24="Months",((J24-I24)/30),((J24-I24)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.1643835616438356</v>
       </c>
       <c r="P24" s="39" t="s">
@@ -6867,10 +6905,10 @@
         <v>56</v>
       </c>
       <c r="S24" s="39" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="T24" s="39" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="U24" s="39"/>
       <c r="V24" s="50"/>
@@ -6891,7 +6929,7 @@
       <c r="AK24" s="39"/>
       <c r="AL24" s="50"/>
       <c r="AM24" s="52" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -6902,11 +6940,11 @@
         <v>20</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D25" s="51"/>
       <c r="E25" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F25" s="39" t="s">
         <v>154</v>
@@ -6915,7 +6953,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I25" s="47">
         <v>41883</v>
@@ -6940,7 +6978,7 @@
         <v>2015</v>
       </c>
       <c r="O25" s="42">
-        <f>IF((P25="Days"),((J25-I25+1)),IF(P25="Months",((J25-I25)/30),((J25-I25)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P25" s="39" t="s">
@@ -6953,7 +6991,7 @@
         <v>56</v>
       </c>
       <c r="S25" s="39" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="T25" s="39"/>
       <c r="U25" s="39"/>
@@ -6975,7 +7013,7 @@
       <c r="AK25" s="39"/>
       <c r="AL25" s="50"/>
       <c r="AM25" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -6990,13 +7028,13 @@
       </c>
       <c r="D26" s="51"/>
       <c r="E26" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F26" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H26" s="50" t="s">
         <v>88</v>
@@ -7024,7 +7062,7 @@
         <v>2019</v>
       </c>
       <c r="O26" s="42">
-        <f>IF((P26="Days"),((J26-I26+1)),IF(P26="Months",((J26-I26)/30),((J26-I26)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P26" s="39" t="s">
@@ -7037,12 +7075,12 @@
         <v>56</v>
       </c>
       <c r="S26" s="39" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="T26" s="39"/>
       <c r="U26" s="39"/>
       <c r="V26" s="50" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="W26" s="50"/>
       <c r="X26" s="39"/>
@@ -7061,7 +7099,7 @@
       <c r="AK26" s="39"/>
       <c r="AL26" s="50"/>
       <c r="AM26" s="52" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7076,13 +7114,13 @@
       </c>
       <c r="D27" s="51"/>
       <c r="E27" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F27" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H27" s="50" t="s">
         <v>107</v>
@@ -7110,7 +7148,7 @@
         <v>2017</v>
       </c>
       <c r="O27" s="42">
-        <f>IF((P27="Days"),((J27-I27+1)),IF(P27="Months",((J27-I27)/30),((J27-I27)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P27" s="39" t="s">
@@ -7145,7 +7183,7 @@
       <c r="AK27" s="39"/>
       <c r="AL27" s="50"/>
       <c r="AM27" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7160,13 +7198,13 @@
       </c>
       <c r="D28" s="51"/>
       <c r="E28" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F28" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H28" s="50" t="s">
         <v>107</v>
@@ -7194,7 +7232,7 @@
         <v>2016</v>
       </c>
       <c r="O28" s="42">
-        <f>IF((P28="Days"),((J28-I28+1)),IF(P28="Months",((J28-I28)/30),((J28-I28)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P28" s="39" t="s">
@@ -7229,7 +7267,7 @@
       <c r="AK28" s="39"/>
       <c r="AL28" s="50"/>
       <c r="AM28" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7244,13 +7282,13 @@
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F29" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H29" s="50" t="s">
         <v>107</v>
@@ -7278,7 +7316,7 @@
         <v>2016</v>
       </c>
       <c r="O29" s="42">
-        <f>IF((P29="Days"),((J29-I29+1)),IF(P29="Months",((J29-I29)/30),((J29-I29)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P29" s="39" t="s">
@@ -7313,7 +7351,7 @@
       <c r="AK29" s="39"/>
       <c r="AL29" s="50"/>
       <c r="AM29" s="52" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7330,7 +7368,7 @@
         <v>21</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F30" s="39" t="s">
         <v>39</v>
@@ -7345,8 +7383,8 @@
         <v>43952</v>
       </c>
       <c r="J30" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ref="J30:J36" ca="1" si="1">NOW()</f>
+        <v>44455.409438773146</v>
       </c>
       <c r="K30" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7365,8 +7403,8 @@
         <v>2021</v>
       </c>
       <c r="O30" s="42">
-        <f ca="1">IF((P30="Days"),((J30-I30+1)),IF(P30="Months",((J30-I30)/30),((J30-I30)/365)))</f>
-        <v>16.719476500771513</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.780314625771521</v>
       </c>
       <c r="P30" s="39" t="s">
         <v>30</v>
@@ -7380,7 +7418,7 @@
       <c r="U30" s="39"/>
       <c r="V30" s="50"/>
       <c r="W30" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -7398,7 +7436,7 @@
       <c r="AK30" s="39"/>
       <c r="AL30" s="50"/>
       <c r="AM30" s="52" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7409,13 +7447,13 @@
         <v>17</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D31" s="51" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F31" s="39" t="s">
         <v>39</v>
@@ -7430,8 +7468,8 @@
         <v>43556</v>
       </c>
       <c r="J31" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44455.409438773146</v>
       </c>
       <c r="K31" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7450,8 +7488,8 @@
         <v>2021</v>
       </c>
       <c r="O31" s="42">
-        <f ca="1">IF((P31="Days"),((J31-I31+1)),IF(P31="Months",((J31-I31)/30),((J31-I31)/365)))</f>
-        <v>2.4591350548579327</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4641354486935496</v>
       </c>
       <c r="P31" s="39" t="s">
         <v>31</v>
@@ -7483,12 +7521,12 @@
       <c r="AK31" s="39"/>
       <c r="AL31" s="50"/>
       <c r="AM31" s="52" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="40" t="s">
@@ -7498,13 +7536,13 @@
         <v>116</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F32" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H32" s="50" t="s">
         <v>114</v>
@@ -7513,8 +7551,8 @@
         <v>43734</v>
       </c>
       <c r="J32" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44455.409438773146</v>
       </c>
       <c r="K32" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7533,8 +7571,8 @@
         <v>2021</v>
       </c>
       <c r="O32" s="42">
-        <f ca="1">IF((P32="Days"),((J32-I32+1)),IF(P32="Months",((J32-I32)/30),((J32-I32)/365)))</f>
-        <v>23.986143167438179</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.04698129243819</v>
       </c>
       <c r="P32" s="39" t="s">
         <v>30</v>
@@ -7544,7 +7582,7 @@
         <v>140</v>
       </c>
       <c r="S32" s="39" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="T32" s="39"/>
       <c r="U32" s="39"/>
@@ -7566,7 +7604,7 @@
       <c r="AK32" s="39"/>
       <c r="AL32" s="50"/>
       <c r="AM32" s="52" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="33" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -7575,19 +7613,19 @@
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>124</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>82</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H33" s="50" t="s">
         <v>114</v>
@@ -7596,8 +7634,8 @@
         <v>43466</v>
       </c>
       <c r="J33" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44455.409438773146</v>
       </c>
       <c r="K33" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7616,8 +7654,8 @@
         <v>2021</v>
       </c>
       <c r="O33" s="42">
-        <f ca="1">IF((P33="Days"),((J33-I33+1)),IF(P33="Months",((J33-I33)/30),((J33-I33)/365)))</f>
-        <v>32.919476500771516</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32.98031462577152</v>
       </c>
       <c r="P33" s="39" t="s">
         <v>30</v>
@@ -7627,7 +7665,7 @@
         <v>140</v>
       </c>
       <c r="S33" s="39" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="T33" s="39"/>
       <c r="U33" s="39"/>
@@ -7649,7 +7687,7 @@
       <c r="AK33" s="39"/>
       <c r="AL33" s="50"/>
       <c r="AM33" s="52" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -7666,13 +7704,13 @@
         <v>123</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H34" s="50" t="s">
         <v>114</v>
@@ -7681,8 +7719,8 @@
         <v>43435</v>
       </c>
       <c r="J34" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44455.409438773146</v>
       </c>
       <c r="K34" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7701,8 +7739,8 @@
         <v>2021</v>
       </c>
       <c r="O34" s="42">
-        <f ca="1">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
-        <v>33.952809834104848</v>
+        <f t="shared" ref="O34:O65" ca="1" si="2">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
+        <v>34.013647959104858</v>
       </c>
       <c r="P34" s="39" t="s">
         <v>30</v>
@@ -7712,7 +7750,7 @@
         <v>56</v>
       </c>
       <c r="S34" s="39" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="T34" s="39"/>
       <c r="U34" s="39"/>
@@ -7734,7 +7772,7 @@
       <c r="AK34" s="39"/>
       <c r="AL34" s="50"/>
       <c r="AM34" s="52" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7749,13 +7787,13 @@
         <v>132</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>82</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H35" s="50" t="s">
         <v>145</v>
@@ -7764,8 +7802,8 @@
         <v>43374</v>
       </c>
       <c r="J35" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44455.409438773146</v>
       </c>
       <c r="K35" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7784,8 +7822,8 @@
         <v>2021</v>
       </c>
       <c r="O35" s="42">
-        <f ca="1">IF((P35="Days"),((J35-I35+1)),IF(P35="Months",((J35-I35)/30),((J35-I35)/365)))</f>
-        <v>35.986143167438179</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.04698129243819</v>
       </c>
       <c r="P35" s="39" t="s">
         <v>30</v>
@@ -7795,7 +7833,7 @@
         <v>140</v>
       </c>
       <c r="S35" s="39" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="T35" s="39"/>
       <c r="U35" s="39"/>
@@ -7817,7 +7855,7 @@
       <c r="AK35" s="39"/>
       <c r="AL35" s="50"/>
       <c r="AM35" s="52" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -7825,20 +7863,20 @@
         <v>128</v>
       </c>
       <c r="B36" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D36" s="51"/>
       <c r="E36" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H36" s="50" t="s">
         <v>114</v>
@@ -7847,8 +7885,8 @@
         <v>43374</v>
       </c>
       <c r="J36" s="47">
-        <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44455.409438773146</v>
       </c>
       <c r="K36" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7867,8 +7905,8 @@
         <v>2021</v>
       </c>
       <c r="O36" s="42">
-        <f ca="1">IF((P36="Days"),((J36-I36+1)),IF(P36="Months",((J36-I36)/30),((J36-I36)/365)))</f>
-        <v>35.986143167438179</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.04698129243819</v>
       </c>
       <c r="P36" s="39" t="s">
         <v>30</v>
@@ -7878,7 +7916,7 @@
         <v>140</v>
       </c>
       <c r="S36" s="39" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="T36" s="39"/>
       <c r="U36" s="39"/>
@@ -7900,7 +7938,7 @@
       <c r="AK36" s="39"/>
       <c r="AL36" s="50"/>
       <c r="AM36" s="52" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -7911,22 +7949,22 @@
         <v>48</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I37" s="47">
         <v>44075</v>
@@ -7951,20 +7989,20 @@
         <v>2022</v>
       </c>
       <c r="O37" s="42">
-        <f>IF((P37="Days"),((J37-I37+1)),IF(P37="Months",((J37-I37)/30),((J37-I37)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.6602739726027398</v>
       </c>
       <c r="P37" s="39" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="39" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="R37" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="S37" s="39" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="T37" s="39"/>
       <c r="U37" s="39"/>
@@ -7986,7 +8024,7 @@
       <c r="AK37" s="39"/>
       <c r="AL37" s="50"/>
       <c r="AM37" s="52" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -7995,20 +8033,20 @@
       </c>
       <c r="B38" s="41"/>
       <c r="C38" s="40" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D38" s="51"/>
       <c r="E38" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>101</v>
       </c>
       <c r="G38" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I38" s="47">
         <v>43221</v>
@@ -8033,7 +8071,7 @@
         <v>2018</v>
       </c>
       <c r="O38" s="42">
-        <f>IF((P38="Days"),((J38-I38+1)),IF(P38="Months",((J38-I38)/30),((J38-I38)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0666666666666664</v>
       </c>
       <c r="P38" s="39" t="s">
@@ -8046,7 +8084,7 @@
         <v>56</v>
       </c>
       <c r="S38" s="39" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="T38" s="39"/>
       <c r="U38" s="39"/>
@@ -8068,33 +8106,33 @@
       <c r="AK38" s="39"/>
       <c r="AL38" s="50"/>
       <c r="AM38" s="52" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F39" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G39" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I39" s="47">
         <v>42856</v>
@@ -8119,7 +8157,7 @@
         <v>2017</v>
       </c>
       <c r="O39" s="42">
-        <f>IF((P39="Days"),((J39-I39+1)),IF(P39="Months",((J39-I39)/30),((J39-I39)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P39" s="39" t="s">
@@ -8132,7 +8170,7 @@
         <v>56</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="T39" s="39"/>
       <c r="U39" s="39"/>
@@ -8154,33 +8192,33 @@
       <c r="AK39" s="39"/>
       <c r="AL39" s="50"/>
       <c r="AM39" s="52" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A40" s="40" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E40" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F40" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I40" s="47">
         <v>42491</v>
@@ -8205,7 +8243,7 @@
         <v>2016</v>
       </c>
       <c r="O40" s="42">
-        <f>IF((P40="Days"),((J40-I40+1)),IF(P40="Months",((J40-I40)/30),((J40-I40)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P40" s="39" t="s">
@@ -8218,7 +8256,7 @@
         <v>56</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="T40" s="39"/>
       <c r="U40" s="39"/>
@@ -8240,40 +8278,40 @@
       <c r="AK40" s="39"/>
       <c r="AL40" s="50"/>
       <c r="AM40" s="52" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B41" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F41" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I41" s="47">
         <v>44013</v>
       </c>
       <c r="J41" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K41" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8292,8 +8330,8 @@
         <v>2021</v>
       </c>
       <c r="O41" s="42">
-        <f ca="1">IF((P41="Days"),((J41-I41+1)),IF(P41="Months",((J41-I41)/30),((J41-I41)/365)))</f>
-        <v>14.68614316743818</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>14.746981292438189</v>
       </c>
       <c r="P41" s="39" t="s">
         <v>30</v>
@@ -8305,7 +8343,7 @@
         <v>52</v>
       </c>
       <c r="S41" s="39" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="T41" s="39"/>
       <c r="U41" s="39"/>
@@ -8336,27 +8374,27 @@
         <v>17</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D42" s="51"/>
       <c r="E42" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F42" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="I42" s="47">
         <v>43862</v>
       </c>
       <c r="J42" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K42" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8375,15 +8413,15 @@
         <v>2021</v>
       </c>
       <c r="O42" s="42">
-        <f ca="1">IF((P42="Days"),((J42-I42+1)),IF(P42="Months",((J42-I42)/30),((J42-I42)/365)))</f>
-        <v>19.719476500771513</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19.780314625771521</v>
       </c>
       <c r="P42" s="39" t="s">
         <v>30</v>
       </c>
       <c r="Q42" s="39"/>
       <c r="R42" s="39" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="S42" s="39"/>
       <c r="T42" s="39"/>
@@ -8406,10 +8444,10 @@
       <c r="AK42" s="39"/>
       <c r="AL42" s="50"/>
       <c r="AM42" s="52" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A43" s="40" t="s">
         <v>47</v>
       </c>
@@ -8417,19 +8455,19 @@
         <v>48</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F43" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H43" s="50" t="s">
         <v>33</v>
@@ -8457,7 +8495,7 @@
         <v>2020</v>
       </c>
       <c r="O43" s="42">
-        <f>IF((P43="Days"),((J43-I43+1)),IF(P43="Months",((J43-I43)/30),((J43-I43)/365)))</f>
+        <f t="shared" si="2"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="P43" s="39" t="s">
@@ -8470,26 +8508,26 @@
         <v>52</v>
       </c>
       <c r="S43" s="39" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T43" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="U43" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="U43" s="39" t="s">
-        <v>420</v>
-      </c>
       <c r="V43" s="50" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="W43" s="50"/>
       <c r="X43" s="39" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="Y43" s="39" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Z43" s="50" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="AA43" s="39"/>
       <c r="AB43" s="39"/>
@@ -8498,39 +8536,39 @@
       <c r="AE43" s="39"/>
       <c r="AF43" s="50"/>
       <c r="AG43" s="39" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="AH43" s="50" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="AI43" s="39"/>
       <c r="AJ43" s="50"/>
       <c r="AK43" s="39"/>
       <c r="AL43" s="50"/>
       <c r="AM43" s="52" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A44" s="40" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="40" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D44" s="51"/>
       <c r="E44" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F44" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I44" s="47">
         <v>43709</v>
@@ -8555,7 +8593,7 @@
         <v>2020</v>
       </c>
       <c r="O44" s="42">
-        <f>IF((P44="Days"),((J44-I44+1)),IF(P44="Months",((J44-I44)/30),((J44-I44)/365)))</f>
+        <f t="shared" si="2"/>
         <v>9.1333333333333329</v>
       </c>
       <c r="P44" s="39" t="s">
@@ -8568,20 +8606,22 @@
         <v>61</v>
       </c>
       <c r="S44" s="39" t="s">
-        <v>511</v>
-      </c>
-      <c r="T44" s="39"/>
+        <v>757</v>
+      </c>
+      <c r="T44" s="39" t="s">
+        <v>758</v>
+      </c>
       <c r="U44" s="39"/>
       <c r="V44" s="50"/>
       <c r="W44" s="50"/>
       <c r="X44" s="39" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="Y44" s="39" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Z44" s="50" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="AA44" s="39"/>
       <c r="AB44" s="39"/>
@@ -8597,7 +8637,7 @@
       <c r="AL44" s="50"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
         <v>6</v>
       </c>
@@ -8605,20 +8645,20 @@
         <v>16</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D45" s="51"/>
       <c r="E45" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F45" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I45" s="47">
         <v>43344</v>
@@ -8643,7 +8683,7 @@
         <v>2019</v>
       </c>
       <c r="O45" s="42">
-        <f>IF((P45="Days"),((J45-I45+1)),IF(P45="Months",((J45-I45)/30),((J45-I45)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P45" s="39" t="s">
@@ -8656,29 +8696,43 @@
         <v>56</v>
       </c>
       <c r="S45" s="39" t="s">
-        <v>512</v>
-      </c>
-      <c r="T45" s="39"/>
-      <c r="U45" s="39"/>
+        <v>751</v>
+      </c>
+      <c r="T45" s="39" t="s">
+        <v>753</v>
+      </c>
+      <c r="U45" s="39" t="s">
+        <v>754</v>
+      </c>
       <c r="V45" s="50"/>
       <c r="W45" s="50"/>
-      <c r="X45" s="39"/>
-      <c r="Y45" s="39"/>
-      <c r="Z45" s="50"/>
+      <c r="X45" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y45" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z45" s="50" t="s">
+        <v>746</v>
+      </c>
       <c r="AA45" s="39"/>
       <c r="AB45" s="39"/>
       <c r="AC45" s="50"/>
       <c r="AD45" s="39"/>
       <c r="AE45" s="39"/>
       <c r="AF45" s="50"/>
-      <c r="AG45" s="39"/>
-      <c r="AH45" s="50"/>
+      <c r="AG45" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="AH45" s="50" t="s">
+        <v>756</v>
+      </c>
       <c r="AI45" s="39"/>
       <c r="AJ45" s="50"/>
       <c r="AK45" s="39"/>
       <c r="AL45" s="50"/>
       <c r="AM45" s="52" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -8689,20 +8743,20 @@
         <v>16</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D46" s="51"/>
       <c r="E46" s="39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F46" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I46" s="47">
         <v>43344</v>
@@ -8727,7 +8781,7 @@
         <v>2019</v>
       </c>
       <c r="O46" s="42">
-        <f>IF((P46="Days"),((J46-I46+1)),IF(P46="Months",((J46-I46)/30),((J46-I46)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P46" s="39" t="s">
@@ -8740,7 +8794,7 @@
         <v>56</v>
       </c>
       <c r="S46" s="39" t="s">
-        <v>514</v>
+        <v>752</v>
       </c>
       <c r="T46" s="39"/>
       <c r="U46" s="39"/>
@@ -8762,7 +8816,7 @@
       <c r="AK46" s="39"/>
       <c r="AL46" s="50"/>
       <c r="AM46" s="52" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="92.4" x14ac:dyDescent="0.3">
@@ -8773,22 +8827,22 @@
         <v>20</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="D47" s="51" t="s">
         <v>158</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F47" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H47" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I47" s="47">
         <v>42614</v>
@@ -8813,11 +8867,11 @@
         <v>2017</v>
       </c>
       <c r="O47" s="42">
-        <f>IF((P47="Days"),((J47-I47+1)),IF(P47="Months",((J47-I47)/30),((J47-I47)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P47" s="39" t="s">
-        <v>31</v>
+        <v>759</v>
       </c>
       <c r="Q47" s="39" t="s">
         <v>57</v>
@@ -8826,79 +8880,79 @@
         <v>56</v>
       </c>
       <c r="S47" s="39" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="T47" s="39" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="U47" s="39"/>
       <c r="V47" s="50" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="W47" s="50"/>
       <c r="X47" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y47" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z47" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA47" s="39" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB47" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="AC47" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD47" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE47" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="AF47" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="AG47" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="AH47" s="50" t="s">
         <v>709</v>
-      </c>
-      <c r="Y47" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="Z47" s="50" t="s">
-        <v>708</v>
-      </c>
-      <c r="AA47" s="39" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB47" s="39" t="s">
-        <v>636</v>
-      </c>
-      <c r="AC47" s="50" t="s">
-        <v>713</v>
-      </c>
-      <c r="AD47" s="39" t="s">
-        <v>633</v>
-      </c>
-      <c r="AE47" s="39" t="s">
-        <v>635</v>
-      </c>
-      <c r="AF47" s="50" t="s">
-        <v>708</v>
-      </c>
-      <c r="AG47" s="53" t="s">
-        <v>724</v>
-      </c>
-      <c r="AH47" s="50" t="s">
-        <v>717</v>
       </c>
       <c r="AI47" s="39"/>
       <c r="AJ47" s="50"/>
       <c r="AK47" s="39"/>
       <c r="AL47" s="50"/>
       <c r="AM47" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A48" s="40" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="40" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>141</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F48" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H48" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I48" s="47">
         <v>42592</v>
@@ -8923,7 +8977,7 @@
         <v>2016</v>
       </c>
       <c r="O48" s="42">
-        <f>IF((P48="Days"),((J48-I48+1)),IF(P48="Months",((J48-I48)/30),((J48-I48)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P48" s="39" t="s">
@@ -8935,14 +8989,26 @@
       <c r="R48" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="39"/>
+      <c r="S48" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>749</v>
+      </c>
       <c r="V48" s="50"/>
       <c r="W48" s="50"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="39"/>
-      <c r="Z48" s="50"/>
+      <c r="X48" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y48" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z48" s="50" t="s">
+        <v>746</v>
+      </c>
       <c r="AA48" s="39"/>
       <c r="AB48" s="39"/>
       <c r="AC48" s="50"/>
@@ -8956,7 +9022,7 @@
       <c r="AK48" s="39"/>
       <c r="AL48" s="50"/>
       <c r="AM48" s="52" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="79.2" x14ac:dyDescent="0.3">
@@ -8967,22 +9033,22 @@
         <v>20</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>153</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F49" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H49" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I49" s="47">
         <v>42156</v>
@@ -9007,11 +9073,11 @@
         <v>2016</v>
       </c>
       <c r="O49" s="42">
-        <f>IF((P49="Days"),((J49-I49+1)),IF(P49="Months",((J49-I49)/30),((J49-I49)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.2547945205479452</v>
       </c>
       <c r="P49" s="39" t="s">
-        <v>31</v>
+        <v>759</v>
       </c>
       <c r="Q49" s="39" t="s">
         <v>57</v>
@@ -9020,59 +9086,59 @@
         <v>56</v>
       </c>
       <c r="S49" s="39" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="T49" s="39" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="U49" s="39" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="V49" s="50" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="W49" s="50"/>
       <c r="X49" s="39" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="Y49" s="39" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="Z49" s="50" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="AA49" s="39" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="AB49" s="39" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="AC49" s="50" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="AD49" s="39"/>
       <c r="AE49" s="39"/>
       <c r="AF49" s="50"/>
       <c r="AG49" s="53" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="AH49" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="AI49" s="54" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ49" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="AK49" s="39" t="s">
         <v>720</v>
       </c>
-      <c r="AI49" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="AJ49" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="AK49" s="39" t="s">
-        <v>728</v>
-      </c>
       <c r="AL49" s="50" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="AM49" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -9083,20 +9149,20 @@
         <v>20</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="D50" s="51"/>
       <c r="E50" s="39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F50" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H50" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I50" s="47"/>
       <c r="J50" s="47"/>
@@ -9117,7 +9183,7 @@
         <v>1900</v>
       </c>
       <c r="O50" s="42">
-        <f>IF((P50="Days"),((J50-I50+1)),IF(P50="Months",((J50-I50)/30),((J50-I50)/365)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P50" s="39"/>
@@ -9144,20 +9210,20 @@
       <c r="AK50" s="39"/>
       <c r="AL50" s="50"/>
       <c r="AM50" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="40" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B51" s="41"/>
       <c r="C51" s="40" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D51" s="51"/>
       <c r="E51" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F51" s="39" t="s">
         <v>101</v>
@@ -9191,7 +9257,7 @@
         <v>2020</v>
       </c>
       <c r="O51" s="42">
-        <f>IF((P51="Days"),((J51-I51+1)),IF(P51="Months",((J51-I51)/30),((J51-I51)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P51" s="39" t="s">
@@ -9199,7 +9265,7 @@
       </c>
       <c r="Q51" s="39"/>
       <c r="R51" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S51" s="39"/>
       <c r="T51" s="39"/>
@@ -9222,20 +9288,20 @@
       <c r="AK51" s="39"/>
       <c r="AL51" s="50"/>
       <c r="AM51" s="52" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B52" s="41"/>
       <c r="C52" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D52" s="51"/>
       <c r="E52" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F52" s="39" t="s">
         <v>82</v>
@@ -9269,7 +9335,7 @@
         <v>2019</v>
       </c>
       <c r="O52" s="42">
-        <f>IF((P52="Days"),((J52-I52+1)),IF(P52="Months",((J52-I52)/30),((J52-I52)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P52" s="39" t="s">
@@ -9282,7 +9348,7 @@
         <v>52</v>
       </c>
       <c r="S52" s="39" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="T52" s="39"/>
       <c r="U52" s="39"/>
@@ -9304,7 +9370,7 @@
       <c r="AK52" s="39"/>
       <c r="AL52" s="50"/>
       <c r="AM52" s="52" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -9321,7 +9387,7 @@
         <v>137</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F53" s="39" t="s">
         <v>82</v>
@@ -9355,7 +9421,7 @@
         <v>2018</v>
       </c>
       <c r="O53" s="42">
-        <f>IF((P53="Days"),((J53-I53+1)),IF(P53="Months",((J53-I53)/30),((J53-I53)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P53" s="39" t="s">
@@ -9368,7 +9434,7 @@
         <v>56</v>
       </c>
       <c r="S53" s="39" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="T53" s="39"/>
       <c r="U53" s="39"/>
@@ -9390,7 +9456,7 @@
       <c r="AK53" s="39"/>
       <c r="AL53" s="50"/>
       <c r="AM53" s="52" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -9405,7 +9471,7 @@
       </c>
       <c r="D54" s="51"/>
       <c r="E54" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F54" s="39" t="s">
         <v>154</v>
@@ -9439,7 +9505,7 @@
         <v>2017</v>
       </c>
       <c r="O54" s="42">
-        <f>IF((P54="Days"),((J54-I54+1)),IF(P54="Months",((J54-I54)/30),((J54-I54)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P54" s="39" t="s">
@@ -9474,12 +9540,12 @@
       <c r="AK54" s="39"/>
       <c r="AL54" s="50"/>
       <c r="AM54" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="40" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B55" s="41"/>
       <c r="C55" s="40" t="s">
@@ -9489,7 +9555,7 @@
         <v>141</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F55" s="39" t="s">
         <v>154</v>
@@ -9523,7 +9589,7 @@
         <v>2016</v>
       </c>
       <c r="O55" s="42">
-        <f>IF((P55="Days"),((J55-I55+1)),IF(P55="Months",((J55-I55)/30),((J55-I55)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P55" s="39" t="s">
@@ -9556,7 +9622,7 @@
       <c r="AK55" s="39"/>
       <c r="AL55" s="50"/>
       <c r="AM55" s="52" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -9569,7 +9635,7 @@
       </c>
       <c r="D56" s="51"/>
       <c r="E56" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F56" s="39" t="s">
         <v>82</v>
@@ -9603,7 +9669,7 @@
         <v>2011</v>
       </c>
       <c r="O56" s="42">
-        <f>IF((P56="Days"),((J56-I56+1)),IF(P56="Months",((J56-I56)/30),((J56-I56)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P56" s="39" t="s">
@@ -9616,7 +9682,7 @@
         <v>56</v>
       </c>
       <c r="S56" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="T56" s="39"/>
       <c r="U56" s="39"/>
@@ -9638,22 +9704,22 @@
       <c r="AK56" s="39"/>
       <c r="AL56" s="50"/>
       <c r="AM56" s="52" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="40" t="s">
         <v>341</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>342</v>
       </c>
       <c r="D57" s="51"/>
       <c r="E57" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F57" s="39" t="s">
         <v>46</v>
@@ -9683,16 +9749,16 @@
         <v>1900</v>
       </c>
       <c r="O57" s="42">
-        <f>IF((P57="Days"),((J57-I57+1)),IF(P57="Months",((J57-I57)/30),((J57-I57)/365)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P57" s="39"/>
       <c r="Q57" s="39"/>
       <c r="R57" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S57" s="39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="T57" s="39"/>
       <c r="U57" s="39"/>
@@ -9714,7 +9780,7 @@
       <c r="AK57" s="39"/>
       <c r="AL57" s="50"/>
       <c r="AM57" s="52" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="58" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -9725,11 +9791,11 @@
         <v>16</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="51"/>
       <c r="E58" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F58" s="39" t="s">
         <v>70</v>
@@ -9763,7 +9829,7 @@
         <v>2019</v>
       </c>
       <c r="O58" s="42">
-        <f>IF((P58="Days"),((J58-I58+1)),IF(P58="Months",((J58-I58)/30),((J58-I58)/365)))</f>
+        <f t="shared" si="2"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="P58" s="39" t="s">
@@ -9776,10 +9842,10 @@
         <v>56</v>
       </c>
       <c r="S58" s="39" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="T58" s="39" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="U58" s="39"/>
       <c r="V58" s="50"/>
@@ -9800,7 +9866,7 @@
       <c r="AK58" s="39"/>
       <c r="AL58" s="50"/>
       <c r="AM58" s="52" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -9811,11 +9877,11 @@
         <v>20</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="D59" s="51"/>
       <c r="E59" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F59" s="39" t="s">
         <v>154</v>
@@ -9849,7 +9915,7 @@
         <v>2018</v>
       </c>
       <c r="O59" s="42">
-        <f>IF((P59="Days"),((J59-I59+1)),IF(P59="Months",((J59-I59)/30),((J59-I59)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P59" s="39" t="s">
@@ -9884,7 +9950,7 @@
       <c r="AK59" s="39"/>
       <c r="AL59" s="50"/>
       <c r="AM59" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="60" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -9901,7 +9967,7 @@
         <v>158</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F60" s="39" t="s">
         <v>154</v>
@@ -9935,7 +10001,7 @@
         <v>2017</v>
       </c>
       <c r="O60" s="42">
-        <f>IF((P60="Days"),((J60-I60+1)),IF(P60="Months",((J60-I60)/30),((J60-I60)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P60" s="39" t="s">
@@ -9970,7 +10036,7 @@
       <c r="AK60" s="39"/>
       <c r="AL60" s="50"/>
       <c r="AM60" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="61" spans="1:39" ht="52.8" x14ac:dyDescent="0.3">
@@ -9987,7 +10053,7 @@
         <v>153</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F61" s="39" t="s">
         <v>154</v>
@@ -10021,7 +10087,7 @@
         <v>2016</v>
       </c>
       <c r="O61" s="42">
-        <f>IF((P61="Days"),((J61-I61+1)),IF(P61="Months",((J61-I61)/30),((J61-I61)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P61" s="39" t="s">
@@ -10056,7 +10122,7 @@
       <c r="AK61" s="39"/>
       <c r="AL61" s="50"/>
       <c r="AM61" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:39" x14ac:dyDescent="0.3">
@@ -10071,10 +10137,10 @@
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G62" s="39" t="s">
         <v>33</v>
@@ -10105,7 +10171,7 @@
         <v>2013</v>
       </c>
       <c r="O62" s="42">
-        <f>IF((P62="Days"),((J62-I62+1)),IF(P62="Months",((J62-I62)/30),((J62-I62)/365)))</f>
+        <f t="shared" si="2"/>
         <v>2.0027397260273974</v>
       </c>
       <c r="P62" s="39" t="s">
@@ -10151,7 +10217,7 @@
       </c>
       <c r="D63" s="51"/>
       <c r="E63" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F63" s="39" t="s">
         <v>46</v>
@@ -10185,7 +10251,7 @@
         <v>2019</v>
       </c>
       <c r="O63" s="42">
-        <f>IF((P63="Days"),((J63-I63+1)),IF(P63="Months",((J63-I63)/30),((J63-I63)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P63" s="39" t="s">
@@ -10218,7 +10284,7 @@
       <c r="AK63" s="39"/>
       <c r="AL63" s="50"/>
       <c r="AM63" s="52" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="64" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10229,11 +10295,11 @@
         <v>20</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="D64" s="51"/>
       <c r="E64" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F64" s="39" t="s">
         <v>154</v>
@@ -10242,7 +10308,7 @@
         <v>15</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I64" s="47">
         <v>42125</v>
@@ -10267,7 +10333,7 @@
         <v>2015</v>
       </c>
       <c r="O64" s="42">
-        <f>IF((P64="Days"),((J64-I64+1)),IF(P64="Months",((J64-I64)/30),((J64-I64)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P64" s="39" t="s">
@@ -10302,7 +10368,7 @@
       <c r="AK64" s="39"/>
       <c r="AL64" s="50"/>
       <c r="AM64" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10317,13 +10383,13 @@
       </c>
       <c r="D65" s="51"/>
       <c r="E65" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F65" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G65" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H65" s="50" t="s">
         <v>79</v>
@@ -10351,7 +10417,7 @@
         <v>2019</v>
       </c>
       <c r="O65" s="42">
-        <f>IF((P65="Days"),((J65-I65+1)),IF(P65="Months",((J65-I65)/30),((J65-I65)/365)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P65" s="39" t="s">
@@ -10384,7 +10450,7 @@
       <c r="AK65" s="39"/>
       <c r="AL65" s="50"/>
       <c r="AM65" s="52" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10395,17 +10461,17 @@
         <v>85</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D66" s="51"/>
       <c r="E66" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F66" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G66" s="39" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H66" s="50" t="s">
         <v>79</v>
@@ -10433,7 +10499,7 @@
         <v>2019</v>
       </c>
       <c r="O66" s="42">
-        <f>IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
+        <f t="shared" ref="O66:O74" si="3">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
         <v>1</v>
       </c>
       <c r="P66" s="39" t="s">
@@ -10446,7 +10512,7 @@
         <v>52</v>
       </c>
       <c r="S66" s="39" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="T66" s="39"/>
       <c r="U66" s="39"/>
@@ -10468,7 +10534,7 @@
       <c r="AK66" s="39"/>
       <c r="AL66" s="50"/>
       <c r="AM66" s="52" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="67" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10481,13 +10547,13 @@
       </c>
       <c r="D67" s="51"/>
       <c r="E67" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F67" s="39" t="s">
         <v>82</v>
       </c>
       <c r="G67" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H67" s="50" t="s">
         <v>145</v>
@@ -10515,7 +10581,7 @@
         <v>2020</v>
       </c>
       <c r="O67" s="42">
-        <f>IF((P67="Days"),((J67-I67+1)),IF(P67="Months",((J67-I67)/30),((J67-I67)/365)))</f>
+        <f t="shared" si="3"/>
         <v>1.1698630136986301</v>
       </c>
       <c r="P67" s="39" t="s">
@@ -10526,13 +10592,13 @@
         <v>52</v>
       </c>
       <c r="S67" s="39" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="T67" s="39"/>
       <c r="U67" s="39"/>
       <c r="V67" s="50"/>
       <c r="W67" s="50" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
@@ -10550,7 +10616,7 @@
       <c r="AK67" s="39"/>
       <c r="AL67" s="50"/>
       <c r="AM67" s="52" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="68" spans="1:39" ht="118.8" x14ac:dyDescent="0.3">
@@ -10565,13 +10631,13 @@
         <v>118</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F68" s="39" t="s">
         <v>82</v>
       </c>
       <c r="G68" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H68" s="50" t="s">
         <v>114</v>
@@ -10581,7 +10647,7 @@
       </c>
       <c r="J68" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K68" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -10600,8 +10666,8 @@
         <v>2021</v>
       </c>
       <c r="O68" s="42">
-        <f ca="1">IF((P68="Days"),((J68-I68+1)),IF(P68="Months",((J68-I68)/30),((J68-I68)/365)))</f>
-        <v>28.919476500771513</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.980314625771523</v>
       </c>
       <c r="P68" s="39" t="s">
         <v>30</v>
@@ -10615,7 +10681,7 @@
       <c r="U68" s="39"/>
       <c r="V68" s="50"/>
       <c r="W68" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
@@ -10633,7 +10699,7 @@
       <c r="AK68" s="39"/>
       <c r="AL68" s="50"/>
       <c r="AM68" s="52" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10648,13 +10714,13 @@
       </c>
       <c r="D69" s="51"/>
       <c r="E69" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F69" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G69" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H69" s="50" t="s">
         <v>114</v>
@@ -10664,7 +10730,7 @@
       </c>
       <c r="J69" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K69" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -10683,8 +10749,8 @@
         <v>2021</v>
       </c>
       <c r="O69" s="42">
-        <f ca="1">IF((P69="Days"),((J69-I69+1)),IF(P69="Months",((J69-I69)/30),((J69-I69)/365)))</f>
-        <v>35.986143167438179</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36.04698129243819</v>
       </c>
       <c r="P69" s="39" t="s">
         <v>30</v>
@@ -10694,7 +10760,7 @@
         <v>140</v>
       </c>
       <c r="S69" s="39" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="T69" s="39"/>
       <c r="U69" s="39"/>
@@ -10716,7 +10782,7 @@
       <c r="AK69" s="39"/>
       <c r="AL69" s="50"/>
       <c r="AM69" s="52" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="70" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -10729,13 +10795,13 @@
       </c>
       <c r="D70" s="51"/>
       <c r="E70" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G70" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H70" s="50" t="s">
         <v>114</v>
@@ -10763,7 +10829,7 @@
         <v>2020</v>
       </c>
       <c r="O70" s="42">
-        <f>IF((P70="Days"),((J70-I70+1)),IF(P70="Months",((J70-I70)/30),((J70-I70)/365)))</f>
+        <f t="shared" si="3"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P70" s="39" t="s">
@@ -10774,7 +10840,7 @@
         <v>56</v>
       </c>
       <c r="S70" s="39" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="T70" s="39"/>
       <c r="U70" s="39"/>
@@ -10796,7 +10862,7 @@
       <c r="AK70" s="39"/>
       <c r="AL70" s="50"/>
       <c r="AM70" s="52" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="71" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10807,17 +10873,17 @@
         <v>20</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D71" s="51"/>
       <c r="E71" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G71" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H71" s="50" t="s">
         <v>114</v>
@@ -10845,7 +10911,7 @@
         <v>2019</v>
       </c>
       <c r="O71" s="42">
-        <f>IF((P71="Days"),((J71-I71+1)),IF(P71="Months",((J71-I71)/30),((J71-I71)/365)))</f>
+        <f t="shared" si="3"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P71" s="39" t="s">
@@ -10858,7 +10924,7 @@
         <v>56</v>
       </c>
       <c r="S71" s="39" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T71" s="39"/>
       <c r="U71" s="39"/>
@@ -10880,7 +10946,7 @@
       <c r="AK71" s="39"/>
       <c r="AL71" s="50"/>
       <c r="AM71" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -10893,13 +10959,13 @@
       </c>
       <c r="D72" s="51"/>
       <c r="E72" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F72" s="39" t="s">
         <v>82</v>
       </c>
       <c r="G72" s="39" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H72" s="50" t="s">
         <v>145</v>
@@ -10909,7 +10975,7 @@
       </c>
       <c r="J72" s="47">
         <f ca="1">NOW()</f>
-        <v>44453.584295023145</v>
+        <v>44455.409438773146</v>
       </c>
       <c r="K72" s="48">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -10928,8 +10994,8 @@
         <v>2021</v>
       </c>
       <c r="O72" s="42">
-        <f ca="1">IF((P72="Days"),((J72-I72+1)),IF(P72="Months",((J72-I72)/30),((J72-I72)/365)))</f>
-        <v>9.2125597123921796</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.217560106227797</v>
       </c>
       <c r="P72" s="39" t="s">
         <v>31</v>
@@ -10939,7 +11005,7 @@
         <v>56</v>
       </c>
       <c r="S72" s="39" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="T72" s="39"/>
       <c r="U72" s="39"/>
@@ -10961,7 +11027,7 @@
       <c r="AK72" s="39"/>
       <c r="AL72" s="50"/>
       <c r="AM72" s="52" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:39" ht="39.6" x14ac:dyDescent="0.3">
@@ -10972,20 +11038,20 @@
         <v>20</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D73" s="51"/>
       <c r="E73" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F73" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G73" s="39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H73" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I73" s="47">
         <v>42795</v>
@@ -11010,7 +11076,7 @@
         <v>2017</v>
       </c>
       <c r="O73" s="42">
-        <f>IF((P73="Days"),((J73-I73+1)),IF(P73="Months",((J73-I73)/30),((J73-I73)/365)))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P73" s="39" t="s">
@@ -11023,7 +11089,7 @@
         <v>56</v>
       </c>
       <c r="S73" s="39" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="T73" s="39"/>
       <c r="U73" s="39"/>
@@ -11045,29 +11111,29 @@
       <c r="AK73" s="39"/>
       <c r="AL73" s="50"/>
       <c r="AM73" s="52" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="74" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C74" s="40"/>
       <c r="D74" s="51"/>
       <c r="E74" s="39" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>154</v>
       </c>
       <c r="G74" s="39" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="I74" s="47"/>
       <c r="J74" s="47"/>
@@ -11088,7 +11154,7 @@
         <v>1900</v>
       </c>
       <c r="O74" s="42">
-        <f>IF((P74="Days"),((J74-I74+1)),IF(P74="Months",((J74-I74)/30),((J74-I74)/365)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P74" s="39"/>
@@ -11115,7 +11181,7 @@
       <c r="AK74" s="39"/>
       <c r="AL74" s="50"/>
       <c r="AM74" s="52" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -11141,14 +11207,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:AM74">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>$E2="Disclude"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>$E2="Include"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="S2:S60" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="T2:T74" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="U2:U74" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
@@ -11162,6 +11228,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H74" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
       <formula1>INDIRECT(G2)</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="Non-displayed entry notes" sqref="W2:W74" xr:uid="{F58D462A-025C-49EB-8CEE-5C27C7C59311}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="AM2" r:id="rId1" xr:uid="{919D3B29-36CF-49BF-9220-21A510F942D2}"/>
@@ -11269,43 +11336,43 @@
   <sheetData>
     <row r="1" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>83</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>10</v>
@@ -11313,20 +11380,20 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="21">
         <v>43461</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G2" s="27" t="s">
         <v>57</v>
@@ -11334,230 +11401,230 @@
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
       <c r="J2" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K2" s="27"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C3" s="21">
         <v>43462</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C4" s="21">
         <v>43462</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>325</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
       <c r="I4" s="27"/>
       <c r="J4" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N4" s="27"/>
       <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C5" s="21">
         <v>43462</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K5" s="27"/>
       <c r="L5" s="27"/>
       <c r="M5" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N5" s="27"/>
       <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C6" s="21">
         <v>43462</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C7" s="21">
         <v>43462</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N7" s="27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C8" s="21">
         <v>43462</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="27" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C9" s="21">
         <v>43462</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>57</v>
@@ -11565,286 +11632,286 @@
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C10" s="21">
         <v>43462</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="21">
         <v>43462</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
       <c r="M11" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N11" s="27"/>
       <c r="O11" s="23"/>
     </row>
     <row r="12" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C12" s="21">
         <v>43464</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C13" s="21">
         <v>43467</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="27"/>
       <c r="M13" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N13" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O13" s="23"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C14" s="21">
         <v>43467</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="23"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C15" s="21">
         <v>43472</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K15" s="27"/>
       <c r="L15" s="27"/>
       <c r="M15" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="23"/>
     </row>
     <row r="16" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C16" s="21">
         <v>43473</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>292</v>
-      </c>
       <c r="G16" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
       <c r="M16" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="23"/>
     </row>
     <row r="17" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C17" s="21">
         <v>43473</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K17" s="27"/>
       <c r="L17" s="27"/>
       <c r="M17" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N17" s="27"/>
       <c r="O17" s="23"/>
     </row>
     <row r="18" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C18" s="21">
         <v>43473</v>
@@ -11853,103 +11920,103 @@
         <v>43495</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="23"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C19" s="21">
         <v>43474</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>281</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>282</v>
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="23"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C20" s="21">
         <v>43474</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K20" s="27"/>
       <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="23"/>
     </row>
     <row r="21" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C21" s="21">
         <v>43475</v>
@@ -11958,57 +12025,57 @@
         <v>43496</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I21" s="27"/>
       <c r="J21" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N21" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C22" s="21">
         <v>43475</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
@@ -12018,10 +12085,10 @@
     </row>
     <row r="23" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C23" s="21">
         <v>43475</v>
@@ -12033,32 +12100,32 @@
         <v>48</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K23" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N23" s="27"/>
       <c r="O23" s="23"/>
     </row>
     <row r="24" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C24" s="21">
         <v>43485</v>
@@ -12067,76 +12134,76 @@
         <v>43486</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K24" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N24" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O24" s="23"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C25" s="21">
         <v>43490</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N25" s="27"/>
       <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C26" s="21">
         <v>43490</v>
@@ -12145,35 +12212,35 @@
         <v>43496</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N26" s="27"/>
       <c r="O26" s="23"/>
     </row>
     <row r="27" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C27" s="21">
         <v>43492</v>
@@ -12182,39 +12249,39 @@
         <v>43521</v>
       </c>
       <c r="E27" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="I27" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="F27" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>243</v>
-      </c>
       <c r="J27" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L27" s="27"/>
       <c r="M27" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N27" s="27"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C28" s="21">
         <v>43492</v>
@@ -12223,39 +12290,39 @@
         <v>43521</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L28" s="27"/>
       <c r="M28" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N28" s="27"/>
       <c r="O28" s="23"/>
     </row>
     <row r="29" spans="1:15" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C29" s="21">
         <v>43492</v>
@@ -12264,41 +12331,41 @@
         <v>43497</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L29" s="27"/>
       <c r="M29" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N29" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O29" s="23"/>
     </row>
     <row r="30" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C30" s="21">
         <v>43492</v>
@@ -12310,40 +12377,40 @@
         <v>47</v>
       </c>
       <c r="F30" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="N30" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="M30" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>223</v>
       </c>
       <c r="O30" s="23"/>
     </row>
     <row r="31" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C31" s="21">
         <v>43492</v>
@@ -12355,38 +12422,38 @@
         <v>47</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L31" s="27"/>
       <c r="M31" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O31" s="23"/>
     </row>
     <row r="32" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C32" s="21">
         <v>43497</v>
@@ -12395,98 +12462,98 @@
         <v>43497</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
       <c r="M32" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N32" s="27"/>
       <c r="O32" s="23"/>
     </row>
     <row r="33" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C33" s="21">
         <v>43649</v>
       </c>
       <c r="D33" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="F33" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="G33" s="27" t="s">
         <v>177</v>
-      </c>
-      <c r="G33" s="27" t="s">
-        <v>178</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M33" s="27"/>
       <c r="N33" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O33" s="23"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C34" s="21">
         <v>43650</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="G34" s="27" t="s">
         <v>183</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K34" s="29"/>
       <c r="L34" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="29"/>
@@ -12494,30 +12561,30 @@
     </row>
     <row r="35" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C35" s="21">
         <v>43650</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E35" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="G35" s="27" t="s">
         <v>188</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>189</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
@@ -12527,10 +12594,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C36" s="21">
         <v>43654</v>
@@ -12539,13 +12606,13 @@
         <v>43661</v>
       </c>
       <c r="E36" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="G36" s="27" t="s">
         <v>192</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>193</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
@@ -12554,20 +12621,20 @@
       </c>
       <c r="K36" s="29"/>
       <c r="L36" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M36" s="27"/>
       <c r="N36" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O36" s="23"/>
     </row>
     <row r="37" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C37" s="21">
         <v>43684</v>
@@ -12576,24 +12643,24 @@
         <v>43723</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="G37" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="L37" s="30" t="s">
         <v>200</v>
-      </c>
-      <c r="L37" s="30" t="s">
-        <v>201</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27"/>
@@ -12601,40 +12668,40 @@
     </row>
     <row r="38" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C38" s="21">
         <v>43836</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K38" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="27"/>
@@ -12642,10 +12709,10 @@
     </row>
     <row r="39" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C39" s="21">
         <v>43864</v>
@@ -12657,25 +12724,25 @@
         <v>47</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G39" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H39" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="I39" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="J39" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="I39" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="J39" s="27" t="s">
+      <c r="K39" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="K39" s="27" t="s">
+      <c r="L39" s="30" t="s">
         <v>350</v>
-      </c>
-      <c r="L39" s="30" t="s">
-        <v>351</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="27"/>
@@ -12683,10 +12750,10 @@
     </row>
     <row r="40" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C40" s="21">
         <v>43870</v>
@@ -12695,28 +12762,28 @@
         <v>43890</v>
       </c>
       <c r="E40" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="F40" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="G40" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="H40" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="I40" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="I40" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="J40" s="27" t="s">
+      <c r="K40" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="K40" s="27" t="s">
+      <c r="L40" s="32" t="s">
         <v>358</v>
-      </c>
-      <c r="L40" s="32" t="s">
-        <v>359</v>
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="27"/>
@@ -12724,94 +12791,94 @@
     </row>
     <row r="41" spans="1:15" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C41" s="21">
         <v>44039</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F41" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="J41" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="K41" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="L41" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="M41" s="27" t="s">
         <v>453</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>454</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>455</v>
-      </c>
-      <c r="L41" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="M41" s="27" t="s">
-        <v>457</v>
       </c>
       <c r="N41" s="27"/>
     </row>
     <row r="42" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C42" s="21">
         <v>44040</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G42" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="I42" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>457</v>
+      </c>
+      <c r="K42" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="L42" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>459</v>
-      </c>
-      <c r="J42" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="K42" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="L42" s="46" t="s">
-        <v>462</v>
-      </c>
       <c r="M42" s="27" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="N42" s="27"/>
     </row>
     <row r="43" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C43" s="21">
         <v>44188</v>
@@ -12820,40 +12887,40 @@
         <v>44196</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>150</v>
       </c>
       <c r="G43" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K43" s="27" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="L43" s="46" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="M43" s="27"/>
       <c r="N43" s="27" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C44" s="21">
         <v>44195</v>
@@ -12862,170 +12929,170 @@
         <v>44204</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G44" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K44" s="27" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="L44" s="46" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="M44" s="27"/>
       <c r="N44" s="27" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C45" s="21">
         <v>44195</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G45" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="K45" s="27" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N45" s="27" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C46" s="21">
         <v>44195</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G46" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="K46" s="27" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L46" s="46" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="N46" s="27" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C47" s="21">
         <v>44195</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G47" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="K47" s="27" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="L47" s="46" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="N47" s="27"/>
     </row>
     <row r="48" spans="1:15" ht="27" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C48" s="21">
         <v>44195</v>
@@ -13034,99 +13101,99 @@
         <v>44207</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G48" s="27" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="K48" s="27"/>
       <c r="L48" s="46" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="N48" s="27"/>
     </row>
     <row r="49" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C49" s="21">
         <v>44196</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="K49" s="27"/>
       <c r="L49" s="27"/>
       <c r="M49" s="27" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="N49" s="27" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"Offered"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Interview"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Applied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Incomplete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"Offered-Declined"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Offered-Accepted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"Interview-Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"No response"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13185,13 +13252,13 @@
         <v>9</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>5</v>
@@ -13203,18 +13270,18 @@
         <v>40</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>9</v>
@@ -13223,7 +13290,7 @@
         <v>51</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>145</v>
@@ -13238,16 +13305,16 @@
         <v>100</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>44</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13255,13 +13322,13 @@
         <v>101</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>114</v>
@@ -13270,22 +13337,22 @@
         <v>79</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>99</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>45</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -13293,37 +13360,37 @@
         <v>46</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>33</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -13331,35 +13398,35 @@
         <v>82</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -13370,70 +13437,70 @@
         <v>5</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -13441,37 +13508,37 @@
         <v>154</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L8" s="35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -13482,72 +13549,72 @@
         <v>40</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L9" s="35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K10" s="36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -13580,153 +13647,153 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="H1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E2" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="G2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="E5" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F5" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="G5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F6" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G6" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="13_ncr:1_{86557594-545C-4403-B14F-4ED17EB9CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18BE30BE-AACF-4290-9CB1-15BAF62E1324}"/>
+  <xr:revisionPtr revIDLastSave="466" documentId="13_ncr:1_{86557594-545C-4403-B14F-4ED17EB9CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6415EEED-EC5C-4456-A628-363292EFACEA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1890" windowWidth="20730" windowHeight="11160" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="522">
   <si>
     <t>Category</t>
   </si>
@@ -1327,9 +1327,6 @@
     <t xml:space="preserve">Subset of final report and instruction manual submitted in completion of project. </t>
   </si>
   <si>
-    <t>Results for population</t>
-  </si>
-  <si>
     <t>aphid_farm_interactions</t>
   </si>
   <si>
@@ -1435,9 +1432,6 @@
     <t>Created a tagged database of over 3300 organizations of varying relations to heritage conservation with contact information classification tags.</t>
   </si>
   <si>
-    <t>Researcher</t>
-  </si>
-  <si>
     <t>Studied the state of heritage conservation in Saskatchewan focusing on the spectrum of  work from 'Built Heritage' to 'Intangible Cultural Heritage'.</t>
   </si>
   <si>
@@ -1640,6 +1634,15 @@
   </si>
   <si>
     <t xml:space="preserve">Conducted preliminary site assessments using publicly available spatial data to assess edaphic and hydrological conditions. Assessed changes in land use through time using aerial imagery. Determined success of reforestation efforts based on increases in forest cover through in field surveys. Mapped and removed invasive species and dump sites. </t>
+  </si>
+  <si>
+    <t>Inventorying Living Heritage Conservation in SK</t>
+  </si>
+  <si>
+    <t>Diagramatic representation of interactions within model system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experimental community modelling results. </t>
   </si>
 </sst>
 </file>
@@ -3587,9 +3590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
   <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S41" sqref="S41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG46" sqref="AG46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3623,7 +3626,7 @@
     <col min="29" max="29" width="22.109375" style="2" customWidth="1"/>
     <col min="30" max="30" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19" style="2" customWidth="1"/>
     <col min="33" max="35" width="18.5546875" style="2" customWidth="1"/>
     <col min="36" max="37" width="18.5546875" customWidth="1"/>
     <col min="38" max="38" width="18.5546875" style="2" customWidth="1"/>
@@ -3720,7 +3723,7 @@
         <v>338</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AC1" s="8" t="s">
         <v>339</v>
@@ -3729,7 +3732,7 @@
         <v>340</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF1" s="8" t="s">
         <v>341</v>
@@ -3804,7 +3807,7 @@
         <v>2022</v>
       </c>
       <c r="O2" s="26">
-        <f>IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
+        <f t="shared" ref="O2:O33" si="0">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
         <v>1.6602739726027398</v>
       </c>
       <c r="P2" s="23" t="s">
@@ -3817,25 +3820,27 @@
         <v>244</v>
       </c>
       <c r="S2" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="T2" s="23" t="s">
         <v>477</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>479</v>
-      </c>
       <c r="U2" s="23" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="V2" s="32" t="s">
         <v>280</v>
       </c>
       <c r="W2" s="32"/>
       <c r="X2" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y2" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="Z2" s="32"/>
+      <c r="Z2" s="32" t="s">
+        <v>512</v>
+      </c>
       <c r="AA2" s="23"/>
       <c r="AB2" s="23"/>
       <c r="AC2" s="32"/>
@@ -3860,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>19</v>
@@ -3900,7 +3905,7 @@
         <v>2019</v>
       </c>
       <c r="O3" s="26">
-        <f>IF((P3="Days"),((J3-I3+1)),IF(P3="Months",((J3-I3)/30),((J3-I3)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P3" s="23" t="s">
@@ -3916,13 +3921,13 @@
         <v>275</v>
       </c>
       <c r="T3" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="U3" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="V3" s="32" t="s">
         <v>482</v>
-      </c>
-      <c r="U3" s="23" t="s">
-        <v>483</v>
-      </c>
-      <c r="V3" s="32" t="s">
-        <v>484</v>
       </c>
       <c r="W3" s="32"/>
       <c r="X3" s="23"/>
@@ -3992,7 +3997,7 @@
         <v>2017</v>
       </c>
       <c r="O4" s="26">
-        <f>IF((P4="Days"),((J4-I4+1)),IF(P4="Months",((J4-I4)/30),((J4-I4)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.5835616438356164</v>
       </c>
       <c r="P4" s="23" t="s">
@@ -4082,7 +4087,7 @@
         <v>2020</v>
       </c>
       <c r="O5" s="26">
-        <f>IF((P5="Days"),((J5-I5+1)),IF(P5="Months",((J5-I5)/30),((J5-I5)/365)))</f>
+        <f t="shared" si="0"/>
         <v>15.266666666666667</v>
       </c>
       <c r="P5" s="23" t="s">
@@ -4172,7 +4177,7 @@
         <v>2018</v>
       </c>
       <c r="O6" s="26">
-        <f>IF((P6="Days"),((J6-I6+1)),IF(P6="Months",((J6-I6)/30),((J6-I6)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
       <c r="P6" s="23" t="s">
@@ -4191,7 +4196,7 @@
         <v>195</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="V6" s="32" t="s">
         <v>315</v>
@@ -4260,7 +4265,7 @@
         <v>2018</v>
       </c>
       <c r="O7" s="26">
-        <f>IF((P7="Days"),((J7-I7+1)),IF(P7="Months",((J7-I7)/30),((J7-I7)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="P7" s="23" t="s">
@@ -4276,13 +4281,13 @@
         <v>292</v>
       </c>
       <c r="T7" s="23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="V7" s="32" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W7" s="32"/>
       <c r="X7" s="23"/>
@@ -4348,7 +4353,7 @@
         <v>2018</v>
       </c>
       <c r="O8" s="26">
-        <f>IF((P8="Days"),((J8-I8+1)),IF(P8="Months",((J8-I8)/30),((J8-I8)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P8" s="23" t="s">
@@ -4434,7 +4439,7 @@
         <v>2017</v>
       </c>
       <c r="O9" s="26">
-        <f>IF((P9="Days"),((J9-I9+1)),IF(P9="Months",((J9-I9)/30),((J9-I9)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.1</v>
       </c>
       <c r="P9" s="23" t="s">
@@ -4522,7 +4527,7 @@
         <v>2018</v>
       </c>
       <c r="O10" s="26">
-        <f>IF((P10="Days"),((J10-I10+1)),IF(P10="Months",((J10-I10)/30),((J10-I10)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.6739726027397261</v>
       </c>
       <c r="P10" s="23" t="s">
@@ -4612,7 +4617,7 @@
         <v>2016</v>
       </c>
       <c r="O11" s="26">
-        <f>IF((P11="Days"),((J11-I11+1)),IF(P11="Months",((J11-I11)/30),((J11-I11)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.6684931506849314</v>
       </c>
       <c r="P11" s="23" t="s">
@@ -4628,10 +4633,10 @@
         <v>263</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="V11" s="32" t="s">
         <v>264</v>
@@ -4700,7 +4705,7 @@
         <v>2011</v>
       </c>
       <c r="O12" s="26">
-        <f>IF((P12="Days"),((J12-I12+1)),IF(P12="Months",((J12-I12)/30),((J12-I12)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P12" s="23" t="s">
@@ -4713,7 +4718,7 @@
         <v>55</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="T12" s="23" t="s">
         <v>273</v>
@@ -4786,7 +4791,7 @@
         <v>2020</v>
       </c>
       <c r="O13" s="26">
-        <f>IF((P13="Days"),((J13-I13+1)),IF(P13="Months",((J13-I13)/30),((J13-I13)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="P13" s="23" t="s">
@@ -4806,7 +4811,7 @@
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="32" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="W13" s="32"/>
       <c r="X13" s="23"/>
@@ -4856,7 +4861,7 @@
       </c>
       <c r="J14" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K14" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -4875,8 +4880,8 @@
         <v>2021</v>
       </c>
       <c r="O14" s="26">
-        <f ca="1">IF((P14="Days"),((J14-I14+1)),IF(P14="Months",((J14-I14)/30),((J14-I14)/365)))</f>
-        <v>19.82108323302479</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19.823599753086455</v>
       </c>
       <c r="P14" s="23" t="s">
         <v>30</v>
@@ -4961,7 +4966,7 @@
         <v>2020</v>
       </c>
       <c r="O15" s="26">
-        <f>IF((P15="Days"),((J15-I15+1)),IF(P15="Months",((J15-I15)/30),((J15-I15)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P15" s="23" t="s">
@@ -5047,7 +5052,7 @@
         <v>2019</v>
       </c>
       <c r="O16" s="26">
-        <f>IF((P16="Days"),((J16-I16+1)),IF(P16="Months",((J16-I16)/30),((J16-I16)/365)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P16" s="23" t="s">
@@ -5117,7 +5122,7 @@
       </c>
       <c r="J17" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K17" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5136,15 +5141,15 @@
         <v>2021</v>
       </c>
       <c r="O17" s="26">
-        <f ca="1">IF((P17="Days"),((J17-I17+1)),IF(P17="Months",((J17-I17)/30),((J17-I17)/365)))</f>
-        <v>24.254416566358124</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.256933086419789</v>
       </c>
       <c r="P17" s="23" t="s">
         <v>30</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S17" s="23" t="s">
         <v>299</v>
@@ -5222,7 +5227,7 @@
         <v>2020</v>
       </c>
       <c r="O18" s="26">
-        <f>IF((P18="Days"),((J18-I18+1)),IF(P18="Months",((J18-I18)/30),((J18-I18)/365)))</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="P18" s="23" t="s">
@@ -5306,7 +5311,7 @@
         <v>2019</v>
       </c>
       <c r="O19" s="26">
-        <f>IF((P19="Days"),((J19-I19+1)),IF(P19="Months",((J19-I19)/30),((J19-I19)/365)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P19" s="23" t="s">
@@ -5394,7 +5399,7 @@
         <v>2019</v>
       </c>
       <c r="O20" s="26">
-        <f>IF((P20="Days"),((J20-I20+1)),IF(P20="Months",((J20-I20)/30),((J20-I20)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P20" s="23" t="s">
@@ -5482,7 +5487,7 @@
         <v>2019</v>
       </c>
       <c r="O21" s="26">
-        <f>IF((P21="Days"),((J21-I21+1)),IF(P21="Months",((J21-I21)/30),((J21-I21)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P21" s="23" t="s">
@@ -5495,13 +5500,13 @@
         <v>55</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="T21" s="23" t="s">
         <v>234</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="V21" s="32"/>
       <c r="W21" s="32" t="s">
@@ -5572,7 +5577,7 @@
         <v>2019</v>
       </c>
       <c r="O22" s="26">
-        <f>IF((P22="Days"),((J22-I22+1)),IF(P22="Months",((J22-I22)/30),((J22-I22)/365)))</f>
+        <f t="shared" si="0"/>
         <v>0.61643835616438358</v>
       </c>
       <c r="P22" s="23" t="s">
@@ -5658,7 +5663,7 @@
         <v>2017</v>
       </c>
       <c r="O23" s="26">
-        <f>IF((P23="Days"),((J23-I23+1)),IF(P23="Months",((J23-I23)/30),((J23-I23)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.1643835616438356</v>
       </c>
       <c r="P23" s="23" t="s">
@@ -5744,7 +5749,7 @@
         <v>2015</v>
       </c>
       <c r="O24" s="26">
-        <f>IF((P24="Days"),((J24-I24+1)),IF(P24="Months",((J24-I24)/30),((J24-I24)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P24" s="23" t="s">
@@ -5828,7 +5833,7 @@
         <v>2019</v>
       </c>
       <c r="O25" s="26">
-        <f>IF((P25="Days"),((J25-I25+1)),IF(P25="Months",((J25-I25)/30),((J25-I25)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P25" s="23" t="s">
@@ -5914,7 +5919,7 @@
         <v>2017</v>
       </c>
       <c r="O26" s="26">
-        <f>IF((P26="Days"),((J26-I26+1)),IF(P26="Months",((J26-I26)/30),((J26-I26)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P26" s="23" t="s">
@@ -5998,7 +6003,7 @@
         <v>2016</v>
       </c>
       <c r="O27" s="26">
-        <f>IF((P27="Days"),((J27-I27+1)),IF(P27="Months",((J27-I27)/30),((J27-I27)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="P27" s="23" t="s">
@@ -6082,7 +6087,7 @@
         <v>2016</v>
       </c>
       <c r="O28" s="26">
-        <f>IF((P28="Days"),((J28-I28+1)),IF(P28="Months",((J28-I28)/30),((J28-I28)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="P28" s="23" t="s">
@@ -6149,8 +6154,8 @@
         <v>43952</v>
       </c>
       <c r="J29" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ref="J29:J35" ca="1" si="1">NOW()</f>
+        <v>44456.707992592594</v>
       </c>
       <c r="K29" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6169,8 +6174,8 @@
         <v>2021</v>
       </c>
       <c r="O29" s="26">
-        <f ca="1">IF((P29="Days"),((J29-I29+1)),IF(P29="Months",((J29-I29)/30),((J29-I29)/365)))</f>
-        <v>16.82108323302479</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16.823599753086455</v>
       </c>
       <c r="P29" s="23" t="s">
         <v>30</v>
@@ -6234,8 +6239,8 @@
         <v>43556</v>
       </c>
       <c r="J30" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44456.707992592594</v>
       </c>
       <c r="K30" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6254,8 +6259,8 @@
         <v>2021</v>
       </c>
       <c r="O30" s="26">
-        <f ca="1">IF((P30="Days"),((J30-I30+1)),IF(P30="Months",((J30-I30)/30),((J30-I30)/365)))</f>
-        <v>2.467486293125325</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4676931303906677</v>
       </c>
       <c r="P30" s="23" t="s">
         <v>31</v>
@@ -6317,8 +6322,8 @@
         <v>43734</v>
       </c>
       <c r="J31" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44456.707992592594</v>
       </c>
       <c r="K31" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6337,8 +6342,8 @@
         <v>2021</v>
       </c>
       <c r="O31" s="26">
-        <f ca="1">IF((P31="Days"),((J31-I31+1)),IF(P31="Months",((J31-I31)/30),((J31-I31)/365)))</f>
-        <v>24.087749899691456</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.090266419753121</v>
       </c>
       <c r="P31" s="23" t="s">
         <v>30</v>
@@ -6400,8 +6405,8 @@
         <v>43466</v>
       </c>
       <c r="J32" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44456.707992592594</v>
       </c>
       <c r="K32" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6420,8 +6425,8 @@
         <v>2021</v>
       </c>
       <c r="O32" s="26">
-        <f ca="1">IF((P32="Days"),((J32-I32+1)),IF(P32="Months",((J32-I32)/30),((J32-I32)/365)))</f>
-        <v>33.02108323302479</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33.023599753086458</v>
       </c>
       <c r="P32" s="23" t="s">
         <v>30</v>
@@ -6485,8 +6490,8 @@
         <v>43435</v>
       </c>
       <c r="J33" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44456.707992592594</v>
       </c>
       <c r="K33" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6505,8 +6510,8 @@
         <v>2021</v>
       </c>
       <c r="O33" s="26">
-        <f ca="1">IF((P33="Days"),((J33-I33+1)),IF(P33="Months",((J33-I33)/30),((J33-I33)/365)))</f>
-        <v>34.054416566358121</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34.056933086419789</v>
       </c>
       <c r="P33" s="23" t="s">
         <v>30</v>
@@ -6568,8 +6573,8 @@
         <v>43374</v>
       </c>
       <c r="J34" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44456.707992592594</v>
       </c>
       <c r="K34" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6588,8 +6593,8 @@
         <v>2021</v>
       </c>
       <c r="O34" s="26">
-        <f ca="1">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
-        <v>36.087749899691453</v>
+        <f t="shared" ref="O34:O65" ca="1" si="2">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
+        <v>36.090266419753121</v>
       </c>
       <c r="P34" s="23" t="s">
         <v>30</v>
@@ -6651,8 +6656,8 @@
         <v>43374</v>
       </c>
       <c r="J35" s="30">
-        <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44456.707992592594</v>
       </c>
       <c r="K35" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6671,8 +6676,8 @@
         <v>2021</v>
       </c>
       <c r="O35" s="26">
-        <f ca="1">IF((P35="Days"),((J35-I35+1)),IF(P35="Months",((J35-I35)/30),((J35-I35)/365)))</f>
-        <v>36.087749899691453</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.090266419753121</v>
       </c>
       <c r="P35" s="23" t="s">
         <v>30</v>
@@ -6755,7 +6760,7 @@
         <v>2022</v>
       </c>
       <c r="O36" s="26">
-        <f>IF((P36="Days"),((J36-I36+1)),IF(P36="Months",((J36-I36)/30),((J36-I36)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.6602739726027398</v>
       </c>
       <c r="P36" s="23" t="s">
@@ -6837,7 +6842,7 @@
         <v>2018</v>
       </c>
       <c r="O37" s="26">
-        <f>IF((P37="Days"),((J37-I37+1)),IF(P37="Months",((J37-I37)/30),((J37-I37)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0666666666666664</v>
       </c>
       <c r="P37" s="23" t="s">
@@ -6923,7 +6928,7 @@
         <v>2017</v>
       </c>
       <c r="O38" s="26">
-        <f>IF((P38="Days"),((J38-I38+1)),IF(P38="Months",((J38-I38)/30),((J38-I38)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P38" s="23" t="s">
@@ -7009,7 +7014,7 @@
         <v>2016</v>
       </c>
       <c r="O39" s="26">
-        <f>IF((P39="Days"),((J39-I39+1)),IF(P39="Months",((J39-I39)/30),((J39-I39)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P39" s="23" t="s">
@@ -7055,7 +7060,7 @@
         <v>317</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>318</v>
@@ -7095,7 +7100,7 @@
         <v>2021</v>
       </c>
       <c r="O40" s="26">
-        <f>IF((P40="Days"),((J40-I40+1)),IF(P40="Months",((J40-I40)/30),((J40-I40)/365)))</f>
+        <f t="shared" si="2"/>
         <v>3.6333333333333333</v>
       </c>
       <c r="P40" s="23" t="s">
@@ -7108,16 +7113,16 @@
         <v>86</v>
       </c>
       <c r="S40" s="23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="T40" s="23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U40" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="V40" s="32" t="s">
         <v>450</v>
-      </c>
-      <c r="V40" s="32" t="s">
-        <v>451</v>
       </c>
       <c r="W40" s="32"/>
       <c r="X40" s="23" t="s">
@@ -7136,10 +7141,10 @@
       <c r="AE40" s="23"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AH40" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AI40" s="23"/>
       <c r="AJ40" s="32"/>
@@ -7157,7 +7162,7 @@
         <v>240</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>246</v>
@@ -7179,7 +7184,7 @@
       </c>
       <c r="J41" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K41" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7198,8 +7203,8 @@
         <v>2021</v>
       </c>
       <c r="O41" s="26">
-        <f ca="1">IF((P41="Days"),((J41-I41+1)),IF(P41="Months",((J41-I41)/30),((J41-I41)/365)))</f>
-        <v>14.787749899691455</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>14.790266419753122</v>
       </c>
       <c r="P41" s="23" t="s">
         <v>30</v>
@@ -7211,26 +7216,26 @@
         <v>51</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T41" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="U41" s="23" t="s">
         <v>476</v>
-      </c>
-      <c r="U41" s="23" t="s">
-        <v>478</v>
       </c>
       <c r="V41" s="32" t="s">
         <v>280</v>
       </c>
       <c r="W41" s="32"/>
       <c r="X41" s="23" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Y41" s="23" t="s">
         <v>345</v>
       </c>
       <c r="Z41" s="32" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AA41" s="23"/>
       <c r="AB41" s="23"/>
@@ -7276,7 +7281,7 @@
       </c>
       <c r="J42" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K42" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7295,37 +7300,37 @@
         <v>2021</v>
       </c>
       <c r="O42" s="26">
-        <f ca="1">IF((P42="Days"),((J42-I42+1)),IF(P42="Months",((J42-I42)/30),((J42-I42)/365)))</f>
-        <v>19.82108323302479</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19.823599753086455</v>
       </c>
       <c r="P42" s="23" t="s">
         <v>30</v>
       </c>
       <c r="Q42" s="23"/>
       <c r="R42" s="23" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="T42" s="23" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="U42" s="23" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="V42" s="32" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W42" s="32"/>
       <c r="X42" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Y42" s="23" t="s">
         <v>345</v>
       </c>
       <c r="Z42" s="32" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AA42" s="23"/>
       <c r="AB42" s="23"/>
@@ -7333,11 +7338,11 @@
       <c r="AD42" s="23"/>
       <c r="AE42" s="23"/>
       <c r="AF42" s="32"/>
-      <c r="AG42" s="23" t="s">
-        <v>516</v>
+      <c r="AG42" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="AH42" s="32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AI42" s="23"/>
       <c r="AJ42" s="32"/>
@@ -7395,7 +7400,7 @@
         <v>2020</v>
       </c>
       <c r="O43" s="26">
-        <f>IF((P43="Days"),((J43-I43+1)),IF(P43="Months",((J43-I43)/30),((J43-I43)/365)))</f>
+        <f t="shared" si="2"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="P43" s="23" t="s">
@@ -7411,7 +7416,7 @@
         <v>224</v>
       </c>
       <c r="T43" s="23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U43" s="23" t="s">
         <v>225</v>
@@ -7455,7 +7460,7 @@
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D44" s="33"/>
       <c r="E44" s="23" t="s">
@@ -7493,7 +7498,7 @@
         <v>2020</v>
       </c>
       <c r="O44" s="26">
-        <f>IF((P44="Days"),((J44-I44+1)),IF(P44="Months",((J44-I44)/30),((J44-I44)/365)))</f>
+        <f t="shared" si="2"/>
         <v>9.1333333333333329</v>
       </c>
       <c r="P44" s="23" t="s">
@@ -7506,13 +7511,13 @@
         <v>60</v>
       </c>
       <c r="S44" s="23" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="T44" s="23" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="U44" s="23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="V44" s="32"/>
       <c r="W44" s="32"/>
@@ -7547,7 +7552,7 @@
         <v>16</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D45" s="33"/>
       <c r="E45" s="23" t="s">
@@ -7585,7 +7590,7 @@
         <v>2019</v>
       </c>
       <c r="O45" s="26">
-        <f>IF((P45="Days"),((J45-I45+1)),IF(P45="Months",((J45-I45)/30),((J45-I45)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P45" s="23" t="s">
@@ -7598,24 +7603,24 @@
         <v>55</v>
       </c>
       <c r="S45" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="T45" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="T45" s="23" t="s">
-        <v>469</v>
-      </c>
       <c r="U45" s="23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V45" s="32"/>
       <c r="W45" s="32"/>
       <c r="X45" s="23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Y45" s="23" t="s">
         <v>345</v>
       </c>
       <c r="Z45" s="32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AA45" s="23"/>
       <c r="AB45" s="23"/>
@@ -7623,11 +7628,11 @@
       <c r="AD45" s="23"/>
       <c r="AE45" s="23"/>
       <c r="AF45" s="32"/>
-      <c r="AG45" s="23" t="s">
-        <v>472</v>
+      <c r="AG45" s="34" t="s">
+        <v>359</v>
       </c>
       <c r="AH45" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AI45" s="23"/>
       <c r="AJ45" s="32"/>
@@ -7645,7 +7650,7 @@
         <v>20</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D46" s="33" t="s">
         <v>156</v>
@@ -7685,11 +7690,11 @@
         <v>2017</v>
       </c>
       <c r="O46" s="26">
-        <f>IF((P46="Days"),((J46-I46+1)),IF(P46="Months",((J46-I46)/30),((J46-I46)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q46" s="23" t="s">
         <v>56</v>
@@ -7698,33 +7703,33 @@
         <v>55</v>
       </c>
       <c r="S46" s="23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="T46" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U46" s="23"/>
       <c r="V46" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W46" s="32"/>
       <c r="X46" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y46" s="23" t="s">
         <v>345</v>
       </c>
       <c r="Z46" s="32" t="s">
-        <v>416</v>
+        <v>520</v>
       </c>
       <c r="AA46" s="23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB46" s="23" t="s">
         <v>345</v>
       </c>
       <c r="AC46" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AD46" s="23" t="s">
         <v>342</v>
@@ -7733,13 +7738,13 @@
         <v>344</v>
       </c>
       <c r="AF46" s="32" t="s">
-        <v>416</v>
+        <v>521</v>
       </c>
       <c r="AG46" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AH46" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AI46" s="23"/>
       <c r="AJ46" s="32"/>
@@ -7755,7 +7760,7 @@
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>140</v>
@@ -7795,7 +7800,7 @@
         <v>2016</v>
       </c>
       <c r="O47" s="26">
-        <f>IF((P47="Days"),((J47-I47+1)),IF(P47="Months",((J47-I47)/30),((J47-I47)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P47" s="23" t="s">
@@ -7808,24 +7813,24 @@
         <v>55</v>
       </c>
       <c r="S47" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="T47" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="U47" s="23" t="s">
         <v>463</v>
-      </c>
-      <c r="T47" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="U47" s="23" t="s">
-        <v>465</v>
       </c>
       <c r="V47" s="32"/>
       <c r="W47" s="32"/>
       <c r="X47" s="23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Y47" s="23" t="s">
         <v>345</v>
       </c>
       <c r="Z47" s="32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AA47" s="23"/>
       <c r="AB47" s="23"/>
@@ -7851,7 +7856,7 @@
         <v>20</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D48" s="33" t="s">
         <v>151</v>
@@ -7891,11 +7896,11 @@
         <v>2016</v>
       </c>
       <c r="O48" s="26">
-        <f>IF((P48="Days"),((J48-I48+1)),IF(P48="Months",((J48-I48)/30),((J48-I48)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.2547945205479452</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="Q48" s="23" t="s">
         <v>56</v>
@@ -7904,56 +7909,56 @@
         <v>55</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T48" s="23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U48" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="V48" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W48" s="32"/>
       <c r="X48" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Y48" s="23" t="s">
         <v>345</v>
       </c>
       <c r="Z48" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA48" s="23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AB48" s="23" t="s">
         <v>345</v>
       </c>
       <c r="AC48" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AD48" s="23"/>
       <c r="AE48" s="23"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AH48" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI48" s="36" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AJ48" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="AK48" s="23" t="s">
         <v>436</v>
       </c>
+      <c r="AK48" s="34" t="s">
+        <v>358</v>
+      </c>
       <c r="AL48" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AM48" s="34" t="s">
         <v>358</v>
@@ -8003,7 +8008,7 @@
         <v>2020</v>
       </c>
       <c r="O49" s="26">
-        <f>IF((P49="Days"),((J49-I49+1)),IF(P49="Months",((J49-I49)/30),((J49-I49)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P49" s="23" t="s">
@@ -8081,7 +8086,7 @@
         <v>2019</v>
       </c>
       <c r="O50" s="26">
-        <f>IF((P50="Days"),((J50-I50+1)),IF(P50="Months",((J50-I50)/30),((J50-I50)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P50" s="23" t="s">
@@ -8167,7 +8172,7 @@
         <v>2018</v>
       </c>
       <c r="O51" s="26">
-        <f>IF((P51="Days"),((J51-I51+1)),IF(P51="Months",((J51-I51)/30),((J51-I51)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P51" s="23" t="s">
@@ -8251,7 +8256,7 @@
         <v>2017</v>
       </c>
       <c r="O52" s="26">
-        <f>IF((P52="Days"),((J52-I52+1)),IF(P52="Months",((J52-I52)/30),((J52-I52)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P52" s="23" t="s">
@@ -8335,7 +8340,7 @@
         <v>2016</v>
       </c>
       <c r="O53" s="26">
-        <f>IF((P53="Days"),((J53-I53+1)),IF(P53="Months",((J53-I53)/30),((J53-I53)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P53" s="23" t="s">
@@ -8415,7 +8420,7 @@
         <v>2011</v>
       </c>
       <c r="O54" s="26">
-        <f>IF((P54="Days"),((J54-I54+1)),IF(P54="Months",((J54-I54)/30),((J54-I54)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P54" s="23" t="s">
@@ -8495,7 +8500,7 @@
         <v>1900</v>
       </c>
       <c r="O55" s="26">
-        <f>IF((P55="Days"),((J55-I55+1)),IF(P55="Months",((J55-I55)/30),((J55-I55)/365)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P55" s="23"/>
@@ -8575,7 +8580,7 @@
         <v>2019</v>
       </c>
       <c r="O56" s="26">
-        <f>IF((P56="Days"),((J56-I56+1)),IF(P56="Months",((J56-I56)/30),((J56-I56)/365)))</f>
+        <f t="shared" si="2"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="P56" s="23" t="s">
@@ -8623,7 +8628,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="23" t="s">
@@ -8661,7 +8666,7 @@
         <v>2018</v>
       </c>
       <c r="O57" s="26">
-        <f>IF((P57="Days"),((J57-I57+1)),IF(P57="Months",((J57-I57)/30),((J57-I57)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P57" s="23" t="s">
@@ -8747,7 +8752,7 @@
         <v>2017</v>
       </c>
       <c r="O58" s="26">
-        <f>IF((P58="Days"),((J58-I58+1)),IF(P58="Months",((J58-I58)/30),((J58-I58)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P58" s="23" t="s">
@@ -8833,7 +8838,7 @@
         <v>2016</v>
       </c>
       <c r="O59" s="26">
-        <f>IF((P59="Days"),((J59-I59+1)),IF(P59="Months",((J59-I59)/30),((J59-I59)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P59" s="23" t="s">
@@ -8917,7 +8922,7 @@
         <v>2013</v>
       </c>
       <c r="O60" s="26">
-        <f>IF((P60="Days"),((J60-I60+1)),IF(P60="Months",((J60-I60)/30),((J60-I60)/365)))</f>
+        <f t="shared" si="2"/>
         <v>2.0027397260273974</v>
       </c>
       <c r="P60" s="23" t="s">
@@ -8997,7 +9002,7 @@
         <v>2019</v>
       </c>
       <c r="O61" s="26">
-        <f>IF((P61="Days"),((J61-I61+1)),IF(P61="Months",((J61-I61)/30),((J61-I61)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P61" s="23" t="s">
@@ -9079,7 +9084,7 @@
         <v>2015</v>
       </c>
       <c r="O62" s="26">
-        <f>IF((P62="Days"),((J62-I62+1)),IF(P62="Months",((J62-I62)/30),((J62-I62)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P62" s="23" t="s">
@@ -9163,7 +9168,7 @@
         <v>2019</v>
       </c>
       <c r="O63" s="26">
-        <f>IF((P63="Days"),((J63-I63+1)),IF(P63="Months",((J63-I63)/30),((J63-I63)/365)))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="P63" s="23" t="s">
@@ -9245,7 +9250,7 @@
         <v>2019</v>
       </c>
       <c r="O64" s="26">
-        <f>IF((P64="Days"),((J64-I64+1)),IF(P64="Months",((J64-I64)/30),((J64-I64)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P64" s="23" t="s">
@@ -9327,7 +9332,7 @@
         <v>2020</v>
       </c>
       <c r="O65" s="26">
-        <f>IF((P65="Days"),((J65-I65+1)),IF(P65="Months",((J65-I65)/30),((J65-I65)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.1698630136986301</v>
       </c>
       <c r="P65" s="23" t="s">
@@ -9393,7 +9398,7 @@
       </c>
       <c r="J66" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K66" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9412,8 +9417,8 @@
         <v>2021</v>
       </c>
       <c r="O66" s="26">
-        <f ca="1">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
-        <v>29.02108323302479</v>
+        <f t="shared" ref="O66:O74" ca="1" si="3">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
+        <v>29.023599753086454</v>
       </c>
       <c r="P66" s="23" t="s">
         <v>30</v>
@@ -9476,7 +9481,7 @@
       </c>
       <c r="J67" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K67" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9495,8 +9500,8 @@
         <v>2021</v>
       </c>
       <c r="O67" s="26">
-        <f ca="1">IF((P67="Days"),((J67-I67+1)),IF(P67="Months",((J67-I67)/30),((J67-I67)/365)))</f>
-        <v>36.087749899691453</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>36.090266419753121</v>
       </c>
       <c r="P67" s="23" t="s">
         <v>30</v>
@@ -9575,7 +9580,7 @@
         <v>2020</v>
       </c>
       <c r="O68" s="26">
-        <f>IF((P68="Days"),((J68-I68+1)),IF(P68="Months",((J68-I68)/30),((J68-I68)/365)))</f>
+        <f t="shared" si="3"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P68" s="23" t="s">
@@ -9657,7 +9662,7 @@
         <v>2019</v>
       </c>
       <c r="O69" s="26">
-        <f>IF((P69="Days"),((J69-I69+1)),IF(P69="Months",((J69-I69)/30),((J69-I69)/365)))</f>
+        <f t="shared" si="3"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P69" s="23" t="s">
@@ -9721,7 +9726,7 @@
       </c>
       <c r="J70" s="30">
         <f ca="1">NOW()</f>
-        <v>44456.632496990744</v>
+        <v>44456.707992592594</v>
       </c>
       <c r="K70" s="31">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9740,8 +9745,8 @@
         <v>2021</v>
       </c>
       <c r="O70" s="26">
-        <f ca="1">IF((P70="Days"),((J70-I70+1)),IF(P70="Months",((J70-I70)/30),((J70-I70)/365)))</f>
-        <v>9.2209109506595723</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9.2211177879249142</v>
       </c>
       <c r="P70" s="23" t="s">
         <v>31</v>
@@ -9822,7 +9827,7 @@
         <v>2017</v>
       </c>
       <c r="O71" s="26">
-        <f>IF((P71="Days"),((J71-I71+1)),IF(P71="Months",((J71-I71)/30),((J71-I71)/365)))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P71" s="23" t="s">
@@ -9906,7 +9911,7 @@
         <v>2019</v>
       </c>
       <c r="O72" s="26">
-        <f>IF((P72="Days"),((J72-I72+1)),IF(P72="Months",((J72-I72)/30),((J72-I72)/365)))</f>
+        <f t="shared" si="3"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P72" s="23" t="s">
@@ -9919,7 +9924,7 @@
         <v>55</v>
       </c>
       <c r="S72" s="23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="T72" s="23"/>
       <c r="U72" s="23"/>
@@ -9986,7 +9991,7 @@
         <v>1900</v>
       </c>
       <c r="O73" s="26">
-        <f>IF((P73="Days"),((J73-I73+1)),IF(P73="Months",((J73-I73)/30),((J73-I73)/365)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P73" s="23"/>
@@ -10056,7 +10061,7 @@
         <v>1900</v>
       </c>
       <c r="O74" s="26">
-        <f>IF((P74="Days"),((J74-I74+1)),IF(P74="Months",((J74-I74)/30),((J74-I74)/365)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P74" s="23"/>
@@ -10200,11 +10205,13 @@
     <hyperlink ref="AM48" r:id="rId65" xr:uid="{4B2FF046-8623-4E5F-AE94-8D8D31C98AB2}"/>
     <hyperlink ref="AI48" r:id="rId66" xr:uid="{AF6FBCD4-FF22-40D8-BD83-ADA10F090F49}"/>
     <hyperlink ref="AM41" r:id="rId67" xr:uid="{D1CDC002-2E78-47DD-8D9C-DB1FB3B674D8}"/>
+    <hyperlink ref="AG42" r:id="rId68" xr:uid="{FF1EE08C-2F93-4B09-B2DA-900FED43DEDD}"/>
+    <hyperlink ref="AK48" r:id="rId69" xr:uid="{F5AF8818-5360-432D-A278-FCE0104015B6}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId68"/>
+  <pageSetup orientation="landscape" r:id="rId70"/>
   <tableParts count="1">
-    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId71"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10629,10 +10636,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10644,128 +10651,128 @@
         <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" t="s">
         <v>489</v>
-      </c>
-      <c r="C4" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" t="s">
         <v>495</v>
-      </c>
-      <c r="B8" t="s">
-        <v>501</v>
-      </c>
-      <c r="C8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C11" t="s">
         <v>503</v>
-      </c>
-      <c r="C11" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14" t="s">
         <v>506</v>
-      </c>
-      <c r="B14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B15" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -5,46 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Projects/zacharymilosmoore.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="13_ncr:1_{86557594-545C-4403-B14F-4ED17EB9CA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB9A7CF0-4A73-4664-9188-D87C0CAB0021}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0DFA3499-E52C-43CC-968B-B04CF84B0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DCD48E-5BC2-47F1-8D47-8E1B06ECD4F0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="5" r:id="rId2"/>
     <sheet name="Skills" sheetId="6" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="Accreditation" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Accreditation">Lists[Accreditation]</definedName>
-    <definedName name="Application.Stage" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Application.Stage">Lists[Application.Stage]</definedName>
-    <definedName name="Award" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Award">Lists[Award]</definedName>
-    <definedName name="Branch" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Branch">Lists[Branch]</definedName>
-    <definedName name="Category" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Category">Lists[Category]</definedName>
-    <definedName name="Certificate" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Certificate">Lists[Certificate]</definedName>
-    <definedName name="Education" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Education">Lists[Education]</definedName>
-    <definedName name="Employment" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Employment">Lists[Employment]</definedName>
-    <definedName name="Event" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Event">Lists[Event]</definedName>
-    <definedName name="Membership" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Membership">Lists[Membership]</definedName>
-    <definedName name="Projects" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Projects">Lists[Project]</definedName>
-    <definedName name="Volunteering" localSheetId="2">[1]cv_zmm_app_refs!#REF!</definedName>
-    <definedName name="Volunteering">Lists[Volunteering]</definedName>
+    <definedName name="Accreditations">lists.table[Accreditations]</definedName>
+    <definedName name="Application.Stage">lists.table[Application.Stage]</definedName>
+    <definedName name="Awards">lists.table[Awards]</definedName>
+    <definedName name="Branch">lists.table[Branch]</definedName>
+    <definedName name="Category">lists.table[Category]</definedName>
+    <definedName name="Certifications">lists.table[Certifications]</definedName>
+    <definedName name="Conferences">lists.table[Conferences]</definedName>
+    <definedName name="Education">lists.table[Education]</definedName>
+    <definedName name="Employment">lists.table[Employment]</definedName>
+    <definedName name="Membership">lists.table[Memberships]</definedName>
+    <definedName name="Projects">lists.table[Projects]</definedName>
+    <definedName name="Volunteering">lists.table[Volunteering]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="534">
   <si>
     <t>Category</t>
   </si>
@@ -94,18 +79,12 @@
     <t>Honour's Bachelor of Arts and Science</t>
   </si>
   <si>
-    <t>Accreditation</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
     <t>Society for Ecological Restoration</t>
   </si>
   <si>
-    <t>Eligible for CERP in 2024 with enough experience</t>
-  </si>
-  <si>
     <t>Alberta Society for Professional Biologists</t>
   </si>
   <si>
@@ -142,9 +121,6 @@
     <t>Org_Acr</t>
   </si>
   <si>
-    <t>Pos_Acr</t>
-  </si>
-  <si>
     <t>Great Divide Trail Association</t>
   </si>
   <si>
@@ -334,15 +310,9 @@
     <t>Living Lakes Canada</t>
   </si>
   <si>
-    <t>LLC</t>
-  </si>
-  <si>
     <t>CABIN with STREAM DNA Metabarcoding Sample Collection</t>
   </si>
   <si>
-    <t>CABIN, STREAM</t>
-  </si>
-  <si>
     <t>Invermere</t>
   </si>
   <si>
@@ -394,9 +364,6 @@
     <t>OE3C</t>
   </si>
   <si>
-    <t>Poster Presentation</t>
-  </si>
-  <si>
     <t>Experimentally induced population destabilization in Daphnia magna</t>
   </si>
   <si>
@@ -427,9 +394,6 @@
     <t>Ontario Ministry of Environment, Conservation and Parks</t>
   </si>
   <si>
-    <t>OECP</t>
-  </si>
-  <si>
     <t>Ontario Benthos Biomonitoring Network Participant</t>
   </si>
   <si>
@@ -466,12 +430,6 @@
     <t>Class/ Training</t>
   </si>
   <si>
-    <t>Waterloo Wellingten Flight Centre</t>
-  </si>
-  <si>
-    <t>WWFC</t>
-  </si>
-  <si>
     <t>Unmanned Aerial Vehicle Ground School</t>
   </si>
   <si>
@@ -502,9 +460,6 @@
     <t>Permanent</t>
   </si>
   <si>
-    <t>Ontario Ministry of Tranportation</t>
-  </si>
-  <si>
     <t>Ontario G-Class Driver's Licence</t>
   </si>
   <si>
@@ -514,9 +469,6 @@
     <t>Alberta Class 5 Driver's Licence</t>
   </si>
   <si>
-    <t>Undergraduate Thesis Student</t>
-  </si>
-  <si>
     <t>Natural Science and Engineering Research Council Undergraduate Student Research Award Recipient</t>
   </si>
   <si>
@@ -529,9 +481,6 @@
     <t>Branch</t>
   </si>
   <si>
-    <t xml:space="preserve">Measuring success of understory turf transplants in reclaimed forests </t>
-  </si>
-  <si>
     <t>Koffler Science Reserve Undergraduate Student Research Award Recipient</t>
   </si>
   <si>
@@ -550,9 +499,6 @@
     <t>Time_Unit</t>
   </si>
   <si>
-    <t>Undergraduate Student Research Fair Poster Presentation</t>
-  </si>
-  <si>
     <t>Lessons</t>
   </si>
   <si>
@@ -583,9 +529,6 @@
     <t>Certified Ecological Restoration Practitioner in Training</t>
   </si>
   <si>
-    <t>Board Governance</t>
-  </si>
-  <si>
     <t>University of Alberta</t>
   </si>
   <si>
@@ -601,9 +544,6 @@
     <t>Laboratory Biosafety</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Mountain Bluebird Trail Conservation Society</t>
   </si>
   <si>
@@ -613,9 +553,6 @@
     <t>Adaptable Outdoors</t>
   </si>
   <si>
-    <t>AOD</t>
-  </si>
-  <si>
     <t>Trail Monitor</t>
   </si>
   <si>
@@ -631,15 +568,9 @@
     <t>Pincher Creek and District Food Centre</t>
   </si>
   <si>
-    <t>PCDFC</t>
-  </si>
-  <si>
     <t>Project Lead - Growing Healthy Food Boxes</t>
   </si>
   <si>
-    <t>Eligible for P.Biol with 1.5 years more experience</t>
-  </si>
-  <si>
     <t>For work in Level 1 Biosafety Lab</t>
   </si>
   <si>
@@ -649,9 +580,6 @@
     <t>Natural Area Assistant - Waterton</t>
   </si>
   <si>
-    <t>CRC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demonstrated live mammal handling, bird surveying, herpetofauna identification, and sampling of both aquatic and terrestrial invertebrates. </t>
   </si>
   <si>
@@ -661,15 +589,6 @@
     <t>Driver's education course with in class and in vehicle components.</t>
   </si>
   <si>
-    <t>Award</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Recreational</t>
   </si>
   <si>
@@ -736,18 +655,12 @@
     <t>No Response</t>
   </si>
   <si>
-    <t>RRHA</t>
-  </si>
-  <si>
     <t>Created and analyzed database connecting historical and ongoing range and riparian health assessments.</t>
   </si>
   <si>
     <t xml:space="preserve">Scanned technical reports for important information. Standardized input of various report formats. Improved R-coding skills. </t>
   </si>
   <si>
-    <t>HCA</t>
-  </si>
-  <si>
     <t>River Corridor Restoration Technician</t>
   </si>
   <si>
@@ -922,9 +835,6 @@
     <t>Annual Field Tour</t>
   </si>
   <si>
-    <t xml:space="preserve">Group submission on promotional opportunities for reusable shopping bags received honourable mention amongst 15 other university and college teams. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Niagara College Team presentation on reducing plastic waste through promoting cyclic economies. </t>
   </si>
   <si>
@@ -944,9 +854,6 @@
   </si>
   <si>
     <t xml:space="preserve">Assisted in tasks related to the management of a 640 acre small-scale native tree farm. </t>
-  </si>
-  <si>
-    <t>$30,000 annual stipend during Master's of Natural Resource Management at the University of Manitoba</t>
   </si>
   <si>
     <r>
@@ -970,9 +877,6 @@
     <t>Niagara River Invasive Species Management</t>
   </si>
   <si>
-    <t>Fitness centre general worker.</t>
-  </si>
-  <si>
     <t>Serviced, maintained and cleaned fitness equipment. Greeted and registered participants.</t>
   </si>
   <si>
@@ -1033,9 +937,6 @@
     <t>HS</t>
   </si>
   <si>
-    <t>RA</t>
-  </si>
-  <si>
     <t>Regina</t>
   </si>
   <si>
@@ -1063,21 +964,6 @@
     <t>$6,500 award for undergraduate student research project conducted at the University of Toronto</t>
   </si>
   <si>
-    <t>Programmer of the Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awarded Programmer of the Year for dedication to student experience by creation of novel demonstrations and cirriculum. </t>
-  </si>
-  <si>
-    <t>WC</t>
-  </si>
-  <si>
-    <t>Best Poster In Evolutionary Ecology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awarded in competition of 10 undergraduate students for poster presentation on connecting life history traits and community dynamics. </t>
-  </si>
-  <si>
     <t>Org_Link</t>
   </si>
   <si>
@@ -1168,9 +1054,6 @@
     <t>Research Assistant (Agrawal Lab)</t>
   </si>
   <si>
-    <t>Research Assistant (Krkosek Lab)</t>
-  </si>
-  <si>
     <t>https://earthboundtrees.ca/</t>
   </si>
   <si>
@@ -1180,9 +1063,6 @@
     <t>ladybird_bi_sub</t>
   </si>
   <si>
-    <t>Environmental Consultation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subset of final report submitted in fulfillment of consultation. </t>
   </si>
   <si>
@@ -1285,9 +1165,6 @@
     <t>Includes Conservation Intern Period from May to August 2019, Natural Area Assistant Position from October 2019 to July 2020, and Conservation Researcher Position from July to August 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">Learned to liase with land managers. Excelled in communicating complex issues to varied audiences. </t>
-  </si>
-  <si>
     <t>https://www.umanitoba.ca/</t>
   </si>
   <si>
@@ -1360,15 +1237,6 @@
     <t>Daphnia Fishery: Experimental Population Destabilization from Harvesting</t>
   </si>
   <si>
-    <t>Collaborator: Martin Krkosek</t>
-  </si>
-  <si>
-    <t>Awarded Natural Sciences and Engineering Research Council of Canada Undergraduate Student Research Award (NSERC USRA). Recieved 'Honorable Mention' at 2016 Ontario Ecology, Evolution, and Ethology Conference. Currently undergoing revisions for publication.</t>
-  </si>
-  <si>
-    <t>Awarded University of Toronto's Koffler Scientific Reserve Undergraduate Research Award (KSR USRA). Received 'Best Poster Presentation in Evolutionary Ecology' award at University of Toronto undergraudate research fair (March 2017). Currently undergoing revisions for publication.</t>
-  </si>
-  <si>
     <t>https://krkosek.eeb.utoronto.ca/</t>
   </si>
   <si>
@@ -1408,18 +1276,12 @@
     <t xml:space="preserve">Undergraduate thesis project using two aphid species in laboratory and field experiments to examine the relative impacts of temperature on consumer-resource interactions, density dependence, interspecific competition, ant-hemipteran mutualisms, and predation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Designed, implemented, and maintained manipulative experiement using Daphnia magna mesocosms. Analyzed and presented data. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Designed, implemented, and maintained manipulative experiments in growth chambers and field cages. Analyzed and presented data. </t>
   </si>
   <si>
     <t xml:space="preserve">Learned about collaboration and the time inputs involved in the peer-review scientific process. </t>
   </si>
   <si>
-    <t>Terrestrial Insect Restoration Response</t>
-  </si>
-  <si>
     <t>Macro-enabled excel database template with automated analyses.</t>
   </si>
   <si>
@@ -1456,12 +1318,6 @@
     <t>Final paper submitted in completion of course</t>
   </si>
   <si>
-    <t xml:space="preserve">Ontario University Programs in Field Biology (OUPFB) field course project examing the impacts of forest understory turf transplants in restoration efforts. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compared vegetation communities, soil macroinvertebrate communities, and decompostion assays between reference and restored sites. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Found that understory turf transplants were successful at establishing vegetation, but less successful at increasing function (decomposition) or soil macroinvertebrate diversity. </t>
   </si>
   <si>
@@ -1495,21 +1351,12 @@
     <t>Post-Graduate Certificate in Ecosystem Restoration</t>
   </si>
   <si>
-    <t xml:space="preserve">Designed and implemented new long-term monitoring program for birds on private conservation rangelands. Conducted point count surveys. Deployed and analyzed data from Automated Recording Units (ARUs). Analyzed spatial land cover data. Conducted rangeland health assessments. Liased with cattle managers, land owners, and non-profit partners. </t>
-  </si>
-  <si>
     <t>Two-year masters program involving a thesis, course work, and public facing presentations.</t>
   </si>
   <si>
-    <t>Attempting to ellucidate the species present in a highly conserved region that is understudied from an avian perspective. Informing cattle management best practices by linking species abundances to rangeland health. Informing the debate in landscape ecology of birds regarding whether habitat amount or fragmentation has larger impacts on habitat usage.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thesis: Grassland Birds in the Parkland Transition. Courses cover aspects of economics, sociology, and reclamation/restoration from a natural resources management perspective. </t>
   </si>
   <si>
-    <t xml:space="preserve">Learned how to set identify own epistemological biases. Improved skills in scientific study design. Attempted to link theorhetical ecological concepts to conservation management. </t>
-  </si>
-  <si>
     <t>gsb_proposal_v3</t>
   </si>
   <si>
@@ -1633,9 +1480,6 @@
     <t>Inventorying Living Heritage Conservation in SK</t>
   </si>
   <si>
-    <t>Diagramatic representation of interactions within model system.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Experimental community modelling results. </t>
   </si>
   <si>
@@ -1669,13 +1513,157 @@
     <t xml:space="preserve">Sourced national park visitation data from Canada Open Data. Used gTrendsR package to correlate visitation with relative search interest. </t>
   </si>
   <si>
-    <t>Desgined classification taxonomy for contributions to heritage conservation. Created and populated organizational contact database through internet research and conglomerating existing contact lists. Analyzed data to identify data gaps and priorities for future research and outreach.</t>
-  </si>
-  <si>
     <t>Created a tagged database of over 3300 organizations of varying relations to heritage conservation with contact information.</t>
   </si>
   <si>
     <t>Policy brief submitted in fulfillment of class project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned how to identify own epistemological biases. Improved skills in scientific study design. Attempted to link theoretical ecological concepts to conservation management. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learned to liaise with land managers. Excelled in communicating complex issues to varied audiences. </t>
+  </si>
+  <si>
+    <t>Designed classification taxonomy for contributions to heritage conservation. Created and populated organizational contact database through internet research and conglomerating existing contact lists. Analyzed data to identify data gaps and priorities for future research and outreach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed and implemented new long-term monitoring program for birds on private conservation rangelands. Conducted point count surveys. Deployed and analyzed data from Automated Recording Units (ARUs). Analyzed spatial land cover data. Conducted rangeland health assessments. Leased with cattle managers, land owners, and non-profit partners. </t>
+  </si>
+  <si>
+    <t>Attempting to elucidate the species present in a highly conserved region that is understudied from an avian perspective. Informing cattle management best practices by linking species abundances to rangeland health. Informing the debate in landscape ecology of birds regarding whether habitat amount or fragmentation has larger impacts on habitat usage.</t>
+  </si>
+  <si>
+    <t>Awarded University of Toronto's Koffler Scientific Reserve Undergraduate Research Award (KSR USRA). Received 'Best Poster Presentation in Evolutionary Ecology' award at University of Toronto undergraduate research fair (March 2017). Currently undergoing revisions for publication.</t>
+  </si>
+  <si>
+    <t>Diagrammatic representation of interactions within model system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario University Programs in Field Biology (OUPFB) field course project examining the impacts of forest understory turf transplants in restoration efforts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compared vegetation communities, soil macroinvertebrate communities, and decomposition assays between reference and restored sites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designed, implemented, and maintained manipulative experiment using Daphnia magna mesocosms. Analyzed and presented data. </t>
+  </si>
+  <si>
+    <t>Awarded Natural Sciences and Engineering Research Council of Canada Undergraduate Student Research Award (NSERC USRA). Received 'Honorable Mention' at 2016 Ontario Ecology, Evolution, and Ethology Conference. Currently undergoing revisions for publication.</t>
+  </si>
+  <si>
+    <t>Collaborator: Martin Krkošek</t>
+  </si>
+  <si>
+    <t>Waterloo Wellington Flight Centre</t>
+  </si>
+  <si>
+    <t>Ontario Ministry of Transportation</t>
+  </si>
+  <si>
+    <t>Niagara Peninsula Conservation Authority</t>
+  </si>
+  <si>
+    <t>NPCA</t>
+  </si>
+  <si>
+    <t>Restoration Implementation Technician</t>
+  </si>
+  <si>
+    <t>St. Catherine's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-term contract assisting in Fall restoration plantings. </t>
+  </si>
+  <si>
+    <t>https://npca.ca/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planted tree and shrub container stock. Installed live stakes and geotextiles for streambank stabilization. Liaised with partners and land owners. Attended and lead volunteer events. </t>
+  </si>
+  <si>
+    <t>https://www.oxfordlearning.com/locations/toronto-don-mills-tutoring/</t>
+  </si>
+  <si>
+    <t>Conferences</t>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>Memberships</t>
+  </si>
+  <si>
+    <t>Accreditations</t>
+  </si>
+  <si>
+    <t>$30,000 annual stipend during Master's of Natural Resource Management at the University of Manitoba.</t>
+  </si>
+  <si>
+    <t>Awarded 'Best Poster in Evolutionary Ecology' in competition of 10 undergraduate students for poster presentation.</t>
+  </si>
+  <si>
+    <t>Undergraduate Student Research Fair 2017</t>
+  </si>
+  <si>
+    <t>Undergraduate Student Research Fair 2016</t>
+  </si>
+  <si>
+    <t>Poster presentation at undergraduate conference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received honourable mention amongst 15 other university and college teams. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created impromtu group pitch for a strategy for reducing plastic waste from single-use grocery bags. </t>
+  </si>
+  <si>
+    <t>Presented results from "Aphid Farm: Tritrophic Community Interactions"</t>
+  </si>
+  <si>
+    <t>Presented results from "Daphnia Fishery: Experimental Population Destabilization from Harvesting"</t>
+  </si>
+  <si>
+    <t>Poster presentation at graduate student based conference.</t>
+  </si>
+  <si>
+    <t>9th Annual World Conference</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poster presentation at global conference for advances in ecosystem restoration. </t>
+  </si>
+  <si>
+    <t>Presented results for "Western Canada Restoration Practitioner Survey"</t>
+  </si>
+  <si>
+    <t>Eligible for Professional Biologist (P.Biol) designation in 2022.</t>
+  </si>
+  <si>
+    <t>Eligible for Certification Ecological Restoration Practitioner (CERP) designation in 2024.</t>
+  </si>
+  <si>
+    <t>Part-time general staff at college fitness centre.</t>
+  </si>
+  <si>
+    <t>Private Consultation</t>
+  </si>
+  <si>
+    <t>SER-WC</t>
+  </si>
+  <si>
+    <t>Board Governance Introduction</t>
+  </si>
+  <si>
+    <t>Certifications</t>
+  </si>
+  <si>
+    <t>Terrestrial Insect Restoration Responses</t>
+  </si>
+  <si>
+    <t>Title_Acr</t>
   </si>
 </sst>
 </file>
@@ -3200,36 +3188,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Apps"/>
-      <sheetName val="References"/>
-      <sheetName val="cv_zmm_app_refs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM75" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:AM75" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM75">
-    <sortCondition descending="1" ref="E2:E75"/>
-    <sortCondition ref="G2:G75" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
-    <sortCondition descending="1" ref="I2:I75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM72" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+  <autoFilter ref="A1:AM72" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM72">
+    <sortCondition descending="1" ref="E2:E72"/>
+    <sortCondition ref="G2:G72" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
+    <sortCondition descending="1" ref="J2:J72"/>
+    <sortCondition descending="1" ref="I2:I72"/>
   </sortState>
   <tableColumns count="39">
     <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="55"/>
     <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="54"/>
     <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Title_Acr" dataDxfId="52"/>
     <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="51"/>
     <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="50"/>
     <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="49"/>
@@ -3281,19 +3253,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="lists.table" displayName="lists.table" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditations" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Awards" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certifications" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Conferences" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Memberships" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Projects" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
   </tableColumns>
@@ -3302,7 +3274,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F9D23E3-72EE-4E94-B438-551F9FCB85A2}" name="Table2" displayName="Table2" ref="A1:G15" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F9D23E3-72EE-4E94-B438-551F9FCB85A2}" name="skills.table" displayName="skills.table" ref="A1:G15" totalsRowShown="0">
   <autoFilter ref="A1:G15" xr:uid="{6F9D23E3-72EE-4E94-B438-551F9FCB85A2}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7D3FBEDF-F4AE-4BFA-9862-04337C5C8FD6}" name="Category"/>
@@ -3614,11 +3586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
-  <dimension ref="A1:AS75"/>
+  <dimension ref="A1:AS72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z41" sqref="Z41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3627,7 +3599,7 @@
     <col min="2" max="2" width="12.44140625" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" style="33" customWidth="1"/>
     <col min="4" max="4" width="13.109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
@@ -3671,25 +3643,25 @@
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>533</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -3698,123 +3670,124 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="AJ1" s="3" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="AL1" s="3" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I2" s="24">
         <v>44075</v>
       </c>
       <c r="J2" s="24">
-        <v>44681</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K2" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -3825,47 +3798,47 @@
         <v>2020</v>
       </c>
       <c r="M2" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N2" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2022</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O2" s="21">
-        <f t="shared" ref="O2:O33" si="0">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
-        <v>1.6602739726027398</v>
+        <f t="shared" ref="O2:O33" ca="1" si="0">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
+        <v>1.0648286723110176</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>31</v>
+        <v>427</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="W2" s="26"/>
       <c r="X2" s="18" t="s">
-        <v>477</v>
+        <v>431</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>510</v>
+        <v>464</v>
       </c>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18"/>
@@ -3880,7 +3853,7 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="26"/>
       <c r="AM2" s="28" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
@@ -3888,25 +3861,25 @@
         <v>6</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="I3" s="24">
         <v>43344</v>
@@ -3935,25 +3908,25 @@
         <v>8.0666666666666664</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="W3" s="26"/>
       <c r="X3" s="18"/>
@@ -3972,7 +3945,7 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="26"/>
       <c r="AM3" s="28" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -3980,25 +3953,25 @@
         <v>7</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="I4" s="24">
         <v>41518</v>
@@ -4027,25 +4000,25 @@
         <v>3.5835616438356164</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="V4" s="26" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="W4" s="26"/>
       <c r="X4" s="18"/>
@@ -4064,82 +4037,77 @@
       <c r="AK4" s="18"/>
       <c r="AL4" s="26"/>
       <c r="AM4" s="28" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>47</v>
+        <v>499</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>48</v>
+        <v>500</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="27"/>
+        <v>501</v>
+      </c>
+      <c r="D5" s="31"/>
       <c r="E5" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I5" s="24">
-        <v>43586</v>
+        <v>44440</v>
       </c>
       <c r="J5" s="24">
-        <v>44044</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K5" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L5" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M5" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N5" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" si="0"/>
-        <v>15.266666666666667</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78874884645071386</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>57</v>
+        <v>502</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>170</v>
+        <v>503</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="U5" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="V5" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="W5" s="26" t="s">
-        <v>401</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="U5" s="18"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="26"/>
@@ -4156,78 +4124,82 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="26"/>
       <c r="AM5" s="28" t="s">
-        <v>361</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C6" s="19" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I6" s="24">
-        <v>43282</v>
+        <v>43586</v>
       </c>
       <c r="J6" s="24">
-        <v>43344</v>
+        <v>44044</v>
       </c>
       <c r="K6" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L6" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M6" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N6" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="O6" s="21">
         <f t="shared" si="0"/>
-        <v>2.0666666666666669</v>
+        <v>15.266666666666667</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="V6" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="W6" s="26"/>
+        <v>152</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>366</v>
+      </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="26"/>
@@ -4244,39 +4216,41 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="26"/>
       <c r="AM6" s="28" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="19" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I7" s="24">
-        <v>43221</v>
+        <v>43405</v>
       </c>
       <c r="J7" s="24">
-        <v>43282</v>
+        <v>43586</v>
       </c>
       <c r="K7" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L7" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -4284,37 +4258,33 @@
       </c>
       <c r="M7" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N7" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O7" s="21">
         <f t="shared" si="0"/>
-        <v>2.0333333333333332</v>
+        <v>6.0333333333333332</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>292</v>
+        <v>527</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="U7" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="V7" s="26" t="s">
-        <v>481</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="U7" s="18"/>
+      <c r="V7" s="26"/>
       <c r="W7" s="26"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
@@ -4332,47 +4302,47 @@
       <c r="AK7" s="18"/>
       <c r="AL7" s="26"/>
       <c r="AM7" s="28" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I8" s="24">
-        <v>42979</v>
+        <v>43282</v>
       </c>
       <c r="J8" s="24">
-        <v>43221</v>
+        <v>43344</v>
       </c>
       <c r="K8" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="M8" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N8" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -4380,27 +4350,29 @@
       </c>
       <c r="O8" s="21">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="V8" s="26"/>
+        <v>410</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>288</v>
+      </c>
       <c r="W8" s="26"/>
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
@@ -4417,76 +4389,78 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="18"/>
       <c r="AL8" s="26"/>
-      <c r="AM8" s="19"/>
+      <c r="AM8" s="28" t="s">
+        <v>331</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>20</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B9" s="20"/>
       <c r="C9" s="19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I9" s="24">
-        <v>42644</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="24">
-        <v>42887</v>
+        <v>43282</v>
       </c>
       <c r="K9" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L9" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M9" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="O9" s="21">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="V9" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>435</v>
+      </c>
       <c r="W9" s="26"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
@@ -4504,49 +4478,47 @@
       <c r="AK9" s="18"/>
       <c r="AL9" s="26"/>
       <c r="AM9" s="28" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>20</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="19" t="s">
-        <v>272</v>
+        <v>64</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I10" s="24">
-        <v>42125</v>
+        <v>42979</v>
       </c>
       <c r="J10" s="24">
-        <v>43101</v>
+        <v>43221</v>
       </c>
       <c r="K10" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L10" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="M10" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -4554,29 +4526,27 @@
       </c>
       <c r="O10" s="21">
         <f t="shared" si="0"/>
-        <v>2.6739726027397261</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R10" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V10" s="26" t="s">
-        <v>271</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="V10" s="26"/>
       <c r="W10" s="26"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -4593,83 +4563,81 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="26"/>
-      <c r="AM10" s="28" t="s">
-        <v>358</v>
+      <c r="AM10" s="18" t="s">
+        <v>506</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I11" s="24">
-        <v>41275</v>
+        <v>42125</v>
       </c>
       <c r="J11" s="24">
-        <v>42614</v>
+        <v>43101</v>
       </c>
       <c r="K11" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="M11" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N11" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="O11" s="21">
         <f t="shared" si="0"/>
-        <v>3.6684931506849314</v>
+        <v>2.6739726027397261</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R11" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>454</v>
+        <v>246</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>453</v>
+        <v>244</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>112</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="W11" s="26"/>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="26"/>
@@ -4685,72 +4653,76 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="26"/>
-      <c r="AM11" s="19"/>
+      <c r="AM11" s="28" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="12" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I12" s="24">
-        <v>39083</v>
+        <v>42644</v>
       </c>
       <c r="J12" s="24">
-        <v>40544</v>
+        <v>42887</v>
       </c>
       <c r="K12" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L12" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="M12" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N12" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="O12" s="21">
         <f t="shared" si="0"/>
-        <v>4.0027397260273974</v>
+        <v>8.1</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
@@ -4769,77 +4741,83 @@
       <c r="AJ12" s="26"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="26"/>
-      <c r="AM12" s="19"/>
+      <c r="AM12" s="28" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I13" s="24">
-        <v>43952</v>
+        <v>41275</v>
       </c>
       <c r="J13" s="24">
-        <v>43983</v>
+        <v>42614</v>
       </c>
       <c r="K13" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="M13" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N13" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="O13" s="21">
         <f t="shared" si="0"/>
-        <v>1.0333333333333334</v>
+        <v>3.6684931506849314</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R13" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="U13" s="18"/>
+        <v>413</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>412</v>
+      </c>
       <c r="V13" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="W13" s="26"/>
+        <v>240</v>
+      </c>
+      <c r="W13" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="26"/>
@@ -4855,76 +4833,73 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="26"/>
-      <c r="AM13" s="28" t="s">
-        <v>376</v>
-      </c>
+      <c r="AM13" s="18"/>
     </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>180</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="19" t="s">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="I14" s="24">
-        <v>43862</v>
+        <v>39083</v>
       </c>
       <c r="J14" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>40544</v>
       </c>
       <c r="K14" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="M14" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>1</v>
       </c>
       <c r="N14" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2011</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.824547376543098</v>
+        <f t="shared" si="0"/>
+        <v>4.0027397260273974</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>232</v>
+        <v>411</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="U14" s="18"/>
+        <v>249</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
       <c r="X14" s="18"/>
@@ -4942,38 +4917,37 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="18"/>
       <c r="AL14" s="26"/>
-      <c r="AM14" s="28" t="s">
-        <v>398</v>
-      </c>
+      <c r="AM14" s="19"/>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="I15" s="24">
         <v>43862</v>
       </c>
       <c r="J15" s="24">
-        <v>43922</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K15" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -4984,30 +4958,32 @@
         <v>2020</v>
       </c>
       <c r="M15" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N15" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>20.055415513117381</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="T15" s="18"/>
+        <v>208</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="U15" s="18"/>
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
@@ -5027,39 +5003,40 @@
       <c r="AK15" s="18"/>
       <c r="AL15" s="26"/>
       <c r="AM15" s="28" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>91</v>
+        <v>529</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="I16" s="24">
-        <v>43730</v>
+        <v>43729</v>
       </c>
       <c r="J16" s="24">
-        <v>43734</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K16" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5070,33 +5047,31 @@
         <v>2019</v>
       </c>
       <c r="M16" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N16" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.488748846450715</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>92</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q16" s="18"/>
       <c r="R16" s="18" t="s">
-        <v>60</v>
+        <v>401</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18" t="s">
-        <v>186</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="U16" s="18"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
       <c r="X16" s="18"/>
@@ -5115,76 +5090,75 @@
       <c r="AK16" s="18"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="28" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>17</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B17" s="20"/>
       <c r="C17" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>205</v>
-      </c>
       <c r="I17" s="24">
-        <v>43729</v>
+        <v>43952</v>
       </c>
       <c r="J17" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>43983</v>
       </c>
       <c r="K17" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L17" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M17" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>6</v>
       </c>
       <c r="N17" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2020</v>
       </c>
       <c r="O17" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.257880709876432</v>
+        <f t="shared" si="0"/>
+        <v>1.0333333333333334</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="R17" s="18" t="s">
-        <v>440</v>
+        <v>48</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="U17" s="18"/>
-      <c r="V17" s="26"/>
+      <c r="V17" s="26" t="s">
+        <v>460</v>
+      </c>
       <c r="W17" s="26"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -5202,33 +5176,33 @@
       <c r="AK17" s="18"/>
       <c r="AL17" s="26"/>
       <c r="AM17" s="28" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>29</v>
-      </c>
       <c r="E18" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="I18" s="24">
         <v>43647</v>
@@ -5257,19 +5231,19 @@
         <v>11.2</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="U18" s="18"/>
       <c r="V18" s="26"/>
@@ -5290,75 +5264,71 @@
       <c r="AK18" s="18"/>
       <c r="AL18" s="26"/>
       <c r="AM18" s="28" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19" t="s">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>335</v>
+        <v>179</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="I19" s="24">
-        <v>43617</v>
+        <v>43862</v>
       </c>
       <c r="J19" s="24">
-        <v>43623</v>
+        <v>43922</v>
       </c>
       <c r="K19" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L19" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M19" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N19" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O19" s="21">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>289</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="T19" s="18"/>
       <c r="U19" s="18"/>
-      <c r="V19" s="26" t="s">
-        <v>287</v>
-      </c>
+      <c r="V19" s="26"/>
       <c r="W19" s="26"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -5376,41 +5346,39 @@
       <c r="AK19" s="18"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="28" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>94</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I20" s="24">
-        <v>43586</v>
+        <v>43730</v>
       </c>
       <c r="J20" s="24">
-        <v>43709</v>
+        <v>43734</v>
       </c>
       <c r="K20" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L20" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -5426,24 +5394,24 @@
       </c>
       <c r="O20" s="21">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="T20" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="U20" s="18"/>
+        <v>238</v>
+      </c>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26"/>
       <c r="X20" s="18"/>
@@ -5462,51 +5430,49 @@
       <c r="AK20" s="18"/>
       <c r="AL20" s="26"/>
       <c r="AM20" s="28" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="C21" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>205</v>
-      </c>
       <c r="I21" s="24">
-        <v>43344</v>
+        <v>43586</v>
       </c>
       <c r="J21" s="24">
-        <v>43586</v>
+        <v>43709</v>
       </c>
       <c r="K21" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L21" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M21" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N21" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -5514,30 +5480,26 @@
       </c>
       <c r="O21" s="21">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S21" s="18" t="s">
-        <v>456</v>
+        <v>265</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="U21" s="18" t="s">
-        <v>455</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="U21" s="18"/>
       <c r="V21" s="26"/>
-      <c r="W21" s="26" t="s">
-        <v>257</v>
-      </c>
+      <c r="W21" s="26"/>
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="26"/>
@@ -5554,49 +5516,47 @@
       <c r="AK21" s="18"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="28" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>226</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="19" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I22" s="24">
-        <v>43344</v>
+        <v>43617</v>
       </c>
       <c r="J22" s="24">
-        <v>43569</v>
+        <v>43623</v>
       </c>
       <c r="K22" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L22" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M22" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N22" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -5604,27 +5564,27 @@
       </c>
       <c r="O22" s="21">
         <f t="shared" si="0"/>
-        <v>0.61643835616438358</v>
+        <v>7</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S22" s="23" t="s">
-        <v>229</v>
+        <v>48</v>
+      </c>
+      <c r="S22" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="V22" s="26"/>
+        <v>264</v>
+      </c>
+      <c r="U22" s="18"/>
+      <c r="V22" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="W22" s="26"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
@@ -5642,74 +5602,82 @@
       <c r="AK22" s="18"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="28" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="E23" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="I23" s="24">
-        <v>42401</v>
+        <v>43344</v>
       </c>
       <c r="J23" s="24">
-        <v>42826</v>
+        <v>43586</v>
       </c>
       <c r="K23" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L23" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M23" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="O23" s="21">
         <f t="shared" si="0"/>
-        <v>1.1643835616438356</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R23" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="U23" s="18"/>
+        <v>210</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>414</v>
+      </c>
       <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
+      <c r="W23" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="26"/>
@@ -5726,37 +5694,35 @@
       <c r="AK23" s="18"/>
       <c r="AL23" s="26"/>
       <c r="AM23" s="28" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B24" s="20"/>
       <c r="C24" s="19" t="s">
-        <v>362</v>
+        <v>203</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="I24" s="24">
-        <v>41883</v>
+        <v>43344</v>
       </c>
       <c r="J24" s="24">
-        <v>42125</v>
+        <v>43569</v>
       </c>
       <c r="K24" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5764,34 +5730,38 @@
       </c>
       <c r="L24" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="M24" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="O24" s="21">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="R24" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="18"/>
@@ -5810,75 +5780,73 @@
       <c r="AK24" s="18"/>
       <c r="AL24" s="26"/>
       <c r="AM24" s="28" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B25" s="20"/>
       <c r="C25" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D25" s="27"/>
       <c r="E25" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I25" s="24">
-        <v>43548</v>
+        <v>42401</v>
       </c>
       <c r="J25" s="24">
-        <v>43548</v>
+        <v>42826</v>
       </c>
       <c r="K25" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M25" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="O25" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1643835616438356</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="T25" s="18"/>
+        <v>231</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="U25" s="18"/>
-      <c r="V25" s="26" t="s">
-        <v>285</v>
-      </c>
+      <c r="V25" s="26"/>
       <c r="W25" s="26"/>
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
@@ -5896,69 +5864,69 @@
       <c r="AK25" s="18"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="28" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="26" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>161</v>
+        <v>329</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="I26" s="24">
-        <v>42795</v>
+        <v>41883</v>
       </c>
       <c r="J26" s="24">
-        <v>42795</v>
+        <v>42125</v>
       </c>
       <c r="K26" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L26" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="M26" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="O26" s="21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>111</v>
+        <v>268</v>
       </c>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
@@ -5980,37 +5948,40 @@
       <c r="AK26" s="18"/>
       <c r="AL26" s="26"/>
       <c r="AM26" s="28" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I27" s="24">
-        <v>42513</v>
+        <v>43952</v>
       </c>
       <c r="J27" s="24">
-        <v>42513</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K27" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6018,31 +5989,29 @@
       </c>
       <c r="L27" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="M27" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N27" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4018149736808805</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="Q27" s="18"/>
       <c r="R27" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>110</v>
+        <v>525</v>
       </c>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
@@ -6064,69 +6033,70 @@
       <c r="AK27" s="18"/>
       <c r="AL27" s="26"/>
       <c r="AM27" s="28" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="E28" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="I28" s="24">
-        <v>42491</v>
+        <v>43556</v>
       </c>
       <c r="J28" s="24">
-        <v>42493</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K28" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M28" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N28" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4867464805301958</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q28" s="18"/>
       <c r="R28" s="18" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>110</v>
+        <v>526</v>
       </c>
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
@@ -6148,75 +6118,76 @@
       <c r="AK28" s="18"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="28" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>9</v>
+        <v>508</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="I29" s="24">
-        <v>43952</v>
+        <v>44075</v>
       </c>
       <c r="J29" s="24">
-        <f t="shared" ref="J29:J35" ca="1" si="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>44681</v>
       </c>
       <c r="K29" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L29" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
         <v>2020</v>
       </c>
       <c r="M29" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>4</v>
       </c>
       <c r="N29" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2022</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.824547376543098</v>
+        <f t="shared" si="0"/>
+        <v>1.6602739726027398</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>219</v>
+      </c>
       <c r="R29" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" s="18"/>
+        <v>220</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>511</v>
+      </c>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
       <c r="V29" s="26"/>
-      <c r="W29" s="26" t="s">
-        <v>190</v>
-      </c>
+      <c r="W29" s="26"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
       <c r="Z29" s="26"/>
@@ -6233,75 +6204,76 @@
       <c r="AK29" s="18"/>
       <c r="AL29" s="26"/>
       <c r="AM29" s="28" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>171</v>
+        <v>294</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>22</v>
+        <v>293</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>9</v>
+        <v>508</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="I30" s="24">
-        <v>43556</v>
+        <v>42856</v>
       </c>
       <c r="J30" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44456.736421296293</v>
+        <v>42979</v>
       </c>
       <c r="K30" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="M30" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N30" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2017</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4677710172501177</v>
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q30" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="Q30" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="R30" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="S30" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>298</v>
+      </c>
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
       <c r="V30" s="26"/>
-      <c r="W30" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="W30" s="26"/>
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
       <c r="Z30" s="26"/>
@@ -6318,68 +6290,71 @@
       <c r="AK30" s="18"/>
       <c r="AL30" s="26"/>
       <c r="AM30" s="28" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B31" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C31" s="19" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>115</v>
+        <v>293</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>199</v>
+        <v>508</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="I31" s="24">
-        <v>43734</v>
+        <v>42491</v>
       </c>
       <c r="J31" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44456.736421296293</v>
+        <v>42614</v>
       </c>
       <c r="K31" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L31" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M31" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N31" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2016</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.091214043209767</v>
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="Q31" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="R31" s="18" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
@@ -6401,42 +6376,42 @@
       <c r="AK31" s="18"/>
       <c r="AL31" s="26"/>
       <c r="AM31" s="28" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>118</v>
+        <v>323</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="19" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I32" s="24">
-        <v>43466</v>
+        <v>43734</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44456.736421296293</v>
+        <f t="shared" ref="J32:J37" ca="1" si="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K32" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L32" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -6452,17 +6427,17 @@
       </c>
       <c r="O32" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>33.024547376543097</v>
+        <v>24.322082179784047</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="18"/>
       <c r="R32" s="18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
@@ -6484,48 +6459,46 @@
       <c r="AK32" s="18"/>
       <c r="AL32" s="26"/>
       <c r="AM32" s="28" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B33" s="20"/>
       <c r="C33" s="19" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I33" s="24">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>44456.736421296293</v>
+        <v>44463.662465393521</v>
       </c>
       <c r="K33" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L33" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M33" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
@@ -6537,17 +6510,17 @@
       </c>
       <c r="O33" s="21">
         <f t="shared" ca="1" si="0"/>
-        <v>34.057880709876436</v>
+        <v>33.255415513117377</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q33" s="18"/>
       <c r="R33" s="18" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
@@ -6569,42 +6542,42 @@
       <c r="AK33" s="18"/>
       <c r="AL33" s="26"/>
       <c r="AM33" s="28" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="19" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="I34" s="24">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>44456.736421296293</v>
+        <v>44463.662465393521</v>
       </c>
       <c r="K34" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L34" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -6620,17 +6593,17 @@
       </c>
       <c r="O34" s="21">
         <f t="shared" ref="O34:O65" ca="1" si="2">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
-        <v>36.091214043209767</v>
+        <v>34.288748846450716</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="18"/>
       <c r="R34" s="18" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
@@ -6652,38 +6625,38 @@
       <c r="AK34" s="18"/>
       <c r="AL34" s="26"/>
       <c r="AM34" s="28" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>194</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="27"/>
+        <v>123</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="E35" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I35" s="24">
         <v>43374</v>
       </c>
       <c r="J35" s="24">
         <f t="shared" ca="1" si="1"/>
-        <v>44456.736421296293</v>
+        <v>44463.662465393521</v>
       </c>
       <c r="K35" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6703,17 +6676,17 @@
       </c>
       <c r="O35" s="21">
         <f t="shared" ca="1" si="2"/>
-        <v>36.091214043209767</v>
+        <v>36.322082179784047</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="18" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
@@ -6735,71 +6708,66 @@
       <c r="AK35" s="18"/>
       <c r="AL35" s="26"/>
       <c r="AM35" s="28" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B36" s="20"/>
       <c r="C36" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>246</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D36" s="27"/>
       <c r="E36" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="I36" s="24">
-        <v>44075</v>
+        <v>43374</v>
       </c>
       <c r="J36" s="24">
-        <v>44681</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44463.662465393521</v>
       </c>
       <c r="K36" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L36" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="M36" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N36" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2022</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="2"/>
-        <v>1.6602739726027398</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.322082179784047</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>243</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q36" s="18"/>
       <c r="R36" s="18" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
@@ -6821,67 +6789,66 @@
       <c r="AK36" s="18"/>
       <c r="AL36" s="26"/>
       <c r="AM36" s="28" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>65</v>
+        <v>498</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="19" t="s">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="I37" s="24">
-        <v>43221</v>
+        <v>41091</v>
       </c>
       <c r="J37" s="24">
-        <v>43343</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44463.662465393521</v>
       </c>
       <c r="K37" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L37" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="M37" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N37" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O37" s="21">
-        <f t="shared" si="2"/>
-        <v>4.0666666666666664</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2401711380644418</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>63</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q37" s="18"/>
       <c r="R37" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
@@ -6903,71 +6870,67 @@
       <c r="AK37" s="18"/>
       <c r="AL37" s="26"/>
       <c r="AM37" s="28" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>324</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>321</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="D38" s="27"/>
       <c r="E38" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="I38" s="24">
-        <v>42856</v>
+        <v>43764</v>
       </c>
       <c r="J38" s="24">
-        <v>42979</v>
+        <v>43764</v>
       </c>
       <c r="K38" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L38" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="M38" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N38" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="O38" s="21">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
@@ -6989,71 +6952,69 @@
       <c r="AK38" s="18"/>
       <c r="AL38" s="26"/>
       <c r="AM38" s="28" t="s">
-        <v>374</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="39" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>320</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="19" t="s">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>198</v>
+        <v>531</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="I39" s="24">
-        <v>42491</v>
+        <v>43374</v>
       </c>
       <c r="J39" s="24">
-        <v>42614</v>
+        <v>43377</v>
       </c>
       <c r="K39" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L39" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M39" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N39" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="O39" s="21">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R39" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
@@ -7075,43 +7036,41 @@
       <c r="AK39" s="18"/>
       <c r="AL39" s="26"/>
       <c r="AM39" s="28" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
-        <v>316</v>
+        <v>10</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>318</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D40" s="31"/>
       <c r="E40" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>334</v>
+        <v>507</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I40" s="24">
-        <v>44207</v>
+        <v>44368</v>
       </c>
       <c r="J40" s="24">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="K40" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L40" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -7119,7 +7078,7 @@
       </c>
       <c r="M40" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N40" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -7127,38 +7086,32 @@
       </c>
       <c r="O40" s="21">
         <f t="shared" si="2"/>
-        <v>3.6333333333333333</v>
+        <v>4</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>319</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q40" s="18"/>
       <c r="R40" s="18" t="s">
-        <v>86</v>
+        <v>522</v>
       </c>
       <c r="S40" s="18" t="s">
-        <v>450</v>
+        <v>523</v>
       </c>
       <c r="T40" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="U40" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="V40" s="26" t="s">
-        <v>531</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="U40" s="18"/>
+      <c r="V40" s="26"/>
       <c r="W40" s="26"/>
       <c r="X40" s="18" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
@@ -7166,203 +7119,179 @@
       <c r="AD40" s="18"/>
       <c r="AE40" s="18"/>
       <c r="AF40" s="26"/>
-      <c r="AG40" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="AH40" s="26" t="s">
-        <v>447</v>
-      </c>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="26"/>
       <c r="AI40" s="18"/>
       <c r="AJ40" s="26"/>
       <c r="AK40" s="18"/>
       <c r="AL40" s="26"/>
-      <c r="AM40" s="28" t="s">
-        <v>360</v>
-      </c>
+      <c r="AM40" s="28"/>
     </row>
-    <row r="41" spans="1:39" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D41" s="31"/>
+        <v>100</v>
+      </c>
+      <c r="D41" s="27"/>
       <c r="E41" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>334</v>
+        <v>507</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="I41" s="24">
-        <v>44075</v>
+        <v>43548</v>
       </c>
       <c r="J41" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>43548</v>
       </c>
       <c r="K41" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L41" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M41" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>3</v>
       </c>
       <c r="N41" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="O41" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.724547376543098</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>243</v>
+        <v>53</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>522</v>
+        <v>261</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>529</v>
-      </c>
-      <c r="U41" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="V41" s="26"/>
+        <v>517</v>
+      </c>
+      <c r="U41" s="18"/>
+      <c r="V41" s="26" t="s">
+        <v>516</v>
+      </c>
       <c r="W41" s="26"/>
-      <c r="X41" s="18" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y41" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z41" s="26" t="s">
-        <v>532</v>
-      </c>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="26"/>
       <c r="AA41" s="18"/>
       <c r="AB41" s="18"/>
       <c r="AC41" s="26"/>
       <c r="AD41" s="18"/>
       <c r="AE41" s="18"/>
       <c r="AF41" s="26"/>
-      <c r="AG41" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH41" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="AI41" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="AJ41" s="26" t="s">
-        <v>528</v>
-      </c>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="26"/>
       <c r="AK41" s="18"/>
       <c r="AL41" s="26"/>
-      <c r="AM41" s="18"/>
+      <c r="AM41" s="28" t="s">
+        <v>351</v>
+      </c>
     </row>
-    <row r="42" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>240</v>
+        <v>18</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>438</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>246</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D42" s="27"/>
       <c r="E42" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>334</v>
+        <v>507</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="I42" s="24">
-        <v>44013</v>
+        <v>42795</v>
       </c>
       <c r="J42" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>42795</v>
       </c>
       <c r="K42" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L42" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="M42" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>3</v>
       </c>
       <c r="N42" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2017</v>
       </c>
       <c r="O42" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>14.791214043209767</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R42" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S42" s="18" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="U42" s="18" t="s">
-        <v>474</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="U42" s="18"/>
       <c r="V42" s="26" t="s">
-        <v>280</v>
+        <v>512</v>
       </c>
       <c r="W42" s="26"/>
       <c r="X42" s="18" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
       <c r="Y42" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z42" s="26" t="s">
-        <v>510</v>
+        <v>384</v>
       </c>
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
@@ -7377,87 +7306,84 @@
       <c r="AK42" s="18"/>
       <c r="AL42" s="26"/>
       <c r="AM42" s="28" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>405</v>
+        <v>514</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>334</v>
+        <v>507</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>404</v>
+        <v>101</v>
       </c>
       <c r="I43" s="24">
-        <v>43862</v>
+        <v>42513</v>
       </c>
       <c r="J43" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>42513</v>
       </c>
       <c r="K43" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L43" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="M43" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>5</v>
       </c>
       <c r="N43" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2016</v>
       </c>
       <c r="O43" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>19.824547376543098</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q43" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="R43" s="18" t="s">
-        <v>440</v>
+        <v>52</v>
       </c>
       <c r="S43" s="18" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="U43" s="18" t="s">
-        <v>513</v>
-      </c>
-      <c r="V43" s="26" t="s">
-        <v>508</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="U43" s="18"/>
+      <c r="V43" s="26"/>
       <c r="W43" s="26"/>
       <c r="X43" s="18" t="s">
-        <v>509</v>
+        <v>393</v>
       </c>
       <c r="Y43" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z43" s="26" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="AA43" s="18"/>
       <c r="AB43" s="18"/>
@@ -7465,101 +7391,91 @@
       <c r="AD43" s="18"/>
       <c r="AE43" s="18"/>
       <c r="AF43" s="26"/>
-      <c r="AG43" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH43" s="26" t="s">
-        <v>512</v>
-      </c>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="26"/>
       <c r="AI43" s="18"/>
       <c r="AJ43" s="26"/>
       <c r="AK43" s="18"/>
       <c r="AL43" s="26"/>
       <c r="AM43" s="28" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>223</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D44" s="27"/>
       <c r="E44" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>334</v>
+        <v>507</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I44" s="24">
-        <v>43831</v>
+        <v>42491</v>
       </c>
       <c r="J44" s="24">
-        <v>44012</v>
+        <v>42493</v>
       </c>
       <c r="K44" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L44" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="M44" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N44" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="O44" s="21">
         <f t="shared" si="2"/>
-        <v>6.0333333333333332</v>
+        <v>3</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>224</v>
+        <v>520</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="U44" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="V44" s="26" t="s">
-        <v>311</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="U44" s="18"/>
+      <c r="V44" s="26"/>
       <c r="W44" s="26"/>
       <c r="X44" s="18" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z44" s="26" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
@@ -7567,46 +7483,45 @@
       <c r="AD44" s="18"/>
       <c r="AE44" s="18"/>
       <c r="AF44" s="26"/>
-      <c r="AG44" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="AH44" s="26" t="s">
-        <v>412</v>
-      </c>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="26"/>
       <c r="AI44" s="18"/>
       <c r="AJ44" s="26"/>
       <c r="AK44" s="18"/>
       <c r="AL44" s="26"/>
       <c r="AM44" s="28" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" s="20"/>
+        <v>215</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>216</v>
+      </c>
       <c r="C45" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="D45" s="27"/>
+        <v>473</v>
+      </c>
+      <c r="D45" s="31"/>
       <c r="E45" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="I45" s="24">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="J45" s="24">
-        <v>43983</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K45" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7614,48 +7529,48 @@
       </c>
       <c r="L45" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M45" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N45" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O45" s="21">
-        <f t="shared" si="2"/>
-        <v>9.1333333333333329</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12.95541551311738</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="R45" s="18" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="V45" s="26"/>
       <c r="W45" s="26"/>
       <c r="X45" s="18" t="s">
-        <v>366</v>
+        <v>477</v>
       </c>
       <c r="Y45" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z45" s="26" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
@@ -7663,91 +7578,104 @@
       <c r="AD45" s="18"/>
       <c r="AE45" s="18"/>
       <c r="AF45" s="26"/>
-      <c r="AG45" s="18"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="18"/>
-      <c r="AJ45" s="26"/>
+      <c r="AG45" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="AH45" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="AI45" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="AJ45" s="26" t="s">
+        <v>481</v>
+      </c>
       <c r="AK45" s="18"/>
       <c r="AL45" s="26"/>
-      <c r="AM45" s="19"/>
+      <c r="AM45" s="28" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="46" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
-        <v>6</v>
+        <v>215</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="I46" s="24">
-        <v>43344</v>
+        <v>44013</v>
       </c>
       <c r="J46" s="24">
-        <v>43586</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K46" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L46" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="M46" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N46" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O46" s="21">
-        <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>15.022082179784046</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="18" t="s">
         <v>54</v>
       </c>
       <c r="R46" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="V46" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="V46" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="W46" s="26"/>
       <c r="X46" s="18" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z46" s="26" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
@@ -7755,209 +7683,194 @@
       <c r="AD46" s="18"/>
       <c r="AE46" s="18"/>
       <c r="AF46" s="26"/>
-      <c r="AG46" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="AH46" s="26" t="s">
-        <v>468</v>
-      </c>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="26"/>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26"/>
       <c r="AK46" s="18"/>
       <c r="AL46" s="26"/>
       <c r="AM46" s="28" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>156</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D47" s="27"/>
       <c r="E47" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>212</v>
+        <v>368</v>
       </c>
       <c r="I47" s="24">
-        <v>42614</v>
+        <v>43862</v>
       </c>
       <c r="J47" s="24">
-        <v>42979</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K47" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L47" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="M47" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N47" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O47" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20.055415513117381</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q47" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q47" s="18"/>
       <c r="R47" s="18" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="U47" s="18"/>
+        <v>468</v>
+      </c>
+      <c r="U47" s="18" t="s">
+        <v>467</v>
+      </c>
       <c r="V47" s="26" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="W47" s="26"/>
       <c r="X47" s="18" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="Y47" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z47" s="26" t="s">
-        <v>518</v>
-      </c>
-      <c r="AA47" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB47" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC47" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="AD47" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="AE47" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="AF47" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="AG47" s="29" t="s">
-        <v>431</v>
-      </c>
       <c r="AH47" s="26" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26"/>
       <c r="AK47" s="18"/>
       <c r="AL47" s="26"/>
       <c r="AM47" s="28" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B48" s="20"/>
+        <v>289</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>290</v>
+      </c>
       <c r="C48" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>140</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="D48" s="27"/>
       <c r="E48" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="I48" s="24">
-        <v>42592</v>
+        <v>44207</v>
       </c>
       <c r="J48" s="24">
-        <v>42605</v>
+        <v>44316</v>
       </c>
       <c r="K48" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L48" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="M48" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N48" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="O48" s="21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>3.6333333333333333</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="R48" s="18" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="S48" s="18" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="T48" s="18" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="U48" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="V48" s="26"/>
+        <v>408</v>
+      </c>
+      <c r="V48" s="26" t="s">
+        <v>483</v>
+      </c>
       <c r="W48" s="26"/>
       <c r="X48" s="18" t="s">
-        <v>457</v>
+        <v>374</v>
       </c>
       <c r="Y48" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z48" s="26" t="s">
-        <v>458</v>
+        <v>375</v>
       </c>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
@@ -7965,158 +7878,146 @@
       <c r="AD48" s="18"/>
       <c r="AE48" s="18"/>
       <c r="AF48" s="26"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="26"/>
+      <c r="AG48" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH48" s="26" t="s">
+        <v>406</v>
+      </c>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26"/>
       <c r="AK48" s="18"/>
       <c r="AL48" s="26"/>
       <c r="AM48" s="28" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="D49" s="27" t="s">
-        <v>151</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="D49" s="27"/>
       <c r="E49" s="18" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="I49" s="24">
-        <v>42156</v>
+        <v>43831</v>
       </c>
       <c r="J49" s="24">
-        <v>42614</v>
+        <v>44012</v>
       </c>
       <c r="K49" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L49" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="M49" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N49" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="O49" s="21">
         <f t="shared" si="2"/>
-        <v>1.2547945205479452</v>
+        <v>6.0333333333333332</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>470</v>
+        <v>27</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>441</v>
+        <v>201</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>445</v>
+        <v>202</v>
       </c>
       <c r="V49" s="26" t="s">
-        <v>428</v>
+        <v>284</v>
       </c>
       <c r="W49" s="26"/>
       <c r="X49" s="18" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="Z49" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA49" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="AB49" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC49" s="26" t="s">
-        <v>420</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="26"/>
       <c r="AD49" s="18"/>
       <c r="AE49" s="18"/>
       <c r="AF49" s="26"/>
-      <c r="AG49" s="29" t="s">
-        <v>430</v>
+      <c r="AG49" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="AH49" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="AI49" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="AJ49" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK49" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL49" s="26" t="s">
-        <v>435</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="26"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="26"/>
       <c r="AM49" s="28" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
-        <v>313</v>
+        <v>528</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="19" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="18" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="I50" s="24">
-        <v>44094</v>
+        <v>43709</v>
       </c>
       <c r="J50" s="24">
-        <v>44094</v>
+        <v>43983</v>
       </c>
       <c r="K50" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8124,11 +8025,11 @@
       </c>
       <c r="L50" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M50" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N50" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -8136,23 +8037,37 @@
       </c>
       <c r="O50" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9.1333333333333329</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q50" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="Q50" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="R50" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
+        <v>57</v>
+      </c>
+      <c r="S50" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="U50" s="18" t="s">
+        <v>469</v>
+      </c>
       <c r="V50" s="26"/>
       <c r="W50" s="26"/>
-      <c r="X50" s="18"/>
-      <c r="Y50" s="18"/>
-      <c r="Z50" s="26"/>
+      <c r="X50" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y50" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z50" s="26" t="s">
+        <v>333</v>
+      </c>
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
       <c r="AC50" s="26"/>
@@ -8165,48 +8080,48 @@
       <c r="AJ50" s="26"/>
       <c r="AK50" s="18"/>
       <c r="AL50" s="26"/>
-      <c r="AM50" s="28" t="s">
-        <v>390</v>
-      </c>
+      <c r="AM50" s="19"/>
     </row>
-    <row r="51" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="C51" s="19" t="s">
-        <v>172</v>
+        <v>532</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="18" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>301</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="I51" s="24">
-        <v>43764</v>
+        <v>43344</v>
       </c>
       <c r="J51" s="24">
-        <v>43764</v>
+        <v>43586</v>
       </c>
       <c r="K51" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L51" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M51" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N51" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -8214,235 +8129,307 @@
       </c>
       <c r="O51" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R51" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S51" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
+        <v>420</v>
+      </c>
+      <c r="T51" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="U51" s="18" t="s">
+        <v>423</v>
+      </c>
       <c r="V51" s="26"/>
       <c r="W51" s="26"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="26"/>
+      <c r="X51" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y51" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z51" s="26" t="s">
+        <v>417</v>
+      </c>
       <c r="AA51" s="18"/>
       <c r="AB51" s="18"/>
       <c r="AC51" s="26"/>
       <c r="AD51" s="18"/>
       <c r="AE51" s="18"/>
       <c r="AF51" s="26"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="26"/>
+      <c r="AG51" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH51" s="26" t="s">
+        <v>425</v>
+      </c>
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26"/>
       <c r="AK51" s="18"/>
       <c r="AL51" s="26"/>
       <c r="AM51" s="28" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>135</v>
+        <v>385</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="I52" s="24">
-        <v>43374</v>
+        <v>42614</v>
       </c>
       <c r="J52" s="24">
-        <v>43377</v>
+        <v>42979</v>
       </c>
       <c r="K52" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L52" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M52" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N52" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O52" s="21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>32</v>
+        <v>427</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R52" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S52" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="T52" s="18"/>
+        <v>403</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>404</v>
+      </c>
       <c r="U52" s="18"/>
-      <c r="V52" s="26"/>
+      <c r="V52" s="26" t="s">
+        <v>490</v>
+      </c>
       <c r="W52" s="26"/>
-      <c r="X52" s="18"/>
-      <c r="Y52" s="18"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="18"/>
-      <c r="AB52" s="18"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="18"/>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="26"/>
+      <c r="X52" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y52" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z52" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA52" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB52" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC52" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD52" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE52" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="AF52" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="AG52" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH52" s="26" t="s">
+        <v>388</v>
+      </c>
       <c r="AI52" s="18"/>
       <c r="AJ52" s="26"/>
       <c r="AK52" s="18"/>
       <c r="AL52" s="26"/>
       <c r="AM52" s="28" t="s">
-        <v>399</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="27"/>
+        <v>390</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="E53" s="18" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="I53" s="24">
+        <v>42156</v>
+      </c>
+      <c r="J53" s="24">
         <v>42614</v>
-      </c>
-      <c r="J53" s="24">
-        <v>42856</v>
       </c>
       <c r="K53" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L53" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M53" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N53" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O53" s="21">
         <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <v>1.2547945205479452</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>30</v>
+        <v>427</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="26"/>
+        <v>402</v>
+      </c>
+      <c r="T53" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="U53" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="V53" s="26" t="s">
+        <v>495</v>
+      </c>
       <c r="W53" s="26"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="26"/>
+      <c r="X53" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y53" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z53" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA53" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="AB53" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC53" s="26" t="s">
+        <v>384</v>
+      </c>
       <c r="AD53" s="18"/>
       <c r="AE53" s="18"/>
       <c r="AF53" s="26"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="18"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="18"/>
-      <c r="AL53" s="26"/>
+      <c r="AG53" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH53" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="AI53" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="AJ53" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="AK53" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL53" s="26" t="s">
+        <v>396</v>
+      </c>
       <c r="AM53" s="28" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="B54" s="20"/>
+        <v>285</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C54" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>140</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="D54" s="27"/>
       <c r="E54" s="18" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="I54" s="24">
         <v>42592</v>
@@ -8471,22 +8458,34 @@
         <v>14</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="R54" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="S54" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="T54" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="U54" s="18" t="s">
+        <v>418</v>
+      </c>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="26"/>
+      <c r="X54" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y54" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z54" s="26" t="s">
+        <v>417</v>
+      </c>
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
       <c r="AC54" s="26"/>
@@ -8500,68 +8499,64 @@
       <c r="AK54" s="18"/>
       <c r="AL54" s="26"/>
       <c r="AM54" s="28" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="19" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G55" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I55" s="24">
-        <v>40603</v>
+        <v>44094</v>
       </c>
       <c r="J55" s="24">
-        <v>40616</v>
+        <v>44094</v>
       </c>
       <c r="K55" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L55" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="M55" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N55" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="O55" s="21">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="18" t="s">
-        <v>76</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q55" s="18"/>
       <c r="R55" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S55" s="18" t="s">
-        <v>197</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="S55" s="18"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
       <c r="V55" s="26"/>
@@ -8582,31 +8577,31 @@
       <c r="AK55" s="18"/>
       <c r="AL55" s="26"/>
       <c r="AM55" s="28" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G56" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
@@ -8633,10 +8628,10 @@
       <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="18" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="T56" s="18"/>
       <c r="U56" s="18"/>
@@ -8658,45 +8653,45 @@
       <c r="AK56" s="18"/>
       <c r="AL56" s="26"/>
       <c r="AM56" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>166</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I57" s="24">
-        <v>43405</v>
+        <v>42979</v>
       </c>
       <c r="J57" s="24">
-        <v>43586</v>
+        <v>43221</v>
       </c>
       <c r="K57" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L57" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M57" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -8704,27 +8699,25 @@
       </c>
       <c r="N57" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O57" s="21">
         <f t="shared" si="2"/>
-        <v>6.0333333333333332</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R57" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S57" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="T57" s="18" t="s">
-        <v>298</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="T57" s="18"/>
       <c r="U57" s="18"/>
       <c r="V57" s="26"/>
       <c r="W57" s="26"/>
@@ -8744,41 +8737,43 @@
       <c r="AK57" s="18"/>
       <c r="AL57" s="26"/>
       <c r="AM57" s="28" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="D58" s="27"/>
+        <v>143</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="E58" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I58" s="24">
+        <v>42856</v>
+      </c>
+      <c r="J58" s="24">
         <v>42979</v>
-      </c>
-      <c r="J58" s="24">
-        <v>43221</v>
       </c>
       <c r="K58" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L58" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -8786,27 +8781,27 @@
       </c>
       <c r="M58" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N58" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="O58" s="21">
         <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="R58" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S58" s="18" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="T58" s="18"/>
       <c r="U58" s="18"/>
@@ -8828,39 +8823,39 @@
       <c r="AK58" s="18"/>
       <c r="AL58" s="26"/>
       <c r="AM58" s="28" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="59" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I59" s="24">
-        <v>42856</v>
+        <v>42491</v>
       </c>
       <c r="J59" s="24">
-        <v>42979</v>
+        <v>42614</v>
       </c>
       <c r="K59" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8868,7 +8863,7 @@
       </c>
       <c r="L59" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M59" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -8876,23 +8871,23 @@
       </c>
       <c r="N59" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O59" s="21">
         <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>158</v>
+        <v>53</v>
       </c>
       <c r="R59" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
@@ -8914,72 +8909,68 @@
       <c r="AK59" s="18"/>
       <c r="AL59" s="26"/>
       <c r="AM59" s="28" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="60" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>151</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D60" s="27"/>
       <c r="E60" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I60" s="24">
-        <v>42491</v>
+        <v>40544</v>
       </c>
       <c r="J60" s="24">
-        <v>42614</v>
+        <v>41275</v>
       </c>
       <c r="K60" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L60" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="M60" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N60" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="O60" s="21">
         <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>2.0027397260273974</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S60" s="18" t="s">
-        <v>110</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="S60" s="18"/>
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
       <c r="V60" s="26"/>
@@ -8999,67 +8990,65 @@
       <c r="AJ60" s="26"/>
       <c r="AK60" s="18"/>
       <c r="AL60" s="26"/>
-      <c r="AM60" s="28" t="s">
-        <v>358</v>
-      </c>
+      <c r="AM60" s="19"/>
     </row>
-    <row r="61" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="I61" s="24">
-        <v>40544</v>
+        <v>43586</v>
       </c>
       <c r="J61" s="24">
-        <v>41275</v>
+        <v>43586</v>
       </c>
       <c r="K61" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L61" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="M61" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N61" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="O61" s="21">
         <f t="shared" si="2"/>
-        <v>2.0027397260273974</v>
+        <v>1</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
@@ -9081,36 +9070,39 @@
       <c r="AJ61" s="26"/>
       <c r="AK61" s="18"/>
       <c r="AL61" s="26"/>
-      <c r="AM61" s="19"/>
+      <c r="AM61" s="28" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="62" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>37</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="E62" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="I62" s="24">
         <v>43586</v>
       </c>
       <c r="J62" s="24">
-        <v>43586</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K62" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9121,31 +9113,31 @@
         <v>2019</v>
       </c>
       <c r="M62" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="N62" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O62" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>29.255415513117381</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>59</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q62" s="18"/>
       <c r="R62" s="18" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="S62" s="18"/>
       <c r="T62" s="18"/>
       <c r="U62" s="18"/>
       <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
+      <c r="W62" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="X62" s="18"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="26"/>
@@ -9162,69 +9154,68 @@
       <c r="AK62" s="18"/>
       <c r="AL62" s="26"/>
       <c r="AM62" s="28" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>363</v>
+        <v>119</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>15</v>
+        <v>531</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="I63" s="24">
-        <v>42125</v>
+        <v>43374</v>
       </c>
       <c r="J63" s="24">
-        <v>42248</v>
+        <f ca="1">NOW()</f>
+        <v>44463.662465393521</v>
       </c>
       <c r="K63" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L63" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M63" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N63" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2015</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O63" s="21">
-        <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36.322082179784047</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q63" s="18" t="s">
-        <v>56</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q63" s="18"/>
       <c r="R63" s="18" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="S63" s="18" t="s">
-        <v>110</v>
+        <v>274</v>
       </c>
       <c r="T63" s="18"/>
       <c r="U63" s="18"/>
@@ -9246,37 +9237,35 @@
       <c r="AK63" s="18"/>
       <c r="AL63" s="26"/>
       <c r="AM63" s="28" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>17</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="19" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>200</v>
+        <v>531</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="I64" s="24">
-        <v>43729</v>
+        <v>43709</v>
       </c>
       <c r="J64" s="24">
-        <v>43730</v>
+        <v>44136</v>
       </c>
       <c r="K64" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9288,30 +9277,32 @@
       </c>
       <c r="M64" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N64" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O64" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.1698630136986301</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q64" s="18" t="s">
-        <v>85</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q64" s="18"/>
       <c r="R64" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="S64" s="18"/>
+        <v>48</v>
+      </c>
+      <c r="S64" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="T64" s="18"/>
       <c r="U64" s="18"/>
       <c r="V64" s="26"/>
-      <c r="W64" s="26"/>
+      <c r="W64" s="26" t="s">
+        <v>237</v>
+      </c>
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
       <c r="Z64" s="26"/>
@@ -9328,69 +9319,65 @@
       <c r="AK64" s="18"/>
       <c r="AL64" s="26"/>
       <c r="AM64" s="28" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>84</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="19" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>200</v>
+        <v>531</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I65" s="24">
-        <v>43657</v>
+        <v>42491</v>
       </c>
       <c r="J65" s="24">
-        <v>43657</v>
+        <v>43952</v>
       </c>
       <c r="K65" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L65" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M65" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N65" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O65" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.0027397260273974</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="18" t="s">
-        <v>58</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="Q65" s="18"/>
       <c r="R65" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
@@ -9412,35 +9399,37 @@
       <c r="AK65" s="18"/>
       <c r="AL65" s="26"/>
       <c r="AM65" s="28" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C66" s="19" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="I66" s="24">
+        <v>42248</v>
+      </c>
+      <c r="J66" s="24">
         <v>43709</v>
-      </c>
-      <c r="J66" s="24">
-        <v>44136</v>
       </c>
       <c r="K66" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9448,36 +9437,36 @@
       </c>
       <c r="L66" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="M66" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N66" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O66" s="21">
-        <f t="shared" ref="O66:O75" si="3">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
-        <v>1.1698630136986301</v>
+        <f t="shared" ref="O66:O97" si="3">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
+        <v>4.0027397260273974</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q66" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="Q66" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="R66" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
       <c r="V66" s="26"/>
-      <c r="W66" s="26" t="s">
-        <v>261</v>
-      </c>
+      <c r="W66" s="26"/>
       <c r="X66" s="18"/>
       <c r="Y66" s="18"/>
       <c r="Z66" s="26"/>
@@ -9494,73 +9483,72 @@
       <c r="AK66" s="18"/>
       <c r="AL66" s="26"/>
       <c r="AM66" s="28" t="s">
-        <v>397</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="67" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>117</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D67" s="27"/>
       <c r="E67" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="I67" s="24">
-        <v>43586</v>
+        <v>40603</v>
       </c>
       <c r="J67" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>40616</v>
       </c>
       <c r="K67" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L67" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="M67" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>3</v>
       </c>
       <c r="N67" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2011</v>
       </c>
       <c r="O67" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>29.024547376543101</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q67" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q67" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="R67" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="S67" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="S67" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="T67" s="18"/>
       <c r="U67" s="18"/>
       <c r="V67" s="26"/>
-      <c r="W67" s="26" t="s">
-        <v>192</v>
-      </c>
+      <c r="W67" s="26"/>
       <c r="X67" s="18"/>
       <c r="Y67" s="18"/>
       <c r="Z67" s="26"/>
@@ -9577,69 +9565,68 @@
       <c r="AK67" s="18"/>
       <c r="AL67" s="26"/>
       <c r="AM67" s="28" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>199</v>
+        <v>507</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="I68" s="24">
-        <v>43374</v>
+        <v>43729</v>
       </c>
       <c r="J68" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
+        <v>43730</v>
       </c>
       <c r="K68" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L68" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M68" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N68" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="O68" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>36.091214043209767</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q68" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q68" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="R68" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="S68" s="18" t="s">
-        <v>301</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="S68" s="18"/>
       <c r="T68" s="18"/>
       <c r="U68" s="18"/>
       <c r="V68" s="26"/>
@@ -9660,65 +9647,69 @@
       <c r="AK68" s="18"/>
       <c r="AL68" s="26"/>
       <c r="AM68" s="28" t="s">
-        <v>395</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C69" s="19" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>199</v>
+        <v>507</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="I69" s="24">
-        <v>42491</v>
+        <v>43657</v>
       </c>
       <c r="J69" s="24">
-        <v>43952</v>
+        <v>43657</v>
       </c>
       <c r="K69" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L69" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M69" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N69" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O69" s="21">
         <f t="shared" si="3"/>
-        <v>4.0027397260273974</v>
+        <v>1</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q69" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="R69" s="18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S69" s="18" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="T69" s="18"/>
       <c r="U69" s="18"/>
@@ -9740,37 +9731,37 @@
       <c r="AK69" s="18"/>
       <c r="AL69" s="26"/>
       <c r="AM69" s="28" t="s">
-        <v>393</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="I70" s="24">
-        <v>42248</v>
+        <v>43344</v>
       </c>
       <c r="J70" s="24">
-        <v>43709</v>
+        <v>43586</v>
       </c>
       <c r="K70" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9778,11 +9769,11 @@
       </c>
       <c r="L70" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="M70" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N70" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
@@ -9790,19 +9781,19 @@
       </c>
       <c r="O70" s="21">
         <f t="shared" si="3"/>
-        <v>4.0027397260273974</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>191</v>
+        <v>421</v>
       </c>
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
@@ -9824,67 +9815,58 @@
       <c r="AK70" s="18"/>
       <c r="AL70" s="26"/>
       <c r="AM70" s="28" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C71" s="19" t="s">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>199</v>
+        <v>301</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="I71" s="24">
-        <v>41091</v>
-      </c>
-      <c r="J71" s="24">
-        <f ca="1">NOW()</f>
-        <v>44456.736421296293</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L71" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2012</v>
+        <v>1900</v>
       </c>
       <c r="M71" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>1</v>
       </c>
       <c r="N71" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>1900</v>
       </c>
       <c r="O71" s="21">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.2211956747843651</v>
-      </c>
-      <c r="P71" s="18" t="s">
-        <v>31</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="18"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S71" s="18" t="s">
-        <v>267</v>
-      </c>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
       <c r="V71" s="26"/>
@@ -9905,70 +9887,58 @@
       <c r="AK71" s="18"/>
       <c r="AL71" s="26"/>
       <c r="AM71" s="28" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>7</v>
+        <v>371</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>331</v>
+        <v>474</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="18" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72" s="24">
-        <v>42795</v>
-      </c>
-      <c r="J72" s="24">
-        <v>42795</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>1900</v>
       </c>
       <c r="M72" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>1900</v>
       </c>
       <c r="O72" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="P72" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q72" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="R72" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S72" s="18" t="s">
-        <v>332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
       <c r="T72" s="18"/>
       <c r="U72" s="18"/>
       <c r="V72" s="26"/>
@@ -9989,260 +9959,32 @@
       <c r="AK72" s="18"/>
       <c r="AL72" s="26"/>
       <c r="AM72" s="28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="27"/>
-      <c r="E73" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="H73" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="I73" s="24">
-        <v>43344</v>
-      </c>
-      <c r="J73" s="24">
-        <v>43586</v>
-      </c>
-      <c r="K73" s="25">
-        <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
-      </c>
-      <c r="L73" s="25">
-        <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
-      </c>
-      <c r="M73" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
-      </c>
-      <c r="N73" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
-      </c>
-      <c r="O73" s="21">
-        <f t="shared" si="3"/>
-        <v>8.0666666666666664</v>
-      </c>
-      <c r="P73" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q73" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="R73" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S73" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="26"/>
-      <c r="W73" s="26"/>
-      <c r="X73" s="18"/>
-      <c r="Y73" s="18"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="18"/>
-      <c r="AB73" s="18"/>
-      <c r="AC73" s="26"/>
-      <c r="AD73" s="18"/>
-      <c r="AE73" s="18"/>
-      <c r="AF73" s="26"/>
-      <c r="AG73" s="18"/>
-      <c r="AH73" s="26"/>
-      <c r="AI73" s="18"/>
-      <c r="AJ73" s="26"/>
-      <c r="AK73" s="18"/>
-      <c r="AL73" s="26"/>
-      <c r="AM73" s="28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="D74" s="27"/>
-      <c r="E74" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="H74" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="25">
-        <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
-      </c>
-      <c r="L74" s="25">
-        <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>1900</v>
-      </c>
-      <c r="M74" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
-      </c>
-      <c r="N74" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>1900</v>
-      </c>
-      <c r="O74" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="26"/>
-      <c r="W74" s="26"/>
-      <c r="X74" s="18"/>
-      <c r="Y74" s="18"/>
-      <c r="Z74" s="26"/>
-      <c r="AA74" s="18"/>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="26"/>
-      <c r="AD74" s="18"/>
-      <c r="AE74" s="18"/>
-      <c r="AF74" s="26"/>
-      <c r="AG74" s="18"/>
-      <c r="AH74" s="26"/>
-      <c r="AI74" s="18"/>
-      <c r="AJ74" s="26"/>
-      <c r="AK74" s="18"/>
-      <c r="AL74" s="26"/>
-      <c r="AM74" s="28" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="D75" s="27"/>
-      <c r="E75" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="H75" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="25">
-        <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
-      </c>
-      <c r="L75" s="25">
-        <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>1900</v>
-      </c>
-      <c r="M75" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
-      </c>
-      <c r="N75" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>1900</v>
-      </c>
-      <c r="O75" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="26"/>
-      <c r="W75" s="26"/>
-      <c r="X75" s="18"/>
-      <c r="Y75" s="18"/>
-      <c r="Z75" s="26"/>
-      <c r="AA75" s="18"/>
-      <c r="AB75" s="18"/>
-      <c r="AC75" s="26"/>
-      <c r="AD75" s="18"/>
-      <c r="AE75" s="18"/>
-      <c r="AF75" s="26"/>
-      <c r="AG75" s="18"/>
-      <c r="AH75" s="26"/>
-      <c r="AI75" s="18"/>
-      <c r="AJ75" s="26"/>
-      <c r="AK75" s="18"/>
-      <c r="AL75" s="26"/>
-      <c r="AM75" s="28" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="K64:N64 J65:N66 J69:N69 J1:N63 J71:N74">
+  <conditionalFormatting sqref="K63:N63 J64:N65 J1:N62 J69:N71">
     <cfRule type="timePeriod" dxfId="63" priority="9" timePeriod="today">
       <formula>FLOOR(J1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
+  <conditionalFormatting sqref="J63">
     <cfRule type="timePeriod" dxfId="62" priority="5" timePeriod="today">
-      <formula>FLOOR(J64,1)=TODAY()</formula>
+      <formula>FLOOR(J63,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67:N68">
+  <conditionalFormatting sqref="J66:N67">
     <cfRule type="timePeriod" dxfId="61" priority="4" timePeriod="today">
-      <formula>FLOOR(J67,1)=TODAY()</formula>
+      <formula>FLOOR(J66,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:N70">
+  <conditionalFormatting sqref="J68:N68">
     <cfRule type="timePeriod" dxfId="60" priority="3" timePeriod="today">
-      <formula>FLOOR(J70,1)=TODAY()</formula>
+      <formula>FLOOR(J68,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AM75">
+  <conditionalFormatting sqref="A2:AM72">
     <cfRule type="expression" dxfId="59" priority="1">
       <formula>$E2="Disclude"</formula>
     </cfRule>
@@ -10251,98 +9993,94 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="S2:S60" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="T2:T75" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="U2:U75" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="V2:V75" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G75" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="S2:S60 T28:T30" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="V2:V27 V29:V72" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="T2:T27 T31:T72" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="U2:U72" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G72" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F75" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F72" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
       <formula1>Branch</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="Non-displayed entry notes" sqref="W2:W75" xr:uid="{F58D462A-025C-49EB-8CEE-5C27C7C59311}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H75" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="Non-displayed entry notes" sqref="W2:W72" xr:uid="{F58D462A-025C-49EB-8CEE-5C27C7C59311}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H72" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
       <formula1>INDIRECT(G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="AM2" r:id="rId1" xr:uid="{919D3B29-36CF-49BF-9220-21A510F942D2}"/>
-    <hyperlink ref="AM15" r:id="rId2" xr:uid="{C2C8210C-B8EF-4BF8-95E0-F0182288D3A9}"/>
-    <hyperlink ref="AM51" r:id="rId3" xr:uid="{580BA1F1-4FA3-4293-97A0-74F2722CA1E2}"/>
-    <hyperlink ref="AM29" r:id="rId4" xr:uid="{458462F6-BDCC-442A-B79B-8180325D0EDE}"/>
-    <hyperlink ref="AM35" r:id="rId5" xr:uid="{A3CE4E04-84D3-4F89-8E39-F9792AB3D7CE}"/>
-    <hyperlink ref="AM31" r:id="rId6" xr:uid="{8E17BF95-1963-4F4F-8BDD-DB13F45D3018}"/>
+    <hyperlink ref="AM19" r:id="rId2" xr:uid="{C2C8210C-B8EF-4BF8-95E0-F0182288D3A9}"/>
+    <hyperlink ref="AM38" r:id="rId3" xr:uid="{580BA1F1-4FA3-4293-97A0-74F2722CA1E2}"/>
+    <hyperlink ref="AM27" r:id="rId4" xr:uid="{458462F6-BDCC-442A-B79B-8180325D0EDE}"/>
+    <hyperlink ref="AM36" r:id="rId5" xr:uid="{A3CE4E04-84D3-4F89-8E39-F9792AB3D7CE}"/>
+    <hyperlink ref="AM32" r:id="rId6" xr:uid="{8E17BF95-1963-4F4F-8BDD-DB13F45D3018}"/>
     <hyperlink ref="AM4" r:id="rId7" xr:uid="{E699E20B-96F8-425C-AB43-B38AE75C8A91}"/>
     <hyperlink ref="AM3" r:id="rId8" xr:uid="{AAC50046-88B1-4140-8443-3AE8D348E0E8}"/>
-    <hyperlink ref="AM57" r:id="rId9" xr:uid="{065C111C-02C5-4562-A97B-BE18A1880D70}"/>
-    <hyperlink ref="AM9" r:id="rId10" xr:uid="{551A6066-4F5D-4C2C-8B6D-B9A321B523A7}"/>
-    <hyperlink ref="AM40" r:id="rId11" xr:uid="{C0E6B579-8C66-4012-A35B-3346B6611D2B}"/>
-    <hyperlink ref="AM10" r:id="rId12" xr:uid="{A3F3621D-EED2-4306-B30C-AE2ECF932FCE}"/>
-    <hyperlink ref="AM24" r:id="rId13" xr:uid="{3F711DB0-8C66-4086-8F03-4C21781234AE}"/>
-    <hyperlink ref="AM28:AM29" r:id="rId14" display="https://www.utoronto.ca/" xr:uid="{FDFD5F84-DF93-4F55-9024-48EAA6BAF22F}"/>
-    <hyperlink ref="AM72" r:id="rId15" xr:uid="{9371AD21-C37F-4DD9-A45F-25A3CDF496B0}"/>
-    <hyperlink ref="AM47" r:id="rId16" xr:uid="{AC5464D3-76B9-4F3D-A334-51E981928AEF}"/>
-    <hyperlink ref="AM53" r:id="rId17" xr:uid="{2959344C-A67B-4F45-B08B-DC4E5793642B}"/>
-    <hyperlink ref="AM58:AM60" r:id="rId18" display="https://www.utoronto.ca/" xr:uid="{BD30E50E-A560-42D3-B0EB-10880BE65B6C}"/>
-    <hyperlink ref="AM63" r:id="rId19" xr:uid="{86FCFE01-A51E-4A03-8369-DFB8B6E20B5D}"/>
-    <hyperlink ref="AM70" r:id="rId20" xr:uid="{8B90A5D7-06AC-44CD-855F-7141B82BED0E}"/>
-    <hyperlink ref="AM36" r:id="rId21" xr:uid="{8778B03D-181E-4E1A-A055-07DE08747699}"/>
-    <hyperlink ref="AM44" r:id="rId22" xr:uid="{A41DEFF3-7586-4706-8791-C68F4D02113D}"/>
-    <hyperlink ref="AM7" r:id="rId23" xr:uid="{C56F1C0A-9027-42A0-BC2B-C78EC6149A6A}"/>
-    <hyperlink ref="AM6" r:id="rId24" xr:uid="{059F6052-5098-4CF8-A42D-30DE206B9DFE}"/>
-    <hyperlink ref="AM33" r:id="rId25" location="!%2F" xr:uid="{54A19E43-F332-452D-9492-8A24FDFBA568}"/>
-    <hyperlink ref="AM28" r:id="rId26" xr:uid="{46086F6A-43A9-4875-B462-DDD46F24E101}"/>
-    <hyperlink ref="AM30" r:id="rId27" xr:uid="{E470485F-A51B-4143-97D9-04056931A7F5}"/>
-    <hyperlink ref="AM32" r:id="rId28" xr:uid="{B69F34B0-A37E-40AA-84E7-D8C6B4350C32}"/>
-    <hyperlink ref="AM34" r:id="rId29" xr:uid="{DF8C1A0A-78D9-4925-B7A7-F43D4F152E3C}"/>
-    <hyperlink ref="AM38" r:id="rId30" xr:uid="{F6E02A0C-1522-4D32-8484-89AB75971704}"/>
-    <hyperlink ref="AM39" r:id="rId31" xr:uid="{75D9BF2A-8D56-4A3C-A353-6A23B8D25F23}"/>
-    <hyperlink ref="AM37" r:id="rId32" xr:uid="{0E69E8A6-83DD-4BD3-A3C0-DBCB3A6AAE2E}"/>
-    <hyperlink ref="AM43:AM44" r:id="rId33" display="https://www.niagaracollege.ca/" xr:uid="{EA3C7C6F-9A21-4427-8FA1-8E88E39C65B7}"/>
-    <hyperlink ref="AM13" r:id="rId34" xr:uid="{77E6F105-7C9C-4BBE-BC32-9865E61D64A1}"/>
-    <hyperlink ref="AM19" r:id="rId35" xr:uid="{C4701D21-0498-4442-B643-2E25CB50990A}"/>
-    <hyperlink ref="AM16" r:id="rId36" xr:uid="{0BCC611A-9979-40E3-8E3F-DA2BC0CB01D6}"/>
-    <hyperlink ref="AM17" r:id="rId37" xr:uid="{EACE5C41-0C0D-4BDF-82AC-AC120C9EA483}"/>
-    <hyperlink ref="AM18" r:id="rId38" xr:uid="{2BBD3D59-6BB1-4910-BA14-1A0C4E203DD5}"/>
-    <hyperlink ref="AM21" r:id="rId39" xr:uid="{46E8F86E-DD41-4025-AA93-AE0DC1B932D7}"/>
-    <hyperlink ref="AM20" r:id="rId40" xr:uid="{72BD915B-8739-409E-B076-D4B6223E1F85}"/>
-    <hyperlink ref="AM22" r:id="rId41" xr:uid="{B6D97D99-3727-4A14-BA96-62CA9B1D126E}"/>
-    <hyperlink ref="AM23" r:id="rId42" xr:uid="{E6BFB3FC-E0C2-4AB9-8B7D-37864B5B2639}"/>
-    <hyperlink ref="AM25" r:id="rId43" xr:uid="{A144A583-07F6-4E74-B83D-DB080FC95063}"/>
-    <hyperlink ref="AM48" r:id="rId44" xr:uid="{B8E5E098-DAFC-4F59-915D-67654854C08C}"/>
-    <hyperlink ref="AM54" r:id="rId45" xr:uid="{E8E15524-3C23-4542-A5A0-C94E775057D6}"/>
-    <hyperlink ref="AM55" r:id="rId46" xr:uid="{6A483FD9-A730-470D-8BB4-7563B73C5F22}"/>
-    <hyperlink ref="AM56" r:id="rId47" xr:uid="{0852BD17-FEBC-4C90-BC41-51EF18921968}"/>
-    <hyperlink ref="AM50" r:id="rId48" xr:uid="{2CD092AE-CCA9-49BF-B636-86CCF5CBA600}"/>
-    <hyperlink ref="AM62" r:id="rId49" xr:uid="{EAFCC6B0-8F42-4FC5-AE81-08EFC1ACBCCB}"/>
-    <hyperlink ref="AM65" r:id="rId50" xr:uid="{E2B11D66-C39C-43ED-AEC9-ED9018895277}"/>
-    <hyperlink ref="AM69" r:id="rId51" xr:uid="{F495FAFE-1D64-49A8-9344-0C958BF6D6EF}"/>
-    <hyperlink ref="AM71" r:id="rId52" xr:uid="{83006F78-63E9-428D-AA89-120CED24B77F}"/>
-    <hyperlink ref="AM68" r:id="rId53" xr:uid="{65BA677C-692A-4DCF-ABF8-D6F6B4515994}"/>
-    <hyperlink ref="AM67" r:id="rId54" location=":~:text=%20The%20Workplace%20Hazardous%20Materials%20Information%20System%20%28,2%20reduce%20workplace%20injuries%20and%20illnesses%20More%20" xr:uid="{CBBC4667-ECFC-4594-AF5E-4E1F721F06D0}"/>
-    <hyperlink ref="AM66" r:id="rId55" xr:uid="{EFC22D1A-6836-4A2C-8CB5-551BB51C94CD}"/>
-    <hyperlink ref="AM14" r:id="rId56" xr:uid="{FF99D603-EE9D-4433-9FD7-FF61BC2B5AE7}"/>
-    <hyperlink ref="AM52" r:id="rId57" xr:uid="{07EADCBE-9A9D-4EED-BAFB-6D78BC1839E9}"/>
-    <hyperlink ref="AM64" r:id="rId58" xr:uid="{C8678248-A902-4CA2-B0B9-CED7B16369D3}"/>
-    <hyperlink ref="AM5" r:id="rId59" xr:uid="{69726CB3-4CE8-4F84-87EE-906350B664EE}"/>
-    <hyperlink ref="AM43" r:id="rId60" xr:uid="{0F483678-6F3B-4AF7-BF13-2B6F1FE774B1}"/>
-    <hyperlink ref="AM74" r:id="rId61" xr:uid="{D4E19C42-A31E-461A-8B15-464145BC3467}"/>
-    <hyperlink ref="AM75" r:id="rId62" xr:uid="{2A979FFF-8407-4852-A82E-1E12B12B9680}"/>
-    <hyperlink ref="AG49" r:id="rId63" xr:uid="{D2DA6B5A-03AB-4990-9F5B-48601F8634FF}"/>
-    <hyperlink ref="AG47" r:id="rId64" xr:uid="{0851515A-A733-41D7-9962-972E915D322B}"/>
-    <hyperlink ref="AM49" r:id="rId65" xr:uid="{4B2FF046-8623-4E5F-AE94-8D8D31C98AB2}"/>
-    <hyperlink ref="AI49" r:id="rId66" xr:uid="{AF6FBCD4-FF22-40D8-BD83-ADA10F090F49}"/>
-    <hyperlink ref="AM42" r:id="rId67" xr:uid="{D1CDC002-2E78-47DD-8D9C-DB1FB3B674D8}"/>
-    <hyperlink ref="AG43" r:id="rId68" xr:uid="{FF1EE08C-2F93-4B09-B2DA-900FED43DEDD}"/>
-    <hyperlink ref="AK49" r:id="rId69" xr:uid="{F5AF8818-5360-432D-A278-FCE0104015B6}"/>
-    <hyperlink ref="AG41" r:id="rId70" xr:uid="{2F9E9AED-078E-4E7B-971E-51B300F1E3D5}"/>
-    <hyperlink ref="AI41" r:id="rId71" xr:uid="{1C12C9EE-0375-4080-8525-973EAF077264}"/>
+    <hyperlink ref="AM7" r:id="rId9" xr:uid="{065C111C-02C5-4562-A97B-BE18A1880D70}"/>
+    <hyperlink ref="AM12" r:id="rId10" xr:uid="{551A6066-4F5D-4C2C-8B6D-B9A321B523A7}"/>
+    <hyperlink ref="AM48" r:id="rId11" xr:uid="{C0E6B579-8C66-4012-A35B-3346B6611D2B}"/>
+    <hyperlink ref="AM11" r:id="rId12" xr:uid="{A3F3621D-EED2-4306-B30C-AE2ECF932FCE}"/>
+    <hyperlink ref="AM26" r:id="rId13" xr:uid="{3F711DB0-8C66-4086-8F03-4C21781234AE}"/>
+    <hyperlink ref="AM30:AM31" r:id="rId14" display="https://www.utoronto.ca/" xr:uid="{FDFD5F84-DF93-4F55-9024-48EAA6BAF22F}"/>
+    <hyperlink ref="AM52" r:id="rId15" xr:uid="{AC5464D3-76B9-4F3D-A334-51E981928AEF}"/>
+    <hyperlink ref="AM58:AM60" r:id="rId16" display="https://www.utoronto.ca/" xr:uid="{BD30E50E-A560-42D3-B0EB-10880BE65B6C}"/>
+    <hyperlink ref="AM66" r:id="rId17" xr:uid="{8B90A5D7-06AC-44CD-855F-7141B82BED0E}"/>
+    <hyperlink ref="AM29" r:id="rId18" xr:uid="{8778B03D-181E-4E1A-A055-07DE08747699}"/>
+    <hyperlink ref="AM49" r:id="rId19" xr:uid="{A41DEFF3-7586-4706-8791-C68F4D02113D}"/>
+    <hyperlink ref="AM9" r:id="rId20" xr:uid="{C56F1C0A-9027-42A0-BC2B-C78EC6149A6A}"/>
+    <hyperlink ref="AM8" r:id="rId21" xr:uid="{059F6052-5098-4CF8-A42D-30DE206B9DFE}"/>
+    <hyperlink ref="AM34" r:id="rId22" location="!%2F" xr:uid="{54A19E43-F332-452D-9492-8A24FDFBA568}"/>
+    <hyperlink ref="AM44" r:id="rId23" xr:uid="{46086F6A-43A9-4875-B462-DDD46F24E101}"/>
+    <hyperlink ref="AM28" r:id="rId24" xr:uid="{E470485F-A51B-4143-97D9-04056931A7F5}"/>
+    <hyperlink ref="AM33" r:id="rId25" xr:uid="{B69F34B0-A37E-40AA-84E7-D8C6B4350C32}"/>
+    <hyperlink ref="AM35" r:id="rId26" xr:uid="{DF8C1A0A-78D9-4925-B7A7-F43D4F152E3C}"/>
+    <hyperlink ref="AM30" r:id="rId27" xr:uid="{F6E02A0C-1522-4D32-8484-89AB75971704}"/>
+    <hyperlink ref="AM31" r:id="rId28" xr:uid="{75D9BF2A-8D56-4A3C-A353-6A23B8D25F23}"/>
+    <hyperlink ref="AM45:AM46" r:id="rId29" display="https://www.niagaracollege.ca/" xr:uid="{EA3C7C6F-9A21-4427-8FA1-8E88E39C65B7}"/>
+    <hyperlink ref="AM17" r:id="rId30" xr:uid="{77E6F105-7C9C-4BBE-BC32-9865E61D64A1}"/>
+    <hyperlink ref="AM22" r:id="rId31" xr:uid="{C4701D21-0498-4442-B643-2E25CB50990A}"/>
+    <hyperlink ref="AM20" r:id="rId32" xr:uid="{0BCC611A-9979-40E3-8E3F-DA2BC0CB01D6}"/>
+    <hyperlink ref="AM16" r:id="rId33" xr:uid="{EACE5C41-0C0D-4BDF-82AC-AC120C9EA483}"/>
+    <hyperlink ref="AM18" r:id="rId34" xr:uid="{2BBD3D59-6BB1-4910-BA14-1A0C4E203DD5}"/>
+    <hyperlink ref="AM23" r:id="rId35" xr:uid="{46E8F86E-DD41-4025-AA93-AE0DC1B932D7}"/>
+    <hyperlink ref="AM21" r:id="rId36" xr:uid="{72BD915B-8739-409E-B076-D4B6223E1F85}"/>
+    <hyperlink ref="AM24" r:id="rId37" xr:uid="{B6D97D99-3727-4A14-BA96-62CA9B1D126E}"/>
+    <hyperlink ref="AM25" r:id="rId38" xr:uid="{E6BFB3FC-E0C2-4AB9-8B7D-37864B5B2639}"/>
+    <hyperlink ref="AM41" r:id="rId39" xr:uid="{A144A583-07F6-4E74-B83D-DB080FC95063}"/>
+    <hyperlink ref="AM54" r:id="rId40" xr:uid="{B8E5E098-DAFC-4F59-915D-67654854C08C}"/>
+    <hyperlink ref="AM67" r:id="rId41" xr:uid="{6A483FD9-A730-470D-8BB4-7563B73C5F22}"/>
+    <hyperlink ref="AM56" r:id="rId42" xr:uid="{0852BD17-FEBC-4C90-BC41-51EF18921968}"/>
+    <hyperlink ref="AM55" r:id="rId43" xr:uid="{2CD092AE-CCA9-49BF-B636-86CCF5CBA600}"/>
+    <hyperlink ref="AM61" r:id="rId44" xr:uid="{EAFCC6B0-8F42-4FC5-AE81-08EFC1ACBCCB}"/>
+    <hyperlink ref="AM69" r:id="rId45" xr:uid="{E2B11D66-C39C-43ED-AEC9-ED9018895277}"/>
+    <hyperlink ref="AM65" r:id="rId46" xr:uid="{F495FAFE-1D64-49A8-9344-0C958BF6D6EF}"/>
+    <hyperlink ref="AM37" r:id="rId47" xr:uid="{83006F78-63E9-428D-AA89-120CED24B77F}"/>
+    <hyperlink ref="AM63" r:id="rId48" xr:uid="{65BA677C-692A-4DCF-ABF8-D6F6B4515994}"/>
+    <hyperlink ref="AM62" r:id="rId49" location=":~:text=%20The%20Workplace%20Hazardous%20Materials%20Information%20System%20%28,2%20reduce%20workplace%20injuries%20and%20illnesses%20More%20" xr:uid="{CBBC4667-ECFC-4594-AF5E-4E1F721F06D0}"/>
+    <hyperlink ref="AM64" r:id="rId50" xr:uid="{EFC22D1A-6836-4A2C-8CB5-551BB51C94CD}"/>
+    <hyperlink ref="AM15" r:id="rId51" xr:uid="{FF99D603-EE9D-4433-9FD7-FF61BC2B5AE7}"/>
+    <hyperlink ref="AM68" r:id="rId52" xr:uid="{C8678248-A902-4CA2-B0B9-CED7B16369D3}"/>
+    <hyperlink ref="AM6" r:id="rId53" xr:uid="{69726CB3-4CE8-4F84-87EE-906350B664EE}"/>
+    <hyperlink ref="AM47" r:id="rId54" xr:uid="{0F483678-6F3B-4AF7-BF13-2B6F1FE774B1}"/>
+    <hyperlink ref="AM71" r:id="rId55" xr:uid="{D4E19C42-A31E-461A-8B15-464145BC3467}"/>
+    <hyperlink ref="AM72" r:id="rId56" xr:uid="{2A979FFF-8407-4852-A82E-1E12B12B9680}"/>
+    <hyperlink ref="AG53" r:id="rId57" xr:uid="{D2DA6B5A-03AB-4990-9F5B-48601F8634FF}"/>
+    <hyperlink ref="AG52" r:id="rId58" xr:uid="{0851515A-A733-41D7-9962-972E915D322B}"/>
+    <hyperlink ref="AM53" r:id="rId59" xr:uid="{4B2FF046-8623-4E5F-AE94-8D8D31C98AB2}"/>
+    <hyperlink ref="AI53" r:id="rId60" xr:uid="{AF6FBCD4-FF22-40D8-BD83-ADA10F090F49}"/>
+    <hyperlink ref="AM46" r:id="rId61" xr:uid="{D1CDC002-2E78-47DD-8D9C-DB1FB3B674D8}"/>
+    <hyperlink ref="AG47" r:id="rId62" xr:uid="{FF1EE08C-2F93-4B09-B2DA-900FED43DEDD}"/>
+    <hyperlink ref="AK53" r:id="rId63" xr:uid="{F5AF8818-5360-432D-A278-FCE0104015B6}"/>
+    <hyperlink ref="AG45" r:id="rId64" xr:uid="{2F9E9AED-078E-4E7B-971E-51B300F1E3D5}"/>
+    <hyperlink ref="AI45" r:id="rId65" xr:uid="{1C12C9EE-0375-4080-8525-973EAF077264}"/>
+    <hyperlink ref="AM45" r:id="rId66" xr:uid="{05B030EA-7D96-4D4D-9598-BDD0645194D5}"/>
+    <hyperlink ref="AM39" r:id="rId67" xr:uid="{07EADCBE-9A9D-4EED-BAFB-6D78BC1839E9}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId72"/>
+  <pageSetup orientation="landscape" r:id="rId68"/>
   <tableParts count="1">
-    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId69"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10352,7 +10090,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10363,378 +10101,378 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>40</v>
+        <v>509</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>178</v>
+        <v>301</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>9</v>
+        <v>510</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>198</v>
+        <v>508</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>199</v>
+        <v>531</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -10751,7 +10489,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10767,10 +10505,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>490</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10779,131 +10517,131 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>495</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>489</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C4" t="s">
-        <v>487</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>484</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="C9" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C10" t="s">
-        <v>500</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C11" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>499</v>
+        <v>453</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>501</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>502</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Projects/zacharymilosmoore.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0DFA3499-E52C-43CC-968B-B04CF84B0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81DCD48E-5BC2-47F1-8D47-8E1B06ECD4F0}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{0DFA3499-E52C-43CC-968B-B04CF84B0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955AF7A1-CD1A-42E2-8EA6-71A8068EBD7B}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="537">
   <si>
     <t>Category</t>
   </si>
@@ -886,9 +886,6 @@
     <t xml:space="preserve">Planned conferences. Ensured legal compliance of operations. Established priorities for new initiatives. Assisted in membership development and social media outreach. </t>
   </si>
   <si>
-    <t>Trained and certified to operate a backpack electrofishing unit and train crew.</t>
-  </si>
-  <si>
     <t>Trained and certified to work on extension ladders and aerial work platforms using fall arrest safety devices.</t>
   </si>
   <si>
@@ -1579,9 +1576,6 @@
     <t>https://npca.ca/</t>
   </si>
   <si>
-    <t xml:space="preserve">Planted tree and shrub container stock. Installed live stakes and geotextiles for streambank stabilization. Liaised with partners and land owners. Attended and lead volunteer events. </t>
-  </si>
-  <si>
     <t>https://www.oxfordlearning.com/locations/toronto-don-mills-tutoring/</t>
   </si>
   <si>
@@ -1664,6 +1658,21 @@
   </si>
   <si>
     <t>Title_Acr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planted tree and shrub container stock. Installed live stakes and geotextiles for streambank stabilization. Liaised with partners and land owners. Attended and led volunteer events. </t>
+  </si>
+  <si>
+    <t>Trained and certified to operate a backpack electrofishing unit.</t>
+  </si>
+  <si>
+    <t>Consolidated over 30 years of monitoring reports. Analyzed land cover using publicly available data and aerial imagery. Created models to assess the impacts of landscape and management variables on Mountain Bluebird nesting success.</t>
+  </si>
+  <si>
+    <t>Used monitoring data from non-profit society dedicated to providing artificial habitat boxes for Mountain Bluebirds to assess attributes affecting nesting success.</t>
+  </si>
+  <si>
+    <t>Mountain Bluebird Nesting Success in Response to Landscape Structure</t>
   </si>
 </sst>
 </file>
@@ -1936,423 +1945,20 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="66">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3134,20 +2740,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3175,6 +2767,437 @@
       </font>
       <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3189,85 +3212,85 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM72" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
-  <autoFilter ref="A1:AM72" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM72">
-    <sortCondition descending="1" ref="E2:E72"/>
-    <sortCondition ref="G2:G72" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
-    <sortCondition descending="1" ref="J2:J72"/>
-    <sortCondition descending="1" ref="I2:I72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM73" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <autoFilter ref="A1:AM73" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM73">
+    <sortCondition descending="1" ref="E2:E73"/>
+    <sortCondition ref="G2:G73" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
+    <sortCondition descending="1" ref="J2:J73"/>
+    <sortCondition descending="1" ref="I2:I73"/>
   </sortState>
   <tableColumns count="39">
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="55"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="54"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Title_Acr" dataDxfId="52"/>
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="49"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="45">
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Title_Acr" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="30">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="44">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="29">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="43">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="28">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="42">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="27">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="41">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="26">
       <calculatedColumnFormula>IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="38"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="36"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="35"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="32"/>
-    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="29"/>
-    <tableColumn id="39" xr3:uid="{CDFAF1DD-71C7-4BE5-985F-753C0AC61716}" name="V2_Type" dataDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="27"/>
-    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="26"/>
-    <tableColumn id="38" xr3:uid="{70C3692F-FB1A-483A-8240-B37C7497B7B9}" name="V3_Type" dataDxfId="25"/>
-    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="24"/>
-    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="23"/>
-    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="22"/>
-    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="21"/>
-    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="20"/>
-    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="19"/>
-    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="18"/>
-    <tableColumn id="40" xr3:uid="{253CE8A7-249E-41AF-AF8F-0BF5333B36DA}" name="Org_Link" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="22"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="17"/>
+    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="16"/>
+    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="15"/>
+    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="14"/>
+    <tableColumn id="39" xr3:uid="{CDFAF1DD-71C7-4BE5-985F-753C0AC61716}" name="V2_Type" dataDxfId="13"/>
+    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="11"/>
+    <tableColumn id="38" xr3:uid="{70C3692F-FB1A-483A-8240-B37C7497B7B9}" name="V3_Type" dataDxfId="10"/>
+    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="9"/>
+    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="8"/>
+    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="7"/>
+    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="6"/>
+    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="5"/>
+    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="4"/>
+    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="3"/>
+    <tableColumn id="40" xr3:uid="{253CE8A7-249E-41AF-AF8F-0BF5333B36DA}" name="Org_Link" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="lists.table" displayName="lists.table" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="lists.table" displayName="lists.table" ref="A1:L10" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditations" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Awards" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certifications" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Conferences" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Memberships" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Projects" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditations" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Awards" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certifications" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Conferences" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Memberships" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Projects" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3586,11 +3609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
-  <dimension ref="A1:AS72"/>
+  <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G29" sqref="G29"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3601,7 +3624,7 @@
     <col min="4" max="4" width="13.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.109375" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" style="32" customWidth="1"/>
@@ -3649,7 +3672,7 @@
         <v>79</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>234</v>
@@ -3709,52 +3732,52 @@
         <v>9</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="Y1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF1" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AE1" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="AG1" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="AL1" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="AM1" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -3787,7 +3810,7 @@
       </c>
       <c r="J2" s="24">
         <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>44479.547133333333</v>
       </c>
       <c r="K2" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -3799,18 +3822,18 @@
       </c>
       <c r="M2" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N2" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O2" s="21">
-        <f t="shared" ref="O2:O33" ca="1" si="0">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
-        <v>1.0648286723110176</v>
+        <f ca="1">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
+        <v>1.1083483105022836</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>219</v>
@@ -3819,26 +3842,26 @@
         <v>220</v>
       </c>
       <c r="S2" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="T2" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="T2" s="18" t="s">
-        <v>430</v>
-      </c>
       <c r="U2" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="V2" s="26" t="s">
         <v>256</v>
       </c>
       <c r="W2" s="26"/>
       <c r="X2" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18"/>
@@ -3853,7 +3876,7 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="26"/>
       <c r="AM2" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
@@ -3864,7 +3887,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>17</v>
@@ -3904,7 +3927,7 @@
         <v>2019</v>
       </c>
       <c r="O3" s="21">
-        <f t="shared" si="0"/>
+        <f>IF((P3="Days"),((J3-I3+1)),IF(P3="Months",((J3-I3)/30),((J3-I3)/365)))</f>
         <v>8.0666666666666664</v>
       </c>
       <c r="P3" s="18" t="s">
@@ -3920,13 +3943,13 @@
         <v>251</v>
       </c>
       <c r="T3" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="V3" s="26" t="s">
         <v>433</v>
-      </c>
-      <c r="V3" s="26" t="s">
-        <v>434</v>
       </c>
       <c r="W3" s="26"/>
       <c r="X3" s="18"/>
@@ -3945,7 +3968,7 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="26"/>
       <c r="AM3" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -3996,7 +4019,7 @@
         <v>2017</v>
       </c>
       <c r="O4" s="21">
-        <f t="shared" si="0"/>
+        <f>IF((P4="Days"),((J4-I4+1)),IF(P4="Months",((J4-I4)/30),((J4-I4)/365)))</f>
         <v>3.5835616438356164</v>
       </c>
       <c r="P4" s="18" t="s">
@@ -4037,18 +4060,18 @@
       <c r="AK4" s="18"/>
       <c r="AL4" s="26"/>
       <c r="AM4" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>500</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>501</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="18" t="s">
@@ -4068,7 +4091,7 @@
       </c>
       <c r="J5" s="24">
         <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>44479.547133333333</v>
       </c>
       <c r="K5" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -4080,30 +4103,30 @@
       </c>
       <c r="M5" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N5" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O5" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.78874884645071386</v>
+        <f ca="1">IF((P5="Days"),((J5-I5+1)),IF(P5="Months",((J5-I5)/30),((J5-I5)/365)))</f>
+        <v>1.3182377777777825</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="R5" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="26"/>
@@ -4124,7 +4147,7 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="26"/>
       <c r="AM5" s="28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
@@ -4173,7 +4196,7 @@
         <v>2020</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="0"/>
+        <f>IF((P6="Days"),((J6-I6+1)),IF(P6="Months",((J6-I6)/30),((J6-I6)/365)))</f>
         <v>15.266666666666667</v>
       </c>
       <c r="P6" s="18" t="s">
@@ -4192,13 +4215,13 @@
         <v>156</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="V6" s="26" t="s">
         <v>152</v>
       </c>
       <c r="W6" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
@@ -4216,41 +4239,39 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="26"/>
       <c r="AM6" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>14</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="19" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I7" s="24">
-        <v>43405</v>
+        <v>43282</v>
       </c>
       <c r="J7" s="24">
-        <v>43586</v>
+        <v>43344</v>
       </c>
       <c r="K7" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L7" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -4258,33 +4279,37 @@
       </c>
       <c r="M7" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N7" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="0"/>
-        <v>6.0333333333333332</v>
+        <f>IF((P7="Days"),((J7-I7+1)),IF(P7="Months",((J7-I7)/30),((J7-I7)/365)))</f>
+        <v>2.0666666666666669</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="R7" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>527</v>
+        <v>177</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="26"/>
+        <v>176</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>287</v>
+      </c>
       <c r="W7" s="26"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
@@ -4302,23 +4327,23 @@
       <c r="AK7" s="18"/>
       <c r="AL7" s="26"/>
       <c r="AM7" s="28" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>30</v>
@@ -4327,14 +4352,14 @@
         <v>94</v>
       </c>
       <c r="I8" s="24">
+        <v>43221</v>
+      </c>
+      <c r="J8" s="24">
         <v>43282</v>
-      </c>
-      <c r="J8" s="24">
-        <v>43344</v>
       </c>
       <c r="K8" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L8" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -4342,15 +4367,15 @@
       </c>
       <c r="M8" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N8" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2018</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="0"/>
-        <v>2.0666666666666669</v>
+        <f>IF((P8="Days"),((J8-I8+1)),IF(P8="Months",((J8-I8)/30),((J8-I8)/365)))</f>
+        <v>2.0333333333333332</v>
       </c>
       <c r="P8" s="18" t="s">
         <v>27</v>
@@ -4362,16 +4387,16 @@
         <v>52</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>176</v>
+        <v>436</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>288</v>
+        <v>434</v>
       </c>
       <c r="W8" s="26"/>
       <c r="X8" s="18"/>
@@ -4390,77 +4415,75 @@
       <c r="AK8" s="18"/>
       <c r="AL8" s="26"/>
       <c r="AM8" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I9" s="24">
+        <v>42979</v>
+      </c>
+      <c r="J9" s="24">
         <v>43221</v>
-      </c>
-      <c r="J9" s="24">
-        <v>43282</v>
       </c>
       <c r="K9" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L9" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="M9" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N9" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2018</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" si="0"/>
-        <v>2.0333333333333332</v>
+        <f>IF((P9="Days"),((J9-I9+1)),IF(P9="Months",((J9-I9)/30),((J9-I9)/365)))</f>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="R9" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S9" s="18" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>437</v>
+        <v>225</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>435</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="V9" s="26"/>
       <c r="W9" s="26"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
@@ -4477,59 +4500,61 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="26"/>
-      <c r="AM9" s="28" t="s">
-        <v>330</v>
+      <c r="AM9" s="18" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="19" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="24">
-        <v>42979</v>
+        <v>42125</v>
       </c>
       <c r="J10" s="24">
-        <v>43221</v>
+        <v>43101</v>
       </c>
       <c r="K10" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L10" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="M10" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2018</v>
       </c>
       <c r="O10" s="21">
-        <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <f>IF((P10="Days"),((J10-I10+1)),IF(P10="Months",((J10-I10)/30),((J10-I10)/365)))</f>
+        <v>2.6739726027397261</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="18" t="s">
         <v>53</v>
@@ -4538,15 +4563,17 @@
         <v>52</v>
       </c>
       <c r="S10" s="18" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="V10" s="26"/>
+        <v>244</v>
+      </c>
+      <c r="V10" s="26" t="s">
+        <v>247</v>
+      </c>
       <c r="W10" s="26"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
@@ -4563,26 +4590,26 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="26"/>
-      <c r="AM10" s="18" t="s">
-        <v>506</v>
+      <c r="AM10" s="28" t="s">
+        <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>248</v>
+        <v>68</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>30</v>
@@ -4591,53 +4618,55 @@
         <v>94</v>
       </c>
       <c r="I11" s="24">
-        <v>42125</v>
+        <v>41275</v>
       </c>
       <c r="J11" s="24">
-        <v>43101</v>
+        <v>42614</v>
       </c>
       <c r="K11" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L11" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="M11" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N11" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="0"/>
-        <v>2.6739726027397261</v>
+        <f>IF((P11="Days"),((J11-I11+1)),IF(P11="Months",((J11-I11)/30),((J11-I11)/365)))</f>
+        <v>3.6684931506849314</v>
       </c>
       <c r="P11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R11" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>244</v>
+        <v>411</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="W11" s="26"/>
+        <v>240</v>
+      </c>
+      <c r="W11" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="26"/>
@@ -4653,77 +4682,74 @@
       <c r="AJ11" s="26"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="26"/>
-      <c r="AM11" s="28" t="s">
-        <v>325</v>
-      </c>
+      <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="I12" s="24">
-        <v>42644</v>
+        <v>43862</v>
       </c>
       <c r="J12" s="24">
-        <v>42887</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K12" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L12" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="M12" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N12" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O12" s="21">
-        <f t="shared" si="0"/>
-        <v>8.1</v>
+        <f ca="1">IF((P12="Days"),((J12-I12+1)),IF(P12="Months",((J12-I12)/30),((J12-I12)/365)))</f>
+        <v>20.584904444444451</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S12" s="18" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>259</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="U12" s="18"/>
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
       <c r="X12" s="18"/>
@@ -4742,82 +4768,77 @@
       <c r="AK12" s="18"/>
       <c r="AL12" s="26"/>
       <c r="AM12" s="28" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="27"/>
+        <v>38</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>527</v>
+      </c>
       <c r="E13" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="I13" s="24">
-        <v>41275</v>
+        <v>43729</v>
       </c>
       <c r="J13" s="24">
-        <v>42614</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K13" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L13" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="M13" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N13" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="0"/>
-        <v>3.6684931506849314</v>
+        <f ca="1">IF((P13="Days"),((J13-I13+1)),IF(P13="Months",((J13-I13)/30),((J13-I13)/365)))</f>
+        <v>25.018237777777781</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="18" t="s">
-        <v>55</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q13" s="18"/>
       <c r="R13" s="18" t="s">
-        <v>52</v>
+        <v>400</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="U13" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="V13" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="W13" s="26" t="s">
-        <v>106</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="U13" s="18"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="26"/>
@@ -4833,74 +4854,76 @@
       <c r="AJ13" s="26"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="26"/>
-      <c r="AM13" s="18"/>
+      <c r="AM13" s="28" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="19" t="s">
-        <v>72</v>
+        <v>172</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I14" s="24">
-        <v>39083</v>
+        <v>43952</v>
       </c>
       <c r="J14" s="24">
-        <v>40544</v>
+        <v>43983</v>
       </c>
       <c r="K14" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="M14" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N14" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="0"/>
-        <v>4.0027397260273974</v>
+        <f>IF((P14="Days"),((J14-I14+1)),IF(P14="Months",((J14-I14)/30),((J14-I14)/365)))</f>
+        <v>1.0333333333333334</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="R14" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>411</v>
+        <v>213</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="V14" s="26"/>
+        <v>214</v>
+      </c>
+      <c r="U14" s="18"/>
+      <c r="V14" s="26" t="s">
+        <v>459</v>
+      </c>
       <c r="W14" s="26"/>
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
@@ -4917,72 +4940,75 @@
       <c r="AJ14" s="26"/>
       <c r="AK14" s="18"/>
       <c r="AL14" s="26"/>
-      <c r="AM14" s="19"/>
+      <c r="AM14" s="28" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="I15" s="24">
-        <v>43862</v>
+        <v>43647</v>
       </c>
       <c r="J15" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>43983</v>
       </c>
       <c r="K15" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L15" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
+        <v>2019</v>
+      </c>
+      <c r="M15" s="25">
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>6</v>
+      </c>
+      <c r="N15" s="25">
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2020</v>
       </c>
-      <c r="M15" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
-      </c>
-      <c r="N15" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
-      </c>
       <c r="O15" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>20.055415513117381</v>
+        <f>IF((P15="Days"),((J15-I15+1)),IF(P15="Months",((J15-I15)/30),((J15-I15)/365)))</f>
+        <v>11.2</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="S15" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="T15" s="18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="U15" s="18"/>
       <c r="V15" s="26"/>
@@ -5003,74 +5029,69 @@
       <c r="AK15" s="18"/>
       <c r="AL15" s="26"/>
       <c r="AM15" s="28" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>15</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>529</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I16" s="24">
-        <v>43729</v>
+        <v>43862</v>
       </c>
       <c r="J16" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>43922</v>
       </c>
       <c r="K16" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L16" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="M16" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>4</v>
       </c>
       <c r="N16" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2020</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.488748846450715</v>
+        <f>IF((P16="Days"),((J16-I16+1)),IF(P16="Months",((J16-I16)/30),((J16-I16)/365)))</f>
+        <v>2</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="18"/>
+      <c r="Q16" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="R16" s="18" t="s">
-        <v>401</v>
+        <v>48</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>273</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="26"/>
       <c r="W16" s="26"/>
@@ -5090,23 +5111,23 @@
       <c r="AK16" s="18"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="28" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="19" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>13</v>
@@ -5115,50 +5136,48 @@
         <v>41</v>
       </c>
       <c r="I17" s="24">
-        <v>43952</v>
+        <v>43730</v>
       </c>
       <c r="J17" s="24">
-        <v>43983</v>
+        <v>43734</v>
       </c>
       <c r="K17" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L17" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M17" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N17" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O17" s="21">
-        <f t="shared" si="0"/>
-        <v>1.0333333333333334</v>
+        <f>IF((P17="Days"),((J17-I17+1)),IF(P17="Months",((J17-I17)/30),((J17-I17)/365)))</f>
+        <v>5</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="U17" s="18"/>
-      <c r="V17" s="26" t="s">
-        <v>460</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="V17" s="26"/>
       <c r="W17" s="26"/>
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
@@ -5176,22 +5195,20 @@
       <c r="AK17" s="18"/>
       <c r="AL17" s="26"/>
       <c r="AM17" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>26</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="18" t="s">
         <v>235</v>
       </c>
@@ -5202,17 +5219,17 @@
         <v>13</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="I18" s="24">
-        <v>43647</v>
+        <v>43586</v>
       </c>
       <c r="J18" s="24">
-        <v>43983</v>
+        <v>43709</v>
       </c>
       <c r="K18" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L18" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -5220,30 +5237,30 @@
       </c>
       <c r="M18" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N18" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O18" s="21">
-        <f t="shared" si="0"/>
-        <v>11.2</v>
+        <f>IF((P18="Days"),((J18-I18+1)),IF(P18="Months",((J18-I18)/30),((J18-I18)/365)))</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="R18" s="18" t="s">
         <v>48</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="U18" s="18"/>
       <c r="V18" s="26"/>
@@ -5264,71 +5281,75 @@
       <c r="AK18" s="18"/>
       <c r="AL18" s="26"/>
       <c r="AM18" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="19" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="I19" s="24">
-        <v>43862</v>
+        <v>43617</v>
       </c>
       <c r="J19" s="24">
-        <v>43922</v>
+        <v>43623</v>
       </c>
       <c r="K19" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L19" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M19" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N19" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>IF((P19="Days"),((J19-I19+1)),IF(P19="Months",((J19-I19)/30),((J19-I19)/365)))</f>
+        <v>7</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="R19" s="18" t="s">
         <v>48</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="T19" s="18"/>
+        <v>263</v>
+      </c>
+      <c r="T19" s="18" t="s">
+        <v>264</v>
+      </c>
       <c r="U19" s="18"/>
-      <c r="V19" s="26"/>
+      <c r="V19" s="26" t="s">
+        <v>262</v>
+      </c>
       <c r="W19" s="26"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -5346,18 +5367,22 @@
       <c r="AK19" s="18"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="28" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="C20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="27"/>
+        <v>39</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="18" t="s">
         <v>235</v>
       </c>
@@ -5368,13 +5393,13 @@
         <v>13</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="I20" s="24">
-        <v>43730</v>
+        <v>43344</v>
       </c>
       <c r="J20" s="24">
-        <v>43734</v>
+        <v>43586</v>
       </c>
       <c r="K20" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5382,38 +5407,42 @@
       </c>
       <c r="L20" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M20" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N20" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2019</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>IF((P20="Days"),((J20-I20+1)),IF(P20="Months",((J20-I20)/30),((J20-I20)/365)))</f>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="T20" s="18"/>
+        <v>414</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>210</v>
+      </c>
       <c r="U20" s="18" t="s">
-        <v>170</v>
+        <v>413</v>
       </c>
       <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
+      <c r="W20" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="26"/>
@@ -5430,18 +5459,16 @@
       <c r="AK20" s="18"/>
       <c r="AL20" s="26"/>
       <c r="AM20" s="28" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>89</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="B21" s="20"/>
       <c r="C21" s="19" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="18" t="s">
@@ -5457,47 +5484,49 @@
         <v>42</v>
       </c>
       <c r="I21" s="24">
-        <v>43586</v>
+        <v>43344</v>
       </c>
       <c r="J21" s="24">
-        <v>43709</v>
+        <v>43569</v>
       </c>
       <c r="K21" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L21" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M21" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N21" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2019</v>
       </c>
       <c r="O21" s="21">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <f>IF((P21="Days"),((J21-I21+1)),IF(P21="Months",((J21-I21)/30),((J21-I21)/365)))</f>
+        <v>0.61643835616438358</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="R21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>265</v>
+        <v>52</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="U21" s="18"/>
+        <v>207</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
       <c r="X21" s="18"/>
@@ -5521,70 +5550,68 @@
     </row>
     <row r="22" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="19" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="24">
-        <v>43617</v>
+        <v>42401</v>
       </c>
       <c r="J22" s="24">
-        <v>43623</v>
+        <v>42826</v>
       </c>
       <c r="K22" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L22" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M22" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N22" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="O22" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>IF((P22="Days"),((J22-I22+1)),IF(P22="Months",((J22-I22)/30),((J22-I22)/365)))</f>
+        <v>1.1643835616438356</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="U22" s="18"/>
-      <c r="V22" s="26" t="s">
-        <v>262</v>
-      </c>
+      <c r="V22" s="26"/>
       <c r="W22" s="26"/>
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
@@ -5602,39 +5629,37 @@
       <c r="AK22" s="18"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="28" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="23" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>40</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G23" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="I23" s="24">
-        <v>43344</v>
+        <v>41883</v>
       </c>
       <c r="J23" s="24">
-        <v>43586</v>
+        <v>42125</v>
       </c>
       <c r="K23" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5642,7 +5667,7 @@
       </c>
       <c r="L23" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="M23" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -5650,34 +5675,28 @@
       </c>
       <c r="N23" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="O23" s="21">
-        <f t="shared" si="0"/>
+        <f>IF((P23="Days"),((J23-I23+1)),IF(P23="Months",((J23-I23)/30),((J23-I23)/365)))</f>
         <v>8.0666666666666664</v>
       </c>
       <c r="P23" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R23" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="U23" s="18" t="s">
-        <v>414</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
       <c r="V23" s="26"/>
-      <c r="W23" s="26" t="s">
-        <v>233</v>
-      </c>
+      <c r="W23" s="26"/>
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="26"/>
@@ -5694,74 +5713,73 @@
       <c r="AK23" s="18"/>
       <c r="AL23" s="26"/>
       <c r="AM23" s="28" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="C24" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="E24" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I24" s="24">
-        <v>43344</v>
+        <v>43952</v>
       </c>
       <c r="J24" s="24">
-        <v>43569</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K24" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L24" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="M24" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N24" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O24" s="21">
-        <f t="shared" si="0"/>
-        <v>0.61643835616438358</v>
+        <f ca="1">IF((P24="Days"),((J24-I24+1)),IF(P24="Months",((J24-I24)/30),((J24-I24)/365)))</f>
+        <v>1.4453346118721464</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="18" t="s">
-        <v>204</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="Q24" s="18"/>
       <c r="R24" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="U24" s="18" t="s">
-        <v>206</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>523</v>
+      </c>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="26"/>
       <c r="W24" s="26"/>
       <c r="X24" s="18"/>
@@ -5780,71 +5798,72 @@
       <c r="AK24" s="18"/>
       <c r="AL24" s="26"/>
       <c r="AM24" s="28" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="C25" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="27"/>
+        <v>158</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="E25" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I25" s="24">
-        <v>42401</v>
+        <v>43556</v>
       </c>
       <c r="J25" s="24">
-        <v>42826</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K25" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L25" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M25" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N25" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" si="0"/>
-        <v>1.1643835616438356</v>
+        <f ca="1">IF((P25="Days"),((J25-I25+1)),IF(P25="Months",((J25-I25)/30),((J25-I25)/365)))</f>
+        <v>2.5302661187214617</v>
       </c>
       <c r="P25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q25" s="18"/>
       <c r="R25" s="18" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>232</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="26"/>
       <c r="W25" s="26"/>
@@ -5864,20 +5883,22 @@
       <c r="AK25" s="18"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="28" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="D26" s="27"/>
+        <v>221</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>222</v>
+      </c>
       <c r="E26" s="18" t="s">
         <v>235</v>
       </c>
@@ -5885,16 +5906,16 @@
         <v>141</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>13</v>
+        <v>506</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="I26" s="24">
-        <v>41883</v>
+        <v>44075</v>
       </c>
       <c r="J26" s="24">
-        <v>42125</v>
+        <v>44681</v>
       </c>
       <c r="K26" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5902,31 +5923,31 @@
       </c>
       <c r="L26" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="M26" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <f>IF((P26="Days"),((J26-I26+1)),IF(P26="Months",((J26-I26)/30),((J26-I26)/365)))</f>
+        <v>1.6602739726027398</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>268</v>
+        <v>509</v>
       </c>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
@@ -5948,40 +5969,39 @@
       <c r="AK26" s="18"/>
       <c r="AL26" s="26"/>
       <c r="AM26" s="28" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>19</v>
+        <v>292</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="I27" s="24">
-        <v>43952</v>
+        <v>42856</v>
       </c>
       <c r="J27" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>42979</v>
       </c>
       <c r="K27" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5989,29 +6009,31 @@
       </c>
       <c r="L27" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="M27" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N27" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2017</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.4018149736808805</v>
+        <f>IF((P27="Days"),((J27-I27+1)),IF(P27="Months",((J27-I27)/30),((J27-I27)/365)))</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q27" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="R27" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>525</v>
+        <v>297</v>
       </c>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
@@ -6033,70 +6055,71 @@
       <c r="AK27" s="18"/>
       <c r="AL27" s="26"/>
       <c r="AM27" s="28" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>158</v>
+        <v>293</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="I28" s="24">
-        <v>43556</v>
+        <v>42491</v>
       </c>
       <c r="J28" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>42614</v>
       </c>
       <c r="K28" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M28" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="N28" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2016</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4867464805301958</v>
+        <f>IF((P28="Days"),((J28-I28+1)),IF(P28="Months",((J28-I28)/30),((J28-I28)/365)))</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="R28" s="18" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>526</v>
+        <v>298</v>
       </c>
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
@@ -6118,39 +6141,38 @@
       <c r="AK28" s="18"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="28" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="29" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B29" s="20"/>
       <c r="C29" s="19" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="E29" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="I29" s="24">
-        <v>44075</v>
+        <v>43734</v>
       </c>
       <c r="J29" s="24">
-        <v>44681</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K29" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6158,31 +6180,29 @@
       </c>
       <c r="L29" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M29" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N29" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2022</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" si="0"/>
-        <v>1.6602739726027398</v>
+        <f ca="1">IF((P29="Days"),((J29-I29+1)),IF(P29="Months",((J29-I29)/30),((J29-I29)/365)))</f>
+        <v>24.851571111111117</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>219</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q29" s="18"/>
       <c r="R29" s="18" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>511</v>
+        <v>281</v>
       </c>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
@@ -6204,71 +6224,68 @@
       <c r="AK29" s="18"/>
       <c r="AL29" s="26"/>
       <c r="AM29" s="28" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="30" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>296</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B30" s="20"/>
       <c r="C30" s="19" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="E30" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="I30" s="24">
-        <v>42856</v>
+        <v>43466</v>
       </c>
       <c r="J30" s="24">
-        <v>42979</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K30" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L30" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="M30" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N30" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <f ca="1">IF((P30="Days"),((J30-I30+1)),IF(P30="Months",((J30-I30)/30),((J30-I30)/365)))</f>
+        <v>33.78490444444445</v>
       </c>
       <c r="P30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="18" t="s">
-        <v>146</v>
-      </c>
+      <c r="Q30" s="18"/>
       <c r="R30" s="18" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
@@ -6290,71 +6307,68 @@
       <c r="AK30" s="18"/>
       <c r="AL30" s="26"/>
       <c r="AM30" s="28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>292</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B31" s="20"/>
       <c r="C31" s="19" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="E31" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="I31" s="24">
-        <v>42491</v>
+        <v>43435</v>
       </c>
       <c r="J31" s="24">
-        <v>42614</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K31" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L31" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="M31" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N31" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <f ca="1">IF((P31="Days"),((J31-I31+1)),IF(P31="Months",((J31-I31)/30),((J31-I31)/365)))</f>
+        <v>34.818237777777782</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q31" s="18"/>
       <c r="R31" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
@@ -6376,58 +6390,58 @@
       <c r="AK31" s="18"/>
       <c r="AL31" s="26"/>
       <c r="AM31" s="28" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="19" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E32" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="I32" s="24">
-        <v>43734</v>
+        <v>43374</v>
       </c>
       <c r="J32" s="24">
-        <f t="shared" ref="J32:J37" ca="1" si="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K32" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L32" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M32" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N32" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O32" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>24.322082179784047</v>
+        <f ca="1">IF((P32="Days"),((J32-I32+1)),IF(P32="Months",((J32-I32)/30),((J32-I32)/365)))</f>
+        <v>36.851571111111113</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>27</v>
@@ -6437,7 +6451,7 @@
         <v>130</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
@@ -6459,58 +6473,56 @@
       <c r="AK32" s="18"/>
       <c r="AL32" s="26"/>
       <c r="AM32" s="28" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>116</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D33" s="27"/>
       <c r="E33" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>107</v>
       </c>
       <c r="I33" s="24">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="J33" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44463.662465393521</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K33" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L33" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M33" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N33" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O33" s="21">
-        <f t="shared" ca="1" si="0"/>
-        <v>33.255415513117377</v>
+        <f ca="1">IF((P33="Days"),((J33-I33+1)),IF(P33="Months",((J33-I33)/30),((J33-I33)/365)))</f>
+        <v>36.851571111111113</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>27</v>
@@ -6520,7 +6532,7 @@
         <v>130</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
@@ -6542,68 +6554,66 @@
       <c r="AK33" s="18"/>
       <c r="AL33" s="26"/>
       <c r="AM33" s="28" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>113</v>
+        <v>497</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>115</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D34" s="27"/>
       <c r="E34" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="I34" s="24">
-        <v>43435</v>
+        <v>41091</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44463.662465393521</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K34" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L34" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="M34" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N34" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" ref="O34:O65" ca="1" si="2">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
-        <v>34.288748846450716</v>
+        <f ca="1">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
+        <v>9.2836907762557086</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="18"/>
       <c r="R34" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
@@ -6625,38 +6635,37 @@
       <c r="AK34" s="18"/>
       <c r="AL34" s="26"/>
       <c r="AM34" s="28" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="20"/>
+        <v>118</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C35" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>124</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D35" s="27"/>
       <c r="E35" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I35" s="24">
         <v>43374</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44463.662465393521</v>
+        <v>44105</v>
       </c>
       <c r="K35" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6667,26 +6676,26 @@
         <v>2018</v>
       </c>
       <c r="M35" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N35" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2020</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.322082179784047</v>
+        <f>IF((P35="Days"),((J35-I35+1)),IF(P35="Months",((J35-I35)/30),((J35-I35)/365)))</f>
+        <v>2.0027397260273974</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q35" s="18"/>
       <c r="R35" s="18" t="s">
         <v>130</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>280</v>
+        <v>533</v>
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
@@ -6708,36 +6717,35 @@
       <c r="AK35" s="18"/>
       <c r="AL35" s="26"/>
       <c r="AM35" s="28" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="19" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="I36" s="24">
-        <v>43374</v>
+        <v>43764</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44463.662465393521</v>
+        <v>43764</v>
       </c>
       <c r="K36" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6745,29 +6753,31 @@
       </c>
       <c r="L36" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M36" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N36" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.322082179784047</v>
+        <f>IF((P36="Days"),((J36-I36+1)),IF(P36="Months",((J36-I36)/30),((J36-I36)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q36" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="R36" s="18" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
@@ -6789,18 +6799,20 @@
       <c r="AK36" s="18"/>
       <c r="AL36" s="26"/>
       <c r="AM36" s="28" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="27"/>
+        <v>126</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="E37" s="18" t="s">
         <v>235</v>
       </c>
@@ -6808,47 +6820,48 @@
         <v>78</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>135</v>
       </c>
       <c r="I37" s="24">
-        <v>41091</v>
+        <v>43374</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" ca="1" si="1"/>
-        <v>44463.662465393521</v>
+        <v>43377</v>
       </c>
       <c r="K37" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L37" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="M37" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N37" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2018</v>
       </c>
       <c r="O37" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.2401711380644418</v>
+        <f>IF((P37="Days"),((J37-I37+1)),IF(P37="Months",((J37-I37)/30),((J37-I37)/365)))</f>
+        <v>4</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q37" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q37" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="R37" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
@@ -6870,75 +6883,83 @@
       <c r="AK37" s="18"/>
       <c r="AL37" s="26"/>
       <c r="AM37" s="28" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="C38" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="D38" s="27"/>
+        <v>519</v>
+      </c>
+      <c r="D38" s="31"/>
       <c r="E38" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="I38" s="24">
-        <v>43764</v>
+        <v>44368</v>
       </c>
       <c r="J38" s="24">
-        <v>43764</v>
+        <v>44371</v>
       </c>
       <c r="K38" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L38" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="M38" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N38" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF((P38="Days"),((J38-I38+1)),IF(P38="Months",((J38-I38)/30),((J38-I38)/365)))</f>
+        <v>4</v>
       </c>
       <c r="P38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q38" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q38" s="18"/>
       <c r="R38" s="18" t="s">
-        <v>48</v>
+        <v>520</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="T38" s="18"/>
+        <v>521</v>
+      </c>
+      <c r="T38" s="18" t="s">
+        <v>522</v>
+      </c>
       <c r="U38" s="18"/>
       <c r="V38" s="26"/>
       <c r="W38" s="26"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="26"/>
+      <c r="X38" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y38" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z38" s="26" t="s">
+        <v>464</v>
+      </c>
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
       <c r="AC38" s="26"/>
@@ -6951,74 +6972,76 @@
       <c r="AJ38" s="26"/>
       <c r="AK38" s="18"/>
       <c r="AL38" s="26"/>
-      <c r="AM38" s="28" t="s">
-        <v>320</v>
-      </c>
+      <c r="AM38" s="28"/>
     </row>
     <row r="39" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>497</v>
-      </c>
-      <c r="B39" s="20"/>
+        <v>98</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="C39" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="27" t="s">
-        <v>127</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D39" s="27"/>
       <c r="E39" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="I39" s="24">
-        <v>43374</v>
+        <v>43548</v>
       </c>
       <c r="J39" s="24">
-        <v>43377</v>
+        <v>43548</v>
       </c>
       <c r="K39" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L39" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M39" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N39" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="O39" s="21">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>IF((P39="Days"),((J39-I39+1)),IF(P39="Months",((J39-I39)/30),((J39-I39)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P39" s="18" t="s">
         <v>29</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R39" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="T39" s="18"/>
+        <v>261</v>
+      </c>
+      <c r="T39" s="18" t="s">
+        <v>515</v>
+      </c>
       <c r="U39" s="18"/>
-      <c r="V39" s="26"/>
+      <c r="V39" s="26" t="s">
+        <v>514</v>
+      </c>
       <c r="W39" s="26"/>
       <c r="X39" s="18"/>
       <c r="Y39" s="18"/>
@@ -7036,20 +7059,20 @@
       <c r="AK39" s="18"/>
       <c r="AL39" s="26"/>
       <c r="AM39" s="28" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="D40" s="31"/>
+        <v>511</v>
+      </c>
+      <c r="D40" s="27"/>
       <c r="E40" s="18" t="s">
         <v>235</v>
       </c>
@@ -7057,61 +7080,65 @@
         <v>43</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>101</v>
       </c>
       <c r="I40" s="24">
-        <v>44368</v>
+        <v>42795</v>
       </c>
       <c r="J40" s="24">
-        <v>44371</v>
+        <v>42795</v>
       </c>
       <c r="K40" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L40" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="M40" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N40" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="O40" s="21">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>IF((P40="Days"),((J40-I40+1)),IF(P40="Months",((J40-I40)/30),((J40-I40)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P40" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q40" s="18"/>
+      <c r="Q40" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="R40" s="18" t="s">
-        <v>522</v>
+        <v>52</v>
       </c>
       <c r="S40" s="18" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="T40" s="18" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="U40" s="18"/>
-      <c r="V40" s="26"/>
+      <c r="V40" s="26" t="s">
+        <v>510</v>
+      </c>
       <c r="W40" s="26"/>
       <c r="X40" s="18" t="s">
-        <v>463</v>
+        <v>382</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
@@ -7125,17 +7152,19 @@
       <c r="AJ40" s="26"/>
       <c r="AK40" s="18"/>
       <c r="AL40" s="26"/>
-      <c r="AM40" s="28"/>
+      <c r="AM40" s="28" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="41" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>100</v>
+        <v>512</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="18" t="s">
@@ -7145,35 +7174,35 @@
         <v>43</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>101</v>
       </c>
       <c r="I41" s="24">
-        <v>43548</v>
+        <v>42513</v>
       </c>
       <c r="J41" s="24">
-        <v>43548</v>
+        <v>42513</v>
       </c>
       <c r="K41" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L41" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="M41" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="O41" s="21">
-        <f t="shared" si="2"/>
+        <f>IF((P41="Days"),((J41-I41+1)),IF(P41="Months",((J41-I41)/30),((J41-I41)/365)))</f>
         <v>1</v>
       </c>
       <c r="P41" s="18" t="s">
@@ -7186,19 +7215,23 @@
         <v>52</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>261</v>
+        <v>513</v>
       </c>
       <c r="T41" s="18" t="s">
         <v>517</v>
       </c>
       <c r="U41" s="18"/>
-      <c r="V41" s="26" t="s">
-        <v>516</v>
-      </c>
+      <c r="V41" s="26"/>
       <c r="W41" s="26"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="26"/>
+      <c r="X41" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y41" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z41" s="26" t="s">
+        <v>383</v>
+      </c>
       <c r="AA41" s="18"/>
       <c r="AB41" s="18"/>
       <c r="AC41" s="26"/>
@@ -7212,18 +7245,18 @@
       <c r="AK41" s="18"/>
       <c r="AL41" s="26"/>
       <c r="AM41" s="28" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>513</v>
+        <v>102</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="18" t="s">
@@ -7233,36 +7266,36 @@
         <v>43</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>101</v>
       </c>
       <c r="I42" s="24">
-        <v>42795</v>
+        <v>42491</v>
       </c>
       <c r="J42" s="24">
-        <v>42795</v>
+        <v>42493</v>
       </c>
       <c r="K42" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L42" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="M42" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O42" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF((P42="Days"),((J42-I42+1)),IF(P42="Months",((J42-I42)/30),((J42-I42)/365)))</f>
+        <v>3</v>
       </c>
       <c r="P42" s="18" t="s">
         <v>29</v>
@@ -7274,24 +7307,22 @@
         <v>52</v>
       </c>
       <c r="S42" s="18" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U42" s="18"/>
-      <c r="V42" s="26" t="s">
-        <v>512</v>
-      </c>
+      <c r="V42" s="26"/>
       <c r="W42" s="26"/>
       <c r="X42" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y42" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z42" s="26" t="s">
         <v>383</v>
-      </c>
-      <c r="Y42" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z42" s="26" t="s">
-        <v>384</v>
       </c>
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
@@ -7306,85 +7337,80 @@
       <c r="AK42" s="18"/>
       <c r="AL42" s="26"/>
       <c r="AM42" s="28" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>514</v>
-      </c>
-      <c r="D43" s="27"/>
+        <v>536</v>
+      </c>
+      <c r="D43" s="31"/>
       <c r="E43" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>507</v>
+        <v>300</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>101</v>
+        <v>367</v>
       </c>
       <c r="I43" s="24">
-        <v>42513</v>
+        <v>44440</v>
       </c>
       <c r="J43" s="24">
-        <v>42513</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K43" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L43" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="M43" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N43" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O43" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f ca="1">IF((P43="Days"),((J43-I43+1)),IF(P43="Months",((J43-I43)/30),((J43-I43)/365)))</f>
+        <v>1.3182377777777825</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R43" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S43" s="18" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="U43" s="18"/>
       <c r="V43" s="26"/>
       <c r="W43" s="26"/>
-      <c r="X43" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y43" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z43" s="26" t="s">
-        <v>384</v>
-      </c>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="26"/>
       <c r="AA43" s="18"/>
       <c r="AB43" s="18"/>
       <c r="AC43" s="26"/>
@@ -7398,84 +7424,87 @@
       <c r="AK43" s="18"/>
       <c r="AL43" s="26"/>
       <c r="AM43" s="28" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="27"/>
+        <v>472</v>
+      </c>
+      <c r="D44" s="31"/>
       <c r="E44" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>507</v>
+        <v>300</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="I44" s="24">
-        <v>42491</v>
+        <v>44075</v>
       </c>
       <c r="J44" s="24">
-        <v>42493</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K44" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L44" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="M44" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N44" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O44" s="21">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f ca="1">IF((P44="Days"),((J44-I44+1)),IF(P44="Months",((J44-I44)/30),((J44-I44)/365)))</f>
+        <v>13.484904444444449</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
       <c r="R44" s="18" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="U44" s="18"/>
+        <v>481</v>
+      </c>
+      <c r="U44" s="18" t="s">
+        <v>475</v>
+      </c>
       <c r="V44" s="26"/>
       <c r="W44" s="26"/>
       <c r="X44" s="18" t="s">
-        <v>393</v>
+        <v>476</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z44" s="26" t="s">
-        <v>384</v>
+        <v>483</v>
       </c>
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
@@ -7483,17 +7512,25 @@
       <c r="AD44" s="18"/>
       <c r="AE44" s="18"/>
       <c r="AF44" s="26"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="18"/>
-      <c r="AJ44" s="26"/>
+      <c r="AG44" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH44" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI44" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ44" s="26" t="s">
+        <v>480</v>
+      </c>
       <c r="AK44" s="18"/>
       <c r="AL44" s="26"/>
       <c r="AM44" s="28" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>215</v>
       </c>
@@ -7501,9 +7538,9 @@
         <v>216</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="D45" s="31"/>
+        <v>398</v>
+      </c>
+      <c r="D45" s="27"/>
       <c r="E45" s="18" t="s">
         <v>235</v>
       </c>
@@ -7511,21 +7548,21 @@
         <v>141</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>190</v>
       </c>
       <c r="I45" s="24">
-        <v>44075</v>
+        <v>44013</v>
       </c>
       <c r="J45" s="24">
         <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>44479.547133333333</v>
       </c>
       <c r="K45" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L45" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -7533,44 +7570,46 @@
       </c>
       <c r="M45" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N45" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O45" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>12.95541551311738</v>
+        <f ca="1">IF((P45="Days"),((J45-I45+1)),IF(P45="Months",((J45-I45)/30),((J45-I45)/365)))</f>
+        <v>15.551571111111116</v>
       </c>
       <c r="P45" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="R45" s="18" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>475</v>
+        <v>399</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="V45" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="V45" s="26" t="s">
+        <v>256</v>
+      </c>
       <c r="W45" s="26"/>
       <c r="X45" s="18" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="Y45" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z45" s="26" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
@@ -7578,33 +7617,25 @@
       <c r="AD45" s="18"/>
       <c r="AE45" s="18"/>
       <c r="AF45" s="26"/>
-      <c r="AG45" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH45" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="AI45" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="AJ45" s="26" t="s">
-        <v>481</v>
-      </c>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="26"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="26"/>
       <c r="AK45" s="18"/>
       <c r="AL45" s="26"/>
       <c r="AM45" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>216</v>
+        <v>15</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="18" t="s">
@@ -7614,21 +7645,21 @@
         <v>141</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>190</v>
+        <v>367</v>
       </c>
       <c r="I46" s="24">
-        <v>44013</v>
+        <v>43862</v>
       </c>
       <c r="J46" s="24">
         <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>44479.547133333333</v>
       </c>
       <c r="K46" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L46" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -7636,43 +7667,41 @@
       </c>
       <c r="M46" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N46" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O46" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>15.022082179784046</v>
+        <f ca="1">IF((P46="Days"),((J46-I46+1)),IF(P46="Months",((J46-I46)/30),((J46-I46)/365)))</f>
+        <v>20.584904444444451</v>
       </c>
       <c r="P46" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q46" s="18"/>
       <c r="R46" s="18" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="V46" s="26" t="s">
-        <v>256</v>
+        <v>461</v>
       </c>
       <c r="W46" s="26"/>
       <c r="X46" s="18" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z46" s="26" t="s">
         <v>464</v>
@@ -7683,25 +7712,29 @@
       <c r="AD46" s="18"/>
       <c r="AE46" s="18"/>
       <c r="AF46" s="26"/>
-      <c r="AG46" s="18"/>
-      <c r="AH46" s="26"/>
+      <c r="AG46" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH46" s="26" t="s">
+        <v>465</v>
+      </c>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26"/>
       <c r="AK46" s="18"/>
       <c r="AL46" s="26"/>
       <c r="AM46" s="28" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>369</v>
+        <v>470</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="18" t="s">
@@ -7711,66 +7744,67 @@
         <v>141</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>368</v>
+        <v>30</v>
       </c>
       <c r="I47" s="24">
-        <v>43862</v>
+        <v>44207</v>
       </c>
       <c r="J47" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>44316</v>
       </c>
       <c r="K47" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="M47" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>4</v>
       </c>
       <c r="N47" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2021</v>
       </c>
       <c r="O47" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>20.055415513117381</v>
+        <f>IF((P47="Days"),((J47-I47+1)),IF(P47="Months",((J47-I47)/30),((J47-I47)/365)))</f>
+        <v>3.6333333333333333</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q47" s="18"/>
+      <c r="Q47" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="R47" s="18" t="s">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="V47" s="26" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="W47" s="26"/>
       <c r="X47" s="18" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
       <c r="Y47" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z47" s="26" t="s">
-        <v>465</v>
+        <v>374</v>
       </c>
       <c r="AA47" s="18"/>
       <c r="AB47" s="18"/>
@@ -7778,48 +7812,48 @@
       <c r="AD47" s="18"/>
       <c r="AE47" s="18"/>
       <c r="AF47" s="26"/>
-      <c r="AG47" s="28" t="s">
-        <v>344</v>
+      <c r="AG47" s="18" t="s">
+        <v>406</v>
       </c>
       <c r="AH47" s="26" t="s">
-        <v>466</v>
+        <v>405</v>
       </c>
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26"/>
       <c r="AK47" s="18"/>
       <c r="AL47" s="26"/>
       <c r="AM47" s="28" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>471</v>
+        <v>364</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="24">
-        <v>44207</v>
+        <v>43831</v>
       </c>
       <c r="J48" s="24">
-        <v>44316</v>
+        <v>44012</v>
       </c>
       <c r="K48" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7827,50 +7861,50 @@
       </c>
       <c r="L48" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="M48" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N48" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="O48" s="21">
-        <f t="shared" si="2"/>
-        <v>3.6333333333333333</v>
+        <f>IF((P48="Days"),((J48-I48+1)),IF(P48="Months",((J48-I48)/30),((J48-I48)/365)))</f>
+        <v>6.0333333333333332</v>
       </c>
       <c r="P48" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="R48" s="18" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="S48" s="18" t="s">
-        <v>409</v>
+        <v>201</v>
       </c>
       <c r="T48" s="18" t="s">
-        <v>487</v>
+        <v>418</v>
       </c>
       <c r="U48" s="18" t="s">
-        <v>408</v>
+        <v>202</v>
       </c>
       <c r="V48" s="26" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="W48" s="26"/>
       <c r="X48" s="18" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Y48" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z48" s="26" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
@@ -7879,10 +7913,10 @@
       <c r="AE48" s="18"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="18" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="AH48" s="26" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26"/>
@@ -7892,15 +7926,13 @@
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>45</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="19" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="18" t="s">
@@ -7910,24 +7942,24 @@
         <v>43</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="I49" s="24">
-        <v>43831</v>
+        <v>43709</v>
       </c>
       <c r="J49" s="24">
-        <v>44012</v>
+        <v>43983</v>
       </c>
       <c r="K49" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L49" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="M49" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -7938,39 +7970,37 @@
         <v>2020</v>
       </c>
       <c r="O49" s="21">
-        <f t="shared" si="2"/>
-        <v>6.0333333333333332</v>
+        <f>IF((P49="Days"),((J49-I49+1)),IF(P49="Months",((J49-I49)/30),((J49-I49)/365)))</f>
+        <v>9.1333333333333329</v>
       </c>
       <c r="P49" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>201</v>
+        <v>425</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="V49" s="26" t="s">
-        <v>284</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="V49" s="26"/>
       <c r="W49" s="26"/>
       <c r="X49" s="18" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z49" s="26" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="AA49" s="18"/>
       <c r="AB49" s="18"/>
@@ -7978,46 +8008,42 @@
       <c r="AD49" s="18"/>
       <c r="AE49" s="18"/>
       <c r="AF49" s="26"/>
-      <c r="AG49" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="AH49" s="26" t="s">
-        <v>376</v>
-      </c>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="26"/>
       <c r="AI49" s="18"/>
       <c r="AJ49" s="26"/>
       <c r="AK49" s="18"/>
       <c r="AL49" s="26"/>
-      <c r="AM49" s="28" t="s">
-        <v>328</v>
-      </c>
+      <c r="AM49" s="19"/>
     </row>
-    <row r="50" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
-        <v>528</v>
-      </c>
-      <c r="B50" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="C50" s="19" t="s">
-        <v>387</v>
+        <v>530</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="18" t="s">
         <v>235</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I50" s="24">
-        <v>43709</v>
+        <v>43344</v>
       </c>
       <c r="J50" s="24">
-        <v>43983</v>
+        <v>43586</v>
       </c>
       <c r="K50" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8025,48 +8051,48 @@
       </c>
       <c r="L50" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="M50" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N50" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O50" s="21">
-        <f t="shared" si="2"/>
-        <v>9.1333333333333329</v>
+        <f>IF((P50="Days"),((J50-I50+1)),IF(P50="Months",((J50-I50)/30),((J50-I50)/365)))</f>
+        <v>8.0666666666666664</v>
       </c>
       <c r="P50" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S50" s="18" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="T50" s="18" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="U50" s="18" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="V50" s="26"/>
       <c r="W50" s="26"/>
       <c r="X50" s="18" t="s">
-        <v>332</v>
+        <v>423</v>
       </c>
       <c r="Y50" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z50" s="26" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
@@ -8074,25 +8100,33 @@
       <c r="AD50" s="18"/>
       <c r="AE50" s="18"/>
       <c r="AF50" s="26"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="26"/>
+      <c r="AG50" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH50" s="26" t="s">
+        <v>424</v>
+      </c>
       <c r="AI50" s="18"/>
       <c r="AJ50" s="26"/>
       <c r="AK50" s="18"/>
       <c r="AL50" s="26"/>
-      <c r="AM50" s="19"/>
+      <c r="AM50" s="28" t="s">
+        <v>325</v>
+      </c>
     </row>
-    <row r="51" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="D51" s="27"/>
+        <v>384</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="E51" s="18" t="s">
         <v>235</v>
       </c>
@@ -8100,16 +8134,16 @@
         <v>141</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>190</v>
       </c>
       <c r="I51" s="24">
-        <v>43344</v>
+        <v>42614</v>
       </c>
       <c r="J51" s="24">
-        <v>43586</v>
+        <v>42979</v>
       </c>
       <c r="K51" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -8117,70 +8151,82 @@
       </c>
       <c r="L51" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="M51" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N51" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="O51" s="21">
-        <f t="shared" si="2"/>
-        <v>8.0666666666666664</v>
+        <f>IF((P51="Days"),((J51-I51+1)),IF(P51="Months",((J51-I51)/30),((J51-I51)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>27</v>
+        <v>426</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R51" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S51" s="18" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="T51" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="U51" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="V51" s="26"/>
+        <v>403</v>
+      </c>
+      <c r="U51" s="18"/>
+      <c r="V51" s="26" t="s">
+        <v>489</v>
+      </c>
       <c r="W51" s="26"/>
       <c r="X51" s="18" t="s">
-        <v>424</v>
+        <v>379</v>
       </c>
       <c r="Y51" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z51" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="18"/>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="26"/>
-      <c r="AG51" s="28" t="s">
-        <v>326</v>
+        <v>490</v>
+      </c>
+      <c r="AA51" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB51" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC51" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD51" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE51" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF51" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="AG51" s="29" t="s">
+        <v>391</v>
       </c>
       <c r="AH51" s="26" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26"/>
       <c r="AK51" s="18"/>
       <c r="AL51" s="26"/>
       <c r="AM51" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>7</v>
       </c>
@@ -8188,10 +8234,10 @@
         <v>18</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E52" s="18" t="s">
         <v>235</v>
@@ -8200,24 +8246,24 @@
         <v>141</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>190</v>
       </c>
       <c r="I52" s="24">
+        <v>42156</v>
+      </c>
+      <c r="J52" s="24">
         <v>42614</v>
-      </c>
-      <c r="J52" s="24">
-        <v>42979</v>
       </c>
       <c r="K52" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L52" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="M52" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
@@ -8225,14 +8271,14 @@
       </c>
       <c r="N52" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="O52" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF((P52="Days"),((J52-I52+1)),IF(P52="Months",((J52-I52)/30),((J52-I52)/365)))</f>
+        <v>1.2547945205479452</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q52" s="18" t="s">
         <v>53</v>
@@ -8241,70 +8287,72 @@
         <v>52</v>
       </c>
       <c r="S52" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T52" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="U52" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="U52" s="18"/>
       <c r="V52" s="26" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="W52" s="26"/>
       <c r="X52" s="18" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="Y52" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z52" s="26" t="s">
-        <v>491</v>
+        <v>394</v>
       </c>
       <c r="AA52" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB52" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC52" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="AB52" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC52" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD52" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE52" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="AF52" s="26" t="s">
-        <v>472</v>
-      </c>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="26"/>
       <c r="AG52" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AH52" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="AI52" s="18"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="18"/>
-      <c r="AL52" s="26"/>
+        <v>495</v>
+      </c>
+      <c r="AI52" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="AJ52" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="AK52" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="AL52" s="26" t="s">
+        <v>395</v>
+      </c>
       <c r="AM52" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
-        <v>7</v>
+        <v>284</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>140</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="D53" s="27"/>
       <c r="E53" s="18" t="s">
         <v>235</v>
       </c>
@@ -8312,180 +8360,144 @@
         <v>141</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>190</v>
       </c>
       <c r="I53" s="24">
-        <v>42156</v>
+        <v>42592</v>
       </c>
       <c r="J53" s="24">
-        <v>42614</v>
+        <v>42605</v>
       </c>
       <c r="K53" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L53" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M53" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N53" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2016</v>
       </c>
       <c r="O53" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2547945205479452</v>
+        <f>IF((P53="Days"),((J53-I53+1)),IF(P53="Months",((J53-I53)/30),((J53-I53)/365)))</f>
+        <v>14</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>427</v>
+        <v>29</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="R53" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>402</v>
+        <v>491</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="V53" s="26" t="s">
-        <v>495</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="V53" s="26"/>
       <c r="W53" s="26"/>
       <c r="X53" s="18" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="Y53" s="18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z53" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA53" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB53" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC53" s="26" t="s">
-        <v>384</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="26"/>
       <c r="AD53" s="18"/>
       <c r="AE53" s="18"/>
       <c r="AF53" s="26"/>
-      <c r="AG53" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="AH53" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="AI53" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="AJ53" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK53" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL53" s="26" t="s">
-        <v>396</v>
-      </c>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="26"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="26"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="26"/>
       <c r="AM53" s="28" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>131</v>
-      </c>
+      <c r="B54" s="20"/>
       <c r="C54" s="19" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="I54" s="24">
-        <v>42592</v>
+        <v>44094</v>
       </c>
       <c r="J54" s="24">
-        <v>42605</v>
+        <v>44094</v>
       </c>
       <c r="K54" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L54" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="M54" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N54" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="O54" s="21">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>IF((P54="Days"),((J54-I54+1)),IF(P54="Months",((J54-I54)/30),((J54-I54)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q54" s="18" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q54" s="18"/>
       <c r="R54" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="S54" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="T54" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="U54" s="18" t="s">
-        <v>418</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
-      <c r="X54" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y54" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z54" s="26" t="s">
-        <v>417</v>
-      </c>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="26"/>
       <c r="AA54" s="18"/>
       <c r="AB54" s="18"/>
       <c r="AC54" s="26"/>
@@ -8499,64 +8511,62 @@
       <c r="AK54" s="18"/>
       <c r="AL54" s="26"/>
       <c r="AM54" s="28" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" s="20"/>
+        <v>159</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>161</v>
+      </c>
       <c r="C55" s="19" t="s">
-        <v>287</v>
+        <v>160</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="I55" s="24">
-        <v>44094</v>
-      </c>
-      <c r="J55" s="24">
-        <v>44094</v>
-      </c>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
       <c r="K55" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L55" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>1900</v>
       </c>
       <c r="M55" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N55" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>1900</v>
       </c>
       <c r="O55" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P55" s="18" t="s">
-        <v>29</v>
-      </c>
+        <f>IF((P55="Days"),((J55-I55+1)),IF(P55="Months",((J55-I55)/30),((J55-I55)/365)))</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="18"/>
       <c r="Q55" s="18"/>
       <c r="R55" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="S55" s="18"/>
+      <c r="S55" s="18" t="s">
+        <v>162</v>
+      </c>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
       <c r="V55" s="26"/>
@@ -8577,63 +8587,73 @@
       <c r="AK55" s="18"/>
       <c r="AL55" s="26"/>
       <c r="AM55" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="I56" s="24">
+        <v>43405</v>
+      </c>
+      <c r="J56" s="24">
+        <v>43586</v>
+      </c>
       <c r="K56" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L56" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="M56" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N56" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2019</v>
       </c>
       <c r="O56" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
+        <f>IF((P56="Days"),((J56-I56+1)),IF(P56="Months",((J56-I56)/30),((J56-I56)/365)))</f>
+        <v>6.0333333333333332</v>
+      </c>
+      <c r="P56" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="R56" s="18" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="T56" s="18"/>
+        <v>525</v>
+      </c>
+      <c r="T56" s="18" t="s">
+        <v>271</v>
+      </c>
       <c r="U56" s="18"/>
       <c r="V56" s="26"/>
       <c r="W56" s="26"/>
@@ -8653,10 +8673,10 @@
       <c r="AK56" s="18"/>
       <c r="AL56" s="26"/>
       <c r="AM56" s="28" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>7</v>
       </c>
@@ -8664,7 +8684,7 @@
         <v>18</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="18" t="s">
@@ -8702,7 +8722,7 @@
         <v>2018</v>
       </c>
       <c r="O57" s="21">
-        <f t="shared" si="2"/>
+        <f>IF((P57="Days"),((J57-I57+1)),IF(P57="Months",((J57-I57)/30),((J57-I57)/365)))</f>
         <v>8.0666666666666664</v>
       </c>
       <c r="P57" s="18" t="s">
@@ -8737,7 +8757,7 @@
       <c r="AK57" s="18"/>
       <c r="AL57" s="26"/>
       <c r="AM57" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -8788,7 +8808,7 @@
         <v>2017</v>
       </c>
       <c r="O58" s="21">
-        <f t="shared" si="2"/>
+        <f>IF((P58="Days"),((J58-I58+1)),IF(P58="Months",((J58-I58)/30),((J58-I58)/365)))</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="P58" s="18" t="s">
@@ -8823,7 +8843,7 @@
       <c r="AK58" s="18"/>
       <c r="AL58" s="26"/>
       <c r="AM58" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -8834,32 +8854,30 @@
         <v>18</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>140</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D59" s="27"/>
       <c r="E59" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="G59" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I59" s="24">
-        <v>42491</v>
+        <v>42644</v>
       </c>
       <c r="J59" s="24">
-        <v>42614</v>
+        <v>42887</v>
       </c>
       <c r="K59" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L59" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -8867,15 +8885,15 @@
       </c>
       <c r="M59" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N59" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="O59" s="21">
-        <f t="shared" si="2"/>
-        <v>4.0999999999999996</v>
+        <f>IF((P59="Days"),((J59-I59+1)),IF(P59="Months",((J59-I59)/30),((J59-I59)/365)))</f>
+        <v>8.1</v>
       </c>
       <c r="P59" s="18" t="s">
         <v>27</v>
@@ -8887,10 +8905,14 @@
         <v>52</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
+        <v>257</v>
+      </c>
+      <c r="T59" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="U59" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="V59" s="26"/>
       <c r="W59" s="26"/>
       <c r="X59" s="18"/>
@@ -8909,68 +8931,72 @@
       <c r="AK59" s="18"/>
       <c r="AL59" s="26"/>
       <c r="AM59" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="27"/>
+        <v>139</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="E60" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="G60" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I60" s="24">
-        <v>40544</v>
+        <v>42491</v>
       </c>
       <c r="J60" s="24">
-        <v>41275</v>
+        <v>42614</v>
       </c>
       <c r="K60" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L60" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="M60" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N60" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="O60" s="21">
-        <f t="shared" si="2"/>
-        <v>2.0027397260273974</v>
+        <f>IF((P60="Days"),((J60-I60+1)),IF(P60="Months",((J60-I60)/30),((J60-I60)/365)))</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="R60" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S60" s="18"/>
+      <c r="S60" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="T60" s="18"/>
       <c r="U60" s="18"/>
       <c r="V60" s="26"/>
@@ -8990,65 +9016,67 @@
       <c r="AJ60" s="26"/>
       <c r="AK60" s="18"/>
       <c r="AL60" s="26"/>
-      <c r="AM60" s="19"/>
+      <c r="AM60" s="28" t="s">
+        <v>324</v>
+      </c>
     </row>
-    <row r="61" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H61" s="26" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I61" s="24">
-        <v>43586</v>
+        <v>40544</v>
       </c>
       <c r="J61" s="24">
-        <v>43586</v>
+        <v>41275</v>
       </c>
       <c r="K61" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L61" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="M61" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N61" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="O61" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF((P61="Days"),((J61-I61+1)),IF(P61="Months",((J61-I61)/30),((J61-I61)/365)))</f>
+        <v>2.0027397260273974</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
@@ -9070,74 +9098,75 @@
       <c r="AJ61" s="26"/>
       <c r="AK61" s="18"/>
       <c r="AL61" s="26"/>
-      <c r="AM61" s="28" t="s">
-        <v>356</v>
-      </c>
+      <c r="AM61" s="19"/>
     </row>
-    <row r="62" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>111</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D62" s="27"/>
       <c r="E62" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>531</v>
+        <v>30</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I62" s="24">
-        <v>43586</v>
+        <v>39083</v>
       </c>
       <c r="J62" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>40544</v>
       </c>
       <c r="K62" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L62" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="M62" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>1</v>
       </c>
       <c r="N62" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2011</v>
       </c>
       <c r="O62" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>29.255415513117381</v>
+        <f>IF((P62="Days"),((J62-I62+1)),IF(P62="Months",((J62-I62)/30),((J62-I62)/365)))</f>
+        <v>4.0027397260273974</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q62" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="Q62" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="R62" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="S62" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="T62" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="U62" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="V62" s="26"/>
-      <c r="W62" s="26" t="s">
-        <v>174</v>
-      </c>
+      <c r="W62" s="26"/>
       <c r="X62" s="18"/>
       <c r="Y62" s="18"/>
       <c r="Z62" s="26"/>
@@ -9153,19 +9182,17 @@
       <c r="AJ62" s="26"/>
       <c r="AK62" s="18"/>
       <c r="AL62" s="26"/>
-      <c r="AM62" s="28" t="s">
-        <v>361</v>
-      </c>
+      <c r="AM62" s="19"/>
     </row>
-    <row r="63" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="18" t="s">
@@ -9175,48 +9202,47 @@
         <v>43</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>531</v>
+        <v>13</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="I63" s="24">
-        <v>43374</v>
+        <v>43586</v>
       </c>
       <c r="J63" s="24">
-        <f ca="1">NOW()</f>
-        <v>44463.662465393521</v>
+        <v>43586</v>
       </c>
       <c r="K63" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L63" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M63" s="25">
-        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>5</v>
       </c>
       <c r="N63" s="25">
-        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="O63" s="21">
-        <f t="shared" ca="1" si="2"/>
-        <v>36.322082179784047</v>
+        <f>IF((P63="Days"),((J63-I63+1)),IF(P63="Months",((J63-I63)/30),((J63-I63)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q63" s="18"/>
+        <v>29</v>
+      </c>
+      <c r="Q63" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="R63" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="S63" s="18" t="s">
-        <v>274</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="S63" s="18"/>
       <c r="T63" s="18"/>
       <c r="U63" s="18"/>
       <c r="V63" s="26"/>
@@ -9237,18 +9263,20 @@
       <c r="AK63" s="18"/>
       <c r="AL63" s="26"/>
       <c r="AM63" s="28" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="27"/>
+        <v>110</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="E64" s="18" t="s">
         <v>236</v>
       </c>
@@ -9256,52 +9284,51 @@
         <v>78</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I64" s="24">
-        <v>43709</v>
+        <v>43586</v>
       </c>
       <c r="J64" s="24">
-        <v>44136</v>
+        <f ca="1">NOW()</f>
+        <v>44479.547133333333</v>
       </c>
       <c r="K64" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L64" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
         <v>2019</v>
       </c>
       <c r="M64" s="25">
-        <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>11</v>
+        <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
+        <v>10</v>
       </c>
       <c r="N64" s="25">
-        <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="O64" s="21">
-        <f t="shared" si="2"/>
-        <v>1.1698630136986301</v>
+        <f ca="1">IF((P64="Days"),((J64-I64+1)),IF(P64="Months",((J64-I64)/30),((J64-I64)/365)))</f>
+        <v>29.78490444444445</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q64" s="18"/>
       <c r="R64" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S64" s="18" t="s">
-        <v>242</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="S64" s="18"/>
       <c r="T64" s="18"/>
       <c r="U64" s="18"/>
       <c r="V64" s="26"/>
       <c r="W64" s="26" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="X64" s="18"/>
       <c r="Y64" s="18"/>
@@ -9319,70 +9346,72 @@
       <c r="AK64" s="18"/>
       <c r="AL64" s="26"/>
       <c r="AM64" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="19" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="I65" s="24">
-        <v>42491</v>
+        <v>43709</v>
       </c>
       <c r="J65" s="24">
-        <v>43952</v>
+        <v>44136</v>
       </c>
       <c r="K65" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L65" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="M65" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N65" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2020</v>
       </c>
       <c r="O65" s="21">
-        <f t="shared" si="2"/>
-        <v>4.0027397260273974</v>
+        <f>IF((P65="Days"),((J65-I65+1)),IF(P65="Months",((J65-I65)/30),((J65-I65)/365)))</f>
+        <v>1.1698630136986301</v>
       </c>
       <c r="P65" s="18" t="s">
         <v>28</v>
       </c>
       <c r="Q65" s="18"/>
       <c r="R65" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
       <c r="V65" s="26"/>
-      <c r="W65" s="26"/>
+      <c r="W65" s="26" t="s">
+        <v>237</v>
+      </c>
       <c r="X65" s="18"/>
       <c r="Y65" s="18"/>
       <c r="Z65" s="26"/>
@@ -9399,69 +9428,65 @@
       <c r="AK65" s="18"/>
       <c r="AL65" s="26"/>
       <c r="AM65" s="28" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>18</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B66" s="20"/>
       <c r="C66" s="19" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>107</v>
       </c>
       <c r="I66" s="24">
-        <v>42248</v>
+        <v>42491</v>
       </c>
       <c r="J66" s="24">
-        <v>43709</v>
+        <v>43952</v>
       </c>
       <c r="K66" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L66" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="M66" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N66" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O66" s="21">
-        <f t="shared" ref="O66:O97" si="3">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
+        <f>IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
         <v>4.0027397260273974</v>
       </c>
       <c r="P66" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q66" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q66" s="18"/>
       <c r="R66" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
@@ -9483,67 +9508,69 @@
       <c r="AK66" s="18"/>
       <c r="AL66" s="26"/>
       <c r="AM66" s="28" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="C67" s="19" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="I67" s="24">
-        <v>40603</v>
+        <v>42248</v>
       </c>
       <c r="J67" s="24">
-        <v>40616</v>
+        <v>43709</v>
       </c>
       <c r="K67" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L67" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="M67" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N67" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="O67" s="21">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f>IF((P67="Days"),((J67-I67+1)),IF(P67="Months",((J67-I67)/30),((J67-I67)/365)))</f>
+        <v>4.0027397260273974</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q67" s="18" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="R67" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S67" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="T67" s="18"/>
       <c r="U67" s="18"/>
@@ -9565,68 +9592,68 @@
       <c r="AK67" s="18"/>
       <c r="AL67" s="26"/>
       <c r="AM67" s="28" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>15</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B68" s="20"/>
       <c r="C68" s="19" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="I68" s="24">
-        <v>43729</v>
+        <v>40603</v>
       </c>
       <c r="J68" s="24">
-        <v>43730</v>
+        <v>40616</v>
       </c>
       <c r="K68" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L68" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="M68" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N68" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="O68" s="21">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>IF((P68="Days"),((J68-I68+1)),IF(P68="Months",((J68-I68)/30),((J68-I68)/365)))</f>
+        <v>14</v>
       </c>
       <c r="P68" s="18" t="s">
         <v>29</v>
       </c>
       <c r="Q68" s="18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="R68" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="S68" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="S68" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="T68" s="18"/>
       <c r="U68" s="18"/>
       <c r="V68" s="26"/>
@@ -9647,18 +9674,18 @@
       <c r="AK68" s="18"/>
       <c r="AL68" s="26"/>
       <c r="AM68" s="28" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="18" t="s">
@@ -9668,20 +9695,20 @@
         <v>43</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>75</v>
       </c>
       <c r="I69" s="24">
-        <v>43657</v>
+        <v>43729</v>
       </c>
       <c r="J69" s="24">
-        <v>43657</v>
+        <v>43730</v>
       </c>
       <c r="K69" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L69" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
@@ -9689,28 +9716,26 @@
       </c>
       <c r="M69" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N69" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2019</v>
       </c>
       <c r="O69" s="21">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF((P69="Days"),((J69-I69+1)),IF(P69="Months",((J69-I69)/30),((J69-I69)/365)))</f>
+        <v>2</v>
       </c>
       <c r="P69" s="18" t="s">
         <v>29</v>
       </c>
       <c r="Q69" s="18" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="R69" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="S69" s="18" t="s">
-        <v>269</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="S69" s="18"/>
       <c r="T69" s="18"/>
       <c r="U69" s="18"/>
       <c r="V69" s="26"/>
@@ -9731,69 +9756,69 @@
       <c r="AK69" s="18"/>
       <c r="AL69" s="26"/>
       <c r="AM69" s="28" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="18" t="s">
         <v>236</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>301</v>
+        <v>505</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="I70" s="24">
-        <v>43344</v>
+        <v>43657</v>
       </c>
       <c r="J70" s="24">
-        <v>43586</v>
+        <v>43657</v>
       </c>
       <c r="K70" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L70" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="M70" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N70" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
         <v>2019</v>
       </c>
       <c r="O70" s="21">
-        <f t="shared" si="3"/>
-        <v>8.0666666666666664</v>
+        <f>IF((P70="Days"),((J70-I70+1)),IF(P70="Months",((J70-I70)/30),((J70-I70)/365)))</f>
+        <v>1</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q70" s="18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R70" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>421</v>
+        <v>269</v>
       </c>
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
@@ -9815,18 +9840,18 @@
       <c r="AK70" s="18"/>
       <c r="AL70" s="26"/>
       <c r="AM70" s="28" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="18" t="s">
@@ -9836,37 +9861,49 @@
         <v>141</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H71" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+      <c r="I71" s="24">
+        <v>43344</v>
+      </c>
+      <c r="J71" s="24">
+        <v>43586</v>
+      </c>
       <c r="K71" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L71" s="25">
         <f>YEAR(cv.table[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="M71" s="25">
         <f>MONTH(cv.table[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N71" s="25">
         <f>YEAR(cv.table[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2019</v>
       </c>
       <c r="O71" s="21">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
+        <f>IF((P71="Days"),((J71-I71+1)),IF(P71="Months",((J71-I71)/30),((J71-I71)/365)))</f>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="P71" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R71" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S71" s="18" t="s">
+        <v>420</v>
+      </c>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
       <c r="V71" s="26"/>
@@ -9892,13 +9929,13 @@
     </row>
     <row r="72" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>373</v>
+        <v>18</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>474</v>
+        <v>369</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="18" t="s">
@@ -9908,10 +9945,10 @@
         <v>141</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H72" s="26" t="s">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="I72" s="24"/>
       <c r="J72" s="24"/>
@@ -9932,7 +9969,7 @@
         <v>1900</v>
       </c>
       <c r="O72" s="21">
-        <f t="shared" si="3"/>
+        <f>IF((P72="Days"),((J72-I72+1)),IF(P72="Months",((J72-I72)/30),((J72-I72)/365)))</f>
         <v>0</v>
       </c>
       <c r="P72" s="18"/>
@@ -9959,128 +9996,201 @@
       <c r="AK72" s="18"/>
       <c r="AL72" s="26"/>
       <c r="AM72" s="28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="20" t="s">
         <v>372</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="25">
+        <f>MONTH(cv.table[[#This Row],[Start]])</f>
+        <v>1</v>
+      </c>
+      <c r="L73" s="25">
+        <f>YEAR(cv.table[[#This Row],[Start]])</f>
+        <v>1900</v>
+      </c>
+      <c r="M73" s="25">
+        <f>MONTH(cv.table[[#This Row],[End]])</f>
+        <v>1</v>
+      </c>
+      <c r="N73" s="25">
+        <f>YEAR(cv.table[[#This Row],[End]])</f>
+        <v>1900</v>
+      </c>
+      <c r="O73" s="21">
+        <f>IF((P73="Days"),((J73-I73+1)),IF(P73="Months",((J73-I73)/30),((J73-I73)/365)))</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="26"/>
+      <c r="W73" s="26"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="26"/>
+      <c r="AA73" s="18"/>
+      <c r="AB73" s="18"/>
+      <c r="AC73" s="26"/>
+      <c r="AD73" s="18"/>
+      <c r="AE73" s="18"/>
+      <c r="AF73" s="26"/>
+      <c r="AG73" s="18"/>
+      <c r="AH73" s="26"/>
+      <c r="AI73" s="18"/>
+      <c r="AJ73" s="26"/>
+      <c r="AK73" s="18"/>
+      <c r="AL73" s="26"/>
+      <c r="AM73" s="28" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K63:N63 J64:N65 J1:N62 J69:N71">
-    <cfRule type="timePeriod" dxfId="63" priority="9" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="46" priority="9" timePeriod="today">
       <formula>FLOOR(J1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63">
-    <cfRule type="timePeriod" dxfId="62" priority="5" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="45" priority="5" timePeriod="today">
       <formula>FLOOR(J63,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:N67">
-    <cfRule type="timePeriod" dxfId="61" priority="4" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="44" priority="4" timePeriod="today">
       <formula>FLOOR(J66,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:N68">
-    <cfRule type="timePeriod" dxfId="60" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="43" priority="3" timePeriod="today">
       <formula>FLOOR(J68,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AM72">
-    <cfRule type="expression" dxfId="59" priority="1">
+  <conditionalFormatting sqref="A2:AM73">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$E2="Disclude"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$E2="Include"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="S2:S60 T28:T30" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="V2:V27 V29:V72" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="V2:V73" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="T2:T27 T31:T72" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="U2:U72" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G72" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="U2:U73" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G73" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F72" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F73" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
       <formula1>Branch</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="Non-displayed entry notes" sqref="W2:W72" xr:uid="{F58D462A-025C-49EB-8CEE-5C27C7C59311}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H72" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="Non-displayed entry notes" sqref="W2:W73" xr:uid="{F58D462A-025C-49EB-8CEE-5C27C7C59311}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H73" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
       <formula1>INDIRECT(G2)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="AM2" r:id="rId1" xr:uid="{919D3B29-36CF-49BF-9220-21A510F942D2}"/>
-    <hyperlink ref="AM19" r:id="rId2" xr:uid="{C2C8210C-B8EF-4BF8-95E0-F0182288D3A9}"/>
-    <hyperlink ref="AM38" r:id="rId3" xr:uid="{580BA1F1-4FA3-4293-97A0-74F2722CA1E2}"/>
-    <hyperlink ref="AM27" r:id="rId4" xr:uid="{458462F6-BDCC-442A-B79B-8180325D0EDE}"/>
-    <hyperlink ref="AM36" r:id="rId5" xr:uid="{A3CE4E04-84D3-4F89-8E39-F9792AB3D7CE}"/>
-    <hyperlink ref="AM32" r:id="rId6" xr:uid="{8E17BF95-1963-4F4F-8BDD-DB13F45D3018}"/>
+    <hyperlink ref="AM16" r:id="rId2" xr:uid="{C2C8210C-B8EF-4BF8-95E0-F0182288D3A9}"/>
+    <hyperlink ref="AM36" r:id="rId3" xr:uid="{580BA1F1-4FA3-4293-97A0-74F2722CA1E2}"/>
+    <hyperlink ref="AM24" r:id="rId4" xr:uid="{458462F6-BDCC-442A-B79B-8180325D0EDE}"/>
+    <hyperlink ref="AM33" r:id="rId5" xr:uid="{A3CE4E04-84D3-4F89-8E39-F9792AB3D7CE}"/>
+    <hyperlink ref="AM29" r:id="rId6" xr:uid="{8E17BF95-1963-4F4F-8BDD-DB13F45D3018}"/>
     <hyperlink ref="AM4" r:id="rId7" xr:uid="{E699E20B-96F8-425C-AB43-B38AE75C8A91}"/>
     <hyperlink ref="AM3" r:id="rId8" xr:uid="{AAC50046-88B1-4140-8443-3AE8D348E0E8}"/>
-    <hyperlink ref="AM7" r:id="rId9" xr:uid="{065C111C-02C5-4562-A97B-BE18A1880D70}"/>
-    <hyperlink ref="AM12" r:id="rId10" xr:uid="{551A6066-4F5D-4C2C-8B6D-B9A321B523A7}"/>
-    <hyperlink ref="AM48" r:id="rId11" xr:uid="{C0E6B579-8C66-4012-A35B-3346B6611D2B}"/>
-    <hyperlink ref="AM11" r:id="rId12" xr:uid="{A3F3621D-EED2-4306-B30C-AE2ECF932FCE}"/>
-    <hyperlink ref="AM26" r:id="rId13" xr:uid="{3F711DB0-8C66-4086-8F03-4C21781234AE}"/>
+    <hyperlink ref="AM56" r:id="rId9" xr:uid="{065C111C-02C5-4562-A97B-BE18A1880D70}"/>
+    <hyperlink ref="AM59" r:id="rId10" xr:uid="{551A6066-4F5D-4C2C-8B6D-B9A321B523A7}"/>
+    <hyperlink ref="AM47" r:id="rId11" xr:uid="{C0E6B579-8C66-4012-A35B-3346B6611D2B}"/>
+    <hyperlink ref="AM10" r:id="rId12" xr:uid="{A3F3621D-EED2-4306-B30C-AE2ECF932FCE}"/>
+    <hyperlink ref="AM23" r:id="rId13" xr:uid="{3F711DB0-8C66-4086-8F03-4C21781234AE}"/>
     <hyperlink ref="AM30:AM31" r:id="rId14" display="https://www.utoronto.ca/" xr:uid="{FDFD5F84-DF93-4F55-9024-48EAA6BAF22F}"/>
-    <hyperlink ref="AM52" r:id="rId15" xr:uid="{AC5464D3-76B9-4F3D-A334-51E981928AEF}"/>
+    <hyperlink ref="AM51" r:id="rId15" xr:uid="{AC5464D3-76B9-4F3D-A334-51E981928AEF}"/>
     <hyperlink ref="AM58:AM60" r:id="rId16" display="https://www.utoronto.ca/" xr:uid="{BD30E50E-A560-42D3-B0EB-10880BE65B6C}"/>
-    <hyperlink ref="AM66" r:id="rId17" xr:uid="{8B90A5D7-06AC-44CD-855F-7141B82BED0E}"/>
-    <hyperlink ref="AM29" r:id="rId18" xr:uid="{8778B03D-181E-4E1A-A055-07DE08747699}"/>
-    <hyperlink ref="AM49" r:id="rId19" xr:uid="{A41DEFF3-7586-4706-8791-C68F4D02113D}"/>
-    <hyperlink ref="AM9" r:id="rId20" xr:uid="{C56F1C0A-9027-42A0-BC2B-C78EC6149A6A}"/>
-    <hyperlink ref="AM8" r:id="rId21" xr:uid="{059F6052-5098-4CF8-A42D-30DE206B9DFE}"/>
-    <hyperlink ref="AM34" r:id="rId22" location="!%2F" xr:uid="{54A19E43-F332-452D-9492-8A24FDFBA568}"/>
-    <hyperlink ref="AM44" r:id="rId23" xr:uid="{46086F6A-43A9-4875-B462-DDD46F24E101}"/>
-    <hyperlink ref="AM28" r:id="rId24" xr:uid="{E470485F-A51B-4143-97D9-04056931A7F5}"/>
-    <hyperlink ref="AM33" r:id="rId25" xr:uid="{B69F34B0-A37E-40AA-84E7-D8C6B4350C32}"/>
-    <hyperlink ref="AM35" r:id="rId26" xr:uid="{DF8C1A0A-78D9-4925-B7A7-F43D4F152E3C}"/>
-    <hyperlink ref="AM30" r:id="rId27" xr:uid="{F6E02A0C-1522-4D32-8484-89AB75971704}"/>
-    <hyperlink ref="AM31" r:id="rId28" xr:uid="{75D9BF2A-8D56-4A3C-A353-6A23B8D25F23}"/>
+    <hyperlink ref="AM67" r:id="rId17" xr:uid="{8B90A5D7-06AC-44CD-855F-7141B82BED0E}"/>
+    <hyperlink ref="AM26" r:id="rId18" xr:uid="{8778B03D-181E-4E1A-A055-07DE08747699}"/>
+    <hyperlink ref="AM48" r:id="rId19" xr:uid="{A41DEFF3-7586-4706-8791-C68F4D02113D}"/>
+    <hyperlink ref="AM8" r:id="rId20" xr:uid="{C56F1C0A-9027-42A0-BC2B-C78EC6149A6A}"/>
+    <hyperlink ref="AM7" r:id="rId21" xr:uid="{059F6052-5098-4CF8-A42D-30DE206B9DFE}"/>
+    <hyperlink ref="AM31" r:id="rId22" location="!%2F" xr:uid="{54A19E43-F332-452D-9492-8A24FDFBA568}"/>
+    <hyperlink ref="AM42" r:id="rId23" xr:uid="{46086F6A-43A9-4875-B462-DDD46F24E101}"/>
+    <hyperlink ref="AM25" r:id="rId24" xr:uid="{E470485F-A51B-4143-97D9-04056931A7F5}"/>
+    <hyperlink ref="AM30" r:id="rId25" xr:uid="{B69F34B0-A37E-40AA-84E7-D8C6B4350C32}"/>
+    <hyperlink ref="AM32" r:id="rId26" xr:uid="{DF8C1A0A-78D9-4925-B7A7-F43D4F152E3C}"/>
+    <hyperlink ref="AM27" r:id="rId27" xr:uid="{F6E02A0C-1522-4D32-8484-89AB75971704}"/>
+    <hyperlink ref="AM28" r:id="rId28" xr:uid="{75D9BF2A-8D56-4A3C-A353-6A23B8D25F23}"/>
     <hyperlink ref="AM45:AM46" r:id="rId29" display="https://www.niagaracollege.ca/" xr:uid="{EA3C7C6F-9A21-4427-8FA1-8E88E39C65B7}"/>
-    <hyperlink ref="AM17" r:id="rId30" xr:uid="{77E6F105-7C9C-4BBE-BC32-9865E61D64A1}"/>
-    <hyperlink ref="AM22" r:id="rId31" xr:uid="{C4701D21-0498-4442-B643-2E25CB50990A}"/>
-    <hyperlink ref="AM20" r:id="rId32" xr:uid="{0BCC611A-9979-40E3-8E3F-DA2BC0CB01D6}"/>
-    <hyperlink ref="AM16" r:id="rId33" xr:uid="{EACE5C41-0C0D-4BDF-82AC-AC120C9EA483}"/>
-    <hyperlink ref="AM18" r:id="rId34" xr:uid="{2BBD3D59-6BB1-4910-BA14-1A0C4E203DD5}"/>
-    <hyperlink ref="AM23" r:id="rId35" xr:uid="{46E8F86E-DD41-4025-AA93-AE0DC1B932D7}"/>
-    <hyperlink ref="AM21" r:id="rId36" xr:uid="{72BD915B-8739-409E-B076-D4B6223E1F85}"/>
-    <hyperlink ref="AM24" r:id="rId37" xr:uid="{B6D97D99-3727-4A14-BA96-62CA9B1D126E}"/>
-    <hyperlink ref="AM25" r:id="rId38" xr:uid="{E6BFB3FC-E0C2-4AB9-8B7D-37864B5B2639}"/>
-    <hyperlink ref="AM41" r:id="rId39" xr:uid="{A144A583-07F6-4E74-B83D-DB080FC95063}"/>
-    <hyperlink ref="AM54" r:id="rId40" xr:uid="{B8E5E098-DAFC-4F59-915D-67654854C08C}"/>
-    <hyperlink ref="AM67" r:id="rId41" xr:uid="{6A483FD9-A730-470D-8BB4-7563B73C5F22}"/>
-    <hyperlink ref="AM56" r:id="rId42" xr:uid="{0852BD17-FEBC-4C90-BC41-51EF18921968}"/>
-    <hyperlink ref="AM55" r:id="rId43" xr:uid="{2CD092AE-CCA9-49BF-B636-86CCF5CBA600}"/>
-    <hyperlink ref="AM61" r:id="rId44" xr:uid="{EAFCC6B0-8F42-4FC5-AE81-08EFC1ACBCCB}"/>
-    <hyperlink ref="AM69" r:id="rId45" xr:uid="{E2B11D66-C39C-43ED-AEC9-ED9018895277}"/>
-    <hyperlink ref="AM65" r:id="rId46" xr:uid="{F495FAFE-1D64-49A8-9344-0C958BF6D6EF}"/>
-    <hyperlink ref="AM37" r:id="rId47" xr:uid="{83006F78-63E9-428D-AA89-120CED24B77F}"/>
-    <hyperlink ref="AM63" r:id="rId48" xr:uid="{65BA677C-692A-4DCF-ABF8-D6F6B4515994}"/>
-    <hyperlink ref="AM62" r:id="rId49" location=":~:text=%20The%20Workplace%20Hazardous%20Materials%20Information%20System%20%28,2%20reduce%20workplace%20injuries%20and%20illnesses%20More%20" xr:uid="{CBBC4667-ECFC-4594-AF5E-4E1F721F06D0}"/>
-    <hyperlink ref="AM64" r:id="rId50" xr:uid="{EFC22D1A-6836-4A2C-8CB5-551BB51C94CD}"/>
-    <hyperlink ref="AM15" r:id="rId51" xr:uid="{FF99D603-EE9D-4433-9FD7-FF61BC2B5AE7}"/>
-    <hyperlink ref="AM68" r:id="rId52" xr:uid="{C8678248-A902-4CA2-B0B9-CED7B16369D3}"/>
+    <hyperlink ref="AM14" r:id="rId30" xr:uid="{77E6F105-7C9C-4BBE-BC32-9865E61D64A1}"/>
+    <hyperlink ref="AM19" r:id="rId31" xr:uid="{C4701D21-0498-4442-B643-2E25CB50990A}"/>
+    <hyperlink ref="AM17" r:id="rId32" xr:uid="{0BCC611A-9979-40E3-8E3F-DA2BC0CB01D6}"/>
+    <hyperlink ref="AM13" r:id="rId33" xr:uid="{EACE5C41-0C0D-4BDF-82AC-AC120C9EA483}"/>
+    <hyperlink ref="AM15" r:id="rId34" xr:uid="{2BBD3D59-6BB1-4910-BA14-1A0C4E203DD5}"/>
+    <hyperlink ref="AM20" r:id="rId35" xr:uid="{46E8F86E-DD41-4025-AA93-AE0DC1B932D7}"/>
+    <hyperlink ref="AM18" r:id="rId36" xr:uid="{72BD915B-8739-409E-B076-D4B6223E1F85}"/>
+    <hyperlink ref="AM21" r:id="rId37" xr:uid="{B6D97D99-3727-4A14-BA96-62CA9B1D126E}"/>
+    <hyperlink ref="AM22" r:id="rId38" xr:uid="{E6BFB3FC-E0C2-4AB9-8B7D-37864B5B2639}"/>
+    <hyperlink ref="AM39" r:id="rId39" xr:uid="{A144A583-07F6-4E74-B83D-DB080FC95063}"/>
+    <hyperlink ref="AM53" r:id="rId40" xr:uid="{B8E5E098-DAFC-4F59-915D-67654854C08C}"/>
+    <hyperlink ref="AM68" r:id="rId41" xr:uid="{6A483FD9-A730-470D-8BB4-7563B73C5F22}"/>
+    <hyperlink ref="AM55" r:id="rId42" xr:uid="{0852BD17-FEBC-4C90-BC41-51EF18921968}"/>
+    <hyperlink ref="AM54" r:id="rId43" xr:uid="{2CD092AE-CCA9-49BF-B636-86CCF5CBA600}"/>
+    <hyperlink ref="AM63" r:id="rId44" xr:uid="{EAFCC6B0-8F42-4FC5-AE81-08EFC1ACBCCB}"/>
+    <hyperlink ref="AM70" r:id="rId45" xr:uid="{E2B11D66-C39C-43ED-AEC9-ED9018895277}"/>
+    <hyperlink ref="AM66" r:id="rId46" xr:uid="{F495FAFE-1D64-49A8-9344-0C958BF6D6EF}"/>
+    <hyperlink ref="AM34" r:id="rId47" xr:uid="{83006F78-63E9-428D-AA89-120CED24B77F}"/>
+    <hyperlink ref="AM35" r:id="rId48" xr:uid="{65BA677C-692A-4DCF-ABF8-D6F6B4515994}"/>
+    <hyperlink ref="AM64" r:id="rId49" location=":~:text=%20The%20Workplace%20Hazardous%20Materials%20Information%20System%20%28,2%20reduce%20workplace%20injuries%20and%20illnesses%20More%20" xr:uid="{CBBC4667-ECFC-4594-AF5E-4E1F721F06D0}"/>
+    <hyperlink ref="AM65" r:id="rId50" xr:uid="{EFC22D1A-6836-4A2C-8CB5-551BB51C94CD}"/>
+    <hyperlink ref="AM12" r:id="rId51" xr:uid="{FF99D603-EE9D-4433-9FD7-FF61BC2B5AE7}"/>
+    <hyperlink ref="AM69" r:id="rId52" xr:uid="{C8678248-A902-4CA2-B0B9-CED7B16369D3}"/>
     <hyperlink ref="AM6" r:id="rId53" xr:uid="{69726CB3-4CE8-4F84-87EE-906350B664EE}"/>
-    <hyperlink ref="AM47" r:id="rId54" xr:uid="{0F483678-6F3B-4AF7-BF13-2B6F1FE774B1}"/>
-    <hyperlink ref="AM71" r:id="rId55" xr:uid="{D4E19C42-A31E-461A-8B15-464145BC3467}"/>
-    <hyperlink ref="AM72" r:id="rId56" xr:uid="{2A979FFF-8407-4852-A82E-1E12B12B9680}"/>
-    <hyperlink ref="AG53" r:id="rId57" xr:uid="{D2DA6B5A-03AB-4990-9F5B-48601F8634FF}"/>
-    <hyperlink ref="AG52" r:id="rId58" xr:uid="{0851515A-A733-41D7-9962-972E915D322B}"/>
-    <hyperlink ref="AM53" r:id="rId59" xr:uid="{4B2FF046-8623-4E5F-AE94-8D8D31C98AB2}"/>
-    <hyperlink ref="AI53" r:id="rId60" xr:uid="{AF6FBCD4-FF22-40D8-BD83-ADA10F090F49}"/>
-    <hyperlink ref="AM46" r:id="rId61" xr:uid="{D1CDC002-2E78-47DD-8D9C-DB1FB3B674D8}"/>
-    <hyperlink ref="AG47" r:id="rId62" xr:uid="{FF1EE08C-2F93-4B09-B2DA-900FED43DEDD}"/>
-    <hyperlink ref="AK53" r:id="rId63" xr:uid="{F5AF8818-5360-432D-A278-FCE0104015B6}"/>
-    <hyperlink ref="AG45" r:id="rId64" xr:uid="{2F9E9AED-078E-4E7B-971E-51B300F1E3D5}"/>
-    <hyperlink ref="AI45" r:id="rId65" xr:uid="{1C12C9EE-0375-4080-8525-973EAF077264}"/>
-    <hyperlink ref="AM45" r:id="rId66" xr:uid="{05B030EA-7D96-4D4D-9598-BDD0645194D5}"/>
-    <hyperlink ref="AM39" r:id="rId67" xr:uid="{07EADCBE-9A9D-4EED-BAFB-6D78BC1839E9}"/>
+    <hyperlink ref="AM46" r:id="rId54" xr:uid="{0F483678-6F3B-4AF7-BF13-2B6F1FE774B1}"/>
+    <hyperlink ref="AM72" r:id="rId55" xr:uid="{D4E19C42-A31E-461A-8B15-464145BC3467}"/>
+    <hyperlink ref="AM73" r:id="rId56" xr:uid="{2A979FFF-8407-4852-A82E-1E12B12B9680}"/>
+    <hyperlink ref="AG52" r:id="rId57" xr:uid="{D2DA6B5A-03AB-4990-9F5B-48601F8634FF}"/>
+    <hyperlink ref="AG51" r:id="rId58" xr:uid="{0851515A-A733-41D7-9962-972E915D322B}"/>
+    <hyperlink ref="AM52" r:id="rId59" xr:uid="{4B2FF046-8623-4E5F-AE94-8D8D31C98AB2}"/>
+    <hyperlink ref="AI52" r:id="rId60" xr:uid="{AF6FBCD4-FF22-40D8-BD83-ADA10F090F49}"/>
+    <hyperlink ref="AM45" r:id="rId61" xr:uid="{D1CDC002-2E78-47DD-8D9C-DB1FB3B674D8}"/>
+    <hyperlink ref="AG46" r:id="rId62" xr:uid="{FF1EE08C-2F93-4B09-B2DA-900FED43DEDD}"/>
+    <hyperlink ref="AK52" r:id="rId63" xr:uid="{F5AF8818-5360-432D-A278-FCE0104015B6}"/>
+    <hyperlink ref="AG44" r:id="rId64" xr:uid="{2F9E9AED-078E-4E7B-971E-51B300F1E3D5}"/>
+    <hyperlink ref="AI44" r:id="rId65" xr:uid="{1C12C9EE-0375-4080-8525-973EAF077264}"/>
+    <hyperlink ref="AM44" r:id="rId66" xr:uid="{05B030EA-7D96-4D4D-9598-BDD0645194D5}"/>
+    <hyperlink ref="AM37" r:id="rId67" xr:uid="{07EADCBE-9A9D-4EED-BAFB-6D78BC1839E9}"/>
+    <hyperlink ref="AM43" r:id="rId68" xr:uid="{96087071-4009-4CE1-9AC1-323355268DE6}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId68"/>
+  <pageSetup orientation="landscape" r:id="rId69"/>
   <tableParts count="1">
-    <tablePart r:id="rId69"/>
+    <tablePart r:id="rId70"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10107,16 +10217,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
@@ -10125,10 +10235,10 @@
         <v>30</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>13</v>
@@ -10139,10 +10249,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>47</v>
@@ -10180,7 +10290,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>189</v>
@@ -10218,7 +10328,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>189</v>
@@ -10256,7 +10366,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>189</v>
@@ -10278,7 +10388,7 @@
         <v>189</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>183</v>
@@ -10366,7 +10476,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>189</v>
@@ -10505,10 +10615,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10520,128 +10630,128 @@
         <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" t="s">
         <v>439</v>
-      </c>
-      <c r="C5" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C7" t="s">
         <v>445</v>
-      </c>
-      <c r="B7" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" t="s">
         <v>453</v>
-      </c>
-      <c r="C10" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/docs/cv_zmm.xlsx
+++ b/docs/cv_zmm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Projects/zacharymilosmoore.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{0DFA3499-E52C-43CC-968B-B04CF84B0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955AF7A1-CD1A-42E2-8EA6-71A8068EBD7B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{0DFA3499-E52C-43CC-968B-B04CF84B0AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D761E1C1-BA86-49A4-A0E1-81CB0E2747CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -715,12 +715,6 @@
     <t>MB</t>
   </si>
   <si>
-    <t>Weston Family Conservation Science Fellowship</t>
-  </si>
-  <si>
-    <t>WFCSF</t>
-  </si>
-  <si>
     <t>Webinar</t>
   </si>
   <si>
@@ -818,9 +812,6 @@
   </si>
   <si>
     <t xml:space="preserve">Developed skills in approaching questions scientifically, researching the current state of knowledge on a topic, and organizing groups to solve problems and complete projects. </t>
-  </si>
-  <si>
-    <t>Awarded Weston Family Conservation Science Fellowship in conjunction with the Nature Conservancy of Canada.</t>
   </si>
   <si>
     <t xml:space="preserve">Staff in a retail operation servicing universities and hospitals with laboratory and medical supplies. </t>
@@ -1673,6 +1664,15 @@
   </si>
   <si>
     <t>Mountain Bluebird Nesting Success in Response to Landscape Structure</t>
+  </si>
+  <si>
+    <t>Conservation Science Fellowship</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>Awarded Conservation Science Fellowship in conjunction with the Nature Conservancy of Canada.</t>
   </si>
 </sst>
 </file>
@@ -1945,20 +1945,423 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="64">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2740,6 +3143,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2767,437 +3184,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3212,7 +3198,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM73" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="cv.table" displayName="cv.table" ref="A1:AM73" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="A1:AM73" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AM73">
     <sortCondition descending="1" ref="E2:E73"/>
@@ -3221,76 +3207,76 @@
     <sortCondition descending="1" ref="I2:I73"/>
   </sortState>
   <tableColumns count="39">
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Title_Acr" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Title_Acr" dataDxfId="52"/>
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="49"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="45">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="29">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="44">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="28">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="43">
       <calculatedColumnFormula>MONTH(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="27">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="42">
       <calculatedColumnFormula>YEAR(cv.table[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="26">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="41">
       <calculatedColumnFormula>IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="22"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="18"/>
-    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="17"/>
-    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="16"/>
-    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="15"/>
-    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="14"/>
-    <tableColumn id="39" xr3:uid="{CDFAF1DD-71C7-4BE5-985F-753C0AC61716}" name="V2_Type" dataDxfId="13"/>
-    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="12"/>
-    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="11"/>
-    <tableColumn id="38" xr3:uid="{70C3692F-FB1A-483A-8240-B37C7497B7B9}" name="V3_Type" dataDxfId="10"/>
-    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="9"/>
-    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="8"/>
-    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="7"/>
-    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="6"/>
-    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="5"/>
-    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="4"/>
-    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="3"/>
-    <tableColumn id="40" xr3:uid="{253CE8A7-249E-41AF-AF8F-0BF5333B36DA}" name="Org_Link" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="39"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="36"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="31"/>
+    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="29"/>
+    <tableColumn id="39" xr3:uid="{CDFAF1DD-71C7-4BE5-985F-753C0AC61716}" name="V2_Type" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="26"/>
+    <tableColumn id="38" xr3:uid="{70C3692F-FB1A-483A-8240-B37C7497B7B9}" name="V3_Type" dataDxfId="25"/>
+    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{FEE44D7E-69A0-4B71-AB66-1461C45267FF}" name="L1" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{21C268AA-32E8-4627-82E0-7A62468157B5}" name="L1_Desc" dataDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{E85C2701-53A9-4B93-B733-9B7CD3138938}" name="L2" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{8E33C990-20D6-41EA-81EB-AF8C09425D76}" name="L2_Desc" dataDxfId="20"/>
+    <tableColumn id="36" xr3:uid="{FF798E68-0DB4-421A-AE12-25569247C412}" name="L3" dataDxfId="19"/>
+    <tableColumn id="37" xr3:uid="{BF4D3938-CF08-433F-8B81-A515F3E1BBB7}" name="L3_Desc" dataDxfId="18"/>
+    <tableColumn id="40" xr3:uid="{253CE8A7-249E-41AF-AF8F-0BF5333B36DA}" name="Org_Link" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="lists.table" displayName="lists.table" ref="A1:L10" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="lists.table" displayName="lists.table" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditations" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Awards" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certifications" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Conferences" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Memberships" dataDxfId="52"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Projects" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="50"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditations" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Awards" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certifications" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Conferences" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Memberships" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Projects" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3612,8 +3598,8 @@
   <dimension ref="A1:AS73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <pane xSplit="3" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3672,10 +3658,10 @@
         <v>79</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>142</v>
@@ -3693,16 +3679,16 @@
         <v>2</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>230</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>147</v>
@@ -3732,52 +3718,52 @@
         <v>9</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>317</v>
-      </c>
       <c r="AM1" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -3794,7 +3780,7 @@
         <v>218</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>141</v>
@@ -3810,7 +3796,7 @@
       </c>
       <c r="J2" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K2" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -3822,18 +3808,18 @@
       </c>
       <c r="M2" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N2" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O2" s="21">
-        <f ca="1">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
-        <v>1.1083483105022836</v>
+        <f t="shared" ref="O2:O33" ca="1" si="0">IF((P2="Days"),((J2-I2+1)),IF(P2="Months",((J2-I2)/30),((J2-I2)/365)))</f>
+        <v>1.3683840680492074</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q2" s="18" t="s">
         <v>219</v>
@@ -3842,26 +3828,26 @@
         <v>220</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="V2" s="26" t="s">
-        <v>256</v>
+        <v>536</v>
       </c>
       <c r="W2" s="26"/>
       <c r="X2" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z2" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18"/>
@@ -3876,7 +3862,7 @@
       <c r="AK2" s="18"/>
       <c r="AL2" s="26"/>
       <c r="AM2" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
@@ -3887,13 +3873,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>43</v>
@@ -3927,7 +3913,7 @@
         <v>2019</v>
       </c>
       <c r="O3" s="21">
-        <f>IF((P3="Days"),((J3-I3+1)),IF(P3="Months",((J3-I3)/30),((J3-I3)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P3" s="18" t="s">
@@ -3940,16 +3926,16 @@
         <v>52</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="W3" s="26"/>
       <c r="X3" s="18"/>
@@ -3968,7 +3954,7 @@
       <c r="AK3" s="18"/>
       <c r="AL3" s="26"/>
       <c r="AM3" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -3985,7 +3971,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>141</v>
@@ -4019,7 +4005,7 @@
         <v>2017</v>
       </c>
       <c r="O4" s="21">
-        <f>IF((P4="Days"),((J4-I4+1)),IF(P4="Months",((J4-I4)/30),((J4-I4)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.5835616438356164</v>
       </c>
       <c r="P4" s="18" t="s">
@@ -4032,16 +4018,16 @@
         <v>52</v>
       </c>
       <c r="S4" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="U4" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="V4" s="26" t="s">
         <v>252</v>
-      </c>
-      <c r="U4" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>254</v>
       </c>
       <c r="W4" s="26"/>
       <c r="X4" s="18"/>
@@ -4060,22 +4046,22 @@
       <c r="AK4" s="18"/>
       <c r="AL4" s="26"/>
       <c r="AM4" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>43</v>
@@ -4091,7 +4077,7 @@
       </c>
       <c r="J5" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K5" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -4103,30 +4089,30 @@
       </c>
       <c r="M5" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N5" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O5" s="21">
-        <f ca="1">IF((P5="Days"),((J5-I5+1)),IF(P5="Months",((J5-I5)/30),((J5-I5)/365)))</f>
-        <v>1.3182377777777825</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4820061612653568</v>
       </c>
       <c r="P5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="R5" s="18" t="s">
         <v>52</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="26"/>
@@ -4147,7 +4133,7 @@
       <c r="AK5" s="18"/>
       <c r="AL5" s="26"/>
       <c r="AM5" s="28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
@@ -4162,7 +4148,7 @@
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>141</v>
@@ -4196,7 +4182,7 @@
         <v>2020</v>
       </c>
       <c r="O6" s="21">
-        <f>IF((P6="Days"),((J6-I6+1)),IF(P6="Months",((J6-I6)/30),((J6-I6)/365)))</f>
+        <f t="shared" si="0"/>
         <v>15.266666666666667</v>
       </c>
       <c r="P6" s="18" t="s">
@@ -4215,13 +4201,13 @@
         <v>156</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="V6" s="26" t="s">
         <v>152</v>
       </c>
       <c r="W6" s="26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
@@ -4239,7 +4225,7 @@
       <c r="AK6" s="18"/>
       <c r="AL6" s="26"/>
       <c r="AM6" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -4252,7 +4238,7 @@
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>95</v>
@@ -4286,7 +4272,7 @@
         <v>2018</v>
       </c>
       <c r="O7" s="21">
-        <f>IF((P7="Days"),((J7-I7+1)),IF(P7="Months",((J7-I7)/30),((J7-I7)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.0666666666666669</v>
       </c>
       <c r="P7" s="18" t="s">
@@ -4305,10 +4291,10 @@
         <v>176</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="V7" s="26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W7" s="26"/>
       <c r="X7" s="18"/>
@@ -4327,7 +4313,7 @@
       <c r="AK7" s="18"/>
       <c r="AL7" s="26"/>
       <c r="AM7" s="28" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
@@ -4340,7 +4326,7 @@
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>43</v>
@@ -4374,7 +4360,7 @@
         <v>2018</v>
       </c>
       <c r="O8" s="21">
-        <f>IF((P8="Days"),((J8-I8+1)),IF(P8="Months",((J8-I8)/30),((J8-I8)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.0333333333333332</v>
       </c>
       <c r="P8" s="18" t="s">
@@ -4387,16 +4373,16 @@
         <v>52</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="W8" s="26"/>
       <c r="X8" s="18"/>
@@ -4415,7 +4401,7 @@
       <c r="AK8" s="18"/>
       <c r="AL8" s="26"/>
       <c r="AM8" s="28" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -4428,7 +4414,7 @@
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>95</v>
@@ -4462,7 +4448,7 @@
         <v>2018</v>
       </c>
       <c r="O9" s="21">
-        <f>IF((P9="Days"),((J9-I9+1)),IF(P9="Months",((J9-I9)/30),((J9-I9)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P9" s="18" t="s">
@@ -4475,13 +4461,13 @@
         <v>52</v>
       </c>
       <c r="S9" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="T9" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="U9" s="18" t="s">
         <v>224</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="U9" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -4501,7 +4487,7 @@
       <c r="AK9" s="18"/>
       <c r="AL9" s="26"/>
       <c r="AM9" s="18" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -4512,11 +4498,11 @@
         <v>18</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>141</v>
@@ -4550,7 +4536,7 @@
         <v>2018</v>
       </c>
       <c r="O10" s="21">
-        <f>IF((P10="Days"),((J10-I10+1)),IF(P10="Months",((J10-I10)/30),((J10-I10)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2.6739726027397261</v>
       </c>
       <c r="P10" s="18" t="s">
@@ -4563,16 +4549,16 @@
         <v>52</v>
       </c>
       <c r="S10" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="T10" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="V10" s="26" t="s">
         <v>245</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="U10" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="V10" s="26" t="s">
-        <v>247</v>
       </c>
       <c r="W10" s="26"/>
       <c r="X10" s="18"/>
@@ -4591,7 +4577,7 @@
       <c r="AK10" s="18"/>
       <c r="AL10" s="26"/>
       <c r="AM10" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
@@ -4606,10 +4592,10 @@
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>30</v>
@@ -4640,7 +4626,7 @@
         <v>2016</v>
       </c>
       <c r="O11" s="21">
-        <f>IF((P11="Days"),((J11-I11+1)),IF(P11="Months",((J11-I11)/30),((J11-I11)/365)))</f>
+        <f t="shared" si="0"/>
         <v>3.6684931506849314</v>
       </c>
       <c r="P11" s="18" t="s">
@@ -4653,16 +4639,16 @@
         <v>52</v>
       </c>
       <c r="S11" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="V11" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="W11" s="26" t="s">
         <v>106</v>
@@ -4696,7 +4682,7 @@
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>141</v>
@@ -4712,7 +4698,7 @@
       </c>
       <c r="J12" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K12" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -4724,15 +4710,15 @@
       </c>
       <c r="M12" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N12" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O12" s="21">
-        <f ca="1">IF((P12="Days"),((J12-I12+1)),IF(P12="Months",((J12-I12)/30),((J12-I12)/365)))</f>
-        <v>20.584904444444451</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23.748672827932022</v>
       </c>
       <c r="P12" s="18" t="s">
         <v>27</v>
@@ -4768,7 +4754,7 @@
       <c r="AK12" s="18"/>
       <c r="AL12" s="26"/>
       <c r="AM12" s="28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -4782,10 +4768,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>43</v>
@@ -4801,7 +4787,7 @@
       </c>
       <c r="J13" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K13" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -4813,28 +4799,28 @@
       </c>
       <c r="M13" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N13" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O13" s="21">
-        <f ca="1">IF((P13="Days"),((J13-I13+1)),IF(P13="Months",((J13-I13)/30),((J13-I13)/365)))</f>
-        <v>25.018237777777781</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.182006161265356</v>
       </c>
       <c r="P13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q13" s="18"/>
       <c r="R13" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S13" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="U13" s="18"/>
       <c r="V13" s="26"/>
@@ -4855,7 +4841,7 @@
       <c r="AK13" s="18"/>
       <c r="AL13" s="26"/>
       <c r="AM13" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
@@ -4868,10 +4854,10 @@
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G14" s="18" t="s">
         <v>13</v>
@@ -4902,7 +4888,7 @@
         <v>2020</v>
       </c>
       <c r="O14" s="21">
-        <f>IF((P14="Days"),((J14-I14+1)),IF(P14="Months",((J14-I14)/30),((J14-I14)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.0333333333333334</v>
       </c>
       <c r="P14" s="18" t="s">
@@ -4922,7 +4908,7 @@
       </c>
       <c r="U14" s="18"/>
       <c r="V14" s="26" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="W14" s="26"/>
       <c r="X14" s="18"/>
@@ -4941,7 +4927,7 @@
       <c r="AK14" s="18"/>
       <c r="AL14" s="26"/>
       <c r="AM14" s="28" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -4958,7 +4944,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>43</v>
@@ -4992,7 +4978,7 @@
         <v>2020</v>
       </c>
       <c r="O15" s="21">
-        <f>IF((P15="Days"),((J15-I15+1)),IF(P15="Months",((J15-I15)/30),((J15-I15)/365)))</f>
+        <f t="shared" si="0"/>
         <v>11.2</v>
       </c>
       <c r="P15" s="18" t="s">
@@ -5029,7 +5015,7 @@
       <c r="AK15" s="18"/>
       <c r="AL15" s="26"/>
       <c r="AM15" s="28" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5042,7 +5028,7 @@
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>179</v>
@@ -5076,7 +5062,7 @@
         <v>2020</v>
       </c>
       <c r="O16" s="21">
-        <f>IF((P16="Days"),((J16-I16+1)),IF(P16="Months",((J16-I16)/30),((J16-I16)/365)))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="P16" s="18" t="s">
@@ -5089,7 +5075,7 @@
         <v>48</v>
       </c>
       <c r="S16" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
@@ -5111,7 +5097,7 @@
       <c r="AK16" s="18"/>
       <c r="AL16" s="26"/>
       <c r="AM16" s="28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5124,7 +5110,7 @@
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>43</v>
@@ -5158,7 +5144,7 @@
         <v>2019</v>
       </c>
       <c r="O17" s="21">
-        <f>IF((P17="Days"),((J17-I17+1)),IF(P17="Months",((J17-I17)/30),((J17-I17)/365)))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="P17" s="18" t="s">
@@ -5171,7 +5157,7 @@
         <v>57</v>
       </c>
       <c r="S17" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T17" s="18"/>
       <c r="U17" s="18" t="s">
@@ -5195,7 +5181,7 @@
       <c r="AK17" s="18"/>
       <c r="AL17" s="26"/>
       <c r="AM17" s="28" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5210,7 +5196,7 @@
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>43</v>
@@ -5244,7 +5230,7 @@
         <v>2019</v>
       </c>
       <c r="O18" s="21">
-        <f>IF((P18="Days"),((J18-I18+1)),IF(P18="Months",((J18-I18)/30),((J18-I18)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P18" s="18" t="s">
@@ -5257,10 +5243,10 @@
         <v>48</v>
       </c>
       <c r="S18" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="U18" s="18"/>
       <c r="V18" s="26"/>
@@ -5281,7 +5267,7 @@
       <c r="AK18" s="18"/>
       <c r="AL18" s="26"/>
       <c r="AM18" s="28" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5294,10 +5280,10 @@
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>13</v>
@@ -5328,7 +5314,7 @@
         <v>2019</v>
       </c>
       <c r="O19" s="21">
-        <f>IF((P19="Days"),((J19-I19+1)),IF(P19="Months",((J19-I19)/30),((J19-I19)/365)))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="P19" s="18" t="s">
@@ -5341,14 +5327,14 @@
         <v>48</v>
       </c>
       <c r="S19" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="U19" s="18"/>
       <c r="V19" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="W19" s="26"/>
       <c r="X19" s="18"/>
@@ -5367,7 +5353,7 @@
       <c r="AK19" s="18"/>
       <c r="AL19" s="26"/>
       <c r="AM19" s="28" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -5384,7 +5370,7 @@
         <v>40</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>43</v>
@@ -5418,7 +5404,7 @@
         <v>2019</v>
       </c>
       <c r="O20" s="21">
-        <f>IF((P20="Days"),((J20-I20+1)),IF(P20="Months",((J20-I20)/30),((J20-I20)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P20" s="18" t="s">
@@ -5431,17 +5417,17 @@
         <v>52</v>
       </c>
       <c r="S20" s="18" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T20" s="18" t="s">
         <v>210</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="V20" s="26"/>
       <c r="W20" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
@@ -5459,12 +5445,12 @@
       <c r="AK20" s="18"/>
       <c r="AL20" s="26"/>
       <c r="AM20" s="28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="19" t="s">
@@ -5472,7 +5458,7 @@
       </c>
       <c r="D21" s="27"/>
       <c r="E21" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>43</v>
@@ -5506,7 +5492,7 @@
         <v>2019</v>
       </c>
       <c r="O21" s="21">
-        <f>IF((P21="Days"),((J21-I21+1)),IF(P21="Months",((J21-I21)/30),((J21-I21)/365)))</f>
+        <f t="shared" si="0"/>
         <v>0.61643835616438358</v>
       </c>
       <c r="P21" s="18" t="s">
@@ -5545,7 +5531,7 @@
       <c r="AK21" s="18"/>
       <c r="AL21" s="26"/>
       <c r="AM21" s="28" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5558,7 +5544,7 @@
       </c>
       <c r="D22" s="27"/>
       <c r="E22" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>95</v>
@@ -5592,7 +5578,7 @@
         <v>2017</v>
       </c>
       <c r="O22" s="21">
-        <f>IF((P22="Days"),((J22-I22+1)),IF(P22="Months",((J22-I22)/30),((J22-I22)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.1643835616438356</v>
       </c>
       <c r="P22" s="18" t="s">
@@ -5605,10 +5591,10 @@
         <v>52</v>
       </c>
       <c r="S22" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="U22" s="18"/>
       <c r="V22" s="26"/>
@@ -5629,7 +5615,7 @@
       <c r="AK22" s="18"/>
       <c r="AL22" s="26"/>
       <c r="AM22" s="28" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5640,11 +5626,11 @@
         <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D23" s="27"/>
       <c r="E23" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>141</v>
@@ -5678,7 +5664,7 @@
         <v>2015</v>
       </c>
       <c r="O23" s="21">
-        <f>IF((P23="Days"),((J23-I23+1)),IF(P23="Months",((J23-I23)/30),((J23-I23)/365)))</f>
+        <f t="shared" si="0"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P23" s="18" t="s">
@@ -5691,7 +5677,7 @@
         <v>52</v>
       </c>
       <c r="S23" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
@@ -5713,7 +5699,7 @@
       <c r="AK23" s="18"/>
       <c r="AL23" s="26"/>
       <c r="AM23" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -5730,13 +5716,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>47</v>
@@ -5746,7 +5732,7 @@
       </c>
       <c r="J24" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K24" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5758,25 +5744,25 @@
       </c>
       <c r="M24" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N24" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O24" s="21">
-        <f ca="1">IF((P24="Days"),((J24-I24+1)),IF(P24="Months",((J24-I24)/30),((J24-I24)/365)))</f>
-        <v>1.4453346118721464</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7053703694190705</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="18"/>
       <c r="R24" s="18" t="s">
         <v>48</v>
       </c>
       <c r="S24" s="18" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
@@ -5798,7 +5784,7 @@
       <c r="AK24" s="18"/>
       <c r="AL24" s="26"/>
       <c r="AM24" s="28" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -5815,13 +5801,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>47</v>
@@ -5831,7 +5817,7 @@
       </c>
       <c r="J25" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K25" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -5843,15 +5829,15 @@
       </c>
       <c r="M25" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N25" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O25" s="21">
-        <f ca="1">IF((P25="Days"),((J25-I25+1)),IF(P25="Months",((J25-I25)/30),((J25-I25)/365)))</f>
-        <v>2.5302661187214617</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7903018762683853</v>
       </c>
       <c r="P25" s="18" t="s">
         <v>28</v>
@@ -5861,7 +5847,7 @@
         <v>130</v>
       </c>
       <c r="S25" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
@@ -5883,7 +5869,7 @@
       <c r="AK25" s="18"/>
       <c r="AL25" s="26"/>
       <c r="AM25" s="28" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -5894,19 +5880,19 @@
         <v>45</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>221</v>
+        <v>534</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>222</v>
+        <v>535</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H26" s="26" t="s">
         <v>184</v>
@@ -5934,7 +5920,7 @@
         <v>2022</v>
       </c>
       <c r="O26" s="21">
-        <f>IF((P26="Days"),((J26-I26+1)),IF(P26="Months",((J26-I26)/30),((J26-I26)/365)))</f>
+        <f t="shared" si="0"/>
         <v>1.6602739726027398</v>
       </c>
       <c r="P26" s="18" t="s">
@@ -5947,7 +5933,7 @@
         <v>220</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
@@ -5969,30 +5955,30 @@
       <c r="AK26" s="18"/>
       <c r="AL26" s="26"/>
       <c r="AM26" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>184</v>
@@ -6020,7 +6006,7 @@
         <v>2017</v>
       </c>
       <c r="O27" s="21">
-        <f>IF((P27="Days"),((J27-I27+1)),IF(P27="Months",((J27-I27)/30),((J27-I27)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P27" s="18" t="s">
@@ -6033,7 +6019,7 @@
         <v>52</v>
       </c>
       <c r="S27" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
@@ -6055,30 +6041,30 @@
       <c r="AK27" s="18"/>
       <c r="AL27" s="26"/>
       <c r="AM27" s="28" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>184</v>
@@ -6106,7 +6092,7 @@
         <v>2016</v>
       </c>
       <c r="O28" s="21">
-        <f>IF((P28="Days"),((J28-I28+1)),IF(P28="Months",((J28-I28)/30),((J28-I28)/365)))</f>
+        <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P28" s="18" t="s">
@@ -6119,7 +6105,7 @@
         <v>52</v>
       </c>
       <c r="S28" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
@@ -6141,12 +6127,12 @@
       <c r="AK28" s="18"/>
       <c r="AL28" s="26"/>
       <c r="AM28" s="28" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="19" t="s">
@@ -6156,13 +6142,13 @@
         <v>109</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H29" s="26" t="s">
         <v>107</v>
@@ -6171,8 +6157,8 @@
         <v>43734</v>
       </c>
       <c r="J29" s="24">
-        <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <f t="shared" ref="J29:J34" ca="1" si="1">NOW()</f>
+        <v>44574.460184837961</v>
       </c>
       <c r="K29" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6184,15 +6170,15 @@
       </c>
       <c r="M29" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N29" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O29" s="21">
-        <f ca="1">IF((P29="Days"),((J29-I29+1)),IF(P29="Months",((J29-I29)/30),((J29-I29)/365)))</f>
-        <v>24.851571111111117</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28.015339494598688</v>
       </c>
       <c r="P29" s="18" t="s">
         <v>27</v>
@@ -6202,7 +6188,7 @@
         <v>130</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
@@ -6224,7 +6210,7 @@
       <c r="AK29" s="18"/>
       <c r="AL29" s="26"/>
       <c r="AM29" s="28" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -6233,19 +6219,19 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>116</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H30" s="26" t="s">
         <v>107</v>
@@ -6254,8 +6240,8 @@
         <v>43466</v>
       </c>
       <c r="J30" s="24">
-        <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44574.460184837961</v>
       </c>
       <c r="K30" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6267,15 +6253,15 @@
       </c>
       <c r="M30" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N30" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O30" s="21">
-        <f ca="1">IF((P30="Days"),((J30-I30+1)),IF(P30="Months",((J30-I30)/30),((J30-I30)/365)))</f>
-        <v>33.78490444444445</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36.948672827932022</v>
       </c>
       <c r="P30" s="18" t="s">
         <v>27</v>
@@ -6285,7 +6271,7 @@
         <v>130</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
@@ -6307,7 +6293,7 @@
       <c r="AK30" s="18"/>
       <c r="AL30" s="26"/>
       <c r="AM30" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -6322,13 +6308,13 @@
         <v>115</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H31" s="26" t="s">
         <v>107</v>
@@ -6337,8 +6323,8 @@
         <v>43435</v>
       </c>
       <c r="J31" s="24">
-        <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44574.460184837961</v>
       </c>
       <c r="K31" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6350,15 +6336,15 @@
       </c>
       <c r="M31" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N31" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O31" s="21">
-        <f ca="1">IF((P31="Days"),((J31-I31+1)),IF(P31="Months",((J31-I31)/30),((J31-I31)/365)))</f>
-        <v>34.818237777777782</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>37.982006161265353</v>
       </c>
       <c r="P31" s="18" t="s">
         <v>27</v>
@@ -6368,7 +6354,7 @@
         <v>52</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
@@ -6390,7 +6376,7 @@
       <c r="AK31" s="18"/>
       <c r="AL31" s="26"/>
       <c r="AM31" s="28" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -6405,13 +6391,13 @@
         <v>124</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H32" s="26" t="s">
         <v>135</v>
@@ -6420,8 +6406,8 @@
         <v>43374</v>
       </c>
       <c r="J32" s="24">
-        <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44574.460184837961</v>
       </c>
       <c r="K32" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6433,15 +6419,15 @@
       </c>
       <c r="M32" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N32" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O32" s="21">
-        <f ca="1">IF((P32="Days"),((J32-I32+1)),IF(P32="Months",((J32-I32)/30),((J32-I32)/365)))</f>
-        <v>36.851571111111113</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.015339494598692</v>
       </c>
       <c r="P32" s="18" t="s">
         <v>27</v>
@@ -6451,7 +6437,7 @@
         <v>130</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
@@ -6473,7 +6459,7 @@
       <c r="AK32" s="18"/>
       <c r="AL32" s="26"/>
       <c r="AM32" s="28" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -6486,13 +6472,13 @@
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H33" s="26" t="s">
         <v>107</v>
@@ -6501,8 +6487,8 @@
         <v>43374</v>
       </c>
       <c r="J33" s="24">
-        <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44574.460184837961</v>
       </c>
       <c r="K33" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6514,15 +6500,15 @@
       </c>
       <c r="M33" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N33" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O33" s="21">
-        <f ca="1">IF((P33="Days"),((J33-I33+1)),IF(P33="Months",((J33-I33)/30),((J33-I33)/365)))</f>
-        <v>36.851571111111113</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40.015339494598692</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>27</v>
@@ -6532,7 +6518,7 @@
         <v>130</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
@@ -6554,12 +6540,12 @@
       <c r="AK33" s="18"/>
       <c r="AL33" s="26"/>
       <c r="AM33" s="28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="19" t="s">
@@ -6567,13 +6553,13 @@
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H34" s="26" t="s">
         <v>135</v>
@@ -6582,8 +6568,8 @@
         <v>41091</v>
       </c>
       <c r="J34" s="24">
-        <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44574.460184837961</v>
       </c>
       <c r="K34" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -6595,15 +6581,15 @@
       </c>
       <c r="M34" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N34" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O34" s="21">
-        <f ca="1">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
-        <v>9.2836907762557086</v>
+        <f t="shared" ref="O34:O65" ca="1" si="2">IF((P34="Days"),((J34-I34+1)),IF(P34="Months",((J34-I34)/30),((J34-I34)/365)))</f>
+        <v>9.5437265338026318</v>
       </c>
       <c r="P34" s="18" t="s">
         <v>28</v>
@@ -6613,7 +6599,7 @@
         <v>52</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
@@ -6635,7 +6621,7 @@
       <c r="AK34" s="18"/>
       <c r="AL34" s="26"/>
       <c r="AM34" s="28" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -6650,13 +6636,13 @@
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H35" s="26" t="s">
         <v>107</v>
@@ -6684,7 +6670,7 @@
         <v>2020</v>
       </c>
       <c r="O35" s="21">
-        <f>IF((P35="Days"),((J35-I35+1)),IF(P35="Months",((J35-I35)/30),((J35-I35)/365)))</f>
+        <f t="shared" si="2"/>
         <v>2.0027397260273974</v>
       </c>
       <c r="P35" s="18" t="s">
@@ -6695,7 +6681,7 @@
         <v>130</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
@@ -6717,7 +6703,7 @@
       <c r="AK35" s="18"/>
       <c r="AL35" s="26"/>
       <c r="AM35" s="28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -6726,17 +6712,17 @@
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="19" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D36" s="27"/>
       <c r="E36" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H36" s="26" t="s">
         <v>135</v>
@@ -6764,7 +6750,7 @@
         <v>2019</v>
       </c>
       <c r="O36" s="21">
-        <f>IF((P36="Days"),((J36-I36+1)),IF(P36="Months",((J36-I36)/30),((J36-I36)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P36" s="18" t="s">
@@ -6777,7 +6763,7 @@
         <v>48</v>
       </c>
       <c r="S36" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
@@ -6799,12 +6785,12 @@
       <c r="AK36" s="18"/>
       <c r="AL36" s="26"/>
       <c r="AM36" s="28" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="19" t="s">
@@ -6814,13 +6800,13 @@
         <v>127</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H37" s="26" t="s">
         <v>135</v>
@@ -6848,7 +6834,7 @@
         <v>2018</v>
       </c>
       <c r="O37" s="21">
-        <f>IF((P37="Days"),((J37-I37+1)),IF(P37="Months",((J37-I37)/30),((J37-I37)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P37" s="18" t="s">
@@ -6861,7 +6847,7 @@
         <v>52</v>
       </c>
       <c r="S37" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
@@ -6883,7 +6869,7 @@
       <c r="AK37" s="18"/>
       <c r="AL37" s="26"/>
       <c r="AM37" s="28" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -6894,17 +6880,17 @@
         <v>15</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H38" s="26" t="s">
         <v>101</v>
@@ -6932,7 +6918,7 @@
         <v>2021</v>
       </c>
       <c r="O38" s="21">
-        <f>IF((P38="Days"),((J38-I38+1)),IF(P38="Months",((J38-I38)/30),((J38-I38)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P38" s="18" t="s">
@@ -6940,25 +6926,25 @@
       </c>
       <c r="Q38" s="18"/>
       <c r="R38" s="18" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="T38" s="18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="U38" s="18"/>
       <c r="V38" s="26"/>
       <c r="W38" s="26"/>
       <c r="X38" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Y38" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z38" s="26" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AA38" s="18"/>
       <c r="AB38" s="18"/>
@@ -6986,13 +6972,13 @@
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H39" s="26" t="s">
         <v>101</v>
@@ -7020,7 +7006,7 @@
         <v>2019</v>
       </c>
       <c r="O39" s="21">
-        <f>IF((P39="Days"),((J39-I39+1)),IF(P39="Months",((J39-I39)/30),((J39-I39)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P39" s="18" t="s">
@@ -7033,14 +7019,14 @@
         <v>52</v>
       </c>
       <c r="S39" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="T39" s="18" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="U39" s="18"/>
       <c r="V39" s="26" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="W39" s="26"/>
       <c r="X39" s="18"/>
@@ -7059,7 +7045,7 @@
       <c r="AK39" s="18"/>
       <c r="AL39" s="26"/>
       <c r="AM39" s="28" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -7070,17 +7056,17 @@
         <v>18</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H40" s="26" t="s">
         <v>101</v>
@@ -7108,7 +7094,7 @@
         <v>2017</v>
       </c>
       <c r="O40" s="21">
-        <f>IF((P40="Days"),((J40-I40+1)),IF(P40="Months",((J40-I40)/30),((J40-I40)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P40" s="18" t="s">
@@ -7121,24 +7107,24 @@
         <v>52</v>
       </c>
       <c r="S40" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="T40" s="18" t="s">
         <v>513</v>
-      </c>
-      <c r="T40" s="18" t="s">
-        <v>516</v>
       </c>
       <c r="U40" s="18"/>
       <c r="V40" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="W40" s="26"/>
       <c r="X40" s="18" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Y40" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z40" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AA40" s="18"/>
       <c r="AB40" s="18"/>
@@ -7153,7 +7139,7 @@
       <c r="AK40" s="18"/>
       <c r="AL40" s="26"/>
       <c r="AM40" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -7164,17 +7150,17 @@
         <v>18</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F41" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H41" s="26" t="s">
         <v>101</v>
@@ -7202,7 +7188,7 @@
         <v>2016</v>
       </c>
       <c r="O41" s="21">
-        <f>IF((P41="Days"),((J41-I41+1)),IF(P41="Months",((J41-I41)/30),((J41-I41)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P41" s="18" t="s">
@@ -7215,22 +7201,22 @@
         <v>52</v>
       </c>
       <c r="S41" s="18" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="T41" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="U41" s="18"/>
       <c r="V41" s="26"/>
       <c r="W41" s="26"/>
       <c r="X41" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y41" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z41" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AA41" s="18"/>
       <c r="AB41" s="18"/>
@@ -7245,7 +7231,7 @@
       <c r="AK41" s="18"/>
       <c r="AL41" s="26"/>
       <c r="AM41" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -7260,13 +7246,13 @@
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H42" s="26" t="s">
         <v>101</v>
@@ -7294,7 +7280,7 @@
         <v>2016</v>
       </c>
       <c r="O42" s="21">
-        <f>IF((P42="Days"),((J42-I42+1)),IF(P42="Months",((J42-I42)/30),((J42-I42)/365)))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P42" s="18" t="s">
@@ -7307,22 +7293,22 @@
         <v>52</v>
       </c>
       <c r="S42" s="18" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="T42" s="18" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="U42" s="18"/>
       <c r="V42" s="26"/>
       <c r="W42" s="26"/>
       <c r="X42" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="Y42" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z42" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AA42" s="18"/>
       <c r="AB42" s="18"/>
@@ -7337,10 +7323,10 @@
       <c r="AK42" s="18"/>
       <c r="AL42" s="26"/>
       <c r="AM42" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:39" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>164</v>
       </c>
@@ -7348,27 +7334,27 @@
         <v>165</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I43" s="24">
         <v>44440</v>
       </c>
       <c r="J43" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K43" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7380,15 +7366,15 @@
       </c>
       <c r="M43" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N43" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O43" s="21">
-        <f ca="1">IF((P43="Days"),((J43-I43+1)),IF(P43="Months",((J43-I43)/30),((J43-I43)/365)))</f>
-        <v>1.3182377777777825</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4820061612653568</v>
       </c>
       <c r="P43" s="18" t="s">
         <v>27</v>
@@ -7400,10 +7386,10 @@
         <v>48</v>
       </c>
       <c r="S43" s="18" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="T43" s="18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="U43" s="18"/>
       <c r="V43" s="26"/>
@@ -7424,10 +7410,10 @@
       <c r="AK43" s="18"/>
       <c r="AL43" s="26"/>
       <c r="AM43" s="28" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>215</v>
       </c>
@@ -7435,17 +7421,17 @@
         <v>216</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H44" s="26" t="s">
         <v>190</v>
@@ -7455,7 +7441,7 @@
       </c>
       <c r="J44" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K44" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7467,15 +7453,15 @@
       </c>
       <c r="M44" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N44" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O44" s="21">
-        <f ca="1">IF((P44="Days"),((J44-I44+1)),IF(P44="Months",((J44-I44)/30),((J44-I44)/365)))</f>
-        <v>13.484904444444449</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>16.648672827932025</v>
       </c>
       <c r="P44" s="18" t="s">
         <v>27</v>
@@ -7487,24 +7473,24 @@
         <v>220</v>
       </c>
       <c r="S44" s="18" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="T44" s="18" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="U44" s="18" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="V44" s="26"/>
       <c r="W44" s="26"/>
       <c r="X44" s="18" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Y44" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z44" s="26" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
@@ -7513,24 +7499,24 @@
       <c r="AE44" s="18"/>
       <c r="AF44" s="26"/>
       <c r="AG44" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH44" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="AI44" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="AJ44" s="26" t="s">
         <v>477</v>
-      </c>
-      <c r="AH44" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI44" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ44" s="26" t="s">
-        <v>480</v>
       </c>
       <c r="AK44" s="18"/>
       <c r="AL44" s="26"/>
       <c r="AM44" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
         <v>215</v>
       </c>
@@ -7538,17 +7524,17 @@
         <v>216</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H45" s="26" t="s">
         <v>190</v>
@@ -7558,7 +7544,7 @@
       </c>
       <c r="J45" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K45" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7570,15 +7556,15 @@
       </c>
       <c r="M45" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N45" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O45" s="21">
-        <f ca="1">IF((P45="Days"),((J45-I45+1)),IF(P45="Months",((J45-I45)/30),((J45-I45)/365)))</f>
-        <v>15.551571111111116</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18.715339494598691</v>
       </c>
       <c r="P45" s="18" t="s">
         <v>27</v>
@@ -7590,26 +7576,26 @@
         <v>48</v>
       </c>
       <c r="S45" s="18" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="T45" s="18" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="U45" s="18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="V45" s="26" t="s">
-        <v>256</v>
+        <v>536</v>
       </c>
       <c r="W45" s="26"/>
       <c r="X45" s="18" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="Y45" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z45" s="26" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="AA45" s="18"/>
       <c r="AB45" s="18"/>
@@ -7624,10 +7610,10 @@
       <c r="AK45" s="18"/>
       <c r="AL45" s="26"/>
       <c r="AM45" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="46" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
         <v>10</v>
       </c>
@@ -7635,27 +7621,27 @@
         <v>15</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I46" s="24">
         <v>43862</v>
       </c>
       <c r="J46" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K46" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -7667,44 +7653,44 @@
       </c>
       <c r="M46" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N46" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O46" s="21">
-        <f ca="1">IF((P46="Days"),((J46-I46+1)),IF(P46="Months",((J46-I46)/30),((J46-I46)/365)))</f>
-        <v>20.584904444444451</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>23.748672827932022</v>
       </c>
       <c r="P46" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q46" s="18"/>
       <c r="R46" s="18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S46" s="18" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T46" s="18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="U46" s="18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="V46" s="26" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="W46" s="26"/>
       <c r="X46" s="18" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Y46" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z46" s="26" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AA46" s="18"/>
       <c r="AB46" s="18"/>
@@ -7713,38 +7699,38 @@
       <c r="AE46" s="18"/>
       <c r="AF46" s="26"/>
       <c r="AG46" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AH46" s="26" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AI46" s="18"/>
       <c r="AJ46" s="26"/>
       <c r="AK46" s="18"/>
       <c r="AL46" s="26"/>
       <c r="AM46" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>30</v>
@@ -7772,39 +7758,39 @@
         <v>2021</v>
       </c>
       <c r="O47" s="21">
-        <f>IF((P47="Days"),((J47-I47+1)),IF(P47="Months",((J47-I47)/30),((J47-I47)/365)))</f>
+        <f t="shared" si="2"/>
         <v>3.6333333333333333</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>27</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="R47" s="18" t="s">
         <v>83</v>
       </c>
       <c r="S47" s="18" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="T47" s="18" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="U47" s="18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V47" s="26" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="W47" s="26"/>
       <c r="X47" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Y47" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z47" s="26" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AA47" s="18"/>
       <c r="AB47" s="18"/>
@@ -7813,17 +7799,17 @@
       <c r="AE47" s="18"/>
       <c r="AF47" s="26"/>
       <c r="AG47" s="18" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AH47" s="26" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AI47" s="18"/>
       <c r="AJ47" s="26"/>
       <c r="AK47" s="18"/>
       <c r="AL47" s="26"/>
       <c r="AM47" s="28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
@@ -7834,17 +7820,17 @@
         <v>45</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>30</v>
@@ -7872,7 +7858,7 @@
         <v>2020</v>
       </c>
       <c r="O48" s="21">
-        <f>IF((P48="Days"),((J48-I48+1)),IF(P48="Months",((J48-I48)/30),((J48-I48)/365)))</f>
+        <f t="shared" si="2"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="P48" s="18" t="s">
@@ -7888,23 +7874,23 @@
         <v>201</v>
       </c>
       <c r="T48" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U48" s="18" t="s">
         <v>202</v>
       </c>
       <c r="V48" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="W48" s="26"/>
       <c r="X48" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Y48" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z48" s="26" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AA48" s="18"/>
       <c r="AB48" s="18"/>
@@ -7913,36 +7899,36 @@
       <c r="AE48" s="18"/>
       <c r="AF48" s="26"/>
       <c r="AG48" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AH48" s="26" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AI48" s="18"/>
       <c r="AJ48" s="26"/>
       <c r="AK48" s="18"/>
       <c r="AL48" s="26"/>
       <c r="AM48" s="28" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="49" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" s="1" customFormat="1" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>186</v>
@@ -7970,7 +7956,7 @@
         <v>2020</v>
       </c>
       <c r="O49" s="21">
-        <f>IF((P49="Days"),((J49-I49+1)),IF(P49="Months",((J49-I49)/30),((J49-I49)/365)))</f>
+        <f t="shared" si="2"/>
         <v>9.1333333333333329</v>
       </c>
       <c r="P49" s="18" t="s">
@@ -7983,24 +7969,24 @@
         <v>57</v>
       </c>
       <c r="S49" s="18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="T49" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="U49" s="18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="V49" s="26"/>
       <c r="W49" s="26"/>
       <c r="X49" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Y49" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z49" s="26" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AA49" s="18"/>
       <c r="AB49" s="18"/>
@@ -8016,7 +8002,7 @@
       <c r="AL49" s="26"/>
       <c r="AM49" s="19"/>
     </row>
-    <row r="50" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>6</v>
       </c>
@@ -8024,17 +8010,17 @@
         <v>14</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H50" s="26" t="s">
         <v>190</v>
@@ -8062,7 +8048,7 @@
         <v>2019</v>
       </c>
       <c r="O50" s="21">
-        <f>IF((P50="Days"),((J50-I50+1)),IF(P50="Months",((J50-I50)/30),((J50-I50)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P50" s="18" t="s">
@@ -8075,24 +8061,24 @@
         <v>52</v>
       </c>
       <c r="S50" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="T50" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="U50" s="18" t="s">
         <v>419</v>
-      </c>
-      <c r="T50" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="U50" s="18" t="s">
-        <v>422</v>
       </c>
       <c r="V50" s="26"/>
       <c r="W50" s="26"/>
       <c r="X50" s="18" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Y50" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z50" s="26" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AA50" s="18"/>
       <c r="AB50" s="18"/>
@@ -8101,20 +8087,20 @@
       <c r="AE50" s="18"/>
       <c r="AF50" s="26"/>
       <c r="AG50" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AH50" s="26" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AI50" s="18"/>
       <c r="AJ50" s="26"/>
       <c r="AK50" s="18"/>
       <c r="AL50" s="26"/>
       <c r="AM50" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" s="1" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>7</v>
       </c>
@@ -8122,19 +8108,19 @@
         <v>18</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D51" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H51" s="26" t="s">
         <v>190</v>
@@ -8162,11 +8148,11 @@
         <v>2017</v>
       </c>
       <c r="O51" s="21">
-        <f>IF((P51="Days"),((J51-I51+1)),IF(P51="Months",((J51-I51)/30),((J51-I51)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q51" s="18" t="s">
         <v>53</v>
@@ -8175,58 +8161,58 @@
         <v>52</v>
       </c>
       <c r="S51" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="T51" s="18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="U51" s="18"/>
       <c r="V51" s="26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="W51" s="26"/>
       <c r="X51" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y51" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z51" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="AA51" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="Y51" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z51" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA51" s="18" t="s">
-        <v>382</v>
-      </c>
       <c r="AB51" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AC51" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AD51" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AE51" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AF51" s="26" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AG51" s="29" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AH51" s="26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AI51" s="18"/>
       <c r="AJ51" s="26"/>
       <c r="AK51" s="18"/>
       <c r="AL51" s="26"/>
       <c r="AM51" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" s="1" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>7</v>
       </c>
@@ -8234,19 +8220,19 @@
         <v>18</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H52" s="26" t="s">
         <v>190</v>
@@ -8274,11 +8260,11 @@
         <v>2016</v>
       </c>
       <c r="O52" s="21">
-        <f>IF((P52="Days"),((J52-I52+1)),IF(P52="Months",((J52-I52)/30),((J52-I52)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.2547945205479452</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q52" s="18" t="s">
         <v>53</v>
@@ -8287,80 +8273,80 @@
         <v>52</v>
       </c>
       <c r="S52" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="T52" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="U52" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="T52" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="U52" s="18" t="s">
-        <v>404</v>
-      </c>
       <c r="V52" s="26" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="W52" s="26"/>
       <c r="X52" s="18" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Y52" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z52" s="26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA52" s="18" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AB52" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AC52" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AD52" s="18"/>
       <c r="AE52" s="18"/>
       <c r="AF52" s="26"/>
       <c r="AG52" s="29" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AH52" s="26" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AI52" s="30" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="AJ52" s="26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AK52" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL52" s="26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AM52" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D53" s="27"/>
       <c r="E53" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H53" s="26" t="s">
         <v>190</v>
@@ -8388,7 +8374,7 @@
         <v>2016</v>
       </c>
       <c r="O53" s="21">
-        <f>IF((P53="Days"),((J53-I53+1)),IF(P53="Months",((J53-I53)/30),((J53-I53)/365)))</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="P53" s="18" t="s">
@@ -8401,24 +8387,24 @@
         <v>52</v>
       </c>
       <c r="S53" s="18" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="T53" s="18" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="U53" s="18" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="26"/>
       <c r="X53" s="18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Y53" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Z53" s="26" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AA53" s="18"/>
       <c r="AB53" s="18"/>
@@ -8433,20 +8419,20 @@
       <c r="AK53" s="18"/>
       <c r="AL53" s="26"/>
       <c r="AM53" s="28" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>95</v>
@@ -8480,7 +8466,7 @@
         <v>2020</v>
       </c>
       <c r="O54" s="21">
-        <f>IF((P54="Days"),((J54-I54+1)),IF(P54="Months",((J54-I54)/30),((J54-I54)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P54" s="18" t="s">
@@ -8511,10 +8497,10 @@
       <c r="AK54" s="18"/>
       <c r="AL54" s="26"/>
       <c r="AM54" s="28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
         <v>159</v>
       </c>
@@ -8526,7 +8512,7 @@
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>43</v>
@@ -8556,7 +8542,7 @@
         <v>1900</v>
       </c>
       <c r="O55" s="21">
-        <f>IF((P55="Days"),((J55-I55+1)),IF(P55="Months",((J55-I55)/30),((J55-I55)/365)))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P55" s="18"/>
@@ -8587,10 +8573,10 @@
       <c r="AK55" s="18"/>
       <c r="AL55" s="26"/>
       <c r="AM55" s="28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="56" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>6</v>
       </c>
@@ -8602,7 +8588,7 @@
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>66</v>
@@ -8636,7 +8622,7 @@
         <v>2019</v>
       </c>
       <c r="O56" s="21">
-        <f>IF((P56="Days"),((J56-I56+1)),IF(P56="Months",((J56-I56)/30),((J56-I56)/365)))</f>
+        <f t="shared" si="2"/>
         <v>6.0333333333333332</v>
       </c>
       <c r="P56" s="18" t="s">
@@ -8649,10 +8635,10 @@
         <v>52</v>
       </c>
       <c r="S56" s="18" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="T56" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="U56" s="18"/>
       <c r="V56" s="26"/>
@@ -8673,10 +8659,10 @@
       <c r="AK56" s="18"/>
       <c r="AL56" s="26"/>
       <c r="AM56" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="57" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
         <v>7</v>
       </c>
@@ -8684,11 +8670,11 @@
         <v>18</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>141</v>
@@ -8722,7 +8708,7 @@
         <v>2018</v>
       </c>
       <c r="O57" s="21">
-        <f>IF((P57="Days"),((J57-I57+1)),IF(P57="Months",((J57-I57)/30),((J57-I57)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P57" s="18" t="s">
@@ -8757,7 +8743,7 @@
       <c r="AK57" s="18"/>
       <c r="AL57" s="26"/>
       <c r="AM57" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
@@ -8774,7 +8760,7 @@
         <v>144</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F58" s="18" t="s">
         <v>141</v>
@@ -8808,7 +8794,7 @@
         <v>2017</v>
       </c>
       <c r="O58" s="21">
-        <f>IF((P58="Days"),((J58-I58+1)),IF(P58="Months",((J58-I58)/30),((J58-I58)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P58" s="18" t="s">
@@ -8843,10 +8829,10 @@
       <c r="AK58" s="18"/>
       <c r="AL58" s="26"/>
       <c r="AM58" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A59" s="19" t="s">
         <v>7</v>
       </c>
@@ -8858,7 +8844,7 @@
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F59" s="18" t="s">
         <v>66</v>
@@ -8892,7 +8878,7 @@
         <v>2017</v>
       </c>
       <c r="O59" s="21">
-        <f>IF((P59="Days"),((J59-I59+1)),IF(P59="Months",((J59-I59)/30),((J59-I59)/365)))</f>
+        <f t="shared" si="2"/>
         <v>8.1</v>
       </c>
       <c r="P59" s="18" t="s">
@@ -8905,13 +8891,13 @@
         <v>52</v>
       </c>
       <c r="S59" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="T59" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="U59" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="V59" s="26"/>
       <c r="W59" s="26"/>
@@ -8931,10 +8917,10 @@
       <c r="AK59" s="18"/>
       <c r="AL59" s="26"/>
       <c r="AM59" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>7</v>
       </c>
@@ -8948,7 +8934,7 @@
         <v>140</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F60" s="18" t="s">
         <v>141</v>
@@ -8982,7 +8968,7 @@
         <v>2016</v>
       </c>
       <c r="O60" s="21">
-        <f>IF((P60="Days"),((J60-I60+1)),IF(P60="Months",((J60-I60)/30),((J60-I60)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="P60" s="18" t="s">
@@ -9017,10 +9003,10 @@
       <c r="AK60" s="18"/>
       <c r="AL60" s="26"/>
       <c r="AM60" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
         <v>69</v>
       </c>
@@ -9032,10 +9018,10 @@
       </c>
       <c r="D61" s="27"/>
       <c r="E61" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G61" s="18" t="s">
         <v>30</v>
@@ -9066,7 +9052,7 @@
         <v>2013</v>
       </c>
       <c r="O61" s="21">
-        <f>IF((P61="Days"),((J61-I61+1)),IF(P61="Months",((J61-I61)/30),((J61-I61)/365)))</f>
+        <f t="shared" si="2"/>
         <v>2.0027397260273974</v>
       </c>
       <c r="P61" s="18" t="s">
@@ -9100,7 +9086,7 @@
       <c r="AL61" s="26"/>
       <c r="AM61" s="19"/>
     </row>
-    <row r="62" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>71</v>
       </c>
@@ -9110,7 +9096,7 @@
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F62" s="18" t="s">
         <v>66</v>
@@ -9144,7 +9130,7 @@
         <v>2011</v>
       </c>
       <c r="O62" s="21">
-        <f>IF((P62="Days"),((J62-I62+1)),IF(P62="Months",((J62-I62)/30),((J62-I62)/365)))</f>
+        <f t="shared" si="2"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P62" s="18" t="s">
@@ -9157,13 +9143,13 @@
         <v>52</v>
       </c>
       <c r="S62" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="T62" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="U62" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="V62" s="26"/>
       <c r="W62" s="26"/>
@@ -9184,7 +9170,7 @@
       <c r="AL62" s="26"/>
       <c r="AM62" s="19"/>
     </row>
-    <row r="63" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>33</v>
       </c>
@@ -9196,7 +9182,7 @@
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F63" s="18" t="s">
         <v>43</v>
@@ -9230,7 +9216,7 @@
         <v>2019</v>
       </c>
       <c r="O63" s="21">
-        <f>IF((P63="Days"),((J63-I63+1)),IF(P63="Months",((J63-I63)/30),((J63-I63)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P63" s="18" t="s">
@@ -9263,10 +9249,10 @@
       <c r="AK63" s="18"/>
       <c r="AL63" s="26"/>
       <c r="AM63" s="28" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" s="1" customFormat="1" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
         <v>128</v>
       </c>
@@ -9278,13 +9264,13 @@
         <v>111</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F64" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H64" s="26" t="s">
         <v>107</v>
@@ -9294,7 +9280,7 @@
       </c>
       <c r="J64" s="24">
         <f ca="1">NOW()</f>
-        <v>44479.547133333333</v>
+        <v>44574.460184837961</v>
       </c>
       <c r="K64" s="25">
         <f>MONTH(cv.table[[#This Row],[Start]])</f>
@@ -9306,15 +9292,15 @@
       </c>
       <c r="M64" s="25">
         <f ca="1">MONTH(cv.table[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N64" s="25">
         <f ca="1">YEAR(cv.table[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O64" s="21">
-        <f ca="1">IF((P64="Days"),((J64-I64+1)),IF(P64="Months",((J64-I64)/30),((J64-I64)/365)))</f>
-        <v>29.78490444444445</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32.948672827932022</v>
       </c>
       <c r="P64" s="18" t="s">
         <v>27</v>
@@ -9346,10 +9332,10 @@
       <c r="AK64" s="18"/>
       <c r="AL64" s="26"/>
       <c r="AM64" s="28" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="65" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>137</v>
       </c>
@@ -9359,13 +9345,13 @@
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F65" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H65" s="26" t="s">
         <v>135</v>
@@ -9393,7 +9379,7 @@
         <v>2020</v>
       </c>
       <c r="O65" s="21">
-        <f>IF((P65="Days"),((J65-I65+1)),IF(P65="Months",((J65-I65)/30),((J65-I65)/365)))</f>
+        <f t="shared" si="2"/>
         <v>1.1698630136986301</v>
       </c>
       <c r="P65" s="18" t="s">
@@ -9404,13 +9390,13 @@
         <v>48</v>
       </c>
       <c r="S65" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="T65" s="18"/>
       <c r="U65" s="18"/>
       <c r="V65" s="26"/>
       <c r="W65" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="X65" s="18"/>
       <c r="Y65" s="18"/>
@@ -9428,10 +9414,10 @@
       <c r="AK65" s="18"/>
       <c r="AL65" s="26"/>
       <c r="AM65" s="28" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="66" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" s="1" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
         <v>128</v>
       </c>
@@ -9441,13 +9427,13 @@
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H66" s="26" t="s">
         <v>107</v>
@@ -9475,7 +9461,7 @@
         <v>2020</v>
       </c>
       <c r="O66" s="21">
-        <f>IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
+        <f t="shared" ref="O66:O97" si="3">IF((P66="Days"),((J66-I66+1)),IF(P66="Months",((J66-I66)/30),((J66-I66)/365)))</f>
         <v>4.0027397260273974</v>
       </c>
       <c r="P66" s="18" t="s">
@@ -9486,7 +9472,7 @@
         <v>52</v>
       </c>
       <c r="S66" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T66" s="18"/>
       <c r="U66" s="18"/>
@@ -9508,7 +9494,7 @@
       <c r="AK66" s="18"/>
       <c r="AL66" s="26"/>
       <c r="AM66" s="28" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9523,13 +9509,13 @@
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F67" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H67" s="26" t="s">
         <v>107</v>
@@ -9557,7 +9543,7 @@
         <v>2019</v>
       </c>
       <c r="O67" s="21">
-        <f>IF((P67="Days"),((J67-I67+1)),IF(P67="Months",((J67-I67)/30),((J67-I67)/365)))</f>
+        <f t="shared" si="3"/>
         <v>4.0027397260273974</v>
       </c>
       <c r="P67" s="18" t="s">
@@ -9592,7 +9578,7 @@
       <c r="AK67" s="18"/>
       <c r="AL67" s="26"/>
       <c r="AM67" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9605,13 +9591,13 @@
       </c>
       <c r="D68" s="27"/>
       <c r="E68" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F68" s="18" t="s">
         <v>78</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H68" s="26" t="s">
         <v>135</v>
@@ -9639,7 +9625,7 @@
         <v>2011</v>
       </c>
       <c r="O68" s="21">
-        <f>IF((P68="Days"),((J68-I68+1)),IF(P68="Months",((J68-I68)/30),((J68-I68)/365)))</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P68" s="18" t="s">
@@ -9674,7 +9660,7 @@
       <c r="AK68" s="18"/>
       <c r="AL68" s="26"/>
       <c r="AM68" s="28" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
@@ -9689,13 +9675,13 @@
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F69" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H69" s="26" t="s">
         <v>75</v>
@@ -9723,7 +9709,7 @@
         <v>2019</v>
       </c>
       <c r="O69" s="21">
-        <f>IF((P69="Days"),((J69-I69+1)),IF(P69="Months",((J69-I69)/30),((J69-I69)/365)))</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="P69" s="18" t="s">
@@ -9756,10 +9742,10 @@
       <c r="AK69" s="18"/>
       <c r="AL69" s="26"/>
       <c r="AM69" s="28" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>80</v>
       </c>
@@ -9767,17 +9753,17 @@
         <v>81</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D70" s="27"/>
       <c r="E70" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F70" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H70" s="26" t="s">
         <v>75</v>
@@ -9805,7 +9791,7 @@
         <v>2019</v>
       </c>
       <c r="O70" s="21">
-        <f>IF((P70="Days"),((J70-I70+1)),IF(P70="Months",((J70-I70)/30),((J70-I70)/365)))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P70" s="18" t="s">
@@ -9818,7 +9804,7 @@
         <v>48</v>
       </c>
       <c r="S70" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
@@ -9840,10 +9826,10 @@
       <c r="AK70" s="18"/>
       <c r="AL70" s="26"/>
       <c r="AM70" s="28" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="71" spans="1:39" s="1" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" s="1" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>6</v>
       </c>
@@ -9851,17 +9837,17 @@
         <v>14</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F71" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H71" s="26" t="s">
         <v>190</v>
@@ -9889,7 +9875,7 @@
         <v>2019</v>
       </c>
       <c r="O71" s="21">
-        <f>IF((P71="Days"),((J71-I71+1)),IF(P71="Months",((J71-I71)/30),((J71-I71)/365)))</f>
+        <f t="shared" si="3"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="P71" s="18" t="s">
@@ -9902,7 +9888,7 @@
         <v>52</v>
       </c>
       <c r="S71" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="T71" s="18"/>
       <c r="U71" s="18"/>
@@ -9924,7 +9910,7 @@
       <c r="AK71" s="18"/>
       <c r="AL71" s="26"/>
       <c r="AM71" s="28" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
@@ -9935,17 +9921,17 @@
         <v>18</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F72" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H72" s="26" t="s">
         <v>190</v>
@@ -9969,7 +9955,7 @@
         <v>1900</v>
       </c>
       <c r="O72" s="21">
-        <f>IF((P72="Days"),((J72-I72+1)),IF(P72="Months",((J72-I72)/30),((J72-I72)/365)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P72" s="18"/>
@@ -9996,31 +9982,31 @@
       <c r="AK72" s="18"/>
       <c r="AL72" s="26"/>
       <c r="AM72" s="28" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:39" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F73" s="18" t="s">
         <v>141</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H73" s="26" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I73" s="24"/>
       <c r="J73" s="24"/>
@@ -10041,7 +10027,7 @@
         <v>1900</v>
       </c>
       <c r="O73" s="21">
-        <f>IF((P73="Days"),((J73-I73+1)),IF(P73="Months",((J73-I73)/30),((J73-I73)/365)))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P73" s="18"/>
@@ -10068,36 +10054,36 @@
       <c r="AK73" s="18"/>
       <c r="AL73" s="26"/>
       <c r="AM73" s="28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K63:N63 J64:N65 J1:N62 J69:N71">
-    <cfRule type="timePeriod" dxfId="46" priority="9" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="63" priority="9" timePeriod="today">
       <formula>FLOOR(J1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63">
-    <cfRule type="timePeriod" dxfId="45" priority="5" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="62" priority="5" timePeriod="today">
       <formula>FLOOR(J63,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:N67">
-    <cfRule type="timePeriod" dxfId="44" priority="4" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="61" priority="4" timePeriod="today">
       <formula>FLOOR(J66,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:N68">
-    <cfRule type="timePeriod" dxfId="43" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="60" priority="3" timePeriod="today">
       <formula>FLOOR(J68,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:AM73">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>$E2="Disclude"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>$E2="Include"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10217,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>5</v>
@@ -10235,10 +10221,10 @@
         <v>30</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>13</v>
@@ -10249,10 +10235,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>47</v>
@@ -10290,7 +10276,7 @@
         <v>95</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>189</v>
@@ -10328,7 +10314,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>189</v>
@@ -10366,7 +10352,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>189</v>
@@ -10379,7 +10365,7 @@
         <v>189</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>189</v>
@@ -10388,7 +10374,7 @@
         <v>189</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>183</v>
@@ -10476,7 +10462,7 @@
         <v>141</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>189</v>
@@ -10615,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10630,128 +10616,128 @@
         <v>147</v>
       </c>
       <c r="G1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" t="s">
         <v>438</v>
-      </c>
-      <c r="C3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" t="s">
         <v>444</v>
-      </c>
-      <c r="B9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B15" t="s">
         <v>455</v>
-      </c>
-      <c r="B15" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
